--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="Sparingi I liga" sheetId="3" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +32,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0">
+    <comment ref="P4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0">
+    <comment ref="Q4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="229">
   <si>
     <t>bramki</t>
   </si>
@@ -351,9 +356,6 @@
     <t>1 Gach</t>
   </si>
   <si>
-    <t>2 Gutkovskis</t>
-  </si>
-  <si>
     <t>1 Bator</t>
   </si>
   <si>
@@ -883,13 +885,22 @@
   </si>
   <si>
     <t>2020/2021</t>
+  </si>
+  <si>
+    <t>3 Gutkovskis</t>
+  </si>
+  <si>
+    <t>1 Sapała</t>
+  </si>
+  <si>
+    <t>1 Piątkowski</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2368,42 +2379,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2453,7 +2464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" s="6">
         <v>1</v>
@@ -2506,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2559,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -2612,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -2647,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M5" s="6">
         <v>4</v>
@@ -2665,7 +2676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -2718,7 +2729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -2764,7 +2775,7 @@
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M7" s="20">
         <f t="shared" si="0"/>
@@ -2787,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2806,7 +2817,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -2825,112 +2836,112 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>47</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="M10" s="29" t="s">
         <v>40</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10" s="29" t="s">
         <v>38</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="32" t="s">
         <v>48</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M11" s="32" t="s">
         <v>41</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P11" s="32" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>32</v>
@@ -2939,79 +2950,79 @@
         <v>44</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="32"/>
       <c r="J12" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M12" s="32" t="s">
         <v>30</v>
       </c>
       <c r="N12" s="32"/>
       <c r="O12" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="34"/>
       <c r="C13" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
-      <c r="L13" s="34" t="s">
-        <v>37</v>
+      <c r="L13" s="32" t="s">
+        <v>227</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
       <c r="P13" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="33"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>46</v>
@@ -3023,8 +3034,8 @@
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
-      <c r="L14" s="32" t="s">
-        <v>31</v>
+      <c r="L14" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
@@ -3032,12 +3043,12 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -3046,8 +3057,8 @@
       <c r="I15" s="32"/>
       <c r="J15" s="34"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="32" t="s">
-        <v>50</v>
+      <c r="L15" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
@@ -3055,7 +3066,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -3068,7 +3079,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="32"/>
@@ -3076,7 +3087,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3089,7 +3100,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
@@ -3097,7 +3108,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -3109,14 +3120,16 @@
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+      <c r="L18" s="32" t="s">
+        <v>36</v>
+      </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -3128,14 +3141,16 @@
       <c r="I19" s="34"/>
       <c r="J19" s="32"/>
       <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
+      <c r="L19" s="32" t="s">
+        <v>49</v>
+      </c>
       <c r="M19" s="32"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -3154,7 +3169,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3173,7 +3188,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3191,7 +3206,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3210,154 +3225,154 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="29" t="s">
-        <v>99</v>
-      </c>
       <c r="H24" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L25" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P25" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J26" s="32"/>
       <c r="K26" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L26" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="32"/>
       <c r="O26" s="32"/>
       <c r="P26" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32" t="s">
@@ -3365,24 +3380,24 @@
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
       <c r="O27" s="32"/>
       <c r="P27" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -3392,22 +3407,22 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M28" s="32"/>
       <c r="N28" s="36"/>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
       <c r="Q28" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -3417,7 +3432,7 @@
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
@@ -3428,7 +3443,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -3447,7 +3462,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -3466,7 +3481,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -3485,7 +3500,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1">
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -3505,8 +3520,8 @@
       <c r="Q33" s="39"/>
     </row>
   </sheetData>
-  <sortState ref="H10:H13">
-    <sortCondition descending="1" ref="H10"/>
+  <sortState ref="L10:L19">
+    <sortCondition descending="1" ref="L10"/>
   </sortState>
   <conditionalFormatting sqref="B7:Q7">
     <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThan">
@@ -3530,20 +3545,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -3641,9 +3656,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -3747,7 +3762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -3851,7 +3866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -3955,7 +3970,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -4059,12 +4074,12 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -4168,7 +4183,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -4272,7 +4287,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -4376,7 +4391,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -4480,12 +4495,12 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -4531,7 +4546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -4577,7 +4592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -4623,7 +4638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -4768,92 +4783,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>149</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" t="s">
         <v>150</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" t="s">
         <v>154</v>
       </c>
-      <c r="N1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>155</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>156</v>
       </c>
-      <c r="S1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -4912,7 +4926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -4971,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -5012,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" s="14">
         <v>2</v>
@@ -5030,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -5089,7 +5103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -5130,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O6" s="17">
         <v>9</v>
@@ -5148,7 +5162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -5202,7 +5216,7 @@
       </c>
       <c r="N7" s="8">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="O7" s="20">
         <f t="shared" si="0"/>
@@ -5225,7 +5239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -5246,7 +5260,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -5267,182 +5281,182 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N10" s="29"/>
       <c r="O10" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R10" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="P10" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q10" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>182</v>
-      </c>
       <c r="S10" s="30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N11" s="32"/>
       <c r="O11" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R11" s="32"/>
       <c r="S11" s="33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R12" s="32"/>
       <c r="S12" s="33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
@@ -5452,23 +5466,23 @@
       <c r="O13" s="32"/>
       <c r="P13" s="32"/>
       <c r="Q13" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R13" s="32"/>
       <c r="S13" s="33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
-      <c r="B14" s="34" t="s">
-        <v>173</v>
+      <c r="B14" s="32" t="s">
+        <v>201</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
@@ -5483,20 +5497,20 @@
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R14" s="32"/>
       <c r="S14" s="33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="32"/>
@@ -5512,18 +5526,18 @@
       <c r="O15" s="32"/>
       <c r="P15" s="32"/>
       <c r="Q15" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
-      <c r="B16" s="32" t="s">
-        <v>203</v>
+      <c r="B16" s="34" t="s">
+        <v>172</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
@@ -5539,12 +5553,12 @@
       <c r="O16" s="32"/>
       <c r="P16" s="32"/>
       <c r="Q16" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -5562,12 +5576,12 @@
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -5585,12 +5599,12 @@
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -5611,7 +5625,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="37"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -5632,7 +5646,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5653,7 +5667,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5673,7 +5687,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5695,8 +5709,8 @@
       <c r="S23" s="39"/>
     </row>
   </sheetData>
-  <sortState ref="S10:S14">
-    <sortCondition descending="1" ref="S10"/>
+  <sortState ref="B11:B16">
+    <sortCondition descending="1" ref="B10"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
     <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
@@ -5719,21 +5733,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5843,9 +5857,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -5961,7 +5975,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6077,7 +6091,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -6193,7 +6207,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -6309,12 +6323,12 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -6430,7 +6444,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6546,7 +6560,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -6662,7 +6676,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -6778,12 +6792,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -6833,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -6883,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -6933,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="233">
   <si>
     <t>bramki</t>
   </si>
@@ -374,9 +374,6 @@
     <t>1 Siplak</t>
   </si>
   <si>
-    <t>1 Ishak</t>
-  </si>
-  <si>
     <t>1 Schwarz</t>
   </si>
   <si>
@@ -389,9 +386,6 @@
     <t>2 Satka</t>
   </si>
   <si>
-    <t>1 Szymczak</t>
-  </si>
-  <si>
     <t>3 Rosołek</t>
   </si>
   <si>
@@ -894,6 +888,24 @@
   </si>
   <si>
     <t>1 Piątkowski</t>
+  </si>
+  <si>
+    <t>1 Lipski</t>
+  </si>
+  <si>
+    <t>1 Świerczok</t>
+  </si>
+  <si>
+    <t>3 Ishak</t>
+  </si>
+  <si>
+    <t>2 Szymczak</t>
+  </si>
+  <si>
+    <t>1 Szczęch</t>
+  </si>
+  <si>
+    <t>1 Szczepan</t>
   </si>
 </sst>
 </file>
@@ -2167,7 +2179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2202,7 +2214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2389,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2478,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -2487,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="6">
         <v>1</v>
@@ -2575,7 +2587,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="14">
         <v>0</v>
@@ -2637,7 +2649,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" s="5">
         <v>4</v>
@@ -2646,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I5" s="6">
         <v>2</v>
@@ -2681,7 +2693,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="17">
         <v>4</v>
@@ -2735,7 +2747,7 @@
       </c>
       <c r="B7" s="8">
         <f>B5-B6</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C7" s="20">
         <f>C5-C6</f>
@@ -2747,7 +2759,7 @@
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
@@ -2759,7 +2771,7 @@
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="0"/>
@@ -2844,25 +2856,25 @@
         <v>54</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>61</v>
-      </c>
       <c r="H10" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>47</v>
@@ -2871,49 +2883,49 @@
         <v>52</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M10" s="29" t="s">
         <v>40</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P10" s="29" t="s">
         <v>38</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>62</v>
-      </c>
       <c r="H11" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J11" s="32" t="s">
         <v>48</v>
@@ -2926,22 +2938,22 @@
         <v>41</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P11" s="32" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>32</v>
@@ -2950,71 +2962,71 @@
         <v>44</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="32"/>
       <c r="J12" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M12" s="32" t="s">
         <v>30</v>
       </c>
       <c r="N12" s="32"/>
       <c r="O12" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P12" s="32" t="s">
         <v>53</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="34"/>
       <c r="C13" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
       <c r="L13" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
       <c r="P13" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="33"/>
     </row>
@@ -3022,7 +3034,7 @@
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>46</v>
@@ -3030,12 +3042,14 @@
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="34"/>
-      <c r="H14" s="32"/>
+      <c r="H14" s="32" t="s">
+        <v>227</v>
+      </c>
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
       <c r="L14" s="34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
@@ -3048,12 +3062,14 @@
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="32"/>
+      <c r="H15" s="32" t="s">
+        <v>228</v>
+      </c>
       <c r="I15" s="32"/>
       <c r="J15" s="34"/>
       <c r="K15" s="32"/>
@@ -3230,101 +3246,101 @@
         <v>33</v>
       </c>
       <c r="B24" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="D24" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>89</v>
-      </c>
       <c r="E24" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J24" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="L24" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="L24" s="29" t="s">
-        <v>110</v>
-      </c>
       <c r="M24" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N24" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="O24" s="29" t="s">
+      <c r="P24" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="P24" s="29" t="s">
-        <v>119</v>
-      </c>
       <c r="Q24" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="D25" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>90</v>
-      </c>
       <c r="E25" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J25" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="K25" s="32" t="s">
+      <c r="L25" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="L25" s="32" t="s">
-        <v>111</v>
-      </c>
       <c r="M25" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N25" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="O25" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="O25" s="32" t="s">
+      <c r="P25" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="P25" s="32" t="s">
-        <v>120</v>
-      </c>
       <c r="Q25" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,36 +3348,36 @@
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J26" s="32"/>
       <c r="K26" s="32" t="s">
         <v>51</v>
       </c>
       <c r="L26" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="32"/>
       <c r="O26" s="32"/>
       <c r="P26" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,10 +3385,10 @@
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32" t="s">
@@ -3380,21 +3396,21 @@
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
       <c r="O27" s="32"/>
       <c r="P27" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,19 +3423,19 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M28" s="32"/>
       <c r="N28" s="36"/>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
       <c r="Q28" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3448,7 @@
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
@@ -3520,8 +3536,8 @@
       <c r="Q33" s="39"/>
     </row>
   </sheetData>
-  <sortState ref="L10:L19">
-    <sortCondition descending="1" ref="L10"/>
+  <sortState ref="E10:E12">
+    <sortCondition descending="1" ref="E10"/>
   </sortState>
   <conditionalFormatting sqref="B7:Q7">
     <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThan">
@@ -3548,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3658,7 +3674,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -4079,7 +4095,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -4500,7 +4516,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -4508,7 +4524,9 @@
       <c r="C12" s="1">
         <v>22</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>23</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -4539,11 +4557,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>22</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -4554,7 +4572,9 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -4585,7 +4605,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
@@ -4600,7 +4620,9 @@
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -4631,11 +4653,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -4646,7 +4668,9 @@
       <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -4677,11 +4701,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -4787,7 +4811,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4813,58 +4837,58 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
         <v>141</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>142</v>
       </c>
-      <c r="E1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
         <v>146</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>147</v>
       </c>
-      <c r="H1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" t="s">
         <v>148</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>149</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" t="s">
         <v>153</v>
       </c>
-      <c r="N1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>154</v>
-      </c>
-      <c r="R1" t="s">
-        <v>155</v>
-      </c>
-      <c r="S1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4914,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="7">
         <v>3</v>
@@ -5091,7 +5115,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="7">
         <v>16</v>
@@ -5150,7 +5174,7 @@
         <v>9</v>
       </c>
       <c r="P6" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="18">
         <v>2</v>
@@ -5224,7 +5248,7 @@
       </c>
       <c r="P7" s="8">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="Q7" s="21">
         <f t="shared" si="0"/>
@@ -5286,177 +5310,177 @@
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E10" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>210</v>
-      </c>
       <c r="H10" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N10" s="29"/>
       <c r="O10" s="29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P10" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S10" s="30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>166</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>168</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N11" s="32"/>
       <c r="O11" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R11" s="32"/>
       <c r="S11" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R12" s="32"/>
       <c r="S12" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
@@ -5464,25 +5488,27 @@
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
+      <c r="P13" s="32" t="s">
+        <v>231</v>
+      </c>
       <c r="Q13" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R13" s="32"/>
       <c r="S13" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
@@ -5495,22 +5521,24 @@
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
+      <c r="P14" s="32" t="s">
+        <v>232</v>
+      </c>
       <c r="Q14" s="32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R14" s="32"/>
       <c r="S14" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="32"/>
@@ -5526,7 +5554,7 @@
       <c r="O15" s="32"/>
       <c r="P15" s="32"/>
       <c r="Q15" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
@@ -5534,10 +5562,10 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
@@ -5553,7 +5581,7 @@
       <c r="O16" s="32"/>
       <c r="P16" s="32"/>
       <c r="Q16" s="32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
@@ -5576,7 +5604,7 @@
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
@@ -5599,7 +5627,7 @@
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
@@ -5737,7 +5765,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5859,7 +5887,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -6328,7 +6356,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -6797,13 +6825,13 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -6840,11 +6868,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -6853,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -6890,11 +6918,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
@@ -6903,7 +6931,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -6940,11 +6968,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
@@ -6953,7 +6981,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -6990,11 +7018,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -3564,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4527,7 +4527,9 @@
       <c r="D12" s="1">
         <v>23</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>23</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -4557,11 +4559,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>22.5</v>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -4575,7 +4577,9 @@
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4605,11 +4609,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
@@ -4623,7 +4627,9 @@
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4653,11 +4659,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -4671,7 +4677,9 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4701,11 +4709,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>2.5</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -5764,8 +5772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6833,8 +6841,12 @@
       <c r="C12" s="1">
         <v>26</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1">
+        <v>16</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -6868,11 +6880,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>19.666666666666668</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -6883,8 +6895,12 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -6918,11 +6934,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
@@ -6933,8 +6949,12 @@
       <c r="C14" s="1">
         <v>7</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -6968,11 +6988,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
@@ -6983,8 +7003,12 @@
       <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -7018,11 +7042,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -3564,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4530,7 +4530,9 @@
       <c r="E12" s="1">
         <v>23</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>23</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -4559,11 +4561,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>22.666666666666668</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -4580,7 +4582,9 @@
       <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -4609,11 +4613,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
@@ -4630,7 +4634,9 @@
       <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -4659,11 +4665,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>3</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -4680,7 +4686,9 @@
       <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -4709,11 +4717,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>2.3333333333333335</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -4818,7 +4826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -5772,8 +5780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6842,12 +6850,14 @@
         <v>26</v>
       </c>
       <c r="D12" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1">
         <v>16</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>19</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -6880,11 +6890,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>19.666666666666668</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -6901,7 +6911,9 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -6934,7 +6946,7 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
@@ -6950,12 +6962,14 @@
         <v>7</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1">
         <v>9</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -6988,11 +7002,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
@@ -7009,7 +7023,9 @@
       <c r="E15" s="1">
         <v>6</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -7042,11 +7058,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.75</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Sparingi I liga" sheetId="3" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +27,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0">
+    <comment ref="P4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0">
+    <comment ref="Q4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -911,8 +906,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2179,7 +2174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2214,7 +2209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2391,42 +2386,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2476,7 +2471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -2529,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2582,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -2635,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -2688,7 +2683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -2741,7 +2736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -2810,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2829,7 +2824,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -2848,7 +2843,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -2901,7 +2896,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>62</v>
@@ -2950,7 +2945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>63</v>
@@ -2995,7 +2990,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="35"/>
       <c r="B13" s="34"/>
       <c r="C13" s="32" t="s">
@@ -3030,7 +3025,7 @@
       </c>
       <c r="Q13" s="33"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32" t="s">
@@ -3057,7 +3052,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -3082,7 +3077,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -3103,7 +3098,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3124,7 +3119,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -3145,7 +3140,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -3166,7 +3161,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -3185,7 +3180,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3204,7 +3199,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3222,7 +3217,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3241,7 +3236,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="28" t="s">
         <v>33</v>
       </c>
@@ -3294,7 +3289,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>84</v>
@@ -3343,7 +3338,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -3380,7 +3375,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -3413,7 +3408,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -3438,7 +3433,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -3459,7 +3454,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -3478,7 +3473,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -3497,7 +3492,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -3516,7 +3511,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -3561,20 +3556,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -3672,7 +3667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34">
       <c r="A2" s="45" t="s">
         <v>222</v>
       </c>
@@ -3778,7 +3773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -3882,7 +3877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -3986,7 +3981,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -4090,10 +4085,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34">
       <c r="A7" s="45" t="s">
         <v>221</v>
       </c>
@@ -4199,7 +4194,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -4303,7 +4298,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -4407,7 +4402,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -4511,10 +4506,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34">
       <c r="A12" s="45" t="s">
         <v>223</v>
       </c>
@@ -4568,7 +4563,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -4620,7 +4615,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -4672,7 +4667,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -4823,35 +4818,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>138</v>
       </c>
@@ -4907,7 +4902,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -4966,7 +4961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -5025,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -5084,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -5143,7 +5138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -5202,7 +5197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -5279,7 +5274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -5300,7 +5295,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -5321,7 +5316,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -5378,7 +5373,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" t="s">
         <v>198</v>
@@ -5429,7 +5424,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>201</v>
@@ -5476,7 +5471,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>200</v>
@@ -5515,7 +5510,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>199</v>
@@ -5548,7 +5543,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>169</v>
@@ -5575,7 +5570,7 @@
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>170</v>
@@ -5602,7 +5597,7 @@
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -5625,7 +5620,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -5648,7 +5643,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -5669,7 +5664,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="37"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -5690,7 +5685,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5711,7 +5706,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5731,7 +5726,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5777,21 +5772,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5901,7 +5896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" s="45" t="s">
         <v>222</v>
       </c>
@@ -6019,7 +6014,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6135,7 +6130,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -6251,7 +6246,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -6367,10 +6362,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" s="45" t="s">
         <v>221</v>
       </c>
@@ -6488,7 +6483,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6604,7 +6599,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -6720,7 +6715,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -6836,10 +6831,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" s="45" t="s">
         <v>223</v>
       </c>
@@ -6858,7 +6853,9 @@
       <c r="F12" s="1">
         <v>19</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>19</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -6890,14 +6887,14 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -6914,7 +6911,9 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -6946,14 +6945,14 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -6970,7 +6969,9 @@
       <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -7002,14 +7003,14 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -7026,7 +7027,9 @@
       <c r="F15" s="1">
         <v>4</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -7058,11 +7061,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
-    <sheet name="Sezony Ekstra" sheetId="1" r:id="rId2"/>
-    <sheet name="Sparingi I liga" sheetId="3" r:id="rId3"/>
+    <sheet name="Sparingi I liga" sheetId="3" r:id="rId2"/>
+    <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -2386,7 +2386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3556,6 +3556,960 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" thickBot="1">
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>3</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>2</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <v>1</v>
+      </c>
+      <c r="S3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13">
+        <v>3</v>
+      </c>
+      <c r="K4" s="14">
+        <v>3</v>
+      </c>
+      <c r="L4" s="13">
+        <v>2</v>
+      </c>
+      <c r="M4" s="14">
+        <v>2</v>
+      </c>
+      <c r="N4" s="13">
+        <v>2</v>
+      </c>
+      <c r="O4" s="14">
+        <v>2</v>
+      </c>
+      <c r="P4" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15">
+        <v>1</v>
+      </c>
+      <c r="S4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3</v>
+      </c>
+      <c r="P5" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>16</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1">
+      <c r="A6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>9</v>
+      </c>
+      <c r="D6" s="16">
+        <v>6</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16">
+        <v>5</v>
+      </c>
+      <c r="G6" s="17">
+        <v>3</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2</v>
+      </c>
+      <c r="I6" s="17">
+        <v>4</v>
+      </c>
+      <c r="J6" s="16">
+        <v>7</v>
+      </c>
+      <c r="K6" s="17">
+        <v>7</v>
+      </c>
+      <c r="L6" s="16">
+        <v>5</v>
+      </c>
+      <c r="M6" s="17">
+        <v>3</v>
+      </c>
+      <c r="N6" s="16">
+        <v>8</v>
+      </c>
+      <c r="O6" s="17">
+        <v>9</v>
+      </c>
+      <c r="P6" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>2</v>
+      </c>
+      <c r="R6" s="18">
+        <v>2</v>
+      </c>
+      <c r="S6" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1">
+      <c r="A7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8">
+        <f>B5-B6</f>
+        <v>9</v>
+      </c>
+      <c r="C7" s="20">
+        <f>C5-C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:S7" si="0">D5-D6</f>
+        <v>-1</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="Q7" s="21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R7" s="21">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S7" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="24"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="31"/>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="35"/>
+      <c r="B13" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="R13" s="32"/>
+      <c r="S13" s="33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="R16" s="32"/>
+      <c r="S16" s="33"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="R17" s="32"/>
+      <c r="S17" s="33"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="R18" s="32"/>
+      <c r="S18" s="33"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="35"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="37"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="35"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="37"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="37"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="39"/>
+    </row>
+  </sheetData>
+  <sortState ref="B11:B16">
+    <sortCondition descending="1" ref="B10"/>
+  </sortState>
+  <conditionalFormatting sqref="B7:S7">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="&quot;&lt;0&quot;"/>
+        <cfvo type="num" val="&quot;&gt;0&quot;"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
@@ -4817,966 +5771,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S23"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
-      <c r="B1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P1" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>2</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>3</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
-      <c r="A3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10">
-        <v>2</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>0</v>
-      </c>
-      <c r="R3" s="11">
-        <v>1</v>
-      </c>
-      <c r="S3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
-      <c r="A4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14">
-        <v>2</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1</v>
-      </c>
-      <c r="J4" s="13">
-        <v>3</v>
-      </c>
-      <c r="K4" s="14">
-        <v>3</v>
-      </c>
-      <c r="L4" s="13">
-        <v>2</v>
-      </c>
-      <c r="M4" s="14">
-        <v>2</v>
-      </c>
-      <c r="N4" s="13">
-        <v>2</v>
-      </c>
-      <c r="O4" s="14">
-        <v>2</v>
-      </c>
-      <c r="P4" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>0</v>
-      </c>
-      <c r="R4" s="15">
-        <v>1</v>
-      </c>
-      <c r="S4" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="6">
-        <v>8</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>7</v>
-      </c>
-      <c r="J5" s="5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="6">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>3</v>
-      </c>
-      <c r="M5" s="6">
-        <v>2</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>3</v>
-      </c>
-      <c r="P5" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>16</v>
-      </c>
-      <c r="R5" s="7">
-        <v>1</v>
-      </c>
-      <c r="S5" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="16">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17">
-        <v>9</v>
-      </c>
-      <c r="D6" s="16">
-        <v>6</v>
-      </c>
-      <c r="E6" s="17">
-        <v>3</v>
-      </c>
-      <c r="F6" s="16">
-        <v>5</v>
-      </c>
-      <c r="G6" s="17">
-        <v>3</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2</v>
-      </c>
-      <c r="I6" s="17">
-        <v>4</v>
-      </c>
-      <c r="J6" s="16">
-        <v>7</v>
-      </c>
-      <c r="K6" s="17">
-        <v>7</v>
-      </c>
-      <c r="L6" s="16">
-        <v>5</v>
-      </c>
-      <c r="M6" s="17">
-        <v>3</v>
-      </c>
-      <c r="N6" s="16">
-        <v>8</v>
-      </c>
-      <c r="O6" s="17">
-        <v>9</v>
-      </c>
-      <c r="P6" s="16">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>2</v>
-      </c>
-      <c r="R6" s="18">
-        <v>2</v>
-      </c>
-      <c r="S6" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
-      <c r="A7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="8">
-        <f>B5-B6</f>
-        <v>9</v>
-      </c>
-      <c r="C7" s="20">
-        <f>C5-C6</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <f t="shared" ref="D7:S7" si="0">D5-D6</f>
-        <v>-1</v>
-      </c>
-      <c r="E7" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="I7" s="20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="K7" s="20">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="M7" s="20">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="N7" s="8">
-        <f t="shared" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="O7" s="20">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="P7" s="8">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="Q7" s="21">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="R7" s="21">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="S7" s="21">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="27"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="P10" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q10" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="S10" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="31"/>
-      <c r="B11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="P12" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="R12" s="32"/>
-      <c r="S12" s="33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="35"/>
-      <c r="B13" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="R13" s="32"/>
-      <c r="S13" s="33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="R15" s="32"/>
-      <c r="S15" s="33"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="R16" s="32"/>
-      <c r="S16" s="33"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="R17" s="32"/>
-      <c r="S17" s="33"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="R18" s="32"/>
-      <c r="S18" s="33"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="35"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="37"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="35"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="37"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="37"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="37"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="39"/>
-    </row>
-  </sheetData>
-  <sortState ref="B11:B16">
-    <sortCondition descending="1" ref="B10"/>
-  </sortState>
-  <conditionalFormatting sqref="B7:S7">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="&quot;&lt;0&quot;"/>
-        <cfvo type="num" val="&quot;&gt;0&quot;"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6856,7 +6856,9 @@
       <c r="G12" s="1">
         <v>19</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>24</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -6887,11 +6889,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.6</v>
+        <v>21.166666666666668</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -6914,7 +6916,9 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -6945,11 +6949,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -6972,7 +6976,9 @@
       <c r="G14" s="1">
         <v>5</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -7003,11 +7009,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -7030,7 +7036,9 @@
       <c r="G15" s="1">
         <v>6</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -7061,11 +7069,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1710,30 +1710,6 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2118,6 +2094,30 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2386,7 +2386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4490,10 +4490,10 @@
     <sortCondition descending="1" ref="B10"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -4514,7 +4514,7 @@
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5482,8 +5482,12 @@
       <c r="F12" s="1">
         <v>23</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1">
+        <v>15</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -5510,11 +5514,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>22.75</v>
+        <v>20.666666666666668</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -5534,8 +5538,12 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -5562,11 +5570,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>2.5</v>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -5586,8 +5594,12 @@
       <c r="F14" s="1">
         <v>4</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -5614,11 +5626,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>3.25</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -5638,8 +5650,12 @@
       <c r="F15" s="1">
         <v>3</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -5666,11 +5682,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
   </sheetData>
@@ -5680,89 +5696,89 @@
     <mergeCell ref="A12:A15"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:AF7">
-    <cfRule type="top10" dxfId="59" priority="25" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="58" priority="28" operator="lessThan">
+    <cfRule type="top10" dxfId="57" priority="25" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="56" priority="28" operator="lessThan">
       <formula>$AH$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="29" operator="greaterThan">
       <formula>$AH$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AF2">
-    <cfRule type="top10" dxfId="56" priority="24" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="55" priority="26" operator="lessThan">
+    <cfRule type="top10" dxfId="54" priority="24" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="53" priority="26" operator="lessThan">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="27" operator="greaterThan">
       <formula>$AH$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:AF9">
-    <cfRule type="top10" dxfId="53" priority="11" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="52" priority="22" operator="lessThan">
+    <cfRule type="top10" dxfId="51" priority="11" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="50" priority="22" operator="lessThan">
       <formula>$AH$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="23" operator="greaterThan">
       <formula>$AH$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AF4">
-    <cfRule type="top10" dxfId="50" priority="14" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="49" priority="20" operator="lessThan">
+    <cfRule type="top10" dxfId="48" priority="14" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="47" priority="20" operator="lessThan">
       <formula>$AH$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="21" operator="greaterThan">
       <formula>$AH$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:AF5">
-    <cfRule type="top10" dxfId="47" priority="13" percent="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="46" priority="18" operator="greaterThan">
+    <cfRule type="top10" dxfId="45" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="44" priority="18" operator="greaterThan">
       <formula>$AH$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="lessThan">
       <formula>$AH$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:AF10">
-    <cfRule type="top10" dxfId="44" priority="12" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="43" priority="15" operator="greaterThan">
+    <cfRule type="top10" dxfId="42" priority="12" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="41" priority="15" operator="greaterThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="16" operator="lessThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AF12">
-    <cfRule type="top10" dxfId="40" priority="8" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="lessThan">
+    <cfRule type="top10" dxfId="38" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="lessThan">
       <formula>$AH$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="greaterThan">
       <formula>$AH$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AF14">
-    <cfRule type="top10" dxfId="37" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="lessThan">
+    <cfRule type="top10" dxfId="35" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
       <formula>$AH$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="greaterThan">
       <formula>$AH$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AF15">
-    <cfRule type="top10" dxfId="34" priority="2" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
+    <cfRule type="top10" dxfId="32" priority="2" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5776,7 +5792,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6859,8 +6875,12 @@
       <c r="H12" s="1">
         <v>24</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="1">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -6889,11 +6909,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>21.166666666666668</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -6919,8 +6939,12 @@
       <c r="H13" s="1">
         <v>2</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -6949,11 +6973,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>1.1666666666666667</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -6979,8 +7003,12 @@
       <c r="H14" s="1">
         <v>4</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="1">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -7009,11 +7037,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5.875</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -7039,8 +7067,12 @@
       <c r="H15" s="1">
         <v>2</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -7069,11 +7101,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>4.125</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +32,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0">
+    <comment ref="P4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0">
+    <comment ref="Q4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -906,8 +911,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2386,42 +2391,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2471,7 +2476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -2524,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2577,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -2630,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -2736,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -2805,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2824,7 +2829,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -2843,7 +2848,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -2896,7 +2901,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>62</v>
@@ -2945,7 +2950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>63</v>
@@ -2990,7 +2995,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="34"/>
       <c r="C13" s="32" t="s">
@@ -3025,7 +3030,7 @@
       </c>
       <c r="Q13" s="33"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32" t="s">
@@ -3052,7 +3057,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -3077,7 +3082,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -3098,7 +3103,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3119,7 +3124,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -3140,7 +3145,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -3161,7 +3166,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -3180,7 +3185,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3199,7 +3204,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3217,7 +3222,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3236,7 +3241,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>33</v>
       </c>
@@ -3289,7 +3294,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>84</v>
@@ -3338,7 +3343,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -3375,7 +3380,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -3408,7 +3413,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -3433,7 +3438,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -3454,7 +3459,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -3473,7 +3478,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -3492,7 +3497,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -3511,7 +3516,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1">
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -3556,35 +3561,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>138</v>
       </c>
@@ -3640,7 +3645,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -3699,7 +3704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -3758,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -3817,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -3876,7 +3881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -3935,7 +3940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -4012,7 +4017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4033,7 +4038,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4054,7 +4059,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -4111,7 +4116,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" t="s">
         <v>198</v>
@@ -4162,7 +4167,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>201</v>
@@ -4209,7 +4214,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>200</v>
@@ -4248,7 +4253,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>199</v>
@@ -4281,7 +4286,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>169</v>
@@ -4308,7 +4313,7 @@
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>170</v>
@@ -4335,7 +4340,7 @@
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -4358,7 +4363,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -4381,7 +4386,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -4402,7 +4407,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="37"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4423,7 +4428,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4444,7 +4449,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4464,7 +4469,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4510,20 +4515,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -4621,7 +4626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>222</v>
       </c>
@@ -4727,7 +4732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -4831,7 +4836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -4935,7 +4940,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -5039,10 +5044,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>221</v>
       </c>
@@ -5148,7 +5153,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -5252,7 +5257,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -5356,7 +5361,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -5460,10 +5465,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>223</v>
       </c>
@@ -5488,7 +5493,9 @@
       <c r="H12" s="1">
         <v>15</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>22</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -5514,14 +5521,14 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>20.666666666666668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+        <v>20.857142857142858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -5544,7 +5551,9 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -5574,10 +5583,10 @@
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>1.8333333333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -5600,7 +5609,9 @@
       <c r="H14" s="1">
         <v>3</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -5626,14 +5637,14 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -5656,7 +5667,9 @@
       <c r="H15" s="1">
         <v>4</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -5682,11 +5695,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>2.6666666666666665</v>
+        <v>2.8571428571428572</v>
       </c>
     </row>
   </sheetData>
@@ -5788,21 +5801,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5912,7 +5925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>222</v>
       </c>
@@ -6030,7 +6043,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6146,7 +6159,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -6262,7 +6275,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -6378,10 +6391,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>221</v>
       </c>
@@ -6499,7 +6512,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6615,7 +6628,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -6731,7 +6744,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -6847,10 +6860,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>223</v>
       </c>
@@ -6881,7 +6894,9 @@
       <c r="J12" s="1">
         <v>10</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>12</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -6909,14 +6924,14 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>19.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38">
+        <v>18.444444444444443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -6945,7 +6960,9 @@
       <c r="J13" s="1">
         <v>3</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -6973,14 +6990,14 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -7009,7 +7026,9 @@
       <c r="J14" s="1">
         <v>4</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <v>6</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -7037,14 +7056,14 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>5.875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38">
+        <v>5.8888888888888893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -7073,7 +7092,9 @@
       <c r="J15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -7101,11 +7122,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>4.125</v>
+        <v>3.8888888888888888</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -2179,7 +2179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2214,7 +2214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4518,8 +4518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5488,7 +5488,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1">
         <v>15</v>
@@ -5521,11 +5521,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>20.857142857142858</v>
+        <v>21.285714285714285</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -5662,7 +5662,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
         <v>4</v>
@@ -5695,11 +5695,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>2.8571428571428572</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5804,8 +5804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6877,10 +6877,10 @@
         <v>23</v>
       </c>
       <c r="E12" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1">
         <v>19</v>
@@ -6924,11 +6924,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>18.444444444444443</v>
+        <v>18.888888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -7009,10 +7009,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="1">
         <v>5</v>
@@ -7056,11 +7056,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>5.8888888888888893</v>
+        <v>6.1111111111111107</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
@@ -7075,10 +7075,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1">
         <v>6</v>
@@ -7122,11 +7122,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.8888888888888888</v>
+        <v>4.1111111111111107</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -4518,8 +4518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5496,7 +5496,9 @@
       <c r="I12" s="1">
         <v>22</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>16</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -5521,11 +5523,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>21.285714285714285</v>
+        <v>20.625</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -5554,7 +5556,9 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -5579,11 +5583,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>1.5714285714285714</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
@@ -5612,7 +5616,9 @@
       <c r="I14" s="1">
         <v>4</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>5</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -5637,11 +5643,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>3.4285714285714284</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -5670,7 +5676,9 @@
       <c r="I15" s="1">
         <v>4</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -5695,7 +5703,7 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
@@ -5804,8 +5812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6892,12 +6900,14 @@
         <v>17</v>
       </c>
       <c r="J12" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K12" s="1">
         <v>12</v>
       </c>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -6924,11 +6934,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>18.888888888888889</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -6958,12 +6968,14 @@
         <v>3</v>
       </c>
       <c r="J13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="1">
         <v>5</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -6990,11 +7002,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
@@ -7029,7 +7041,9 @@
       <c r="K14" s="1">
         <v>6</v>
       </c>
-      <c r="L14" s="1"/>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -7056,11 +7070,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.1111111111111107</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
@@ -7095,7 +7109,9 @@
       <c r="K15" s="1">
         <v>2</v>
       </c>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -7122,11 +7138,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>4.1111111111111107</v>
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +27,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0">
+    <comment ref="P4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0">
+    <comment ref="Q4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -911,8 +906,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2179,7 +2174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2214,7 +2209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2391,42 +2386,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2476,7 +2471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -2529,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2582,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -2635,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -2688,7 +2683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -2741,7 +2736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -2810,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2829,7 +2824,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -2848,7 +2843,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -2901,7 +2896,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>62</v>
@@ -2950,7 +2945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>63</v>
@@ -2995,7 +2990,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="35"/>
       <c r="B13" s="34"/>
       <c r="C13" s="32" t="s">
@@ -3030,7 +3025,7 @@
       </c>
       <c r="Q13" s="33"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32" t="s">
@@ -3057,7 +3052,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -3082,7 +3077,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -3103,7 +3098,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3124,7 +3119,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -3145,7 +3140,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -3166,7 +3161,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -3185,7 +3180,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3204,7 +3199,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3222,7 +3217,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3241,7 +3236,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="28" t="s">
         <v>33</v>
       </c>
@@ -3294,7 +3289,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>84</v>
@@ -3343,7 +3338,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -3380,7 +3375,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -3413,7 +3408,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -3438,7 +3433,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -3459,7 +3454,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -3478,7 +3473,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -3497,7 +3492,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -3516,7 +3511,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -3561,35 +3556,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>138</v>
       </c>
@@ -3645,7 +3640,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -3704,7 +3699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -3763,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -3822,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -3881,7 +3876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -3940,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -4017,7 +4012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4038,7 +4033,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4059,7 +4054,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -4116,7 +4111,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" t="s">
         <v>198</v>
@@ -4167,7 +4162,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>201</v>
@@ -4214,7 +4209,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>200</v>
@@ -4253,7 +4248,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>199</v>
@@ -4286,7 +4281,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>169</v>
@@ -4313,7 +4308,7 @@
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>170</v>
@@ -4340,7 +4335,7 @@
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -4363,7 +4358,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -4386,7 +4381,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -4407,7 +4402,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="37"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4428,7 +4423,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4449,7 +4444,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4469,7 +4464,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4515,20 +4510,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -4626,7 +4621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34">
       <c r="A2" s="45" t="s">
         <v>222</v>
       </c>
@@ -4732,7 +4727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -4836,7 +4831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -4940,7 +4935,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -5044,10 +5039,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34">
       <c r="A7" s="45" t="s">
         <v>221</v>
       </c>
@@ -5153,7 +5148,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -5257,7 +5252,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -5361,7 +5356,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -5465,10 +5460,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34">
       <c r="A12" s="45" t="s">
         <v>223</v>
       </c>
@@ -5491,7 +5486,7 @@
         <v>21</v>
       </c>
       <c r="H12" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I12" s="1">
         <v>22</v>
@@ -5523,14 +5518,14 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>20.625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+        <v>21.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -5590,7 +5585,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -5611,7 +5606,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1">
         <v>4</v>
@@ -5643,14 +5638,14 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>3.625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -5671,7 +5666,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1">
         <v>4</v>
@@ -5703,11 +5698,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3</v>
+        <v>3.125</v>
       </c>
     </row>
   </sheetData>
@@ -5809,21 +5804,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5933,7 +5928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" s="45" t="s">
         <v>222</v>
       </c>
@@ -6051,7 +6046,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6167,7 +6162,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -6283,7 +6278,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -6399,10 +6394,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" s="45" t="s">
         <v>221</v>
       </c>
@@ -6520,7 +6515,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6636,7 +6631,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -6752,7 +6747,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -6868,10 +6863,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" s="45" t="s">
         <v>223</v>
       </c>
@@ -6941,7 +6936,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7009,7 +7004,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -7077,7 +7072,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +32,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0">
+    <comment ref="P4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0">
+    <comment ref="Q4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -906,8 +911,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2386,42 +2391,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2471,7 +2476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -2524,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2577,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -2630,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -2736,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -2805,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2824,7 +2829,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -2843,7 +2848,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -2896,7 +2901,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>62</v>
@@ -2945,7 +2950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>63</v>
@@ -2990,7 +2995,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="34"/>
       <c r="C13" s="32" t="s">
@@ -3025,7 +3030,7 @@
       </c>
       <c r="Q13" s="33"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32" t="s">
@@ -3052,7 +3057,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -3077,7 +3082,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -3098,7 +3103,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3119,7 +3124,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -3140,7 +3145,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -3161,7 +3166,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -3180,7 +3185,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3199,7 +3204,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3217,7 +3222,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3236,7 +3241,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>33</v>
       </c>
@@ -3289,7 +3294,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>84</v>
@@ -3338,7 +3343,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -3375,7 +3380,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -3408,7 +3413,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -3433,7 +3438,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -3454,7 +3459,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -3473,7 +3478,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -3492,7 +3497,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -3511,7 +3516,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1">
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -3556,35 +3561,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>138</v>
       </c>
@@ -3640,7 +3645,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -3699,7 +3704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -3758,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -3817,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -3876,7 +3881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -3935,7 +3940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -4012,7 +4017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4033,7 +4038,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4054,7 +4059,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -4111,7 +4116,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" t="s">
         <v>198</v>
@@ -4162,7 +4167,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>201</v>
@@ -4209,7 +4214,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>200</v>
@@ -4248,7 +4253,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>199</v>
@@ -4281,7 +4286,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>169</v>
@@ -4308,7 +4313,7 @@
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>170</v>
@@ -4335,7 +4340,7 @@
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -4358,7 +4363,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -4381,7 +4386,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -4402,7 +4407,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="37"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4423,7 +4428,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4444,7 +4449,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4464,7 +4469,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4510,20 +4515,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -4621,7 +4626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>222</v>
       </c>
@@ -4727,7 +4732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -4831,7 +4836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -4935,7 +4940,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -5039,10 +5044,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>221</v>
       </c>
@@ -5148,7 +5153,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -5252,7 +5257,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -5356,7 +5361,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -5460,10 +5465,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>223</v>
       </c>
@@ -5525,7 +5530,7 @@
         <v>21.875</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -5585,7 +5590,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -5645,7 +5650,7 @@
         <v>3.875</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -5804,21 +5809,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5928,7 +5933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>222</v>
       </c>
@@ -6046,7 +6051,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6162,7 +6167,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -6278,7 +6283,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -6394,10 +6399,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>221</v>
       </c>
@@ -6515,7 +6520,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6631,7 +6636,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -6747,7 +6752,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -6863,10 +6868,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>223</v>
       </c>
@@ -6895,10 +6900,10 @@
         <v>17</v>
       </c>
       <c r="J12" s="1">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1">
         <v>14</v>
-      </c>
-      <c r="K12" s="1">
-        <v>12</v>
       </c>
       <c r="L12" s="1">
         <v>5</v>
@@ -6929,14 +6934,14 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7004,7 +7009,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -7031,10 +7036,10 @@
         <v>7</v>
       </c>
       <c r="J14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -7065,14 +7070,14 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -2179,7 +2179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2214,7 +2214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4518,8 +4518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5499,8 +5499,12 @@
       <c r="J12" s="1">
         <v>16</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="K12" s="1">
+        <v>8</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -5523,11 +5527,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>21.875</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -5559,8 +5563,12 @@
       <c r="J13" s="1">
         <v>4</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -5583,11 +5591,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
@@ -5619,8 +5627,12 @@
       <c r="J14" s="1">
         <v>5</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -5643,11 +5655,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>3.875</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -5679,8 +5691,12 @@
       <c r="J15" s="1">
         <v>3</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -5703,11 +5719,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.125</v>
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>
@@ -5812,8 +5828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6897,18 +6913,20 @@
         <v>24</v>
       </c>
       <c r="I12" s="1">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1">
         <v>17</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>16</v>
       </c>
-      <c r="K12" s="1">
-        <v>14</v>
-      </c>
       <c r="L12" s="1">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="M12" s="1">
+        <v>27</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -6934,11 +6952,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>18.3</v>
+        <v>20.727272727272727</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -6974,9 +6992,11 @@
         <v>5</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -7002,11 +7022,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>1.9</v>
+        <v>2.0909090909090908</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
@@ -7039,12 +7059,14 @@
         <v>5</v>
       </c>
       <c r="K14" s="1">
+        <v>8</v>
+      </c>
+      <c r="L14" s="1">
         <v>7</v>
       </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -7070,11 +7092,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>5.8</v>
+        <v>6.2727272727272725</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
@@ -7101,18 +7123,20 @@
         <v>2</v>
       </c>
       <c r="I15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1">
         <v>2</v>
       </c>
       <c r="K15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" s="1">
-        <v>2</v>
-      </c>
-      <c r="M15" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -7138,11 +7162,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.9</v>
+        <v>4.0909090909090908</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -4519,7 +4519,7 @@
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5500,10 +5500,10 @@
         <v>16</v>
       </c>
       <c r="K12" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L12" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -5527,11 +5527,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>18.5</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -5567,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -5591,11 +5591,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
@@ -5631,7 +5631,7 @@
         <v>3</v>
       </c>
       <c r="L14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -5655,11 +5655,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -5692,10 +5692,10 @@
         <v>3</v>
       </c>
       <c r="K15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -5719,11 +5719,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
@@ -5828,8 +5828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6927,8 +6927,12 @@
       <c r="M12" s="1">
         <v>27</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="N12" s="1">
+        <v>20</v>
+      </c>
+      <c r="O12" s="1">
+        <v>24</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -6952,11 +6956,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.727272727272727</v>
+        <v>20.923076923076923</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -6997,8 +7001,12 @@
       <c r="M13" s="1">
         <v>2</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>3</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -7022,11 +7030,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.0909090909090908</v>
+        <v>2.1538461538461537</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
@@ -7067,8 +7075,12 @@
       <c r="M14" s="1">
         <v>4</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="N14" s="1">
+        <v>7</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -7092,11 +7104,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.2727272727272725</v>
+        <v>6.1538461538461542</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
@@ -7137,8 +7149,12 @@
       <c r="M15" s="1">
         <v>3</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="N15" s="1">
+        <v>4</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -7162,11 +7178,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>4.0909090909090908</v>
+        <v>3.8461538461538463</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -4518,8 +4518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5828,8 +5828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6933,7 +6933,9 @@
       <c r="O12" s="1">
         <v>24</v>
       </c>
-      <c r="P12" s="1"/>
+      <c r="P12" s="1">
+        <v>21</v>
+      </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="3"/>
@@ -6956,11 +6958,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.923076923076923</v>
+        <v>20.928571428571427</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -7007,7 +7009,9 @@
       <c r="O13" s="1">
         <v>3</v>
       </c>
-      <c r="P13" s="1"/>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="3"/>
@@ -7030,11 +7034,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.1538461538461537</v>
+        <v>2.0714285714285716</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
@@ -7081,7 +7085,9 @@
       <c r="O14" s="1">
         <v>4</v>
       </c>
-      <c r="P14" s="1"/>
+      <c r="P14" s="1">
+        <v>7</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="3"/>
@@ -7104,11 +7110,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.1538461538461542</v>
+        <v>6.2142857142857144</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
@@ -7155,7 +7161,9 @@
       <c r="O15" s="1">
         <v>1</v>
       </c>
-      <c r="P15" s="1"/>
+      <c r="P15" s="1">
+        <v>6</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="3"/>
@@ -7178,11 +7186,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.8461538461538463</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -4518,8 +4518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N18" sqref="N17:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5505,7 +5505,9 @@
       <c r="L12" s="1">
         <v>25</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1">
+        <v>19</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -5527,11 +5529,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>21.9</v>
+        <v>21.636363636363637</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -5569,7 +5571,9 @@
       <c r="L13" s="1">
         <v>4</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -5591,11 +5595,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>2</v>
+        <v>1.9090909090909092</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
@@ -5633,7 +5637,9 @@
       <c r="L14" s="1">
         <v>4</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -5655,11 +5661,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>3.8</v>
+        <v>3.8181818181818183</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -5697,7 +5703,9 @@
       <c r="L15" s="1">
         <v>3</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -5719,11 +5727,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.2</v>
+        <v>3.1818181818181817</v>
       </c>
     </row>
   </sheetData>
@@ -5828,7 +5836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -4519,7 +4519,7 @@
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N18" sqref="N17:N18"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5566,7 +5566,7 @@
         <v>4</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="1">
         <v>4</v>
@@ -5595,11 +5595,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>1.9090909090909092</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
@@ -5632,7 +5632,7 @@
         <v>5</v>
       </c>
       <c r="K14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L14" s="1">
         <v>4</v>
@@ -5661,11 +5661,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>3.8181818181818183</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +27,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0">
+    <comment ref="P4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0">
+    <comment ref="Q4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -911,8 +906,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2179,7 +2174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2214,7 +2209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2391,42 +2386,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2476,7 +2471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -2529,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2582,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -2635,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -2688,7 +2683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -2741,7 +2736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -2810,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2829,7 +2824,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -2848,7 +2843,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -2901,7 +2896,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>62</v>
@@ -2950,7 +2945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>63</v>
@@ -2995,7 +2990,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="35"/>
       <c r="B13" s="34"/>
       <c r="C13" s="32" t="s">
@@ -3030,7 +3025,7 @@
       </c>
       <c r="Q13" s="33"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32" t="s">
@@ -3057,7 +3052,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -3082,7 +3077,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -3103,7 +3098,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3124,7 +3119,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -3145,7 +3140,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -3166,7 +3161,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -3185,7 +3180,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3204,7 +3199,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3222,7 +3217,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3241,7 +3236,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="28" t="s">
         <v>33</v>
       </c>
@@ -3294,7 +3289,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>84</v>
@@ -3343,7 +3338,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -3380,7 +3375,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -3413,7 +3408,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -3438,7 +3433,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -3459,7 +3454,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -3478,7 +3473,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -3497,7 +3492,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -3516,7 +3511,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -3561,35 +3556,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>138</v>
       </c>
@@ -3645,7 +3640,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -3704,7 +3699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -3763,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -3822,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -3881,7 +3876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -3940,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -4017,7 +4012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4038,7 +4033,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4059,7 +4054,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -4116,7 +4111,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" t="s">
         <v>198</v>
@@ -4167,7 +4162,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>201</v>
@@ -4214,7 +4209,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>200</v>
@@ -4253,7 +4248,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>199</v>
@@ -4286,7 +4281,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>169</v>
@@ -4313,7 +4308,7 @@
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>170</v>
@@ -4340,7 +4335,7 @@
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -4363,7 +4358,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -4386,7 +4381,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -4407,7 +4402,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="37"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4428,7 +4423,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4449,7 +4444,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4469,7 +4464,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4515,20 +4510,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -4626,7 +4621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34">
       <c r="A2" s="45" t="s">
         <v>222</v>
       </c>
@@ -4732,7 +4727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -4836,7 +4831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -4940,7 +4935,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -5044,10 +5039,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34">
       <c r="A7" s="45" t="s">
         <v>221</v>
       </c>
@@ -5153,7 +5148,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -5257,7 +5252,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -5361,7 +5356,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -5465,10 +5460,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34">
       <c r="A12" s="45" t="s">
         <v>223</v>
       </c>
@@ -5536,7 +5531,7 @@
         <v>21.636363636363637</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -5602,7 +5597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -5668,7 +5663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -5833,21 +5828,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5957,7 +5952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" s="45" t="s">
         <v>222</v>
       </c>
@@ -6075,7 +6070,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6191,7 +6186,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -6307,7 +6302,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -6423,10 +6418,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" s="45" t="s">
         <v>221</v>
       </c>
@@ -6544,7 +6539,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6660,7 +6655,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -6776,7 +6771,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -6892,10 +6887,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" s="45" t="s">
         <v>223</v>
       </c>
@@ -6944,7 +6939,9 @@
       <c r="P12" s="1">
         <v>21</v>
       </c>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="1">
+        <v>19</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="3"/>
       <c r="T12" s="1"/>
@@ -6966,14 +6963,14 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.928571428571427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7020,7 +7017,9 @@
       <c r="P13" s="1">
         <v>1</v>
       </c>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="S13" s="3"/>
       <c r="T13" s="1"/>
@@ -7046,10 +7045,10 @@
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.0714285714285716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+        <v>1.9333333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -7096,7 +7095,9 @@
       <c r="P14" s="1">
         <v>7</v>
       </c>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1">
+        <v>2</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="3"/>
       <c r="T14" s="1"/>
@@ -7118,14 +7119,14 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.2142857142857144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+        <v>5.9333333333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -7172,7 +7173,9 @@
       <c r="P15" s="1">
         <v>6</v>
       </c>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1">
+        <v>4</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="3"/>
       <c r="T15" s="1"/>
@@ -7194,7 +7197,7 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +32,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0">
+    <comment ref="P4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0">
+    <comment ref="Q4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -906,8 +911,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2386,42 +2391,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2471,7 +2476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -2524,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2577,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -2630,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -2736,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -2805,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2824,7 +2829,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -2843,7 +2848,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -2896,7 +2901,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>62</v>
@@ -2945,7 +2950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>63</v>
@@ -2990,7 +2995,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="34"/>
       <c r="C13" s="32" t="s">
@@ -3025,7 +3030,7 @@
       </c>
       <c r="Q13" s="33"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32" t="s">
@@ -3052,7 +3057,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -3077,7 +3082,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -3098,7 +3103,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3119,7 +3124,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -3140,7 +3145,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -3161,7 +3166,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -3180,7 +3185,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3199,7 +3204,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3217,7 +3222,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3236,7 +3241,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>33</v>
       </c>
@@ -3289,7 +3294,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>84</v>
@@ -3338,7 +3343,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -3375,7 +3380,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -3408,7 +3413,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -3433,7 +3438,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -3454,7 +3459,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -3473,7 +3478,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -3492,7 +3497,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -3511,7 +3516,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1">
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -3556,35 +3561,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>138</v>
       </c>
@@ -3640,7 +3645,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -3699,7 +3704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -3758,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -3817,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -3876,7 +3881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -3935,7 +3940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -4012,7 +4017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4033,7 +4038,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4054,7 +4059,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -4111,7 +4116,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" t="s">
         <v>198</v>
@@ -4162,7 +4167,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>201</v>
@@ -4209,7 +4214,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>200</v>
@@ -4248,7 +4253,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>199</v>
@@ -4281,7 +4286,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>169</v>
@@ -4308,7 +4313,7 @@
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>170</v>
@@ -4335,7 +4340,7 @@
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -4358,7 +4363,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -4381,7 +4386,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -4402,7 +4407,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="37"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4423,7 +4428,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4444,7 +4449,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4464,7 +4469,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4510,20 +4515,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -4621,7 +4626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>222</v>
       </c>
@@ -4727,7 +4732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -4831,7 +4836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -4935,7 +4940,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -5039,10 +5044,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>221</v>
       </c>
@@ -5148,7 +5153,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -5252,7 +5257,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -5356,7 +5361,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -5460,10 +5465,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>223</v>
       </c>
@@ -5503,7 +5508,9 @@
       <c r="M12" s="1">
         <v>19</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>21</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -5524,14 +5531,14 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>21.636363636363637</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+        <v>21.583333333333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -5569,7 +5576,9 @@
       <c r="M13" s="1">
         <v>1</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -5590,14 +5599,14 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -5635,7 +5644,9 @@
       <c r="M14" s="1">
         <v>4</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>5</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -5656,14 +5667,14 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+        <v>4.083333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -5701,7 +5712,9 @@
       <c r="M15" s="1">
         <v>3</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>5</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -5722,11 +5735,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.1818181818181817</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -5828,21 +5841,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5952,7 +5965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>222</v>
       </c>
@@ -6070,7 +6083,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6186,7 +6199,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -6302,7 +6315,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -6418,10 +6431,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>221</v>
       </c>
@@ -6539,7 +6552,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6655,7 +6668,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -6771,7 +6784,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -6887,10 +6900,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>223</v>
       </c>
@@ -6940,9 +6953,11 @@
         <v>21</v>
       </c>
       <c r="Q12" s="1">
-        <v>19</v>
-      </c>
-      <c r="R12" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="R12" s="1">
+        <v>22</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -6963,14 +6978,14 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38">
+        <v>21.1875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7018,9 +7033,11 @@
         <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -7041,14 +7058,14 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>1.9333333333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38">
+        <v>2.0625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -7096,9 +7113,11 @@
         <v>7</v>
       </c>
       <c r="Q14" s="1">
-        <v>2</v>
-      </c>
-      <c r="R14" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="R14" s="1">
+        <v>6</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -7119,14 +7138,14 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>5.9333333333333336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38">
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -7174,9 +7193,11 @@
         <v>6</v>
       </c>
       <c r="Q15" s="1">
-        <v>4</v>
-      </c>
-      <c r="R15" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="R15" s="1">
+        <v>5</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -7197,11 +7218,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.125</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -2179,7 +2179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2214,7 +2214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4519,7 +4519,7 @@
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5511,7 +5511,9 @@
       <c r="N12" s="1">
         <v>21</v>
       </c>
-      <c r="O12" s="1"/>
+      <c r="O12" s="1">
+        <v>24</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -5531,11 +5533,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>21.583333333333332</v>
+        <v>21.76923076923077</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -5579,7 +5581,9 @@
       <c r="N13" s="1">
         <v>2</v>
       </c>
-      <c r="O13" s="1"/>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -5599,11 +5603,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>2</v>
+        <v>1.9230769230769231</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
@@ -5647,7 +5651,9 @@
       <c r="N14" s="1">
         <v>5</v>
       </c>
-      <c r="O14" s="1"/>
+      <c r="O14" s="1">
+        <v>3</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -5667,11 +5673,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.083333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -5715,7 +5721,9 @@
       <c r="N15" s="1">
         <v>5</v>
       </c>
-      <c r="O15" s="1"/>
+      <c r="O15" s="1">
+        <v>2</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -5735,11 +5743,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.3333333333333335</v>
+        <v>3.2307692307692308</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +5853,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6958,7 +6966,9 @@
       <c r="R12" s="1">
         <v>22</v>
       </c>
-      <c r="S12" s="3"/>
+      <c r="S12" s="3">
+        <v>18</v>
+      </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="44"/>
@@ -6978,11 +6988,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>21.1875</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -7038,7 +7048,9 @@
       <c r="R13" s="1">
         <v>2</v>
       </c>
-      <c r="S13" s="3"/>
+      <c r="S13" s="3">
+        <v>2</v>
+      </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="44"/>
@@ -7058,11 +7070,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.0625</v>
+        <v>2.0588235294117645</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
@@ -7118,7 +7130,9 @@
       <c r="R14" s="1">
         <v>6</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="3">
+        <v>3</v>
+      </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="44"/>
@@ -7138,11 +7152,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.125</v>
+        <v>5.9411764705882355</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
@@ -7198,7 +7212,9 @@
       <c r="R15" s="1">
         <v>5</v>
       </c>
-      <c r="S15" s="3"/>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="44"/>
@@ -7222,7 +7238,7 @@
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>4.125</v>
+        <v>3.8823529411764706</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +27,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,11 +47,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-1:0 z Zagłębiem</t>
+2:1 z Zagłębiem</t>
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,12 +71,13 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-4:2 ze Stalą
-1:0 z Podbeskidziem</t>
+9:1 z Olimpią Grudziądz
+2:0 z Płockiem
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,11 +97,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-1:3 z Termalicą</t>
+8:0 z Liwa FC ???</t>
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,11 +121,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-0:1 z Wisłą</t>
+4:0 z Wisłą II Płock</t>
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,12 +145,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-2:4 z Wisłą
-0:1 z ŁKSem</t>
+2:0 z Pogonią</t>
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -174,11 +169,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-1:2 z KSZO</t>
+5:0 z Podhalem NT</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +193,151 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-0:1 z Pogonią</t>
+1:1 z Szachtarem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Maks Marcinowski:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2:2 z Zagłębiem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Maks Marcinowski:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2:2 z Rakowem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Maks Marcinowski:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0:2 z Lechią</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Maks Marcinowski:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0:2 z Wartą</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Maks Marcinowski:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0:4 z Crveną Zvezdą</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Maks Marcinowski:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1:2 z Jagiellonią</t>
         </r>
       </text>
     </comment>
@@ -207,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="238">
   <si>
     <t>bramki</t>
   </si>
@@ -296,330 +435,54 @@
     <t>Strzelcy:</t>
   </si>
   <si>
-    <t>1 Żyro</t>
-  </si>
-  <si>
-    <t>1 Tomczyk</t>
-  </si>
-  <si>
-    <t>1 Malinowski</t>
-  </si>
-  <si>
-    <t>1 Nowak</t>
-  </si>
-  <si>
     <t>Nowe nabytki:</t>
   </si>
   <si>
-    <t>Lopes</t>
-  </si>
-  <si>
-    <t>2 Forbes</t>
-  </si>
-  <si>
-    <t>1 Cebula</t>
-  </si>
-  <si>
-    <t>1 Petrasek</t>
-  </si>
-  <si>
-    <t>3 Silva</t>
-  </si>
-  <si>
     <t>1 Boguski</t>
   </si>
   <si>
-    <t>1 Domański</t>
-  </si>
-  <si>
-    <t>1 Seweryn</t>
-  </si>
-  <si>
     <t>2 Bortniczuk</t>
   </si>
   <si>
     <t>1 Imaz</t>
   </si>
   <si>
-    <t>1 Struski</t>
-  </si>
-  <si>
-    <t>1 Toporkiewicz</t>
-  </si>
-  <si>
-    <t>1 Tiru</t>
-  </si>
-  <si>
-    <t>1 Baszłaj</t>
-  </si>
-  <si>
-    <t>1 Gach</t>
-  </si>
-  <si>
-    <t>1 Bator</t>
-  </si>
-  <si>
-    <t>1 Musiolik</t>
-  </si>
-  <si>
-    <t>Gorgon</t>
-  </si>
-  <si>
-    <t>1 Gorgon</t>
-  </si>
-  <si>
-    <t>1 Sadlok</t>
-  </si>
-  <si>
-    <t>1 Siplak</t>
-  </si>
-  <si>
     <t>1 Schwarz</t>
   </si>
   <si>
-    <t>2 Krawczyk</t>
-  </si>
-  <si>
-    <t>1 Ryczkowski</t>
-  </si>
-  <si>
-    <t>2 Satka</t>
-  </si>
-  <si>
-    <t>3 Rosołek</t>
-  </si>
-  <si>
-    <t>1 Wszołek</t>
-  </si>
-  <si>
-    <t>1 Mladenović</t>
-  </si>
-  <si>
-    <t>1 Rapa</t>
-  </si>
-  <si>
-    <t>1 Wdowiak</t>
-  </si>
-  <si>
-    <t>2 Steczyk</t>
-  </si>
-  <si>
-    <t>1 Parzyszek</t>
-  </si>
-  <si>
-    <t>2 Pyrka</t>
-  </si>
-  <si>
     <t>1 Jaroch</t>
   </si>
   <si>
     <t>1 Kuzimski</t>
   </si>
   <si>
-    <t>1 Laskowski</t>
-  </si>
-  <si>
-    <t>1 Danielak</t>
-  </si>
-  <si>
     <t>1 Sheridan</t>
   </si>
   <si>
     <t>1 Szwoch</t>
   </si>
   <si>
-    <t>1 Celeban</t>
-  </si>
-  <si>
     <t>1 Pich</t>
   </si>
   <si>
-    <t>1 Baszkirow</t>
-  </si>
-  <si>
     <t>1 Żubrowski</t>
   </si>
   <si>
-    <t>1 Bohar</t>
-  </si>
-  <si>
-    <t>1 Jimenez</t>
-  </si>
-  <si>
-    <t>1 Bochniewicz</t>
-  </si>
-  <si>
     <t>1 Puljić</t>
   </si>
   <si>
-    <t>1 Chuca</t>
-  </si>
-  <si>
-    <t>1 Dadok</t>
-  </si>
-  <si>
-    <t>Alvarez</t>
-  </si>
-  <si>
-    <t>Rivaldinho</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Sobczyk</t>
-  </si>
-  <si>
-    <t>Steinbors</t>
-  </si>
-  <si>
-    <t>Augustyn</t>
-  </si>
-  <si>
-    <t>Mas</t>
-  </si>
-  <si>
-    <t>Sobczak</t>
-  </si>
-  <si>
-    <t>Bednarek</t>
-  </si>
-  <si>
-    <t>Malenica</t>
-  </si>
-  <si>
-    <t>Ishak</t>
-  </si>
-  <si>
-    <t>Czerwiński</t>
-  </si>
-  <si>
-    <t>Kopacz</t>
-  </si>
-  <si>
-    <t>Boruc</t>
-  </si>
-  <si>
-    <t>Juranović</t>
-  </si>
-  <si>
-    <t>Kapustka</t>
-  </si>
-  <si>
-    <t>Forssell</t>
-  </si>
-  <si>
-    <t>Tomczyk</t>
-  </si>
-  <si>
-    <t>Lipski</t>
-  </si>
-  <si>
-    <t>Hyjek</t>
-  </si>
-  <si>
-    <t>Świerczok</t>
-  </si>
-  <si>
-    <t>Rundić</t>
-  </si>
-  <si>
-    <t>Kocsis</t>
-  </si>
-  <si>
-    <t>Mata</t>
-  </si>
-  <si>
-    <t>Kucharczyk</t>
-  </si>
-  <si>
-    <t>Pindroch</t>
-  </si>
-  <si>
     <t>Wilusz</t>
   </si>
   <si>
-    <t>Papanikolaou</t>
-  </si>
-  <si>
-    <t>Cebula</t>
-  </si>
-  <si>
-    <t>Gutkovskis</t>
-  </si>
-  <si>
-    <t>Sobota</t>
-  </si>
-  <si>
-    <t>Piasecki</t>
-  </si>
-  <si>
-    <t>Czyżycki</t>
-  </si>
-  <si>
-    <t>Kuzimski</t>
-  </si>
-  <si>
-    <t>Abramowicz</t>
-  </si>
-  <si>
-    <t>Mehremić</t>
-  </si>
-  <si>
-    <t>Yeboah</t>
-  </si>
-  <si>
-    <t>Beciraj</t>
-  </si>
-  <si>
-    <t>Zbozień</t>
-  </si>
-  <si>
-    <t>Szumilas</t>
-  </si>
-  <si>
-    <t>Lagator</t>
-  </si>
-  <si>
-    <t>Lesniak</t>
-  </si>
-  <si>
-    <t>Tuszyński</t>
-  </si>
-  <si>
-    <t>Zawada</t>
-  </si>
-  <si>
-    <t>Simić</t>
-  </si>
-  <si>
-    <t>Wójcicki</t>
-  </si>
-  <si>
-    <t>Żubrowski</t>
-  </si>
-  <si>
-    <t>Mraz</t>
-  </si>
-  <si>
-    <t>1 Kante</t>
-  </si>
-  <si>
     <t>1 Fila</t>
   </si>
   <si>
     <t>1 Zwoliński</t>
   </si>
   <si>
-    <t>1 Gajos</t>
-  </si>
-  <si>
     <t>1 Kałuziński</t>
   </si>
   <si>
-    <t>Reese</t>
-  </si>
-  <si>
     <t>Radomiak</t>
   </si>
   <si>
@@ -881,24 +744,9 @@
     <t>2020/2021</t>
   </si>
   <si>
-    <t>3 Gutkovskis</t>
-  </si>
-  <si>
-    <t>1 Sapała</t>
-  </si>
-  <si>
-    <t>1 Piątkowski</t>
-  </si>
-  <si>
     <t>1 Lipski</t>
   </si>
   <si>
-    <t>1 Świerczok</t>
-  </si>
-  <si>
-    <t>3 Ishak</t>
-  </si>
-  <si>
     <t>2 Szymczak</t>
   </si>
   <si>
@@ -906,13 +754,319 @@
   </si>
   <si>
     <t>1 Szczepan</t>
+  </si>
+  <si>
+    <t>1 Gwilia</t>
+  </si>
+  <si>
+    <t>1 Skibicki</t>
+  </si>
+  <si>
+    <t>1 Mosór</t>
+  </si>
+  <si>
+    <t>1 Cholewiak</t>
+  </si>
+  <si>
+    <t>1 Gutkovskis</t>
+  </si>
+  <si>
+    <t>1 Litwa</t>
+  </si>
+  <si>
+    <t>1 Silva</t>
+  </si>
+  <si>
+    <t>1 Beciraj</t>
+  </si>
+  <si>
+    <t>1 Szywacz</t>
+  </si>
+  <si>
+    <t>1 Abramowicz</t>
+  </si>
+  <si>
+    <t>2 Danielak</t>
+  </si>
+  <si>
+    <t>1 Bieroński</t>
+  </si>
+  <si>
+    <t>1 Kapek</t>
+  </si>
+  <si>
+    <t>1 Salamon</t>
+  </si>
+  <si>
+    <t>1 Paixao</t>
+  </si>
+  <si>
+    <t>1 Saief</t>
+  </si>
+  <si>
+    <t>1 Arak</t>
+  </si>
+  <si>
+    <t>1 Huk</t>
+  </si>
+  <si>
+    <t>1 Handzlik</t>
+  </si>
+  <si>
+    <t>1 Pawłowski</t>
+  </si>
+  <si>
+    <t>1 Sobota</t>
+  </si>
+  <si>
+    <t>1 Frydrych</t>
+  </si>
+  <si>
+    <t>2 Rivaldinho</t>
+  </si>
+  <si>
+    <t>1 Dytiatjew</t>
+  </si>
+  <si>
+    <t>1 Kocyła</t>
+  </si>
+  <si>
+    <t>1 Krzyżak</t>
+  </si>
+  <si>
+    <t>1 Mraz</t>
+  </si>
+  <si>
+    <t>1 Ferreiroa</t>
+  </si>
+  <si>
+    <t>1 Mystkowski</t>
+  </si>
+  <si>
+    <t>6 Pekhart</t>
+  </si>
+  <si>
+    <t>1 Cernych</t>
+  </si>
+  <si>
+    <t>2 Nowak</t>
+  </si>
+  <si>
+    <t>1 Ściślak</t>
+  </si>
+  <si>
+    <t>1 Vikri</t>
+  </si>
+  <si>
+    <t>1 Biegański</t>
+  </si>
+  <si>
+    <t>1 Conrado</t>
+  </si>
+  <si>
+    <t>1 Haydary</t>
+  </si>
+  <si>
+    <t>1 Obradović</t>
+  </si>
+  <si>
+    <t>1 Sitek</t>
+  </si>
+  <si>
+    <t>1 Marzec</t>
+  </si>
+  <si>
+    <t>2 Pawłowski</t>
+  </si>
+  <si>
+    <t>1 Scalet</t>
+  </si>
+  <si>
+    <t>1 Borysiuk</t>
+  </si>
+  <si>
+    <t>1 Wyjadłowski</t>
+  </si>
+  <si>
+    <t>1 Yeboah</t>
+  </si>
+  <si>
+    <t>1 Savić</t>
+  </si>
+  <si>
+    <t>1 Pakulski</t>
+  </si>
+  <si>
+    <t>1 Kun</t>
+  </si>
+  <si>
+    <t>1 Szelągowski</t>
+  </si>
+  <si>
+    <t>1 Alvarez</t>
+  </si>
+  <si>
+    <t>2 Mak</t>
+  </si>
+  <si>
+    <t>3 Świerczok</t>
+  </si>
+  <si>
+    <t>1 Jodłowiec</t>
+  </si>
+  <si>
+    <t>1 Pospisil</t>
+  </si>
+  <si>
+    <t>1 Granlund</t>
+  </si>
+  <si>
+    <t>1 Marchwiński</t>
+  </si>
+  <si>
+    <t>1 Żurawski</t>
+  </si>
+  <si>
+    <t>1 Kupczak</t>
+  </si>
+  <si>
+    <t>2 Starzyński</t>
+  </si>
+  <si>
+    <t>1 Szysz</t>
+  </si>
+  <si>
+    <t>1 Crnomarković</t>
+  </si>
+  <si>
+    <t>2 Gajos</t>
+  </si>
+  <si>
+    <t>1 Drygas</t>
+  </si>
+  <si>
+    <t>1 Podstawski</t>
+  </si>
+  <si>
+    <t>2 Buksa</t>
+  </si>
+  <si>
+    <t>1 Loshaj</t>
+  </si>
+  <si>
+    <t>1 Pik</t>
+  </si>
+  <si>
+    <t>2 Siplak</t>
+  </si>
+  <si>
+    <t>2 Kubica</t>
+  </si>
+  <si>
+    <t>1 Massouras</t>
+  </si>
+  <si>
+    <t>1 Pyrdoł</t>
+  </si>
+  <si>
+    <t>1 Merebaszwili</t>
+  </si>
+  <si>
+    <t>1 Rasak</t>
+  </si>
+  <si>
+    <t>1 Rogoziński</t>
+  </si>
+  <si>
+    <t>2 Ślisz</t>
+  </si>
+  <si>
+    <t>1 Luquinhas</t>
+  </si>
+  <si>
+    <t>Nastić</t>
+  </si>
+  <si>
+    <t>Karlstrom</t>
+  </si>
+  <si>
+    <t>Salamon</t>
+  </si>
+  <si>
+    <t>Milić</t>
+  </si>
+  <si>
+    <t>Ceesay</t>
+  </si>
+  <si>
+    <t>Musolitin</t>
+  </si>
+  <si>
+    <t>Biegański</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Janicki</t>
+  </si>
+  <si>
+    <t>Mamić</t>
+  </si>
+  <si>
+    <t>Stolarski</t>
+  </si>
+  <si>
+    <t>Holec</t>
+  </si>
+  <si>
+    <t>Jach</t>
+  </si>
+  <si>
+    <t>Kaczmarski</t>
+  </si>
+  <si>
+    <t>de Amo</t>
+  </si>
+  <si>
+    <t>Granlund</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>Kolew</t>
+  </si>
+  <si>
+    <t>Bejger</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>Sopoćko</t>
+  </si>
+  <si>
+    <t>Żurawski</t>
+  </si>
+  <si>
+    <t>Kone</t>
+  </si>
+  <si>
+    <t>Medved</t>
+  </si>
+  <si>
+    <t>Crnomarković</t>
+  </si>
+  <si>
+    <t>Susnjara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,7 +1098,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,6 +1108,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1346,11 +1512,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="62">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2099,30 +2309,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2179,7 +2365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2214,7 +2400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2391,42 +2577,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2476,341 +2661,341 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
+      <c r="A2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5">
-        <v>3</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="B2" s="47">
+        <v>3</v>
+      </c>
+      <c r="C2" s="48">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47">
+        <v>3</v>
+      </c>
+      <c r="E2" s="48">
+        <v>2</v>
+      </c>
+      <c r="F2" s="47">
+        <v>3</v>
+      </c>
+      <c r="G2" s="48">
+        <v>3</v>
+      </c>
+      <c r="H2" s="47">
+        <v>2</v>
+      </c>
+      <c r="I2" s="48">
+        <v>3</v>
+      </c>
+      <c r="J2" s="47">
+        <v>3</v>
+      </c>
+      <c r="K2" s="48">
         <v>0</v>
       </c>
-      <c r="O2" s="6">
+      <c r="L2" s="47">
         <v>0</v>
       </c>
-      <c r="P2" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="M2" s="48">
+        <v>2</v>
+      </c>
+      <c r="N2" s="47">
+        <v>1</v>
+      </c>
+      <c r="O2" s="48">
+        <v>2</v>
+      </c>
+      <c r="P2" s="47">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1">
+      <c r="A3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="51">
         <v>0</v>
       </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="C3" s="52">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51">
+        <v>1</v>
+      </c>
+      <c r="E3" s="52">
+        <v>2</v>
+      </c>
+      <c r="F3" s="51">
         <v>0</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="52">
+        <v>1</v>
+      </c>
+      <c r="H3" s="51">
         <v>0</v>
       </c>
-      <c r="H3" s="9">
+      <c r="I3" s="52">
         <v>0</v>
       </c>
-      <c r="I3" s="10">
+      <c r="J3" s="51">
         <v>0</v>
       </c>
-      <c r="J3" s="9">
+      <c r="K3" s="52">
+        <v>1</v>
+      </c>
+      <c r="L3" s="51">
+        <v>3</v>
+      </c>
+      <c r="M3" s="52">
+        <v>2</v>
+      </c>
+      <c r="N3" s="51">
+        <v>1</v>
+      </c>
+      <c r="O3" s="52">
         <v>0</v>
       </c>
-      <c r="K3" s="10">
+      <c r="P3" s="51">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1">
+      <c r="A4" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="56">
         <v>0</v>
       </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
+      <c r="D4" s="55">
+        <v>1</v>
+      </c>
+      <c r="E4" s="56">
         <v>0</v>
       </c>
-      <c r="N3" s="9">
-        <v>1</v>
-      </c>
-      <c r="O3" s="10">
-        <v>1</v>
-      </c>
-      <c r="P3" s="9">
+      <c r="F4" s="55">
         <v>0</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="G4" s="56">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="13">
-        <v>2</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="H4" s="55">
         <v>0</v>
       </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="I4" s="56">
+        <v>1</v>
+      </c>
+      <c r="J4" s="55">
+        <v>1</v>
+      </c>
+      <c r="K4" s="56">
+        <v>1</v>
+      </c>
+      <c r="L4" s="55">
+        <v>1</v>
+      </c>
+      <c r="M4" s="56">
         <v>0</v>
       </c>
-      <c r="F4" s="13">
+      <c r="N4" s="55">
+        <v>1</v>
+      </c>
+      <c r="O4" s="56">
         <v>0</v>
       </c>
-      <c r="G4" s="14">
+      <c r="P4" s="55">
         <v>0</v>
       </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>1</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="14">
-        <v>2</v>
-      </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="Q4" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" thickBot="1">
+      <c r="A5" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="59">
+        <v>9</v>
+      </c>
+      <c r="C5" s="60">
         <v>6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="59">
+        <v>11</v>
+      </c>
+      <c r="E5" s="60">
+        <v>4</v>
+      </c>
+      <c r="F5" s="59">
+        <v>14</v>
+      </c>
+      <c r="G5" s="60">
+        <v>13</v>
+      </c>
+      <c r="H5" s="59">
+        <v>6</v>
+      </c>
+      <c r="I5" s="60">
+        <v>8</v>
+      </c>
+      <c r="J5" s="59">
+        <v>5</v>
+      </c>
+      <c r="K5" s="60">
+        <v>2</v>
+      </c>
+      <c r="L5" s="59">
+        <v>6</v>
+      </c>
+      <c r="M5" s="60">
+        <v>4</v>
+      </c>
+      <c r="N5" s="59">
+        <v>6</v>
+      </c>
+      <c r="O5" s="60">
+        <v>5</v>
+      </c>
+      <c r="P5" s="59">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="61">
         <v>7</v>
       </c>
-      <c r="E5" s="6">
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1">
+      <c r="A6" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="63">
+        <v>5</v>
+      </c>
+      <c r="C6" s="64">
+        <v>3</v>
+      </c>
+      <c r="D6" s="63">
+        <v>5</v>
+      </c>
+      <c r="E6" s="64">
+        <v>1</v>
+      </c>
+      <c r="F6" s="63">
+        <v>1</v>
+      </c>
+      <c r="G6" s="64">
+        <v>1</v>
+      </c>
+      <c r="H6" s="63">
+        <v>2</v>
+      </c>
+      <c r="I6" s="64">
+        <v>3</v>
+      </c>
+      <c r="J6" s="63">
+        <v>2</v>
+      </c>
+      <c r="K6" s="64">
+        <v>4</v>
+      </c>
+      <c r="L6" s="63">
+        <v>8</v>
+      </c>
+      <c r="M6" s="64">
+        <v>2</v>
+      </c>
+      <c r="N6" s="63">
         <v>7</v>
       </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="O6" s="64">
+        <v>1</v>
+      </c>
+      <c r="P6" s="63">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="65">
         <v>7</v>
       </c>
-      <c r="H5" s="5">
-        <v>8</v>
-      </c>
-      <c r="I5" s="6">
-        <v>2</v>
-      </c>
-      <c r="J5" s="5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5">
-        <v>13</v>
-      </c>
-      <c r="M5" s="6">
-        <v>4</v>
-      </c>
-      <c r="N5" s="5">
-        <v>2</v>
-      </c>
-      <c r="O5" s="6">
-        <v>3</v>
-      </c>
-      <c r="P5" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="16">
-        <v>6</v>
-      </c>
-      <c r="C6" s="17">
-        <v>4</v>
-      </c>
-      <c r="D6" s="16">
-        <v>4</v>
-      </c>
-      <c r="E6" s="17">
-        <v>2</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1</v>
-      </c>
-      <c r="I6" s="17">
-        <v>1</v>
-      </c>
-      <c r="J6" s="16">
-        <v>1</v>
-      </c>
-      <c r="K6" s="17">
-        <v>0</v>
-      </c>
-      <c r="L6" s="16">
-        <v>2</v>
-      </c>
-      <c r="M6" s="17">
-        <v>5</v>
-      </c>
-      <c r="N6" s="16">
-        <v>2</v>
-      </c>
-      <c r="O6" s="17">
-        <v>3</v>
-      </c>
-      <c r="P6" s="16">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="8">
         <f>B5-B6</f>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="20">
         <f>C5-C6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:Q7" si="0">D5-D6</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="M7" s="20">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2829,7 +3014,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -2848,331 +3033,389 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="F10" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>64</v>
-      </c>
       <c r="I10" s="29" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="32"/>
+        <v>147</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>199</v>
+      </c>
       <c r="L11" s="32" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="32"/>
+        <v>187</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>36</v>
+      </c>
       <c r="J12" s="32" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="32"/>
+        <v>190</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>156</v>
+      </c>
       <c r="O12" s="32" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="35"/>
-      <c r="B13" s="34"/>
+      <c r="B13" s="34" t="s">
+        <v>159</v>
+      </c>
       <c r="C13" s="32" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+        <v>188</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>175</v>
+      </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
+        <v>33</v>
+      </c>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>192</v>
+      </c>
       <c r="P13" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="B14" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="32"/>
       <c r="D14" s="32" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="I14" s="32"/>
+      <c r="F14" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32" t="s">
+        <v>206</v>
+      </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
       <c r="L14" s="34" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="33"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O14" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+      <c r="B15" s="32" t="s">
+        <v>201</v>
+      </c>
       <c r="C15" s="32"/>
       <c r="D15" s="34" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="I15" s="32"/>
+      <c r="F15" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32" t="s">
+        <v>207</v>
+      </c>
       <c r="J15" s="34"/>
       <c r="K15" s="32"/>
       <c r="L15" s="34" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="33"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P15" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
+      <c r="B16" s="32" t="s">
+        <v>202</v>
+      </c>
       <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="D16" s="32" t="s">
+        <v>178</v>
+      </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="F16" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>211</v>
+      </c>
       <c r="H16" s="32"/>
-      <c r="I16" s="34"/>
+      <c r="I16" s="34" t="s">
+        <v>208</v>
+      </c>
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="32" t="s">
-        <v>50</v>
-      </c>
+      <c r="L16" s="32"/>
       <c r="M16" s="34"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
+      <c r="P16" s="32" t="s">
+        <v>180</v>
+      </c>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="32" t="s">
+        <v>179</v>
+      </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
+      <c r="F17" s="32" t="s">
+        <v>42</v>
+      </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="I17" s="32" t="s">
+        <v>209</v>
+      </c>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="32" t="s">
-        <v>31</v>
-      </c>
+      <c r="L17" s="32"/>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
+      <c r="P17" s="32" t="s">
+        <v>181</v>
+      </c>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="36"/>
+      <c r="D18" s="34" t="s">
+        <v>189</v>
+      </c>
       <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="32" t="s">
+        <v>44</v>
+      </c>
       <c r="G18" s="34"/>
       <c r="H18" s="32"/>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="32" t="s">
-        <v>36</v>
-      </c>
+      <c r="L18" s="32"/>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
+      <c r="P18" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="F19" s="34" t="s">
+        <v>197</v>
+      </c>
       <c r="G19" s="32"/>
       <c r="H19" s="36"/>
       <c r="I19" s="34"/>
       <c r="J19" s="32"/>
       <c r="K19" s="36"/>
-      <c r="L19" s="32" t="s">
-        <v>49</v>
-      </c>
+      <c r="L19" s="32"/>
       <c r="M19" s="32"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="F20" s="34" t="s">
+        <v>172</v>
+      </c>
       <c r="G20" s="32"/>
       <c r="H20" s="36"/>
       <c r="I20" s="34"/>
@@ -3185,7 +3428,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3204,7 +3447,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3222,7 +3465,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3241,179 +3484,137 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>87</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="D24" s="32" t="s">
+        <v>212</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>101</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="29" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>113</v>
+        <v>230</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="Q24" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="35"/>
-      <c r="B25" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>88</v>
-      </c>
+      <c r="B25" s="32"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>122</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>107</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="K25" s="32"/>
       <c r="L25" s="32" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="P25" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q25" s="33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="Q25" s="33"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="32" t="s">
-        <v>89</v>
-      </c>
+      <c r="D26" s="32"/>
       <c r="E26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32" t="s">
-        <v>51</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" s="32"/>
       <c r="L26" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="M26" s="32"/>
+        <v>225</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>228</v>
+      </c>
       <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q26" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O26" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="33"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>93</v>
-      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="32" t="s">
-        <v>34</v>
-      </c>
+      <c r="G27" s="32"/>
       <c r="H27" s="32"/>
-      <c r="I27" s="34" t="s">
-        <v>124</v>
-      </c>
+      <c r="I27" s="34"/>
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
-      <c r="L27" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="M27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32" t="s">
+        <v>229</v>
+      </c>
       <c r="N27" s="32"/>
       <c r="O27" s="32"/>
-      <c r="P27" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q27" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -3422,23 +3623,17 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
-      <c r="I28" s="32" t="s">
-        <v>125</v>
-      </c>
+      <c r="I28" s="32"/>
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
-      <c r="L28" s="32" t="s">
-        <v>112</v>
-      </c>
+      <c r="L28" s="32"/>
       <c r="M28" s="32"/>
       <c r="N28" s="36"/>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
-      <c r="Q28" s="33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q28" s="33"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -3447,9 +3642,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
-      <c r="I29" s="32" t="s">
-        <v>126</v>
-      </c>
+      <c r="I29" s="32"/>
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
@@ -3459,7 +3652,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -3478,7 +3671,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -3497,7 +3690,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -3516,7 +3709,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -3540,10 +3733,10 @@
     <sortCondition descending="1" ref="E10"/>
   </sortState>
   <conditionalFormatting sqref="B7:Q7">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -3561,91 +3754,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="M1" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="O1" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="P1" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="Q1" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="R1" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="S1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -3704,7 +3897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -3763,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -3822,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -3881,7 +4074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -3940,7 +4133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -4017,7 +4210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4038,7 +4231,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4059,182 +4252,182 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="N10" s="29"/>
       <c r="O10" s="29" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="P10" s="43" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="S10" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="34" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="N11" s="32"/>
       <c r="O11" s="32" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="R11" s="32"/>
       <c r="S11" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="R12" s="32"/>
       <c r="S12" s="33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
@@ -4243,26 +4436,26 @@
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
       <c r="P13" s="32" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="R13" s="32"/>
       <c r="S13" s="33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
@@ -4276,23 +4469,23 @@
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="32" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="R14" s="32"/>
       <c r="S14" s="33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="32"/>
@@ -4308,18 +4501,18 @@
       <c r="O15" s="32"/>
       <c r="P15" s="32"/>
       <c r="Q15" s="32" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
@@ -4335,12 +4528,12 @@
       <c r="O16" s="32"/>
       <c r="P16" s="32"/>
       <c r="Q16" s="32" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -4358,12 +4551,12 @@
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="32" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -4381,12 +4574,12 @@
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="32" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -4407,7 +4600,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="37"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4428,7 +4621,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4449,7 +4642,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4469,7 +4662,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4495,10 +4688,10 @@
     <sortCondition descending="1" ref="B10"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -4515,20 +4708,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -4626,9 +4819,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34">
       <c r="A2" s="45" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -4732,7 +4925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -4836,7 +5029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -4940,7 +5133,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -5044,12 +5237,12 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34">
       <c r="A7" s="45" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -5153,7 +5346,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -5257,7 +5450,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -5361,7 +5554,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -5465,12 +5658,12 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34">
       <c r="A12" s="45" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -5540,7 +5733,7 @@
         <v>21.76923076923077</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -5610,7 +5803,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -5680,7 +5873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -5757,89 +5950,89 @@
     <mergeCell ref="A12:A15"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:AF7">
-    <cfRule type="top10" dxfId="57" priority="25" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="56" priority="28" operator="lessThan">
+    <cfRule type="top10" dxfId="59" priority="25" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="58" priority="28" operator="lessThan">
       <formula>$AH$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="29" operator="greaterThan">
       <formula>$AH$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AF2">
-    <cfRule type="top10" dxfId="54" priority="24" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="53" priority="26" operator="lessThan">
+    <cfRule type="top10" dxfId="56" priority="24" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="55" priority="26" operator="lessThan">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="27" operator="greaterThan">
       <formula>$AH$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:AF9">
-    <cfRule type="top10" dxfId="51" priority="11" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="50" priority="22" operator="lessThan">
+    <cfRule type="top10" dxfId="53" priority="11" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="52" priority="22" operator="lessThan">
       <formula>$AH$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="23" operator="greaterThan">
       <formula>$AH$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AF4">
-    <cfRule type="top10" dxfId="48" priority="14" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="47" priority="20" operator="lessThan">
+    <cfRule type="top10" dxfId="50" priority="14" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="49" priority="20" operator="lessThan">
       <formula>$AH$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="21" operator="greaterThan">
       <formula>$AH$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:AF5">
-    <cfRule type="top10" dxfId="45" priority="13" percent="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="44" priority="18" operator="greaterThan">
+    <cfRule type="top10" dxfId="47" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="46" priority="18" operator="greaterThan">
       <formula>$AH$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="19" operator="lessThan">
       <formula>$AH$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:AF10">
-    <cfRule type="top10" dxfId="42" priority="12" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="41" priority="15" operator="greaterThan">
+    <cfRule type="top10" dxfId="44" priority="12" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="43" priority="15" operator="greaterThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="16" operator="lessThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="17" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AF12">
-    <cfRule type="top10" dxfId="38" priority="8" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="lessThan">
+    <cfRule type="top10" dxfId="40" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="lessThan">
       <formula>$AH$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="greaterThan">
       <formula>$AH$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AF14">
-    <cfRule type="top10" dxfId="35" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
+    <cfRule type="top10" dxfId="37" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="lessThan">
       <formula>$AH$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="greaterThan">
       <formula>$AH$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AF15">
-    <cfRule type="top10" dxfId="32" priority="2" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
+    <cfRule type="top10" dxfId="34" priority="2" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5849,21 +6042,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5973,9 +6166,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" s="45" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -6091,7 +6284,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6207,7 +6400,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -6323,7 +6516,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -6439,12 +6632,12 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" s="45" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -6560,7 +6753,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6676,7 +6869,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -6792,7 +6985,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -6908,12 +7101,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" s="45" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -6995,7 +7188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7077,7 +7270,7 @@
         <v>2.0588235294117645</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -7159,7 +7352,7 @@
         <v>5.9411764705882355</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38">
       <c r="A15" s="45"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -7248,89 +7441,89 @@
     <mergeCell ref="A12:A15"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:AJ7">
-    <cfRule type="top10" dxfId="28" priority="25" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
+    <cfRule type="top10" dxfId="30" priority="25" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AJ2">
-    <cfRule type="top10" dxfId="25" priority="24" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
+    <cfRule type="top10" dxfId="27" priority="24" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="lessThan">
       <formula>$AL$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="greaterThan">
       <formula>$AL$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:AJ9">
-    <cfRule type="top10" dxfId="22" priority="11" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
+    <cfRule type="top10" dxfId="24" priority="11" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AJ4">
-    <cfRule type="top10" dxfId="19" priority="14" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
+    <cfRule type="top10" dxfId="21" priority="14" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="lessThan">
       <formula>$AL$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="greaterThan">
       <formula>$AL$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:AJ5">
-    <cfRule type="top10" dxfId="16" priority="13" percent="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
+    <cfRule type="top10" dxfId="18" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
       <formula>$AL$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="lessThan">
       <formula>$AL$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:AJ10">
-    <cfRule type="top10" dxfId="13" priority="12" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
+    <cfRule type="top10" dxfId="15" priority="12" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AJ12">
-    <cfRule type="top10" dxfId="9" priority="8" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="top10" dxfId="11" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AJ14">
-    <cfRule type="top10" dxfId="6" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="top10" dxfId="8" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AJ15">
-    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="top10" dxfId="5" priority="2" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -1509,9 +1509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1532,35 +1529,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="62">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2309,6 +2285,30 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2577,7 +2577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2587,7 +2587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -2662,267 +2662,267 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="47">
-        <v>3</v>
-      </c>
-      <c r="C2" s="48">
-        <v>1</v>
-      </c>
-      <c r="D2" s="47">
-        <v>3</v>
-      </c>
-      <c r="E2" s="48">
-        <v>2</v>
-      </c>
-      <c r="F2" s="47">
-        <v>3</v>
-      </c>
-      <c r="G2" s="48">
-        <v>3</v>
-      </c>
-      <c r="H2" s="47">
-        <v>2</v>
-      </c>
-      <c r="I2" s="48">
-        <v>3</v>
-      </c>
-      <c r="J2" s="47">
-        <v>3</v>
-      </c>
-      <c r="K2" s="48">
+      <c r="B2" s="46">
+        <v>3</v>
+      </c>
+      <c r="C2" s="47">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46">
+        <v>3</v>
+      </c>
+      <c r="E2" s="47">
+        <v>2</v>
+      </c>
+      <c r="F2" s="46">
+        <v>3</v>
+      </c>
+      <c r="G2" s="47">
+        <v>3</v>
+      </c>
+      <c r="H2" s="46">
+        <v>2</v>
+      </c>
+      <c r="I2" s="47">
+        <v>3</v>
+      </c>
+      <c r="J2" s="46">
+        <v>3</v>
+      </c>
+      <c r="K2" s="47">
         <v>0</v>
       </c>
-      <c r="L2" s="47">
+      <c r="L2" s="46">
         <v>0</v>
       </c>
-      <c r="M2" s="48">
-        <v>2</v>
-      </c>
-      <c r="N2" s="47">
-        <v>1</v>
-      </c>
-      <c r="O2" s="48">
-        <v>2</v>
-      </c>
-      <c r="P2" s="47">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="49">
+      <c r="M2" s="47">
+        <v>2</v>
+      </c>
+      <c r="N2" s="46">
+        <v>1</v>
+      </c>
+      <c r="O2" s="47">
+        <v>2</v>
+      </c>
+      <c r="P2" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="50">
         <v>0</v>
       </c>
-      <c r="C3" s="52">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51">
-        <v>1</v>
-      </c>
-      <c r="E3" s="52">
-        <v>2</v>
-      </c>
-      <c r="F3" s="51">
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50">
+        <v>1</v>
+      </c>
+      <c r="E3" s="51">
+        <v>2</v>
+      </c>
+      <c r="F3" s="50">
         <v>0</v>
       </c>
-      <c r="G3" s="52">
-        <v>1</v>
-      </c>
-      <c r="H3" s="51">
+      <c r="G3" s="51">
+        <v>1</v>
+      </c>
+      <c r="H3" s="50">
         <v>0</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="51">
         <v>0</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="50">
         <v>0</v>
       </c>
-      <c r="K3" s="52">
-        <v>1</v>
-      </c>
-      <c r="L3" s="51">
-        <v>3</v>
-      </c>
-      <c r="M3" s="52">
-        <v>2</v>
-      </c>
-      <c r="N3" s="51">
-        <v>1</v>
-      </c>
-      <c r="O3" s="52">
+      <c r="K3" s="51">
+        <v>1</v>
+      </c>
+      <c r="L3" s="50">
+        <v>3</v>
+      </c>
+      <c r="M3" s="51">
+        <v>2</v>
+      </c>
+      <c r="N3" s="50">
+        <v>1</v>
+      </c>
+      <c r="O3" s="51">
         <v>0</v>
       </c>
-      <c r="P3" s="51">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="53">
+      <c r="P3" s="50">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="55">
-        <v>1</v>
-      </c>
-      <c r="C4" s="56">
+      <c r="B4" s="54">
+        <v>1</v>
+      </c>
+      <c r="C4" s="55">
         <v>0</v>
       </c>
-      <c r="D4" s="55">
-        <v>1</v>
-      </c>
-      <c r="E4" s="56">
+      <c r="D4" s="54">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55">
         <v>0</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="54">
         <v>0</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="55">
         <v>0</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="54">
         <v>0</v>
       </c>
-      <c r="I4" s="56">
-        <v>1</v>
-      </c>
-      <c r="J4" s="55">
-        <v>1</v>
-      </c>
-      <c r="K4" s="56">
-        <v>1</v>
-      </c>
-      <c r="L4" s="55">
-        <v>1</v>
-      </c>
-      <c r="M4" s="56">
+      <c r="I4" s="55">
+        <v>1</v>
+      </c>
+      <c r="J4" s="54">
+        <v>1</v>
+      </c>
+      <c r="K4" s="55">
+        <v>1</v>
+      </c>
+      <c r="L4" s="54">
+        <v>1</v>
+      </c>
+      <c r="M4" s="55">
         <v>0</v>
       </c>
-      <c r="N4" s="55">
-        <v>1</v>
-      </c>
-      <c r="O4" s="56">
+      <c r="N4" s="54">
+        <v>1</v>
+      </c>
+      <c r="O4" s="55">
         <v>0</v>
       </c>
-      <c r="P4" s="55">
+      <c r="P4" s="54">
         <v>0</v>
       </c>
-      <c r="Q4" s="57">
+      <c r="Q4" s="56">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="58">
         <v>9</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="59">
         <v>6</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="58">
         <v>11</v>
       </c>
-      <c r="E5" s="60">
-        <v>4</v>
-      </c>
-      <c r="F5" s="59">
+      <c r="E5" s="59">
+        <v>4</v>
+      </c>
+      <c r="F5" s="58">
         <v>14</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="59">
         <v>13</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="58">
         <v>6</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="59">
         <v>8</v>
       </c>
-      <c r="J5" s="59">
-        <v>5</v>
-      </c>
-      <c r="K5" s="60">
-        <v>2</v>
-      </c>
-      <c r="L5" s="59">
+      <c r="J5" s="58">
+        <v>5</v>
+      </c>
+      <c r="K5" s="59">
+        <v>2</v>
+      </c>
+      <c r="L5" s="58">
         <v>6</v>
       </c>
-      <c r="M5" s="60">
-        <v>4</v>
-      </c>
-      <c r="N5" s="59">
+      <c r="M5" s="59">
+        <v>4</v>
+      </c>
+      <c r="N5" s="58">
         <v>6</v>
       </c>
-      <c r="O5" s="60">
-        <v>5</v>
-      </c>
-      <c r="P5" s="59">
+      <c r="O5" s="59">
+        <v>5</v>
+      </c>
+      <c r="P5" s="58">
         <v>11</v>
       </c>
-      <c r="Q5" s="61">
+      <c r="Q5" s="60">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="63">
-        <v>5</v>
-      </c>
-      <c r="C6" s="64">
-        <v>3</v>
-      </c>
-      <c r="D6" s="63">
-        <v>5</v>
-      </c>
-      <c r="E6" s="64">
-        <v>1</v>
-      </c>
-      <c r="F6" s="63">
-        <v>1</v>
-      </c>
-      <c r="G6" s="64">
-        <v>1</v>
-      </c>
-      <c r="H6" s="63">
-        <v>2</v>
-      </c>
-      <c r="I6" s="64">
-        <v>3</v>
-      </c>
-      <c r="J6" s="63">
-        <v>2</v>
-      </c>
-      <c r="K6" s="64">
-        <v>4</v>
-      </c>
-      <c r="L6" s="63">
+      <c r="B6" s="62">
+        <v>5</v>
+      </c>
+      <c r="C6" s="63">
+        <v>3</v>
+      </c>
+      <c r="D6" s="62">
+        <v>5</v>
+      </c>
+      <c r="E6" s="63">
+        <v>1</v>
+      </c>
+      <c r="F6" s="62">
+        <v>1</v>
+      </c>
+      <c r="G6" s="63">
+        <v>1</v>
+      </c>
+      <c r="H6" s="62">
+        <v>2</v>
+      </c>
+      <c r="I6" s="63">
+        <v>3</v>
+      </c>
+      <c r="J6" s="62">
+        <v>2</v>
+      </c>
+      <c r="K6" s="63">
+        <v>4</v>
+      </c>
+      <c r="L6" s="62">
         <v>8</v>
       </c>
-      <c r="M6" s="64">
-        <v>2</v>
-      </c>
-      <c r="N6" s="63">
+      <c r="M6" s="63">
+        <v>2</v>
+      </c>
+      <c r="N6" s="62">
         <v>7</v>
       </c>
-      <c r="O6" s="64">
-        <v>1</v>
-      </c>
-      <c r="P6" s="63">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="65">
+      <c r="O6" s="63">
+        <v>1</v>
+      </c>
+      <c r="P6" s="62">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="64">
         <v>7</v>
       </c>
     </row>
@@ -3733,10 +3733,10 @@
     <sortCondition descending="1" ref="E10"/>
   </sortState>
   <conditionalFormatting sqref="B7:Q7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -4688,10 +4688,10 @@
     <sortCondition descending="1" ref="B10"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -4711,7 +4711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -4820,7 +4820,7 @@
       </c>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="65" t="s">
         <v>130</v>
       </c>
       <c r="B2" t="s">
@@ -4926,7 +4926,7 @@
       </c>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" s="45"/>
+      <c r="A3" s="65"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -5030,7 +5030,7 @@
       </c>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" s="45"/>
+      <c r="A4" s="65"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -5134,7 +5134,7 @@
       </c>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="45"/>
+      <c r="A5" s="65"/>
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -5241,7 +5241,7 @@
       <c r="AH6" s="42"/>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="65" t="s">
         <v>129</v>
       </c>
       <c r="B7" t="s">
@@ -5347,7 +5347,7 @@
       </c>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="45"/>
+      <c r="A8" s="65"/>
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -5451,7 +5451,7 @@
       </c>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="45"/>
+      <c r="A9" s="65"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -5555,7 +5555,7 @@
       </c>
     </row>
     <row r="10" spans="1:34">
-      <c r="A10" s="45"/>
+      <c r="A10" s="65"/>
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="AH11" s="42"/>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="65" t="s">
         <v>131</v>
       </c>
       <c r="B12" t="s">
@@ -5707,7 +5707,9 @@
       <c r="O12" s="1">
         <v>24</v>
       </c>
-      <c r="P12" s="1"/>
+      <c r="P12" s="1">
+        <v>16</v>
+      </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -5726,15 +5728,15 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>21.76923076923077</v>
+        <v>21.357142857142858</v>
       </c>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="45"/>
+      <c r="A13" s="65"/>
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -5777,7 +5779,9 @@
       <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="P13" s="1"/>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -5796,15 +5800,15 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>1.9230769230769231</v>
+        <v>1.9285714285714286</v>
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="45"/>
+      <c r="A14" s="65"/>
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -5847,7 +5851,9 @@
       <c r="O14" s="1">
         <v>3</v>
       </c>
-      <c r="P14" s="1"/>
+      <c r="P14" s="1">
+        <v>7</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -5866,15 +5872,15 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4</v>
+        <v>4.2142857142857144</v>
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" s="45"/>
+      <c r="A15" s="65"/>
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -5917,7 +5923,9 @@
       <c r="O15" s="1">
         <v>2</v>
       </c>
-      <c r="P15" s="1"/>
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -5936,11 +5944,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.2307692307692308</v>
+        <v>3.1428571428571428</v>
       </c>
     </row>
   </sheetData>
@@ -5950,89 +5958,89 @@
     <mergeCell ref="A12:A15"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:AF7">
-    <cfRule type="top10" dxfId="59" priority="25" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="58" priority="28" operator="lessThan">
+    <cfRule type="top10" dxfId="57" priority="25" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="56" priority="28" operator="lessThan">
       <formula>$AH$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="29" operator="greaterThan">
       <formula>$AH$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AF2">
-    <cfRule type="top10" dxfId="56" priority="24" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="55" priority="26" operator="lessThan">
+    <cfRule type="top10" dxfId="54" priority="24" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="53" priority="26" operator="lessThan">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="27" operator="greaterThan">
       <formula>$AH$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:AF9">
-    <cfRule type="top10" dxfId="53" priority="11" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="52" priority="22" operator="lessThan">
+    <cfRule type="top10" dxfId="51" priority="11" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="50" priority="22" operator="lessThan">
       <formula>$AH$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="23" operator="greaterThan">
       <formula>$AH$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AF4">
-    <cfRule type="top10" dxfId="50" priority="14" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="49" priority="20" operator="lessThan">
+    <cfRule type="top10" dxfId="48" priority="14" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="47" priority="20" operator="lessThan">
       <formula>$AH$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="21" operator="greaterThan">
       <formula>$AH$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:AF5">
-    <cfRule type="top10" dxfId="47" priority="13" percent="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="46" priority="18" operator="greaterThan">
+    <cfRule type="top10" dxfId="45" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="44" priority="18" operator="greaterThan">
       <formula>$AH$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="lessThan">
       <formula>$AH$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:AF10">
-    <cfRule type="top10" dxfId="44" priority="12" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="43" priority="15" operator="greaterThan">
+    <cfRule type="top10" dxfId="42" priority="12" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="41" priority="15" operator="greaterThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="16" operator="lessThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AF12">
-    <cfRule type="top10" dxfId="40" priority="8" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="lessThan">
+    <cfRule type="top10" dxfId="38" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="lessThan">
       <formula>$AH$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="greaterThan">
       <formula>$AH$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AF14">
-    <cfRule type="top10" dxfId="37" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="lessThan">
+    <cfRule type="top10" dxfId="35" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
       <formula>$AH$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="greaterThan">
       <formula>$AH$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AF15">
-    <cfRule type="top10" dxfId="34" priority="2" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
+    <cfRule type="top10" dxfId="32" priority="2" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6167,7 +6175,7 @@
       </c>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="65" t="s">
         <v>130</v>
       </c>
       <c r="B2" t="s">
@@ -6285,7 +6293,7 @@
       </c>
     </row>
     <row r="3" spans="1:38">
-      <c r="A3" s="45"/>
+      <c r="A3" s="65"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -6401,7 +6409,7 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="45"/>
+      <c r="A4" s="65"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -6517,7 +6525,7 @@
       </c>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="45"/>
+      <c r="A5" s="65"/>
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -6636,7 +6644,7 @@
       <c r="AL6" s="41"/>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="65" t="s">
         <v>129</v>
       </c>
       <c r="B7" t="s">
@@ -6754,7 +6762,7 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="45"/>
+      <c r="A8" s="65"/>
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -6870,7 +6878,7 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="45"/>
+      <c r="A9" s="65"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -6986,7 +6994,7 @@
       </c>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="45"/>
+      <c r="A10" s="65"/>
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -7105,7 +7113,7 @@
       <c r="AL11" s="41"/>
     </row>
     <row r="12" spans="1:38">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="65" t="s">
         <v>131</v>
       </c>
       <c r="B12" t="s">
@@ -7189,7 +7197,7 @@
       </c>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="45"/>
+      <c r="A13" s="65"/>
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -7271,7 +7279,7 @@
       </c>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="45"/>
+      <c r="A14" s="65"/>
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -7353,7 +7361,7 @@
       </c>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="45"/>
+      <c r="A15" s="65"/>
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -7441,89 +7449,89 @@
     <mergeCell ref="A12:A15"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:AJ7">
-    <cfRule type="top10" dxfId="30" priority="25" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="lessThan">
+    <cfRule type="top10" dxfId="28" priority="25" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AJ2">
-    <cfRule type="top10" dxfId="27" priority="24" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="lessThan">
+    <cfRule type="top10" dxfId="25" priority="24" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
       <formula>$AL$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="greaterThan">
       <formula>$AL$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:AJ9">
-    <cfRule type="top10" dxfId="24" priority="11" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
+    <cfRule type="top10" dxfId="22" priority="11" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AJ4">
-    <cfRule type="top10" dxfId="21" priority="14" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="lessThan">
+    <cfRule type="top10" dxfId="19" priority="14" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
       <formula>$AL$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="greaterThan">
       <formula>$AL$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:AJ5">
-    <cfRule type="top10" dxfId="18" priority="13" percent="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="top10" dxfId="16" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
       <formula>$AL$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="lessThan">
       <formula>$AL$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:AJ10">
-    <cfRule type="top10" dxfId="15" priority="12" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+    <cfRule type="top10" dxfId="13" priority="12" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AJ12">
-    <cfRule type="top10" dxfId="11" priority="8" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+    <cfRule type="top10" dxfId="9" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AJ14">
-    <cfRule type="top10" dxfId="8" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
+    <cfRule type="top10" dxfId="6" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AJ15">
-    <cfRule type="top10" dxfId="5" priority="2" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +32,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0">
+    <comment ref="N4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0">
+    <comment ref="Q4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1065,8 +1070,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2365,7 +2370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2400,7 +2405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2577,41 +2582,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2661,12 +2666,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="47">
         <v>1</v>
@@ -2681,7 +2686,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="46">
         <v>2</v>
@@ -2714,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
         <v>23</v>
       </c>
@@ -2767,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
@@ -2784,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="55">
         <v>0</v>
@@ -2811,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="54">
         <v>0</v>
@@ -2820,12 +2825,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="59">
         <v>6</v>
@@ -2837,10 +2842,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="58">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="59">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5" s="58">
         <v>6</v>
@@ -2873,7 +2878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>26</v>
       </c>
@@ -2890,10 +2895,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" s="63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="62">
         <v>2</v>
@@ -2917,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="O6" s="63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="62">
         <v>5</v>
@@ -2926,13 +2931,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="8">
         <f>B5-B6</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="20">
         <f>C5-C6</f>
@@ -2948,11 +2953,11 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
@@ -2984,7 +2989,7 @@
       </c>
       <c r="O7" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="0"/>
@@ -2995,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3014,7 +3019,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3033,7 +3038,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -3086,7 +3091,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>203</v>
@@ -3137,7 +3142,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>148</v>
@@ -3186,7 +3191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="34" t="s">
         <v>159</v>
@@ -3231,7 +3236,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>185</v>
@@ -3268,7 +3273,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>201</v>
@@ -3303,7 +3308,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>202</v>
@@ -3334,7 +3339,7 @@
       </c>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3361,7 +3366,7 @@
       </c>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -3386,7 +3391,7 @@
       </c>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -3407,7 +3412,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -3428,7 +3433,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3447,7 +3452,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3465,7 +3470,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3484,7 +3489,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>29</v>
       </c>
@@ -3528,7 +3533,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32"/>
       <c r="D25" s="36"/>
@@ -3562,7 +3567,7 @@
       </c>
       <c r="Q25" s="33"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -3593,7 +3598,7 @@
       <c r="P26" s="32"/>
       <c r="Q26" s="33"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -3614,7 +3619,7 @@
       <c r="P27" s="32"/>
       <c r="Q27" s="33"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -3633,7 +3638,7 @@
       <c r="P28" s="32"/>
       <c r="Q28" s="33"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -3652,7 +3657,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -3671,7 +3676,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -3690,7 +3695,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -3709,7 +3714,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1">
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -3754,35 +3759,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>46</v>
       </c>
@@ -3838,7 +3843,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -3897,7 +3902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -3956,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -4015,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -4074,7 +4079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -4133,7 +4138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -4210,7 +4215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4231,7 +4236,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4252,7 +4257,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -4309,7 +4314,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" t="s">
         <v>106</v>
@@ -4360,7 +4365,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>109</v>
@@ -4407,7 +4412,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>108</v>
@@ -4446,7 +4451,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>107</v>
@@ -4479,7 +4484,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>77</v>
@@ -4506,7 +4511,7 @@
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>78</v>
@@ -4533,7 +4538,7 @@
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -4556,7 +4561,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -4579,7 +4584,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -4600,7 +4605,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="37"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4621,7 +4626,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4642,7 +4647,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4662,7 +4667,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4708,20 +4713,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -4819,7 +4824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>130</v>
       </c>
@@ -4925,7 +4930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -5029,7 +5034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -5133,7 +5138,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -5237,10 +5242,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
         <v>129</v>
       </c>
@@ -5346,7 +5351,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -5450,7 +5455,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="65"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -5554,7 +5559,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -5658,10 +5663,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
         <v>131</v>
       </c>
@@ -5710,7 +5715,9 @@
       <c r="P12" s="1">
         <v>16</v>
       </c>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="1">
+        <v>12</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -5728,14 +5735,14 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>21.357142857142858</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+        <v>20.733333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -5782,7 +5789,9 @@
       <c r="P13" s="1">
         <v>2</v>
       </c>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1">
+        <v>2</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5800,14 +5809,14 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>1.9285714285714286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+        <v>1.9333333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -5854,7 +5863,9 @@
       <c r="P14" s="1">
         <v>7</v>
       </c>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1">
+        <v>6</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -5872,14 +5883,14 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.2142857142857144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -5926,7 +5937,9 @@
       <c r="P15" s="1">
         <v>2</v>
       </c>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1">
+        <v>5</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -5944,11 +5957,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.1428571428571428</v>
+        <v>3.2666666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -6050,21 +6063,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -6174,7 +6187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>130</v>
       </c>
@@ -6292,7 +6305,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6408,7 +6421,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -6524,7 +6537,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -6640,10 +6653,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
         <v>129</v>
       </c>
@@ -6761,7 +6774,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6877,7 +6890,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="65"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -6993,7 +7006,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -7109,10 +7122,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
         <v>131</v>
       </c>
@@ -7196,7 +7209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7278,7 +7291,7 @@
         <v>2.0588235294117645</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -7360,7 +7373,7 @@
         <v>5.9411764705882355</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" t="s">
         <v>21</v>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +27,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0">
+    <comment ref="Q4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="256">
   <si>
     <t>bramki</t>
   </si>
@@ -773,9 +768,6 @@
     <t>1 Cholewiak</t>
   </si>
   <si>
-    <t>1 Gutkovskis</t>
-  </si>
-  <si>
     <t>1 Litwa</t>
   </si>
   <si>
@@ -827,9 +819,6 @@
     <t>1 Frydrych</t>
   </si>
   <si>
-    <t>2 Rivaldinho</t>
-  </si>
-  <si>
     <t>1 Dytiatjew</t>
   </si>
   <si>
@@ -848,9 +837,6 @@
     <t>1 Mystkowski</t>
   </si>
   <si>
-    <t>6 Pekhart</t>
-  </si>
-  <si>
     <t>1 Cernych</t>
   </si>
   <si>
@@ -983,12 +969,6 @@
     <t>1 Rogoziński</t>
   </si>
   <si>
-    <t>2 Ślisz</t>
-  </si>
-  <si>
-    <t>1 Luquinhas</t>
-  </si>
-  <si>
     <t>Nastić</t>
   </si>
   <si>
@@ -1065,13 +1045,82 @@
   </si>
   <si>
     <t>Susnjara</t>
+  </si>
+  <si>
+    <t>2 Jimenez</t>
+  </si>
+  <si>
+    <t>2 Lopez</t>
+  </si>
+  <si>
+    <t>2 Gutkovskis</t>
+  </si>
+  <si>
+    <t>1 Jach</t>
+  </si>
+  <si>
+    <t>3 Rivaldinho</t>
+  </si>
+  <si>
+    <t>7 Pekhart</t>
+  </si>
+  <si>
+    <t>3 Ślisz</t>
+  </si>
+  <si>
+    <t>2 Luquinhas</t>
+  </si>
+  <si>
+    <t>1 Ceesay</t>
+  </si>
+  <si>
+    <t>1 Zahović</t>
+  </si>
+  <si>
+    <t>1 Chrapek</t>
+  </si>
+  <si>
+    <t>1 Winciersz</t>
+  </si>
+  <si>
+    <t>Boakye</t>
+  </si>
+  <si>
+    <t>Kvekveskiri</t>
+  </si>
+  <si>
+    <t>Długosz</t>
+  </si>
+  <si>
+    <t>Winciersz</t>
+  </si>
+  <si>
+    <t>Stoch</t>
+  </si>
+  <si>
+    <t>Bitok Stephen</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Wachowiak</t>
+  </si>
+  <si>
+    <t>Zrelak</t>
+  </si>
+  <si>
+    <t>Burman</t>
+  </si>
+  <si>
+    <t>Niepsuj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2370,7 +2419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2405,7 +2454,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2582,41 +2631,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2666,7 +2715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
@@ -2689,7 +2738,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="47">
         <v>3</v>
@@ -2701,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="47">
         <v>2</v>
@@ -2719,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" thickBot="1">
       <c r="A3" s="49" t="s">
         <v>23</v>
       </c>
@@ -2772,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
@@ -2780,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="54">
         <v>1</v>
@@ -2804,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="54">
         <v>1</v>
@@ -2825,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" thickBot="1">
       <c r="A5" s="57" t="s">
         <v>25</v>
       </c>
@@ -2833,7 +2882,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="59">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="58">
         <v>11</v>
@@ -2848,7 +2897,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="58">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I5" s="59">
         <v>8</v>
@@ -2857,10 +2906,10 @@
         <v>5</v>
       </c>
       <c r="K5" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" s="58">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M5" s="59">
         <v>4</v>
@@ -2878,7 +2927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" thickBot="1">
       <c r="A6" s="61" t="s">
         <v>26</v>
       </c>
@@ -2886,7 +2935,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="63">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" s="62">
         <v>5</v>
@@ -2901,7 +2950,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="63">
         <v>3</v>
@@ -2910,10 +2959,10 @@
         <v>2</v>
       </c>
       <c r="K6" s="63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L6" s="62">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M6" s="63">
         <v>2</v>
@@ -2931,7 +2980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -2941,7 +2990,7 @@
       </c>
       <c r="C7" s="20">
         <f>C5-C6</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:Q7" si="0">D5-D6</f>
@@ -2961,7 +3010,7 @@
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="0"/>
@@ -2973,11 +3022,11 @@
       </c>
       <c r="K7" s="20">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M7" s="20">
         <f t="shared" si="0"/>
@@ -3000,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3019,7 +3068,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3038,45 +3087,45 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="G10" s="29" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>132</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N10" s="29" t="s">
         <v>38</v>
@@ -3085,19 +3134,19 @@
         <v>34</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>40</v>
@@ -3106,101 +3155,103 @@
         <v>133</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>136</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G12" s="32" t="s">
         <v>137</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I12" s="32" t="s">
         <v>36</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="K12" s="32"/>
+        <v>171</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>242</v>
+      </c>
       <c r="L12" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>35</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q12" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="35"/>
       <c r="B13" s="34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32" t="s">
@@ -3210,13 +3261,13 @@
         <v>138</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32" t="s">
@@ -3224,59 +3275,63 @@
       </c>
       <c r="M13" s="32"/>
       <c r="N13" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="32"/>
+        <v>182</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>233</v>
+      </c>
       <c r="D14" s="32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="32"/>
+      <c r="H14" s="32" t="s">
+        <v>243</v>
+      </c>
       <c r="I14" s="32" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
       <c r="L14" s="34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="34" t="s">
@@ -3284,67 +3339,71 @@
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="H15" s="32"/>
+        <v>239</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>244</v>
+      </c>
       <c r="I15" s="32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="32"/>
       <c r="L15" s="34" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
       <c r="P15" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="34" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+      <c r="L16" s="32" t="s">
+        <v>234</v>
+      </c>
       <c r="M16" s="34"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
       <c r="P16" s="32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32" t="s">
@@ -3353,25 +3412,27 @@
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+      <c r="L17" s="32" t="s">
+        <v>236</v>
+      </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="32" t="s">
@@ -3391,14 +3452,14 @@
       </c>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
       <c r="F19" s="34" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="36"/>
@@ -3412,14 +3473,14 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
       <c r="F20" s="34" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="36"/>
@@ -3433,13 +3494,15 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
+      <c r="F21" s="34" t="s">
+        <v>241</v>
+      </c>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="32"/>
@@ -3452,7 +3515,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3470,7 +3533,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3489,137 +3552,156 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="29"/>
+      <c r="C24" t="s">
+        <v>245</v>
+      </c>
       <c r="D24" s="32" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="H24" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="I24" s="29" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M24" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="N24" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="O24" s="29" t="s">
+      <c r="P24" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q24" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="P24" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q24" s="30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="35"/>
       <c r="B25" s="32"/>
-      <c r="D25" s="36"/>
+      <c r="D25" s="36" t="s">
+        <v>250</v>
+      </c>
       <c r="E25" s="32" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="32" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K25" s="32"/>
       <c r="L25" s="32" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N25" s="32" t="s">
         <v>41</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P25" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="32" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="32" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N26" s="32"/>
       <c r="O26" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="P26" s="32"/>
+        <v>228</v>
+      </c>
+      <c r="P26" s="32" t="s">
+        <v>252</v>
+      </c>
       <c r="Q26" s="33"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="E27" s="32" t="s">
+        <v>246</v>
+      </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="34"/>
-      <c r="J27" s="32"/>
+      <c r="J27" s="32" t="s">
+        <v>251</v>
+      </c>
       <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
+      <c r="L27" s="32" t="s">
+        <v>247</v>
+      </c>
       <c r="M27" s="32" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
+      <c r="O27" s="32" t="s">
+        <v>253</v>
+      </c>
       <c r="P27" s="32"/>
       <c r="Q27" s="33"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -3629,16 +3711,20 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
+      <c r="J28" s="32" t="s">
+        <v>255</v>
+      </c>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
       <c r="N28" s="36"/>
-      <c r="O28" s="32"/>
+      <c r="O28" s="32" t="s">
+        <v>254</v>
+      </c>
       <c r="P28" s="32"/>
       <c r="Q28" s="33"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -3657,7 +3743,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -3676,7 +3762,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -3695,7 +3781,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -3714,7 +3800,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -3759,35 +3845,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>46</v>
       </c>
@@ -3843,7 +3929,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -3902,7 +3988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -3961,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -4020,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -4079,7 +4165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -4138,7 +4224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -4215,7 +4301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4236,7 +4322,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4257,7 +4343,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -4314,7 +4400,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" t="s">
         <v>106</v>
@@ -4365,7 +4451,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>109</v>
@@ -4412,7 +4498,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>108</v>
@@ -4451,7 +4537,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>107</v>
@@ -4484,7 +4570,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>77</v>
@@ -4511,7 +4597,7 @@
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>78</v>
@@ -4538,7 +4624,7 @@
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -4561,7 +4647,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -4584,7 +4670,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -4605,7 +4691,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="37"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4626,7 +4712,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4647,7 +4733,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4667,7 +4753,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4713,20 +4799,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -4824,7 +4910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34">
       <c r="A2" s="65" t="s">
         <v>130</v>
       </c>
@@ -4930,7 +5016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34">
       <c r="A3" s="65"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -5034,7 +5120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34">
       <c r="A4" s="65"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -5138,7 +5224,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34">
       <c r="A5" s="65"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -5242,10 +5328,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34">
       <c r="A7" s="65" t="s">
         <v>129</v>
       </c>
@@ -5351,7 +5437,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34">
       <c r="A8" s="65"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -5455,7 +5541,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34">
       <c r="A9" s="65"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -5559,7 +5645,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34">
       <c r="A10" s="65"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -5663,10 +5749,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34">
       <c r="A12" s="65" t="s">
         <v>131</v>
       </c>
@@ -5742,7 +5828,7 @@
         <v>20.733333333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34">
       <c r="A13" s="65"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -5816,7 +5902,7 @@
         <v>1.9333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34">
       <c r="A14" s="65"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -5890,7 +5976,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34">
       <c r="A15" s="65"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -6063,21 +6149,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -6187,7 +6273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" s="65" t="s">
         <v>130</v>
       </c>
@@ -6305,7 +6391,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38">
       <c r="A3" s="65"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6421,7 +6507,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="A4" s="65"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -6537,7 +6623,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38">
       <c r="A5" s="65"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -6653,10 +6739,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" s="65" t="s">
         <v>129</v>
       </c>
@@ -6774,7 +6860,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38">
       <c r="A8" s="65"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6890,7 +6976,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" s="65"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -7006,7 +7092,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" s="65"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -7122,10 +7208,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" s="65" t="s">
         <v>131</v>
       </c>
@@ -7209,7 +7295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38">
       <c r="A13" s="65"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7291,7 +7377,7 @@
         <v>2.0588235294117645</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" s="65"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -7373,7 +7459,7 @@
         <v>5.9411764705882355</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38">
       <c r="A15" s="65"/>
       <c r="B15" t="s">
         <v>21</v>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +32,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0">
+    <comment ref="N4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0">
+    <comment ref="Q4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="323">
   <si>
     <t>bramki</t>
   </si>
@@ -540,201 +545,21 @@
     <t>1 Demianiuk</t>
   </si>
   <si>
-    <t>1 Hebel</t>
-  </si>
-  <si>
-    <t>1 Klisiewicz</t>
-  </si>
-  <si>
-    <t>2 Wolsztyński</t>
-  </si>
-  <si>
-    <t>2 Bondarenko</t>
-  </si>
-  <si>
-    <t>1 Szarek</t>
-  </si>
-  <si>
-    <t>1 Długosz</t>
-  </si>
-  <si>
-    <t>1 Sowiński</t>
-  </si>
-  <si>
-    <t>1 Ratajczyk</t>
-  </si>
-  <si>
-    <t>1 Pirulo</t>
-  </si>
-  <si>
-    <t>1 Sajdak</t>
-  </si>
-  <si>
-    <t>2 Misak</t>
-  </si>
-  <si>
-    <t>1 Mikinic</t>
-  </si>
-  <si>
-    <t>2 Markiewicz</t>
-  </si>
-  <si>
-    <t>1 Marciniak</t>
-  </si>
-  <si>
-    <t>1 A.Siemaszko</t>
-  </si>
-  <si>
-    <t>1 Rumin</t>
-  </si>
-  <si>
-    <t>2 Łukowski</t>
-  </si>
-  <si>
-    <t>1 Drzazga</t>
-  </si>
-  <si>
-    <t>1 Matuszek</t>
-  </si>
-  <si>
-    <t>1 Danielewicz</t>
-  </si>
-  <si>
-    <t>1 Szymański</t>
-  </si>
-  <si>
-    <t>1 Podliński</t>
-  </si>
-  <si>
-    <t>1 Warnecki</t>
-  </si>
-  <si>
-    <t>2 Banaszak</t>
-  </si>
-  <si>
-    <t>1 Zalepa</t>
-  </si>
-  <si>
     <t>1 Feret</t>
   </si>
   <si>
-    <t>1 Karbowy</t>
-  </si>
-  <si>
-    <t>1 Sangowski</t>
-  </si>
-  <si>
-    <t>1 D.Nowak</t>
-  </si>
-  <si>
-    <t>1 Bonecki</t>
-  </si>
-  <si>
-    <t>1 Hilbrycht</t>
-  </si>
-  <si>
-    <t>1 Ilków-Gołąb</t>
-  </si>
-  <si>
-    <t>3 Ojamaa</t>
-  </si>
-  <si>
-    <t>1 Tanżyna</t>
-  </si>
-  <si>
-    <t>1 Prochownik</t>
-  </si>
-  <si>
-    <t>1 Kr.Nowak</t>
-  </si>
-  <si>
-    <t>1 Szymura</t>
-  </si>
-  <si>
-    <t>1 Dominguez</t>
-  </si>
-  <si>
-    <t>1 Gryszkiewicz</t>
-  </si>
-  <si>
-    <t>3 Żytek</t>
-  </si>
-  <si>
-    <t>2 Stefanik</t>
-  </si>
-  <si>
-    <t>1 Mikołajczyk</t>
-  </si>
-  <si>
     <t>2 Letniowski</t>
   </si>
   <si>
     <t>1 Mazek</t>
   </si>
   <si>
-    <t>1 Vinicius</t>
-  </si>
-  <si>
-    <t>2 Danch</t>
-  </si>
-  <si>
-    <t>1 Kovaljonoks</t>
-  </si>
-  <si>
-    <t>1 Szota</t>
-  </si>
-  <si>
-    <t>2 Ali</t>
-  </si>
-  <si>
-    <t>1 Wolniewicz</t>
-  </si>
-  <si>
-    <t>3 Leandro</t>
-  </si>
-  <si>
-    <t>2 Sokół</t>
-  </si>
-  <si>
-    <t>5 Wlazło</t>
-  </si>
-  <si>
-    <t>1 Śpiewak</t>
-  </si>
-  <si>
-    <t>2 Kiełb</t>
-  </si>
-  <si>
-    <t>1 Cetnarski</t>
-  </si>
-  <si>
-    <t>1 Kaczmarski</t>
-  </si>
-  <si>
     <t>1 Łysiak</t>
   </si>
   <si>
-    <t>1 Kamiński</t>
-  </si>
-  <si>
-    <t>2 Fundambu</t>
-  </si>
-  <si>
-    <t>1 Robak</t>
-  </si>
-  <si>
-    <t>1 Czubak</t>
-  </si>
-  <si>
-    <t>1 Kasprzyk</t>
-  </si>
-  <si>
     <t>1 Flaszka</t>
   </si>
   <si>
-    <t>2 Szymkiewicz</t>
-  </si>
-  <si>
     <t>2019/2020</t>
   </si>
   <si>
@@ -750,12 +575,6 @@
     <t>2 Szymczak</t>
   </si>
   <si>
-    <t>1 Szczęch</t>
-  </si>
-  <si>
-    <t>1 Szczepan</t>
-  </si>
-  <si>
     <t>1 Gwilia</t>
   </si>
   <si>
@@ -1114,13 +933,400 @@
   </si>
   <si>
     <t>Niepsuj</t>
+  </si>
+  <si>
+    <t>1 Sobociński</t>
+  </si>
+  <si>
+    <t>1 Janczukiewicz</t>
+  </si>
+  <si>
+    <t>1 Cikos</t>
+  </si>
+  <si>
+    <t>1 Sovsić</t>
+  </si>
+  <si>
+    <t>1 Małkowski</t>
+  </si>
+  <si>
+    <t>1 Pervan</t>
+  </si>
+  <si>
+    <t>1 Azikiewicz</t>
+  </si>
+  <si>
+    <t>1 Kargulewicz</t>
+  </si>
+  <si>
+    <t>1 Nowak</t>
+  </si>
+  <si>
+    <t>1 Szeliga</t>
+  </si>
+  <si>
+    <t>1 Spławski</t>
+  </si>
+  <si>
+    <t>1 Stefanik</t>
+  </si>
+  <si>
+    <t>1 Machaj</t>
+  </si>
+  <si>
+    <t>1 Mikulec</t>
+  </si>
+  <si>
+    <t>1 Adamski</t>
+  </si>
+  <si>
+    <t>1 Kort</t>
+  </si>
+  <si>
+    <t>1 Caique</t>
+  </si>
+  <si>
+    <t>1 Tront</t>
+  </si>
+  <si>
+    <t>2 Steblecki</t>
+  </si>
+  <si>
+    <t>1 Krykun</t>
+  </si>
+  <si>
+    <t>4 Wróbel</t>
+  </si>
+  <si>
+    <t>1 Sobczak</t>
+  </si>
+  <si>
+    <t>1 Małecki</t>
+  </si>
+  <si>
+    <t>1 Drewniak</t>
+  </si>
+  <si>
+    <t>1 Kunka</t>
+  </si>
+  <si>
+    <t>3 Feruga</t>
+  </si>
+  <si>
+    <t>1 Komor</t>
+  </si>
+  <si>
+    <t>2 Hebel</t>
+  </si>
+  <si>
+    <t>1 Podhorin</t>
+  </si>
+  <si>
+    <t>2 Chmiel</t>
+  </si>
+  <si>
+    <t>1 Podgórski</t>
+  </si>
+  <si>
+    <t>2 Szczepan</t>
+  </si>
+  <si>
+    <t>1 Banach</t>
+  </si>
+  <si>
+    <t>1 Diane</t>
+  </si>
+  <si>
+    <t>1 Scheidt</t>
+  </si>
+  <si>
+    <t>1 Żyra</t>
+  </si>
+  <si>
+    <t>1 Wlazło</t>
+  </si>
+  <si>
+    <t>1 Baranskyj</t>
+  </si>
+  <si>
+    <t>2 Rosołek</t>
+  </si>
+  <si>
+    <t>1 Valcarce</t>
+  </si>
+  <si>
+    <t>1 Rossi</t>
+  </si>
+  <si>
+    <t>1 Kaczmarek</t>
+  </si>
+  <si>
+    <t>1 Garcia</t>
+  </si>
+  <si>
+    <t>1 Wojciechowski</t>
+  </si>
+  <si>
+    <t>1 Machała</t>
+  </si>
+  <si>
+    <t>1 Zdybowicz</t>
+  </si>
+  <si>
+    <t>1 Sekulski</t>
+  </si>
+  <si>
+    <t>1 Kuświk</t>
+  </si>
+  <si>
+    <t>1 Surzyn</t>
+  </si>
+  <si>
+    <t>1 Sluga</t>
+  </si>
+  <si>
+    <t>3 Biel</t>
+  </si>
+  <si>
+    <t>1 Wolsztyński</t>
+  </si>
+  <si>
+    <t>3 Marcjanik</t>
+  </si>
+  <si>
+    <t>2 Łapiński</t>
+  </si>
+  <si>
+    <t>2 Tomalski</t>
+  </si>
+  <si>
+    <t>1 Radionow</t>
+  </si>
+  <si>
+    <t>1 Thiakane</t>
+  </si>
+  <si>
+    <t>2 Ebwelle</t>
+  </si>
+  <si>
+    <t>3 Podliński</t>
+  </si>
+  <si>
+    <t>1 Bogusz</t>
+  </si>
+  <si>
+    <t>1 Łuczak</t>
+  </si>
+  <si>
+    <t>1 Leandro</t>
+  </si>
+  <si>
+    <t>1 Karwot</t>
+  </si>
+  <si>
+    <t>1 Juraszek</t>
+  </si>
+  <si>
+    <t>1 Mandrysz</t>
+  </si>
+  <si>
+    <t>3 Winsztal</t>
+  </si>
+  <si>
+    <t>1 Pajnowski</t>
+  </si>
+  <si>
+    <t>1 Kukułowicz</t>
+  </si>
+  <si>
+    <t>5 Śpiączka</t>
+  </si>
+  <si>
+    <t>3 Rumin</t>
+  </si>
+  <si>
+    <t>4 Radecki</t>
+  </si>
+  <si>
+    <t>1 Bodzioch</t>
+  </si>
+  <si>
+    <t>1 Zieliński</t>
+  </si>
+  <si>
+    <t>1 Lehaire</t>
+  </si>
+  <si>
+    <t>1 Kwolek</t>
+  </si>
+  <si>
+    <t>3 Drzazga</t>
+  </si>
+  <si>
+    <t>2 Spychała</t>
+  </si>
+  <si>
+    <t>1 Hinokio</t>
+  </si>
+  <si>
+    <t>1 van Huffel</t>
+  </si>
+  <si>
+    <t>1 Ameyaw</t>
+  </si>
+  <si>
+    <t>1 Kita</t>
+  </si>
+  <si>
+    <t>1 Kiełbasa</t>
+  </si>
+  <si>
+    <t>1 Gergel</t>
+  </si>
+  <si>
+    <t>2 Lewicki</t>
+  </si>
+  <si>
+    <t>1 Grzeszczyk</t>
+  </si>
+  <si>
+    <t>1 J.Piątek</t>
+  </si>
+  <si>
+    <t>1 K.Piątek</t>
+  </si>
+  <si>
+    <t>1 Piła</t>
+  </si>
+  <si>
+    <t>2 Lebedyński</t>
+  </si>
+  <si>
+    <t>3 Mas</t>
+  </si>
+  <si>
+    <t>1 Koziara</t>
+  </si>
+  <si>
+    <t>2 Deja</t>
+  </si>
+  <si>
+    <t>1 Gancarczyk</t>
+  </si>
+  <si>
+    <t>2 Bartosz</t>
+  </si>
+  <si>
+    <t>1 Rakoczy</t>
+  </si>
+  <si>
+    <t>2 Rubio</t>
+  </si>
+  <si>
+    <t>1 Ogorzały</t>
+  </si>
+  <si>
+    <t>5 Victor</t>
+  </si>
+  <si>
+    <t>1 Możdżeń</t>
+  </si>
+  <si>
+    <t>2 Czubak</t>
+  </si>
+  <si>
+    <t>5 Tomczyk</t>
+  </si>
+  <si>
+    <t>1 Ali</t>
+  </si>
+  <si>
+    <t>1 Kulawiak</t>
+  </si>
+  <si>
+    <t>1 Mróz</t>
+  </si>
+  <si>
+    <t>1 Apolinarski</t>
+  </si>
+  <si>
+    <t>1 Misak</t>
+  </si>
+  <si>
+    <t>2 Gregorio</t>
+  </si>
+  <si>
+    <t>1 Orłowski</t>
+  </si>
+  <si>
+    <t>1 Wasiluk</t>
+  </si>
+  <si>
+    <t>2 Domoń</t>
+  </si>
+  <si>
+    <t>3 Żak</t>
+  </si>
+  <si>
+    <t>1 Wróbel</t>
+  </si>
+  <si>
+    <t>1 Winiarczyk</t>
+  </si>
+  <si>
+    <t>1 Poczobut</t>
+  </si>
+  <si>
+    <t>2 Bednarski</t>
+  </si>
+  <si>
+    <t>2 Zapolnik</t>
+  </si>
+  <si>
+    <t>2 Makuch</t>
+  </si>
+  <si>
+    <t>5 Żebrowski</t>
+  </si>
+  <si>
+    <t>1 Dynel</t>
+  </si>
+  <si>
+    <t>3 Szczutowski</t>
+  </si>
+  <si>
+    <t>1 Sierant</t>
+  </si>
+  <si>
+    <t>1 Szramka</t>
+  </si>
+  <si>
+    <t>1 Tecław</t>
+  </si>
+  <si>
+    <t>1 Węsierski</t>
+  </si>
+  <si>
+    <t>1 Mosakowski</t>
+  </si>
+  <si>
+    <t>1 Puchacz</t>
+  </si>
+  <si>
+    <t>Kurzawa</t>
+  </si>
+  <si>
+    <t>Yakshiboev</t>
+  </si>
+  <si>
+    <t>Johannsson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2631,41 +2837,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2715,7 +2921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
@@ -2768,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
         <v>23</v>
       </c>
@@ -2782,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="50">
         <v>0</v>
@@ -2821,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
@@ -2874,7 +3080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>25</v>
       </c>
@@ -2888,7 +3094,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="58">
         <v>15</v>
@@ -2927,7 +3133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>26</v>
       </c>
@@ -2941,7 +3147,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="62">
         <v>4</v>
@@ -2980,7 +3186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -3049,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3068,7 +3274,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3087,45 +3293,45 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="N10" s="29" t="s">
         <v>38</v>
@@ -3134,140 +3340,142 @@
         <v>34</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="I12" s="32" t="s">
         <v>36</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="L12" s="32" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>35</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="34" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="32"/>
+        <v>100</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>319</v>
+      </c>
       <c r="F13" s="32" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32" t="s">
@@ -3275,63 +3483,63 @@
       </c>
       <c r="M13" s="32"/>
       <c r="N13" s="32" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
       <c r="L14" s="34" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="34" t="s">
@@ -3339,71 +3547,71 @@
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="32"/>
       <c r="L15" s="34" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
       <c r="P15" s="32" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="32" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="34" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
       <c r="P16" s="32" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="32" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32" t="s">
@@ -3412,27 +3620,27 @@
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="34" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="32" t="s">
@@ -3452,14 +3660,14 @@
       </c>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
       <c r="F19" s="34" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="36"/>
@@ -3473,14 +3681,14 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
       <c r="F20" s="34" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="36"/>
@@ -3494,14 +3702,14 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
       <c r="F21" s="34" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
@@ -3515,7 +3723,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3533,7 +3741,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3552,179 +3760,185 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="G24" s="29"/>
+        <v>149</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>321</v>
+      </c>
       <c r="H24" s="29" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32"/>
       <c r="D25" s="36" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="K25" s="32"/>
+        <v>153</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>320</v>
+      </c>
       <c r="L25" s="32" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="N25" s="32" t="s">
         <v>41</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="P25" s="32" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="32" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="32" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="N26" s="32"/>
       <c r="O26" s="32" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="33"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
       <c r="E27" s="32" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="34"/>
       <c r="J27" s="32" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="32" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="N27" s="32"/>
       <c r="O27" s="32" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="P27" s="32"/>
       <c r="Q27" s="33"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="32"/>
+      <c r="E28" s="32" t="s">
+        <v>322</v>
+      </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="32" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
       <c r="N28" s="36"/>
       <c r="O28" s="32" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="P28" s="32"/>
       <c r="Q28" s="33"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -3743,7 +3957,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -3762,7 +3976,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -3781,7 +3995,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -3800,7 +4014,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1">
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -3845,35 +4059,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>46</v>
       </c>
@@ -3929,12 +4143,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
@@ -3943,52 +4157,52 @@
         <v>1</v>
       </c>
       <c r="E2" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O2" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P2" s="5">
         <v>2</v>
       </c>
       <c r="Q2" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S2" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -3996,58 +4210,58 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
       </c>
       <c r="E3" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
       </c>
       <c r="H3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="10">
         <v>0</v>
       </c>
       <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>2</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10">
+        <v>2</v>
+      </c>
+      <c r="P3" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>1</v>
+      </c>
+      <c r="R3" s="11">
         <v>0</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10">
-        <v>2</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>0</v>
-      </c>
-      <c r="R3" s="11">
-        <v>1</v>
       </c>
       <c r="S3" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -4058,250 +4272,250 @@
         <v>2</v>
       </c>
       <c r="D4" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
         <v>0</v>
       </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
       <c r="G4" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="13">
         <v>3</v>
       </c>
       <c r="K4" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4" s="13">
         <v>2</v>
       </c>
       <c r="M4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R4" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="6">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
         <v>7</v>
       </c>
-      <c r="F5" s="5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="6">
-        <v>8</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
       <c r="I5" s="6">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5">
+        <v>15</v>
+      </c>
+      <c r="K5" s="6">
+        <v>11</v>
+      </c>
+      <c r="L5" s="5">
+        <v>14</v>
+      </c>
+      <c r="M5" s="6">
         <v>7</v>
       </c>
-      <c r="J5" s="5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="6">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>3</v>
-      </c>
-      <c r="M5" s="6">
-        <v>2</v>
-      </c>
       <c r="N5" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O5" s="6">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P5" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R5" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S5" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" s="17">
+        <v>6</v>
+      </c>
+      <c r="D6" s="16">
+        <v>8</v>
+      </c>
+      <c r="E6" s="17">
+        <v>11</v>
+      </c>
+      <c r="F6" s="16">
+        <v>4</v>
+      </c>
+      <c r="G6" s="17">
+        <v>6</v>
+      </c>
+      <c r="H6" s="16">
+        <v>5</v>
+      </c>
+      <c r="I6" s="17">
+        <v>10</v>
+      </c>
+      <c r="J6" s="16">
+        <v>12</v>
+      </c>
+      <c r="K6" s="17">
+        <v>11</v>
+      </c>
+      <c r="L6" s="16">
+        <v>11</v>
+      </c>
+      <c r="M6" s="17">
+        <v>3</v>
+      </c>
+      <c r="N6" s="16">
+        <v>7</v>
+      </c>
+      <c r="O6" s="17">
+        <v>8</v>
+      </c>
+      <c r="P6" s="16">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>14</v>
+      </c>
+      <c r="R6" s="18">
+        <v>4</v>
+      </c>
+      <c r="S6" s="18">
         <v>9</v>
       </c>
-      <c r="D6" s="16">
-        <v>6</v>
-      </c>
-      <c r="E6" s="17">
-        <v>3</v>
-      </c>
-      <c r="F6" s="16">
-        <v>5</v>
-      </c>
-      <c r="G6" s="17">
-        <v>3</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2</v>
-      </c>
-      <c r="I6" s="17">
-        <v>4</v>
-      </c>
-      <c r="J6" s="16">
-        <v>7</v>
-      </c>
-      <c r="K6" s="17">
-        <v>7</v>
-      </c>
-      <c r="L6" s="16">
-        <v>5</v>
-      </c>
-      <c r="M6" s="17">
-        <v>3</v>
-      </c>
-      <c r="N6" s="16">
-        <v>8</v>
-      </c>
-      <c r="O6" s="17">
-        <v>9</v>
-      </c>
-      <c r="P6" s="16">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>2</v>
-      </c>
-      <c r="R6" s="18">
-        <v>2</v>
-      </c>
-      <c r="S6" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="8">
         <f>B5-B6</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="20">
         <f>C5-C6</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:S7" si="0">D5-D6</f>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="20">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="M7" s="20">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="O7" s="20">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="Q7" s="21">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R7" s="21">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4322,7 +4536,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4343,376 +4557,508 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="C10" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q11" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q10" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="S10" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="31"/>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="R11" s="32"/>
+      <c r="R11" s="32" t="s">
+        <v>213</v>
+      </c>
       <c r="S11" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
-      <c r="B12" s="32" t="s">
-        <v>109</v>
+      <c r="B12" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="32"/>
+        <v>276</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>282</v>
+      </c>
       <c r="I12" s="32" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
+        <v>304</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>198</v>
+      </c>
       <c r="O12" s="32" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="R12" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>237</v>
+      </c>
       <c r="S12" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>101</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D13" s="32"/>
       <c r="E13" s="32" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="H13" s="32" t="s">
+        <v>258</v>
+      </c>
       <c r="I13" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
+        <v>114</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>283</v>
+      </c>
       <c r="P13" s="32" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="R13" s="32"/>
+        <v>293</v>
+      </c>
+      <c r="R13" s="32" t="s">
+        <v>260</v>
+      </c>
       <c r="S13" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
+        <v>65</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>235</v>
+      </c>
       <c r="G14" s="34"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
+      <c r="H14" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>259</v>
+      </c>
       <c r="P14" s="32" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="R14" s="32"/>
+        <v>202</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>261</v>
+      </c>
       <c r="S14" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
-      <c r="B15" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>69</v>
-      </c>
+      <c r="B15" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="32"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="E15" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>266</v>
+      </c>
       <c r="G15" s="34"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
+      <c r="I15" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>272</v>
+      </c>
       <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
+      <c r="N15" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>295</v>
+      </c>
       <c r="Q15" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="R15" s="32"/>
-      <c r="S15" s="33"/>
-    </row>
-    <row r="16" spans="1:19">
+        <v>273</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="S15" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
-      <c r="B16" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>119</v>
-      </c>
+      <c r="B16" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="32"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+      <c r="E16" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>310</v>
+      </c>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+      <c r="I16" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>314</v>
+      </c>
       <c r="M16" s="34"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
+      <c r="P16" s="32" t="s">
+        <v>296</v>
+      </c>
       <c r="Q16" s="32" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="R16" s="32"/>
-      <c r="S16" s="33"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="S16" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+      <c r="B17" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
+      <c r="E17" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>267</v>
+      </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+      <c r="I17" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>315</v>
+      </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
+      <c r="P17" s="32" t="s">
+        <v>297</v>
+      </c>
       <c r="Q17" s="32" t="s">
-        <v>124</v>
+        <v>292</v>
       </c>
       <c r="R17" s="32"/>
-      <c r="S17" s="33"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="S17" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+      <c r="E18" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>308</v>
+      </c>
       <c r="G18" s="34"/>
       <c r="H18" s="32"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="I18" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>280</v>
+      </c>
       <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+      <c r="L18" s="32" t="s">
+        <v>316</v>
+      </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
+      <c r="P18" s="32" t="s">
+        <v>298</v>
+      </c>
       <c r="Q18" s="32" t="s">
-        <v>125</v>
+        <v>307</v>
       </c>
       <c r="R18" s="32"/>
-      <c r="S18" s="33"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="S18" s="33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>268</v>
+      </c>
       <c r="G19" s="32"/>
       <c r="H19" s="36"/>
       <c r="I19" s="34"/>
       <c r="J19" s="32"/>
       <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
+      <c r="L19" s="34" t="s">
+        <v>317</v>
+      </c>
       <c r="M19" s="32"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="32"/>
-      <c r="S19" s="37"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="S19" s="37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>309</v>
+      </c>
       <c r="G20" s="32"/>
       <c r="H20" s="36"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
+      <c r="L20" s="34" t="s">
+        <v>318</v>
+      </c>
       <c r="M20" s="34"/>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
       <c r="Q20" s="36"/>
       <c r="R20" s="36"/>
-      <c r="S20" s="37"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="S20" s="37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4731,9 +5077,11 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="36"/>
       <c r="R21" s="36"/>
-      <c r="S21" s="37"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="S21" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4753,7 +5101,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4775,9 +5123,6 @@
       <c r="S23" s="39"/>
     </row>
   </sheetData>
-  <sortState ref="B11:B16">
-    <sortCondition descending="1" ref="B10"/>
-  </sortState>
   <conditionalFormatting sqref="B7:S7">
     <cfRule type="cellIs" dxfId="59" priority="1" operator="lessThan">
       <formula>0</formula>
@@ -4799,20 +5144,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -4910,9 +5255,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -5016,7 +5361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -5120,7 +5465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -5224,7 +5569,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -5328,12 +5673,12 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -5437,7 +5782,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -5541,7 +5886,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="65"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -5645,7 +5990,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -5749,12 +6094,12 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -5798,17 +6143,21 @@
       <c r="O12" s="1">
         <v>24</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="1">
         <v>16</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>12</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="S12" s="1">
+        <v>12</v>
+      </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="3"/>
+      <c r="V12" s="44"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -5821,14 +6170,14 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>20.733333333333334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+        <v>20.117647058823529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -5872,17 +6221,21 @@
       <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="P13" s="1">
-        <v>2</v>
+      <c r="P13" s="3">
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
         <v>2</v>
       </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="R13" s="1">
+        <v>2</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4</v>
+      </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="3"/>
+      <c r="V13" s="44"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -5895,14 +6248,14 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>1.9333333333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -5946,17 +6299,21 @@
       <c r="O14" s="1">
         <v>3</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="1">
         <v>7</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>6</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1">
+        <v>5</v>
+      </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="3"/>
+      <c r="V14" s="44"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -5969,14 +6326,14 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+        <v>4.4705882352941178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -6020,17 +6377,21 @@
       <c r="O15" s="1">
         <v>2</v>
       </c>
-      <c r="P15" s="1">
-        <v>2</v>
+      <c r="P15" s="3">
+        <v>4</v>
       </c>
       <c r="Q15" s="1">
-        <v>5</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>5</v>
+      </c>
+      <c r="S15" s="1">
+        <v>3</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="3"/>
+      <c r="V15" s="44"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -6043,11 +6404,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.2666666666666666</v>
+        <v>3.2941176470588234</v>
       </c>
     </row>
   </sheetData>
@@ -6149,21 +6510,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -6273,9 +6634,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -6391,7 +6752,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6507,7 +6868,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -6623,7 +6984,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -6739,12 +7100,12 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -6860,7 +7221,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6976,7 +7337,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="65"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -7092,7 +7453,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -7208,12 +7569,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -7295,7 +7656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7377,7 +7738,7 @@
         <v>2.0588235294117645</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -7459,7 +7820,7 @@
         <v>5.9411764705882355</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" t="s">
         <v>21</v>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +27,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0">
+    <comment ref="Q4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="327">
   <si>
     <t>bramki</t>
   </si>
@@ -938,9 +933,6 @@
     <t>1 Sobociński</t>
   </si>
   <si>
-    <t>1 Janczukiewicz</t>
-  </si>
-  <si>
     <t>1 Cikos</t>
   </si>
   <si>
@@ -1109,9 +1101,6 @@
     <t>2 Ebwelle</t>
   </si>
   <si>
-    <t>3 Podliński</t>
-  </si>
-  <si>
     <t>1 Bogusz</t>
   </si>
   <si>
@@ -1320,13 +1309,31 @@
   </si>
   <si>
     <t>Johannsson</t>
+  </si>
+  <si>
+    <t>4 Podliński</t>
+  </si>
+  <si>
+    <t>1 Sokół</t>
+  </si>
+  <si>
+    <t>1 Szymański</t>
+  </si>
+  <si>
+    <t>1 Janczukowicz</t>
+  </si>
+  <si>
+    <t>Szabanow</t>
+  </si>
+  <si>
+    <t>Arak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2837,41 +2844,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2921,7 +2928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
@@ -2974,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" thickBot="1">
       <c r="A3" s="49" t="s">
         <v>23</v>
       </c>
@@ -3027,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
@@ -3080,7 +3087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" thickBot="1">
       <c r="A5" s="57" t="s">
         <v>25</v>
       </c>
@@ -3133,7 +3140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" thickBot="1">
       <c r="A6" s="61" t="s">
         <v>26</v>
       </c>
@@ -3186,7 +3193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -3255,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3274,7 +3281,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3293,7 +3300,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -3346,7 +3353,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>138</v>
@@ -3397,7 +3404,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>85</v>
@@ -3448,7 +3455,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="35"/>
       <c r="B13" s="34" t="s">
         <v>95</v>
@@ -3460,7 +3467,7 @@
         <v>100</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>43</v>
@@ -3495,7 +3502,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>120</v>
@@ -3536,7 +3543,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>136</v>
@@ -3573,7 +3580,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>137</v>
@@ -3606,7 +3613,7 @@
       </c>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3635,7 +3642,7 @@
       </c>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -3660,7 +3667,7 @@
       </c>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -3681,7 +3688,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -3702,7 +3709,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3723,7 +3730,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3741,7 +3748,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3760,7 +3767,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="28" t="s">
         <v>29</v>
       </c>
@@ -3778,7 +3785,7 @@
         <v>149</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H24" s="29" t="s">
         <v>186</v>
@@ -3811,7 +3818,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="35"/>
       <c r="B25" s="32"/>
       <c r="D25" s="36" t="s">
@@ -3823,14 +3830,16 @@
       <c r="F25" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="32"/>
+      <c r="G25" s="32" t="s">
+        <v>325</v>
+      </c>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="32" t="s">
         <v>153</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L25" s="32" t="s">
         <v>157</v>
@@ -3851,7 +3860,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -3884,7 +3893,7 @@
       </c>
       <c r="Q26" s="33"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -3913,13 +3922,13 @@
       <c r="P27" s="32"/>
       <c r="Q27" s="33"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
       <c r="D28" s="36"/>
       <c r="E28" s="32" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
@@ -3929,7 +3938,9 @@
         <v>193</v>
       </c>
       <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
+      <c r="L28" s="32" t="s">
+        <v>326</v>
+      </c>
       <c r="M28" s="32"/>
       <c r="N28" s="36"/>
       <c r="O28" s="32" t="s">
@@ -3938,7 +3949,7 @@
       <c r="P28" s="32"/>
       <c r="Q28" s="33"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -3957,7 +3968,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -3976,7 +3987,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -3995,7 +4006,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4014,7 +4025,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4059,35 +4070,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>46</v>
       </c>
@@ -4143,7 +4154,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -4202,7 +4213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -4261,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -4275,7 +4286,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="13">
         <v>0</v>
@@ -4320,7 +4331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -4334,7 +4345,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5">
         <v>16</v>
@@ -4379,7 +4390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -4393,7 +4404,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="17">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" s="16">
         <v>4</v>
@@ -4438,7 +4449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -4456,7 +4467,7 @@
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
@@ -4515,7 +4526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4536,7 +4547,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4557,147 +4568,147 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>194</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="G10" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="31"/>
+      <c r="B11" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="J10" s="29" t="s">
+      <c r="H11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="R11" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="K10" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="P10" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q10" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="S10" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="N11" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="O11" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="R11" s="32" t="s">
-        <v>213</v>
-      </c>
       <c r="S11" s="33" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
-      <c r="B12" s="36" t="s">
-        <v>246</v>
+      <c r="B12" s="32" t="s">
+        <v>231</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>251</v>
-      </c>
       <c r="F12" s="32" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="J12" s="32" t="s">
         <v>102</v>
@@ -4705,224 +4716,224 @@
       <c r="K12" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="L12" s="32" t="s">
-        <v>270</v>
+      <c r="L12" s="34" t="s">
+        <v>315</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="R12" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="32" t="s">
-        <v>227</v>
+      <c r="E13" s="34" t="s">
+        <v>323</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="R13" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="I13" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="M13" s="32" t="s">
+      <c r="S13" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N13" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="O13" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="P13" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="R13" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="S13" s="33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>65</v>
+        <v>283</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="32" t="s">
-        <v>228</v>
+      <c r="E14" s="34" t="s">
+        <v>322</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="32" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O14" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="R14" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="P14" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R14" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="S14" s="33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S14" s="37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="34"/>
       <c r="E15" s="32" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="32"/>
       <c r="I15" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>277</v>
+        <v>286</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>200</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>284</v>
+        <v>68</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="Q15" s="32" t="s">
-        <v>273</v>
+        <v>118</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S15" s="33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
       <c r="I16" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="J16" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J16" s="34" t="s">
         <v>278</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="L16" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
       <c r="P16" s="32" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R16" s="32"/>
       <c r="S16" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>66</v>
@@ -4932,92 +4943,92 @@
       <c r="E17" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>267</v>
+      <c r="F17" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
-      <c r="I17" s="32" t="s">
-        <v>288</v>
+      <c r="I17" s="34" t="s">
+        <v>310</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="L17" s="32" t="s">
-        <v>315</v>
+        <v>216</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>316</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="R17" s="32"/>
       <c r="S17" s="33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="32" t="s">
-        <v>255</v>
+      <c r="E18" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="32"/>
       <c r="I18" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>280</v>
+        <v>195</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>276</v>
       </c>
       <c r="K18" s="32"/>
-      <c r="L18" s="32" t="s">
-        <v>316</v>
+      <c r="L18" s="34" t="s">
+        <v>252</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="33" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>268</v>
+      <c r="E19" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>235</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="36"/>
       <c r="I19" s="34"/>
       <c r="J19" s="32"/>
       <c r="K19" s="36"/>
-      <c r="L19" s="34" t="s">
-        <v>317</v>
+      <c r="L19" s="32" t="s">
+        <v>240</v>
       </c>
       <c r="M19" s="32"/>
       <c r="N19" s="36"/>
@@ -5026,27 +5037,27 @@
       <c r="Q19" s="32"/>
       <c r="R19" s="32"/>
       <c r="S19" s="37" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>309</v>
+      <c r="E20" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>199</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="36"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="34" t="s">
-        <v>318</v>
+      <c r="L20" s="32" t="s">
+        <v>269</v>
       </c>
       <c r="M20" s="34"/>
       <c r="N20" s="36"/>
@@ -5054,16 +5065,18 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="36"/>
       <c r="R20" s="36"/>
-      <c r="S20" s="37" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S20" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="E21" s="34" t="s">
+        <v>263</v>
+      </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
@@ -5077,16 +5090,18 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="36"/>
       <c r="R21" s="36"/>
-      <c r="S21" s="37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S21" s="33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="E22" s="32" t="s">
+        <v>225</v>
+      </c>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
@@ -5101,7 +5116,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5123,6 +5138,9 @@
       <c r="S23" s="39"/>
     </row>
   </sheetData>
+  <sortState ref="S10:S21">
+    <sortCondition descending="1" ref="S10"/>
+  </sortState>
   <conditionalFormatting sqref="B7:S7">
     <cfRule type="cellIs" dxfId="59" priority="1" operator="lessThan">
       <formula>0</formula>
@@ -5144,20 +5162,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5255,7 +5273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34">
       <c r="A2" s="65" t="s">
         <v>70</v>
       </c>
@@ -5361,7 +5379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34">
       <c r="A3" s="65"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -5465,7 +5483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34">
       <c r="A4" s="65"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -5569,7 +5587,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34">
       <c r="A5" s="65"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -5673,10 +5691,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34">
       <c r="A7" s="65" t="s">
         <v>69</v>
       </c>
@@ -5782,7 +5800,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34">
       <c r="A8" s="65"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -5886,7 +5904,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34">
       <c r="A9" s="65"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -5990,7 +6008,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34">
       <c r="A10" s="65"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -6094,10 +6112,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34">
       <c r="A12" s="65" t="s">
         <v>71</v>
       </c>
@@ -6177,7 +6195,7 @@
         <v>20.117647058823529</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34">
       <c r="A13" s="65"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -6255,7 +6273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34">
       <c r="A14" s="65"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -6333,7 +6351,7 @@
         <v>4.4705882352941178</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34">
       <c r="A15" s="65"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -6510,21 +6528,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -6634,7 +6652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" s="65" t="s">
         <v>70</v>
       </c>
@@ -6752,7 +6770,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38">
       <c r="A3" s="65"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6868,7 +6886,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="A4" s="65"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -6984,7 +7002,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38">
       <c r="A5" s="65"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -7100,10 +7118,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" s="65" t="s">
         <v>69</v>
       </c>
@@ -7221,7 +7239,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38">
       <c r="A8" s="65"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -7337,7 +7355,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" s="65"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -7453,7 +7471,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" s="65"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -7569,10 +7587,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" s="65" t="s">
         <v>71</v>
       </c>
@@ -7656,7 +7674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38">
       <c r="A13" s="65"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7738,7 +7756,7 @@
         <v>2.0588235294117645</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" s="65"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -7820,7 +7838,7 @@
         <v>5.9411764705882355</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38">
       <c r="A15" s="65"/>
       <c r="B15" t="s">
         <v>21</v>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +32,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0">
+    <comment ref="N4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0">
+    <comment ref="Q4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="350">
   <si>
     <t>bramki</t>
   </si>
@@ -939,36 +944,21 @@
     <t>1 Sovsić</t>
   </si>
   <si>
-    <t>1 Małkowski</t>
-  </si>
-  <si>
     <t>1 Pervan</t>
   </si>
   <si>
     <t>1 Azikiewicz</t>
   </si>
   <si>
-    <t>1 Kargulewicz</t>
-  </si>
-  <si>
     <t>1 Nowak</t>
   </si>
   <si>
-    <t>1 Szeliga</t>
-  </si>
-  <si>
     <t>1 Spławski</t>
   </si>
   <si>
     <t>1 Stefanik</t>
   </si>
   <si>
-    <t>1 Machaj</t>
-  </si>
-  <si>
-    <t>1 Mikulec</t>
-  </si>
-  <si>
     <t>1 Adamski</t>
   </si>
   <si>
@@ -1002,9 +992,6 @@
     <t>1 Kunka</t>
   </si>
   <si>
-    <t>3 Feruga</t>
-  </si>
-  <si>
     <t>1 Komor</t>
   </si>
   <si>
@@ -1053,12 +1040,6 @@
     <t>1 Kaczmarek</t>
   </si>
   <si>
-    <t>1 Garcia</t>
-  </si>
-  <si>
-    <t>1 Wojciechowski</t>
-  </si>
-  <si>
     <t>1 Machała</t>
   </si>
   <si>
@@ -1068,18 +1049,12 @@
     <t>1 Sekulski</t>
   </si>
   <si>
-    <t>1 Kuświk</t>
-  </si>
-  <si>
     <t>1 Surzyn</t>
   </si>
   <si>
     <t>1 Sluga</t>
   </si>
   <si>
-    <t>3 Biel</t>
-  </si>
-  <si>
     <t>1 Wolsztyński</t>
   </si>
   <si>
@@ -1131,9 +1106,6 @@
     <t>5 Śpiączka</t>
   </si>
   <si>
-    <t>3 Rumin</t>
-  </si>
-  <si>
     <t>4 Radecki</t>
   </si>
   <si>
@@ -1188,9 +1160,6 @@
     <t>1 Piła</t>
   </si>
   <si>
-    <t>2 Lebedyński</t>
-  </si>
-  <si>
     <t>3 Mas</t>
   </si>
   <si>
@@ -1209,24 +1178,15 @@
     <t>1 Rakoczy</t>
   </si>
   <si>
-    <t>2 Rubio</t>
-  </si>
-  <si>
     <t>1 Ogorzały</t>
   </si>
   <si>
-    <t>5 Victor</t>
-  </si>
-  <si>
     <t>1 Możdżeń</t>
   </si>
   <si>
     <t>2 Czubak</t>
   </si>
   <si>
-    <t>5 Tomczyk</t>
-  </si>
-  <si>
     <t>1 Ali</t>
   </si>
   <si>
@@ -1236,9 +1196,6 @@
     <t>1 Mróz</t>
   </si>
   <si>
-    <t>1 Apolinarski</t>
-  </si>
-  <si>
     <t>1 Misak</t>
   </si>
   <si>
@@ -1254,9 +1211,6 @@
     <t>2 Domoń</t>
   </si>
   <si>
-    <t>3 Żak</t>
-  </si>
-  <si>
     <t>1 Wróbel</t>
   </si>
   <si>
@@ -1272,9 +1226,6 @@
     <t>2 Zapolnik</t>
   </si>
   <si>
-    <t>2 Makuch</t>
-  </si>
-  <si>
     <t>5 Żebrowski</t>
   </si>
   <si>
@@ -1296,9 +1247,6 @@
     <t>1 Węsierski</t>
   </si>
   <si>
-    <t>1 Mosakowski</t>
-  </si>
-  <si>
     <t>1 Puchacz</t>
   </si>
   <si>
@@ -1311,9 +1259,6 @@
     <t>Johannsson</t>
   </si>
   <si>
-    <t>4 Podliński</t>
-  </si>
-  <si>
     <t>1 Sokół</t>
   </si>
   <si>
@@ -1327,13 +1272,142 @@
   </si>
   <si>
     <t>Arak</t>
+  </si>
+  <si>
+    <t>Kosecki</t>
+  </si>
+  <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>Mazur</t>
+  </si>
+  <si>
+    <t>Muci</t>
+  </si>
+  <si>
+    <t>Rusyn</t>
+  </si>
+  <si>
+    <t>Tulio</t>
+  </si>
+  <si>
+    <t>Arsenić</t>
+  </si>
+  <si>
+    <t>Wdowiak</t>
+  </si>
+  <si>
+    <t>Nawrocki</t>
+  </si>
+  <si>
+    <t>Mawutor</t>
+  </si>
+  <si>
+    <t>Radaković</t>
+  </si>
+  <si>
+    <t>Vallo</t>
+  </si>
+  <si>
+    <t>Podliński</t>
+  </si>
+  <si>
+    <t>2 Małkowski</t>
+  </si>
+  <si>
+    <t>6 Victor</t>
+  </si>
+  <si>
+    <t>3 Rubio</t>
+  </si>
+  <si>
+    <t>3 Makuch</t>
+  </si>
+  <si>
+    <t>2 Garcia</t>
+  </si>
+  <si>
+    <t>4 Żak</t>
+  </si>
+  <si>
+    <t>2 Mosakowski</t>
+  </si>
+  <si>
+    <t>2 Kuświk</t>
+  </si>
+  <si>
+    <t>2 Mikulec</t>
+  </si>
+  <si>
+    <t>4 Feruga</t>
+  </si>
+  <si>
+    <t>4 Rumin</t>
+  </si>
+  <si>
+    <t>3 Apolinarski</t>
+  </si>
+  <si>
+    <t>1 Bator</t>
+  </si>
+  <si>
+    <t>1 Twardowski</t>
+  </si>
+  <si>
+    <t>1 Geniec</t>
+  </si>
+  <si>
+    <t>1 Kojder</t>
+  </si>
+  <si>
+    <t>1 Bonecki</t>
+  </si>
+  <si>
+    <t>1 Kowalczyk</t>
+  </si>
+  <si>
+    <t>2 Wojciechowski</t>
+  </si>
+  <si>
+    <t>1 Kalinkowski</t>
+  </si>
+  <si>
+    <t>1 Stromecki</t>
+  </si>
+  <si>
+    <t>3 Lebedyński</t>
+  </si>
+  <si>
+    <t>2 Machaj</t>
+  </si>
+  <si>
+    <t>1 Banaszewski</t>
+  </si>
+  <si>
+    <t>1 Banasiak</t>
+  </si>
+  <si>
+    <t>4 Biel</t>
+  </si>
+  <si>
+    <t>2 Szeliga</t>
+  </si>
+  <si>
+    <t>2 Kargulewicz</t>
+  </si>
+  <si>
+    <t>6 Tomczyk</t>
+  </si>
+  <si>
+    <t>1 Samiec-Talar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1720,7 +1794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1799,6 +1873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2844,41 +2919,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2928,7 +3003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
@@ -2981,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
         <v>23</v>
       </c>
@@ -3034,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
@@ -3087,7 +3162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>25</v>
       </c>
@@ -3140,7 +3215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>26</v>
       </c>
@@ -3193,7 +3268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -3262,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3281,7 +3356,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3300,7 +3375,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -3353,7 +3428,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>138</v>
@@ -3404,7 +3479,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>85</v>
@@ -3455,7 +3530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="34" t="s">
         <v>95</v>
@@ -3467,7 +3542,7 @@
         <v>100</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>43</v>
@@ -3502,7 +3577,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>120</v>
@@ -3543,7 +3618,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>136</v>
@@ -3580,7 +3655,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>137</v>
@@ -3613,7 +3688,7 @@
       </c>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3642,7 +3717,7 @@
       </c>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -3667,7 +3742,7 @@
       </c>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -3688,7 +3763,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -3709,7 +3784,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3730,7 +3805,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3748,7 +3823,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3767,11 +3842,13 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="29" t="s">
+        <v>307</v>
+      </c>
       <c r="C24" t="s">
         <v>183</v>
       </c>
@@ -3785,7 +3862,7 @@
         <v>149</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="H24" s="29" t="s">
         <v>186</v>
@@ -3818,9 +3895,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
-      <c r="B25" s="32"/>
+      <c r="B25" s="32" t="s">
+        <v>308</v>
+      </c>
       <c r="D25" s="36" t="s">
         <v>188</v>
       </c>
@@ -3831,15 +3910,17 @@
         <v>150</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+      <c r="I25" s="32" t="s">
+        <v>318</v>
+      </c>
       <c r="J25" s="32" t="s">
         <v>153</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="L25" s="32" t="s">
         <v>157</v>
@@ -3860,18 +3941,22 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="D26" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="E26" t="s">
         <v>148</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="32"/>
+      <c r="G26" s="32" t="s">
+        <v>310</v>
+      </c>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="32" t="s">
@@ -3891,9 +3976,11 @@
       <c r="P26" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="Q26" s="33"/>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="Q26" s="33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -3902,7 +3989,9 @@
         <v>184</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="G27" s="32" t="s">
+        <v>311</v>
+      </c>
       <c r="H27" s="32"/>
       <c r="I27" s="34"/>
       <c r="J27" s="32" t="s">
@@ -3919,16 +4008,18 @@
       <c r="O27" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="P27" s="32"/>
+      <c r="P27" s="32" t="s">
+        <v>316</v>
+      </c>
       <c r="Q27" s="33"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
       <c r="D28" s="36"/>
       <c r="E28" s="32" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
@@ -3939,17 +4030,19 @@
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="32" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="M28" s="32"/>
       <c r="N28" s="36"/>
       <c r="O28" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="P28" s="32"/>
+      <c r="P28" s="32" t="s">
+        <v>317</v>
+      </c>
       <c r="Q28" s="33"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -3959,16 +4052,22 @@
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
+      <c r="J29" s="32" t="s">
+        <v>312</v>
+      </c>
       <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
+      <c r="L29" s="32" t="s">
+        <v>313</v>
+      </c>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
+      <c r="O29" s="32" t="s">
+        <v>315</v>
+      </c>
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -3980,14 +4079,16 @@
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
       <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
+      <c r="L30" s="32" t="s">
+        <v>314</v>
+      </c>
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4006,7 +4107,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4025,7 +4126,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1">
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4070,35 +4171,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>46</v>
       </c>
@@ -4154,7 +4255,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -4174,46 +4275,46 @@
         <v>5</v>
       </c>
       <c r="G2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" s="6">
         <v>4</v>
       </c>
       <c r="J2" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="6">
         <v>2</v>
       </c>
       <c r="L2" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" s="6">
         <v>3</v>
       </c>
       <c r="N2" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2" s="6">
         <v>4</v>
       </c>
       <c r="P2" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R2" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -4227,10 +4328,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
@@ -4239,25 +4340,25 @@
         <v>1</v>
       </c>
       <c r="I3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="9">
         <v>1</v>
       </c>
       <c r="K3" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="9">
         <v>1</v>
       </c>
       <c r="M3" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" s="9">
         <v>1</v>
       </c>
       <c r="O3" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" s="9">
         <v>3</v>
@@ -4272,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -4280,10 +4381,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="14">
         <v>2</v>
@@ -4331,7 +4432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -4345,52 +4446,52 @@
         <v>3</v>
       </c>
       <c r="E5" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I5" s="6">
         <v>12</v>
       </c>
       <c r="J5" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K5" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L5" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M5" s="6">
         <v>7</v>
       </c>
       <c r="N5" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O5" s="6">
+        <v>15</v>
+      </c>
+      <c r="P5" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>16</v>
+      </c>
+      <c r="R5" s="7">
         <v>14</v>
       </c>
-      <c r="P5" s="5">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>14</v>
-      </c>
-      <c r="R5" s="7">
-        <v>11</v>
-      </c>
       <c r="S5" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -4398,22 +4499,22 @@
         <v>6</v>
       </c>
       <c r="C6" s="17">
+        <v>8</v>
+      </c>
+      <c r="D6" s="16">
+        <v>11</v>
+      </c>
+      <c r="E6" s="17">
+        <v>17</v>
+      </c>
+      <c r="F6" s="16">
         <v>6</v>
-      </c>
-      <c r="D6" s="16">
-        <v>8</v>
-      </c>
-      <c r="E6" s="17">
-        <v>16</v>
-      </c>
-      <c r="F6" s="16">
-        <v>4</v>
       </c>
       <c r="G6" s="17">
         <v>6</v>
       </c>
       <c r="H6" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" s="17">
         <v>10</v>
@@ -4422,19 +4523,19 @@
         <v>12</v>
       </c>
       <c r="K6" s="17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M6" s="17">
         <v>3</v>
       </c>
       <c r="N6" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" s="17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P6" s="16">
         <v>17</v>
@@ -4443,13 +4544,13 @@
         <v>14</v>
       </c>
       <c r="R6" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S6" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -4459,11 +4560,11 @@
       </c>
       <c r="C7" s="20">
         <f>C5-C6</f>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:S7" si="0">D5-D6</f>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
@@ -4475,11 +4576,11 @@
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="0"/>
@@ -4487,7 +4588,7 @@
       </c>
       <c r="J7" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K7" s="20">
         <f t="shared" si="0"/>
@@ -4495,7 +4596,7 @@
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="20">
         <f t="shared" si="0"/>
@@ -4503,7 +4604,7 @@
       </c>
       <c r="N7" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O7" s="20">
         <f t="shared" si="0"/>
@@ -4511,22 +4612,22 @@
       </c>
       <c r="P7" s="8">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" s="21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4547,7 +4648,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4568,144 +4669,144 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>194</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="I10" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="O10" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="J10" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>257</v>
-      </c>
       <c r="P10" s="43" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="S10" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="36" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>229</v>
-      </c>
       <c r="H11" s="32" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M11" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="S11" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="N11" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="O11" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="R11" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="S11" s="33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>250</v>
+      <c r="E12" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I12" s="32" t="s">
         <v>114</v>
@@ -4714,34 +4815,34 @@
         <v>102</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="R12" s="32" t="s">
-        <v>236</v>
+        <v>338</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>65</v>
@@ -4751,104 +4852,106 @@
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="34" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="G13" s="32"/>
+        <v>289</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>336</v>
+      </c>
       <c r="H13" s="32" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="L13" s="32" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N13" s="32" t="s">
         <v>196</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R13" s="32" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="34" t="s">
-        <v>322</v>
+      <c r="E14" s="32" t="s">
+        <v>221</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="32" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>202</v>
+        <v>346</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="R14" s="32" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="S14" s="37" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="34" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="34"/>
@@ -4856,134 +4959,144 @@
         <v>227</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G15" s="34"/>
-      <c r="H15" s="32"/>
+      <c r="H15" s="32" t="s">
+        <v>337</v>
+      </c>
       <c r="I15" s="32" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>200</v>
+        <v>347</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32" t="s">
-        <v>197</v>
+        <v>320</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>68</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q15" s="32" t="s">
         <v>118</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="S15" s="33" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="H16" s="32" t="s">
+        <v>343</v>
+      </c>
       <c r="I16" s="34" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="L16" s="32" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
+      <c r="O16" s="32" t="s">
+        <v>332</v>
+      </c>
       <c r="P16" s="32" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="R16" s="32"/>
+        <v>261</v>
+      </c>
+      <c r="R16" s="32" t="s">
+        <v>339</v>
+      </c>
       <c r="S16" s="33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
-      <c r="E17" s="32" t="s">
-        <v>253</v>
+      <c r="E17" s="34" t="s">
+        <v>244</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="34" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L17" s="34" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="R17" s="32"/>
+        <v>204</v>
+      </c>
+      <c r="R17" s="32" t="s">
+        <v>340</v>
+      </c>
       <c r="S17" s="33" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="34" t="s">
-        <v>254</v>
+      <c r="E18" s="32" t="s">
+        <v>220</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="32"/>
@@ -4991,36 +5104,38 @@
         <v>195</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K18" s="32"/>
+        <v>265</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>199</v>
+      </c>
       <c r="L18" s="34" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="32" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>235</v>
+        <v>324</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="36"/>
@@ -5028,28 +5143,30 @@
       <c r="J19" s="32"/>
       <c r="K19" s="36"/>
       <c r="L19" s="32" t="s">
-        <v>240</v>
+        <v>327</v>
       </c>
       <c r="M19" s="32"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
+      <c r="Q19" s="32" t="s">
+        <v>349</v>
+      </c>
       <c r="R19" s="32"/>
       <c r="S19" s="37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="32" t="s">
-        <v>251</v>
+      <c r="E20" s="34" t="s">
+        <v>252</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="36"/>
@@ -5057,7 +5174,7 @@
       <c r="J20" s="34"/>
       <c r="K20" s="36"/>
       <c r="L20" s="32" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="M20" s="34"/>
       <c r="N20" s="36"/>
@@ -5069,13 +5186,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="34" t="s">
-        <v>263</v>
+      <c r="E21" s="32" t="s">
+        <v>219</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
@@ -5091,16 +5208,16 @@
       <c r="Q21" s="36"/>
       <c r="R21" s="36"/>
       <c r="S21" s="33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="32" t="s">
-        <v>225</v>
+      <c r="E22" s="34" t="s">
+        <v>344</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
@@ -5114,9 +5231,11 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
-      <c r="S22" s="37"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+      <c r="S22" s="37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5135,7 +5254,14 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
-      <c r="S23" s="39"/>
+      <c r="S23" s="39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S24" s="66" t="s">
+        <v>335</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="S10:S21">
@@ -5162,20 +5288,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5273,7 +5399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>70</v>
       </c>
@@ -5379,7 +5505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -5483,7 +5609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -5587,7 +5713,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -5691,10 +5817,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
         <v>69</v>
       </c>
@@ -5800,7 +5926,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -5904,7 +6030,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="65"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -6008,7 +6134,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -6112,10 +6238,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
         <v>71</v>
       </c>
@@ -6173,7 +6299,9 @@
       <c r="S12" s="1">
         <v>12</v>
       </c>
-      <c r="T12" s="1"/>
+      <c r="T12" s="1">
+        <v>19</v>
+      </c>
       <c r="U12" s="1"/>
       <c r="V12" s="44"/>
       <c r="W12" s="1"/>
@@ -6188,14 +6316,14 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>20.117647058823529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+        <v>20.055555555555557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -6251,7 +6379,9 @@
       <c r="S13" s="1">
         <v>4</v>
       </c>
-      <c r="T13" s="1"/>
+      <c r="T13" s="1">
+        <v>2</v>
+      </c>
       <c r="U13" s="1"/>
       <c r="V13" s="44"/>
       <c r="W13" s="1"/>
@@ -6266,14 +6396,14 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -6329,7 +6459,9 @@
       <c r="S14" s="1">
         <v>5</v>
       </c>
-      <c r="T14" s="1"/>
+      <c r="T14" s="1">
+        <v>5</v>
+      </c>
       <c r="U14" s="1"/>
       <c r="V14" s="44"/>
       <c r="W14" s="1"/>
@@ -6344,14 +6476,14 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.4705882352941178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -6407,7 +6539,9 @@
       <c r="S15" s="1">
         <v>3</v>
       </c>
-      <c r="T15" s="1"/>
+      <c r="T15" s="1">
+        <v>4</v>
+      </c>
       <c r="U15" s="1"/>
       <c r="V15" s="44"/>
       <c r="W15" s="1"/>
@@ -6422,11 +6556,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.2941176470588234</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -6528,21 +6662,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -6652,7 +6786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>70</v>
       </c>
@@ -6770,7 +6904,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6886,7 +7020,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -7002,7 +7136,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -7118,10 +7252,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
         <v>69</v>
       </c>
@@ -7239,7 +7373,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -7355,7 +7489,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="65"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -7471,7 +7605,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -7587,10 +7721,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
         <v>71</v>
       </c>
@@ -7643,10 +7777,10 @@
         <v>24</v>
       </c>
       <c r="R12" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S12" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -7667,14 +7801,14 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38">
+        <v>21.294117647058822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7756,7 +7890,7 @@
         <v>2.0588235294117645</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -7807,10 +7941,10 @@
         <v>5</v>
       </c>
       <c r="R14" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -7831,14 +7965,14 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>5.9411764705882355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38">
+        <v>6.0588235294117645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -7889,7 +8023,7 @@
         <v>5</v>
       </c>
       <c r="R15" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -7913,11 +8047,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.8823529411764706</v>
+        <v>3.9411764705882355</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +27,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0">
+    <comment ref="Q4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1406,8 +1401,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1870,10 +1865,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2919,41 +2914,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -3003,7 +2998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
@@ -3056,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" thickBot="1">
       <c r="A3" s="49" t="s">
         <v>23</v>
       </c>
@@ -3109,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
@@ -3162,7 +3157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" thickBot="1">
       <c r="A5" s="57" t="s">
         <v>25</v>
       </c>
@@ -3215,7 +3210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" thickBot="1">
       <c r="A6" s="61" t="s">
         <v>26</v>
       </c>
@@ -3268,7 +3263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -3337,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3356,7 +3351,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3375,7 +3370,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -3428,7 +3423,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>138</v>
@@ -3479,7 +3474,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>85</v>
@@ -3530,7 +3525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="35"/>
       <c r="B13" s="34" t="s">
         <v>95</v>
@@ -3577,7 +3572,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>120</v>
@@ -3618,7 +3613,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>136</v>
@@ -3655,7 +3650,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>137</v>
@@ -3688,7 +3683,7 @@
       </c>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3717,7 +3712,7 @@
       </c>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -3742,7 +3737,7 @@
       </c>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -3763,7 +3758,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -3784,7 +3779,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3805,7 +3800,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3823,7 +3818,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3842,7 +3837,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="28" t="s">
         <v>29</v>
       </c>
@@ -3895,7 +3890,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>308</v>
@@ -3941,7 +3936,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -3980,7 +3975,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -4013,7 +4008,7 @@
       </c>
       <c r="Q27" s="33"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -4042,7 +4037,7 @@
       </c>
       <c r="Q28" s="33"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -4067,7 +4062,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4088,7 +4083,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4107,7 +4102,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4126,7 +4121,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4171,35 +4166,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>46</v>
       </c>
@@ -4255,7 +4250,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -4314,7 +4309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -4373,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -4432,7 +4427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -4491,7 +4486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -4550,7 +4545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -4627,7 +4622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4648,7 +4643,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4669,7 +4664,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -4728,7 +4723,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" s="36" t="s">
         <v>235</v>
@@ -4785,7 +4780,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>225</v>
@@ -4842,7 +4837,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>65</v>
@@ -4897,7 +4892,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>271</v>
@@ -4948,7 +4943,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="34" t="s">
         <v>234</v>
@@ -4997,7 +4992,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>226</v>
@@ -5044,7 +5039,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>66</v>
@@ -5087,7 +5082,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -5126,7 +5121,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -5157,7 +5152,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -5186,7 +5181,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5211,7 +5206,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5235,7 +5230,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5258,8 +5253,8 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="S24" s="66" t="s">
+    <row r="24" spans="1:19">
+      <c r="S24" s="65" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5288,20 +5283,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5399,8 +5394,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:34">
+      <c r="A2" s="66" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
@@ -5505,8 +5500,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
+    <row r="3" spans="1:34">
+      <c r="A3" s="66"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -5609,8 +5604,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
+    <row r="4" spans="1:34">
+      <c r="A4" s="66"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -5713,8 +5708,8 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
+    <row r="5" spans="1:34">
+      <c r="A5" s="66"/>
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -5817,11 +5812,11 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:34">
+      <c r="A7" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B7" t="s">
@@ -5926,8 +5921,8 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
+    <row r="8" spans="1:34">
+      <c r="A8" s="66"/>
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -6030,8 +6025,8 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
+    <row r="9" spans="1:34">
+      <c r="A9" s="66"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -6134,8 +6129,8 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
+    <row r="10" spans="1:34">
+      <c r="A10" s="66"/>
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -6238,11 +6233,11 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+    <row r="12" spans="1:34">
+      <c r="A12" s="66" t="s">
         <v>71</v>
       </c>
       <c r="B12" t="s">
@@ -6323,8 +6318,8 @@
         <v>20.055555555555557</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
+    <row r="13" spans="1:34">
+      <c r="A13" s="66"/>
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -6403,8 +6398,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
+    <row r="14" spans="1:34">
+      <c r="A14" s="66"/>
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -6483,8 +6478,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
+    <row r="15" spans="1:34">
+      <c r="A15" s="66"/>
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -6662,21 +6657,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -6786,8 +6781,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:38">
+      <c r="A2" s="66" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
@@ -6904,8 +6899,8 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
+    <row r="3" spans="1:38">
+      <c r="A3" s="66"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -7020,8 +7015,8 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
+    <row r="4" spans="1:38">
+      <c r="A4" s="66"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -7136,8 +7131,8 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
+    <row r="5" spans="1:38">
+      <c r="A5" s="66"/>
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -7252,11 +7247,11 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:38">
+      <c r="A7" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B7" t="s">
@@ -7373,8 +7368,8 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
+    <row r="8" spans="1:38">
+      <c r="A8" s="66"/>
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -7489,8 +7484,8 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
+    <row r="9" spans="1:38">
+      <c r="A9" s="66"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -7605,8 +7600,8 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
+    <row r="10" spans="1:38">
+      <c r="A10" s="66"/>
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -7721,11 +7716,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+    <row r="12" spans="1:38">
+      <c r="A12" s="66" t="s">
         <v>71</v>
       </c>
       <c r="B12" t="s">
@@ -7782,7 +7777,9 @@
       <c r="S12" s="3">
         <v>21</v>
       </c>
-      <c r="T12" s="1"/>
+      <c r="T12" s="1">
+        <v>23</v>
+      </c>
       <c r="U12" s="1"/>
       <c r="V12" s="44"/>
       <c r="W12" s="1"/>
@@ -7801,15 +7798,15 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>21.294117647058822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
+        <v>21.388888888888889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" s="66"/>
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -7864,7 +7861,9 @@
       <c r="S13" s="3">
         <v>2</v>
       </c>
-      <c r="T13" s="1"/>
+      <c r="T13" s="1">
+        <v>3</v>
+      </c>
       <c r="U13" s="1"/>
       <c r="V13" s="44"/>
       <c r="W13" s="1"/>
@@ -7883,15 +7882,15 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.0588235294117645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
+        <v>2.1111111111111112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" s="66"/>
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -7946,7 +7945,9 @@
       <c r="S14" s="3">
         <v>4</v>
       </c>
-      <c r="T14" s="1"/>
+      <c r="T14" s="1">
+        <v>2</v>
+      </c>
       <c r="U14" s="1"/>
       <c r="V14" s="44"/>
       <c r="W14" s="1"/>
@@ -7965,15 +7966,15 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.0588235294117645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="A15" s="66"/>
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -8028,7 +8029,9 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="1"/>
+      <c r="T15" s="1">
+        <v>4</v>
+      </c>
       <c r="U15" s="1"/>
       <c r="V15" s="44"/>
       <c r="W15" s="1"/>
@@ -8047,11 +8050,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.9411764705882355</v>
+        <v>3.9444444444444446</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -2914,7 +2914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5286,7 +5286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
@@ -6297,7 +6297,9 @@
       <c r="T12" s="1">
         <v>19</v>
       </c>
-      <c r="U12" s="1"/>
+      <c r="U12" s="1">
+        <v>22</v>
+      </c>
       <c r="V12" s="44"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -6311,11 +6313,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>20.055555555555557</v>
+        <v>20.157894736842106</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -6377,7 +6379,9 @@
       <c r="T13" s="1">
         <v>2</v>
       </c>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
       <c r="V13" s="44"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -6395,7 +6399,7 @@
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>2</v>
+        <v>1.8947368421052631</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -6457,7 +6461,9 @@
       <c r="T14" s="1">
         <v>5</v>
       </c>
-      <c r="U14" s="1"/>
+      <c r="U14" s="1">
+        <v>3</v>
+      </c>
       <c r="V14" s="44"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -6471,11 +6477,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.5</v>
+        <v>4.4210526315789478</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -6537,7 +6543,9 @@
       <c r="T15" s="1">
         <v>4</v>
       </c>
-      <c r="U15" s="1"/>
+      <c r="U15" s="1">
+        <v>2</v>
+      </c>
       <c r="V15" s="44"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -6551,11 +6559,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.3333333333333335</v>
+        <v>3.263157894736842</v>
       </c>
     </row>
   </sheetData>
@@ -6660,8 +6668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +32,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0">
+    <comment ref="N4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0">
+    <comment ref="Q4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="352">
   <si>
     <t>bramki</t>
   </si>
@@ -867,9 +872,6 @@
     <t>2 Lopez</t>
   </si>
   <si>
-    <t>2 Gutkovskis</t>
-  </si>
-  <si>
     <t>1 Jach</t>
   </si>
   <si>
@@ -933,9 +935,6 @@
     <t>1 Sobociński</t>
   </si>
   <si>
-    <t>1 Cikos</t>
-  </si>
-  <si>
     <t>1 Sovsić</t>
   </si>
   <si>
@@ -951,9 +950,6 @@
     <t>1 Spławski</t>
   </si>
   <si>
-    <t>1 Stefanik</t>
-  </si>
-  <si>
     <t>1 Adamski</t>
   </si>
   <si>
@@ -1023,12 +1019,6 @@
     <t>1 Baranskyj</t>
   </si>
   <si>
-    <t>2 Rosołek</t>
-  </si>
-  <si>
-    <t>1 Valcarce</t>
-  </si>
-  <si>
     <t>1 Rossi</t>
   </si>
   <si>
@@ -1221,9 +1211,6 @@
     <t>2 Zapolnik</t>
   </si>
   <si>
-    <t>5 Żebrowski</t>
-  </si>
-  <si>
     <t>1 Dynel</t>
   </si>
   <si>
@@ -1396,13 +1383,37 @@
   </si>
   <si>
     <t>1 Samiec-Talar</t>
+  </si>
+  <si>
+    <t>6 Żebrowski</t>
+  </si>
+  <si>
+    <t>3 Rosołek</t>
+  </si>
+  <si>
+    <t>2 Valcarce</t>
+  </si>
+  <si>
+    <t>2 Vinicius</t>
+  </si>
+  <si>
+    <t>2 Stefanik</t>
+  </si>
+  <si>
+    <t>2 Cikos</t>
+  </si>
+  <si>
+    <t>3 Gutkovskis</t>
+  </si>
+  <si>
+    <t>1 Gutkovskis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2914,41 +2925,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2998,7 +3009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
@@ -3033,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" s="47">
         <v>2</v>
@@ -3051,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
         <v>23</v>
       </c>
@@ -3104,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
@@ -3118,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="54">
         <v>1</v>
@@ -3157,7 +3168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>25</v>
       </c>
@@ -3192,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="58">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M5" s="59">
         <v>4</v>
@@ -3210,7 +3221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>26</v>
       </c>
@@ -3224,7 +3235,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="62">
         <v>4</v>
@@ -3263,7 +3274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -3281,7 +3292,7 @@
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
@@ -3309,7 +3320,7 @@
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="20">
         <f t="shared" si="0"/>
@@ -3332,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3351,7 +3362,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3370,12 +3381,12 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>102</v>
@@ -3390,7 +3401,7 @@
         <v>87</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>72</v>
@@ -3405,7 +3416,7 @@
         <v>133</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>173</v>
+        <v>350</v>
       </c>
       <c r="M10" s="29" t="s">
         <v>121</v>
@@ -3423,7 +3434,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>138</v>
@@ -3474,7 +3485,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>85</v>
@@ -3504,7 +3515,7 @@
         <v>109</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L12" s="32" t="s">
         <v>97</v>
@@ -3525,7 +3536,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="34" t="s">
         <v>95</v>
@@ -3537,7 +3548,7 @@
         <v>100</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>43</v>
@@ -3572,7 +3583,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>120</v>
@@ -3591,7 +3602,7 @@
         <v>77</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I14" s="32" t="s">
         <v>141</v>
@@ -3613,7 +3624,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>136</v>
@@ -3627,10 +3638,10 @@
         <v>105</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I15" s="32" t="s">
         <v>142</v>
@@ -3650,7 +3661,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>137</v>
@@ -3664,7 +3675,7 @@
         <v>106</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="34" t="s">
@@ -3683,7 +3694,7 @@
       </c>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3702,7 +3713,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
@@ -3712,7 +3723,7 @@
       </c>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -3728,7 +3739,9 @@
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+      <c r="L18" s="32" t="s">
+        <v>351</v>
+      </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
@@ -3737,7 +3750,7 @@
       </c>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -3758,7 +3771,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -3779,14 +3792,14 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
       <c r="F21" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
@@ -3800,7 +3813,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3818,7 +3831,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3837,15 +3850,15 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>145</v>
@@ -3857,10 +3870,10 @@
         <v>149</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I24" s="29" t="s">
         <v>170</v>
@@ -3890,13 +3903,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>147</v>
@@ -3905,17 +3918,17 @@
         <v>150</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="32" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="J25" s="32" t="s">
         <v>153</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L25" s="32" t="s">
         <v>157</v>
@@ -3933,15 +3946,15 @@
         <v>168</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E26" t="s">
         <v>148</v>
@@ -3950,7 +3963,7 @@
         <v>151</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
@@ -3969,75 +3982,75 @@
         <v>166</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
       <c r="E27" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="34"/>
       <c r="J27" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M27" s="32" t="s">
         <v>162</v>
       </c>
       <c r="N27" s="32"/>
       <c r="O27" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P27" s="32" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q27" s="33"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
       <c r="D28" s="36"/>
       <c r="E28" s="32" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="32" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M28" s="32"/>
       <c r="N28" s="36"/>
       <c r="O28" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P28" s="32" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="33"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -4048,21 +4061,21 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K29" s="32"/>
       <c r="L29" s="32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
       <c r="O29" s="32" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4075,7 +4088,7 @@
       <c r="J30" s="32"/>
       <c r="K30" s="32"/>
       <c r="L30" s="32" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
@@ -4083,7 +4096,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4102,7 +4115,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4121,7 +4134,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1">
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4166,35 +4179,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>46</v>
       </c>
@@ -4250,12 +4263,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
@@ -4309,7 +4322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -4368,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -4394,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="13">
         <v>3</v>
@@ -4427,12 +4440,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6">
         <v>4</v>
@@ -4453,7 +4466,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" s="5">
         <v>18</v>
@@ -4486,12 +4499,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="17">
         <v>8</v>
@@ -4512,7 +4525,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J6" s="16">
         <v>12</v>
@@ -4545,13 +4558,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="8">
         <f>B5-B6</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="20">
         <f>C5-C6</f>
@@ -4579,7 +4592,7 @@
       </c>
       <c r="I7" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="0"/>
@@ -4622,7 +4635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4643,7 +4656,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4664,144 +4677,144 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E10" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>256</v>
-      </c>
       <c r="G10" s="29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P10" s="43" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="S10" s="30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>240</v>
-      </c>
       <c r="F11" s="34" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H11" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="I11" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="I11" s="32" t="s">
-        <v>273</v>
-      </c>
       <c r="J11" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M11" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="K11" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>209</v>
-      </c>
       <c r="N11" s="32" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="R11" s="32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S11" s="33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>225</v>
+        <v>345</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I12" s="32" t="s">
         <v>114</v>
@@ -4810,34 +4823,34 @@
         <v>102</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="R12" s="32" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>65</v>
@@ -4847,199 +4860,199 @@
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="34" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G13" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="H13" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="H13" s="32" t="s">
-        <v>342</v>
-      </c>
       <c r="I13" s="32" t="s">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L13" s="32" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R13" s="32" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="32" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P14" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="S14" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="Q14" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="R14" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="S14" s="37" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="34" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="34"/>
       <c r="E15" s="32" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="32" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>68</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q15" s="32" t="s">
         <v>118</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="S15" s="33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="32" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J16" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="K16" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="K16" s="32" t="s">
-        <v>272</v>
-      </c>
       <c r="L16" s="32" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R16" s="32" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="S16" s="33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>66</v>
@@ -5047,90 +5060,92 @@
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="34" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="34" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L17" s="34" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="S17" s="33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+      <c r="B18" s="32" t="s">
+        <v>347</v>
+      </c>
       <c r="C18" s="32"/>
       <c r="D18" s="36"/>
       <c r="E18" s="32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="32"/>
       <c r="I18" s="34" t="s">
-        <v>195</v>
+        <v>349</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="32" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="36"/>
@@ -5138,30 +5153,30 @@
       <c r="J19" s="32"/>
       <c r="K19" s="36"/>
       <c r="L19" s="32" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M19" s="32"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="34" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="36"/>
@@ -5169,7 +5184,7 @@
       <c r="J20" s="34"/>
       <c r="K20" s="36"/>
       <c r="L20" s="32" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M20" s="34"/>
       <c r="N20" s="36"/>
@@ -5181,13 +5196,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
@@ -5203,16 +5218,16 @@
       <c r="Q21" s="36"/>
       <c r="R21" s="36"/>
       <c r="S21" s="33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
       <c r="E22" s="34" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
@@ -5227,10 +5242,10 @@
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="37" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5250,12 +5265,12 @@
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="39" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S24" s="65" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5283,20 +5298,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5394,7 +5409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
         <v>70</v>
       </c>
@@ -5500,7 +5515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -5604,7 +5619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -5708,7 +5723,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -5812,10 +5827,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
         <v>69</v>
       </c>
@@ -5921,7 +5936,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6025,7 +6040,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -6129,7 +6144,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="66"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -6233,10 +6248,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>71</v>
       </c>
@@ -6320,7 +6335,7 @@
         <v>20.157894736842106</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="66"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -6402,7 +6417,7 @@
         <v>1.8947368421052631</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="66"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -6484,7 +6499,7 @@
         <v>4.4210526315789478</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="66"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -6665,21 +6680,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -6789,7 +6804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
         <v>70</v>
       </c>
@@ -6907,7 +6922,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -7023,7 +7038,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -7139,7 +7154,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -7255,10 +7270,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
         <v>69</v>
       </c>
@@ -7376,7 +7391,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -7492,7 +7507,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -7608,7 +7623,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="66"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -7724,10 +7739,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>71</v>
       </c>
@@ -7813,7 +7828,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="66"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7897,7 +7912,7 @@
         <v>2.1111111111111112</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="66"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -7981,7 +7996,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="66"/>
       <c r="B15" t="s">
         <v>21</v>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +27,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0">
+    <comment ref="Q4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="355">
   <si>
     <t>bramki</t>
   </si>
@@ -719,9 +714,6 @@
     <t>2 Mak</t>
   </si>
   <si>
-    <t>3 Świerczok</t>
-  </si>
-  <si>
     <t>1 Jodłowiec</t>
   </si>
   <si>
@@ -764,9 +756,6 @@
     <t>1 Loshaj</t>
   </si>
   <si>
-    <t>1 Pik</t>
-  </si>
-  <si>
     <t>2 Siplak</t>
   </si>
   <si>
@@ -1407,13 +1396,28 @@
   </si>
   <si>
     <t>1 Gutkovskis</t>
+  </si>
+  <si>
+    <t>2 Pik</t>
+  </si>
+  <si>
+    <t>2 Amersfoort</t>
+  </si>
+  <si>
+    <t>1 Lopes</t>
+  </si>
+  <si>
+    <t>4 Świerczok</t>
+  </si>
+  <si>
+    <t>1 Alves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2925,41 +2929,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -3009,12 +3013,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="47">
         <v>1</v>
@@ -3032,7 +3036,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="47">
         <v>3</v>
@@ -3062,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" thickBot="1">
       <c r="A3" s="49" t="s">
         <v>23</v>
       </c>
@@ -3115,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
@@ -3135,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="54">
         <v>0</v>
@@ -3168,12 +3172,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" thickBot="1">
       <c r="A5" s="57" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="58">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="59">
         <v>8</v>
@@ -3188,10 +3192,10 @@
         <v>15</v>
       </c>
       <c r="G5" s="59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="58">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5" s="59">
         <v>8</v>
@@ -3221,7 +3225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" thickBot="1">
       <c r="A6" s="61" t="s">
         <v>26</v>
       </c>
@@ -3241,10 +3245,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" s="62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="63">
         <v>3</v>
@@ -3274,13 +3278,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="8">
         <f>B5-B6</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="20">
         <f>C5-C6</f>
@@ -3300,11 +3304,11 @@
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="0"/>
@@ -3343,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3362,7 +3366,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3381,30 +3385,30 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>32</v>
+      <c r="D10" s="43" t="s">
+        <v>31</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>87</v>
+        <v>73</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>131</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>72</v>
+        <v>353</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>96</v>
@@ -3413,157 +3417,157 @@
         <v>83</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M10" s="29" t="s">
         <v>121</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="O10" s="29" t="s">
         <v>34</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>74</v>
+        <v>43</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>174</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="M11" s="32" t="s">
         <v>92</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="32" t="s">
+      <c r="J12" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="35"/>
+      <c r="B13" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H13" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="L12" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="N12" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="O12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>123</v>
-      </c>
       <c r="I13" s="32" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32" t="s">
@@ -3571,85 +3575,85 @@
       </c>
       <c r="M13" s="32"/>
       <c r="N13" s="32" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>77</v>
+        <v>87</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
-      <c r="L14" s="34" t="s">
-        <v>118</v>
+      <c r="L14" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="C15" s="32"/>
-      <c r="D15" s="34" t="s">
-        <v>31</v>
+      <c r="D15" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>176</v>
+        <v>44</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="32"/>
       <c r="L15" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
@@ -3658,81 +3662,87 @@
         <v>94</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="31"/>
-      <c r="B16" s="32" t="s">
-        <v>137</v>
+      <c r="B16" s="34" t="s">
+        <v>95</v>
       </c>
       <c r="C16" s="32"/>
-      <c r="D16" s="32" t="s">
-        <v>113</v>
+      <c r="D16" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="32" t="s">
-        <v>106</v>
+      <c r="F16" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="32"/>
+        <v>74</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>354</v>
+      </c>
       <c r="I16" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
       <c r="P16" s="32" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+      <c r="B17" s="32" t="s">
+        <v>120</v>
+      </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="32"/>
+      <c r="G17" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="H17" s="32"/>
       <c r="I17" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="34" t="s">
-        <v>124</v>
+      <c r="D18" s="32" t="s">
+        <v>113</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="32" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="32"/>
@@ -3740,24 +3750,24 @@
       <c r="J18" s="34"/>
       <c r="K18" s="32"/>
       <c r="L18" s="32" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
       <c r="F19" s="34" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="36"/>
@@ -3771,14 +3781,14 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="34" t="s">
-        <v>107</v>
+      <c r="F20" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="36"/>
@@ -3792,14 +3802,14 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="34" t="s">
-        <v>178</v>
+      <c r="F21" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
@@ -3813,7 +3823,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3831,7 +3841,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3850,207 +3860,207 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P24" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q24" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="Q24" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L25" s="32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N25" s="32" t="s">
         <v>41</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P25" s="32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N26" s="32"/>
       <c r="O26" s="32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
       <c r="E27" s="32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="34"/>
       <c r="J27" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N27" s="32"/>
       <c r="O27" s="32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P27" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q27" s="33"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
       <c r="D28" s="36"/>
       <c r="E28" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M28" s="32"/>
       <c r="N28" s="36"/>
       <c r="O28" s="32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P28" s="32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="33"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -4061,21 +4071,21 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K29" s="32"/>
       <c r="L29" s="32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
       <c r="O29" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4088,7 +4098,7 @@
       <c r="J30" s="32"/>
       <c r="K30" s="32"/>
       <c r="L30" s="32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
@@ -4096,7 +4106,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4115,7 +4125,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4134,7 +4144,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4154,8 +4164,8 @@
       <c r="Q33" s="39"/>
     </row>
   </sheetData>
-  <sortState ref="E10:E12">
-    <sortCondition descending="1" ref="E10"/>
+  <sortState ref="P10:P22">
+    <sortCondition descending="1" ref="P10"/>
   </sortState>
   <conditionalFormatting sqref="B7:Q7">
     <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThan">
@@ -4179,35 +4189,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10:P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>46</v>
       </c>
@@ -4263,7 +4273,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -4322,7 +4332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -4381,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -4440,7 +4450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -4499,7 +4509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -4558,7 +4568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -4635,7 +4645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4656,7 +4666,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4677,359 +4687,359 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I10" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="31"/>
+      <c r="B12" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="J10" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="P10" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q10" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="S10" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="N11" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="O11" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="R11" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="S11" s="33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>234</v>
-      </c>
       <c r="D12" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>317</v>
+        <v>295</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>283</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>114</v>
+        <v>261</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>347</v>
       </c>
       <c r="J12" s="32" t="s">
         <v>102</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>213</v>
+        <v>312</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>215</v>
+        <v>323</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R12" s="32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
-        <v>65</v>
+        <v>345</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>336</v>
+        <v>239</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L13" s="32" t="s">
-        <v>254</v>
+        <v>319</v>
       </c>
       <c r="M13" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="O13" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="N13" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="O13" s="32" t="s">
-        <v>209</v>
-      </c>
       <c r="P13" s="32" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R13" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="32" t="s">
-        <v>240</v>
+        <v>329</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>290</v>
+        <v>226</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>289</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R14" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S14" s="37" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
-      <c r="B15" s="34" t="s">
-        <v>229</v>
+      <c r="B15" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="34"/>
       <c r="E15" s="32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="32" t="s">
-        <v>331</v>
+        <v>238</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>68</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="Q15" s="32" t="s">
         <v>118</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S15" s="33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>233</v>
+        <v>335</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>267</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L16" s="32" t="s">
         <v>288</v>
@@ -5037,146 +5047,146 @@
       <c r="M16" s="34"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R16" s="32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S16" s="33" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
-      <c r="B17" s="32" t="s">
-        <v>66</v>
+      <c r="B17" s="34" t="s">
+        <v>227</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>250</v>
+        <v>237</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>247</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="34" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>320</v>
+        <v>206</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>287</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32" t="s">
-        <v>325</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S17" s="33" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>347</v>
+        <v>66</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="36"/>
       <c r="E18" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>223</v>
+        <v>215</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>248</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="32"/>
       <c r="I18" s="34" t="s">
-        <v>349</v>
+        <v>284</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>237</v>
+        <v>195</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>286</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="36"/>
       <c r="I19" s="34"/>
       <c r="J19" s="32"/>
       <c r="K19" s="36"/>
-      <c r="L19" s="32" t="s">
-        <v>321</v>
+      <c r="L19" s="34" t="s">
+        <v>235</v>
       </c>
       <c r="M19" s="32"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="36"/>
@@ -5184,7 +5194,7 @@
       <c r="J20" s="34"/>
       <c r="K20" s="36"/>
       <c r="L20" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M20" s="34"/>
       <c r="N20" s="36"/>
@@ -5196,13 +5206,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
@@ -5218,16 +5228,16 @@
       <c r="Q21" s="36"/>
       <c r="R21" s="36"/>
       <c r="S21" s="33" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
       <c r="E22" s="34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
@@ -5242,10 +5252,10 @@
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="37" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5265,17 +5275,17 @@
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="S24" s="65" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="S10:S21">
-    <sortCondition descending="1" ref="S10"/>
+  <sortState ref="P10:P18">
+    <sortCondition descending="1" ref="P10"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
     <cfRule type="cellIs" dxfId="59" priority="1" operator="lessThan">
@@ -5298,20 +5308,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5409,7 +5419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34">
       <c r="A2" s="66" t="s">
         <v>70</v>
       </c>
@@ -5515,7 +5525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34">
       <c r="A3" s="66"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -5619,7 +5629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34">
       <c r="A4" s="66"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -5723,7 +5733,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34">
       <c r="A5" s="66"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -5827,10 +5837,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34">
       <c r="A7" s="66" t="s">
         <v>69</v>
       </c>
@@ -5936,7 +5946,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34">
       <c r="A8" s="66"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6040,7 +6050,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34">
       <c r="A9" s="66"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -6144,7 +6154,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34">
       <c r="A10" s="66"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -6248,10 +6258,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34">
       <c r="A12" s="66" t="s">
         <v>71</v>
       </c>
@@ -6335,7 +6345,7 @@
         <v>20.157894736842106</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34">
       <c r="A13" s="66"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -6417,7 +6427,7 @@
         <v>1.8947368421052631</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34">
       <c r="A14" s="66"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -6499,7 +6509,7 @@
         <v>4.4210526315789478</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34">
       <c r="A15" s="66"/>
       <c r="B15" t="s">
         <v>21</v>
@@ -6680,21 +6690,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -6804,7 +6814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" s="66" t="s">
         <v>70</v>
       </c>
@@ -6922,7 +6932,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38">
       <c r="A3" s="66"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -7038,7 +7048,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="A4" s="66"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -7154,7 +7164,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38">
       <c r="A5" s="66"/>
       <c r="B5" t="s">
         <v>21</v>
@@ -7270,10 +7280,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" s="66" t="s">
         <v>69</v>
       </c>
@@ -7391,7 +7401,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38">
       <c r="A8" s="66"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -7507,7 +7517,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" s="66"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -7623,7 +7633,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" s="66"/>
       <c r="B10" t="s">
         <v>21</v>
@@ -7739,10 +7749,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" s="66" t="s">
         <v>71</v>
       </c>
@@ -7828,7 +7838,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38">
       <c r="A13" s="66"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7912,7 +7922,7 @@
         <v>2.1111111111111112</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" s="66"/>
       <c r="B14" t="s">
         <v>5</v>
@@ -7996,7 +8006,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38">
       <c r="A15" s="66"/>
       <c r="B15" t="s">
         <v>21</v>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -2929,7 +2929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4192,7 +4192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P10" sqref="P10:P18"/>
     </sheetView>
   </sheetViews>
@@ -5311,8 +5311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6314,7 +6314,7 @@
         <v>16</v>
       </c>
       <c r="R12" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S12" s="1">
         <v>12</v>
@@ -6338,11 +6338,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>20.157894736842106</v>
+        <v>20.368421052631579</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -6396,7 +6396,7 @@
         <v>2</v>
       </c>
       <c r="R13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13" s="1">
         <v>4</v>
@@ -6420,11 +6420,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>1.8947368421052631</v>
+        <v>1.9473684210526316</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -6693,7 +6693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -2929,7 +2929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5311,8 +5311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6325,7 +6325,9 @@
       <c r="U12" s="1">
         <v>22</v>
       </c>
-      <c r="V12" s="44"/>
+      <c r="V12" s="44">
+        <v>14</v>
+      </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -6338,11 +6340,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>20.368421052631579</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -6407,7 +6409,9 @@
       <c r="U13" s="1">
         <v>0</v>
       </c>
-      <c r="V13" s="44"/>
+      <c r="V13" s="44">
+        <v>3</v>
+      </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -6420,11 +6424,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>1.9473684210526316</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -6489,7 +6493,9 @@
       <c r="U14" s="1">
         <v>3</v>
       </c>
-      <c r="V14" s="44"/>
+      <c r="V14" s="44">
+        <v>8</v>
+      </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -6502,11 +6508,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.4210526315789478</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -6571,7 +6577,9 @@
       <c r="U15" s="1">
         <v>2</v>
       </c>
-      <c r="V15" s="44"/>
+      <c r="V15" s="44">
+        <v>3</v>
+      </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -6584,11 +6592,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.263157894736842</v>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>
@@ -6693,8 +6701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7813,7 +7821,9 @@
       <c r="T12" s="1">
         <v>23</v>
       </c>
-      <c r="U12" s="1"/>
+      <c r="U12" s="1">
+        <v>29</v>
+      </c>
       <c r="V12" s="44"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -7831,11 +7841,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>21.388888888888889</v>
+        <v>21.789473684210527</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -7892,12 +7902,14 @@
         <v>2</v>
       </c>
       <c r="S13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13" s="1">
         <v>3</v>
       </c>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1">
+        <v>2</v>
+      </c>
       <c r="V13" s="44"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -7915,11 +7927,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.1111111111111112</v>
+        <v>2.1578947368421053</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -7976,12 +7988,14 @@
         <v>7</v>
       </c>
       <c r="S14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T14" s="1">
         <v>2</v>
       </c>
-      <c r="U14" s="1"/>
+      <c r="U14" s="1">
+        <v>4</v>
+      </c>
       <c r="V14" s="44"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -7999,11 +8013,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>5.833333333333333</v>
+        <v>5.8421052631578947</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8065,7 +8079,9 @@
       <c r="T15" s="1">
         <v>4</v>
       </c>
-      <c r="U15" s="1"/>
+      <c r="U15" s="1">
+        <v>4</v>
+      </c>
       <c r="V15" s="44"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -8083,11 +8099,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.9444444444444446</v>
+        <v>3.9473684210526314</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -2929,7 +2929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5312,7 +5312,7 @@
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6328,7 +6328,9 @@
       <c r="V12" s="44">
         <v>14</v>
       </c>
-      <c r="W12" s="1"/>
+      <c r="W12" s="1">
+        <v>19</v>
+      </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -6340,11 +6342,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>20.05</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -6412,7 +6414,9 @@
       <c r="V13" s="44">
         <v>3</v>
       </c>
-      <c r="W13" s="1"/>
+      <c r="W13" s="1">
+        <v>3</v>
+      </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
@@ -6424,11 +6428,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>2</v>
+        <v>2.0476190476190474</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -6496,7 +6500,9 @@
       <c r="V14" s="44">
         <v>8</v>
       </c>
-      <c r="W14" s="1"/>
+      <c r="W14" s="1">
+        <v>5</v>
+      </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -6508,11 +6514,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.5999999999999996</v>
+        <v>4.6190476190476186</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -6580,7 +6586,9 @@
       <c r="V15" s="44">
         <v>3</v>
       </c>
-      <c r="W15" s="1"/>
+      <c r="W15" s="1">
+        <v>4</v>
+      </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -6592,11 +6600,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.25</v>
+        <v>3.2857142857142856</v>
       </c>
     </row>
   </sheetData>
@@ -6702,7 +6710,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7824,7 +7832,9 @@
       <c r="U12" s="1">
         <v>29</v>
       </c>
-      <c r="V12" s="44"/>
+      <c r="V12" s="44">
+        <v>16</v>
+      </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -7841,11 +7851,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>21.789473684210527</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -7910,7 +7920,9 @@
       <c r="U13" s="1">
         <v>2</v>
       </c>
-      <c r="V13" s="44"/>
+      <c r="V13" s="44">
+        <v>1</v>
+      </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -7927,11 +7939,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.1578947368421053</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -7996,7 +8008,9 @@
       <c r="U14" s="1">
         <v>4</v>
       </c>
-      <c r="V14" s="44"/>
+      <c r="V14" s="44">
+        <v>8</v>
+      </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -8013,11 +8027,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>5.8421052631578947</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8082,7 +8096,9 @@
       <c r="U15" s="1">
         <v>4</v>
       </c>
-      <c r="V15" s="44"/>
+      <c r="V15" s="44">
+        <v>4</v>
+      </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -8099,11 +8115,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.9473684210526314</v>
+        <v>3.95</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -2929,7 +2929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5311,8 +5311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6331,7 +6331,9 @@
       <c r="W12" s="1">
         <v>19</v>
       </c>
-      <c r="X12" s="1"/>
+      <c r="X12" s="1">
+        <v>18</v>
+      </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
@@ -6342,11 +6344,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>20</v>
+        <v>19.90909090909091</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -6417,7 +6419,9 @@
       <c r="W13" s="1">
         <v>3</v>
       </c>
-      <c r="X13" s="1"/>
+      <c r="X13" s="1">
+        <v>2</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
@@ -6428,11 +6432,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>2.0476190476190474</v>
+        <v>2.0454545454545454</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -6503,7 +6507,9 @@
       <c r="W14" s="1">
         <v>5</v>
       </c>
-      <c r="X14" s="1"/>
+      <c r="X14" s="1">
+        <v>8</v>
+      </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
@@ -6514,11 +6520,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.6190476190476186</v>
+        <v>4.7727272727272725</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -6589,7 +6595,9 @@
       <c r="W15" s="1">
         <v>4</v>
       </c>
-      <c r="X15" s="1"/>
+      <c r="X15" s="1">
+        <v>4</v>
+      </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
@@ -6600,11 +6608,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.2857142857142856</v>
+        <v>3.3181818181818183</v>
       </c>
     </row>
   </sheetData>
@@ -6709,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7835,7 +7843,9 @@
       <c r="V12" s="44">
         <v>16</v>
       </c>
-      <c r="W12" s="1"/>
+      <c r="W12" s="1">
+        <v>12</v>
+      </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -7851,11 +7861,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>21.5</v>
+        <v>21.047619047619047</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -7923,7 +7933,9 @@
       <c r="V13" s="44">
         <v>1</v>
       </c>
-      <c r="W13" s="1"/>
+      <c r="W13" s="1">
+        <v>3</v>
+      </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
@@ -7939,11 +7951,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8011,7 +8023,9 @@
       <c r="V14" s="44">
         <v>8</v>
       </c>
-      <c r="W14" s="1"/>
+      <c r="W14" s="1">
+        <v>7</v>
+      </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -8027,11 +8041,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>5.95</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8099,7 +8113,9 @@
       <c r="V15" s="44">
         <v>4</v>
       </c>
-      <c r="W15" s="1"/>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -8115,11 +8131,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.95</v>
+        <v>3.8095238095238093</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -2929,7 +2929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5311,7 +5311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
@@ -6717,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7846,7 +7846,9 @@
       <c r="W12" s="1">
         <v>12</v>
       </c>
-      <c r="X12" s="1"/>
+      <c r="X12" s="1">
+        <v>15</v>
+      </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
@@ -7861,11 +7863,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>21.047619047619047</v>
+        <v>20.772727272727273</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -7936,7 +7938,9 @@
       <c r="W13" s="1">
         <v>3</v>
       </c>
-      <c r="X13" s="1"/>
+      <c r="X13" s="1">
+        <v>3</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
@@ -7951,11 +7955,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.1428571428571428</v>
+        <v>2.1818181818181817</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8026,7 +8030,9 @@
       <c r="W14" s="1">
         <v>7</v>
       </c>
-      <c r="X14" s="1"/>
+      <c r="X14" s="1">
+        <v>7</v>
+      </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
@@ -8041,11 +8047,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>6.0454545454545459</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8116,7 +8122,9 @@
       <c r="W15" s="1">
         <v>1</v>
       </c>
-      <c r="X15" s="1"/>
+      <c r="X15" s="1">
+        <v>4</v>
+      </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
@@ -8131,11 +8139,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.8095238095238093</v>
+        <v>3.8181818181818183</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -2939,8 +2939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3089,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="51">
         <v>0</v>
@@ -4192,8 +4192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10:P18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4337,7 +4337,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -5311,8 +5311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6334,7 +6334,9 @@
       <c r="X12" s="1">
         <v>18</v>
       </c>
-      <c r="Y12" s="1"/>
+      <c r="Y12" s="1">
+        <v>20</v>
+      </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -6344,11 +6346,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>19.90909090909091</v>
+        <v>19.913043478260871</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -6422,7 +6424,9 @@
       <c r="X13" s="1">
         <v>2</v>
       </c>
-      <c r="Y13" s="1"/>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -6436,7 +6440,7 @@
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>2.0454545454545454</v>
+        <v>1.9565217391304348</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -6510,7 +6514,9 @@
       <c r="X14" s="1">
         <v>8</v>
       </c>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="1">
+        <v>3</v>
+      </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -6520,11 +6526,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.7727272727272725</v>
+        <v>4.6956521739130439</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -6598,7 +6604,9 @@
       <c r="X15" s="1">
         <v>4</v>
       </c>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="1">
+        <v>4</v>
+      </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -6608,11 +6616,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.3181818181818183</v>
+        <v>3.347826086956522</v>
       </c>
     </row>
   </sheetData>
@@ -6717,8 +6725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7849,7 +7857,9 @@
       <c r="X12" s="1">
         <v>15</v>
       </c>
-      <c r="Y12" s="1"/>
+      <c r="Y12" s="1">
+        <v>19</v>
+      </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -7863,11 +7873,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.772727272727273</v>
+        <v>20.695652173913043</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -7941,7 +7951,9 @@
       <c r="X13" s="1">
         <v>3</v>
       </c>
-      <c r="Y13" s="1"/>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -7955,11 +7967,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.1818181818181817</v>
+        <v>2.1304347826086958</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8033,7 +8045,9 @@
       <c r="X14" s="1">
         <v>7</v>
       </c>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="1">
+        <v>6</v>
+      </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -8047,11 +8061,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.0454545454545459</v>
+        <v>6.0434782608695654</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8125,7 +8139,9 @@
       <c r="X15" s="1">
         <v>4</v>
       </c>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="1">
+        <v>4</v>
+      </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -8139,11 +8155,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.8181818181818183</v>
+        <v>3.8260869565217392</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="355">
   <si>
     <t>bramki</t>
   </si>
@@ -1395,9 +1395,6 @@
     <t>3 Gutkovskis</t>
   </si>
   <si>
-    <t>1 Gutkovskis</t>
-  </si>
-  <si>
     <t>2 Pik</t>
   </si>
   <si>
@@ -1411,6 +1408,9 @@
   </si>
   <si>
     <t>1 Alves</t>
+  </si>
+  <si>
+    <t>2 Gutkovskis</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +2929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2939,8 +2939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" s="47">
         <v>2</v>
@@ -3124,7 +3124,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="55">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="58">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="59">
         <v>8</v>
@@ -3207,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="58">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M5" s="59">
         <v>4</v>
@@ -3230,7 +3230,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="63">
         <v>7</v>
@@ -3260,7 +3260,7 @@
         <v>6</v>
       </c>
       <c r="L6" s="62">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M6" s="63">
         <v>2</v>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B7" s="8">
         <f>B5-B6</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="20">
         <f>C5-C6</f>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" s="20">
         <f t="shared" si="0"/>
@@ -3408,7 +3408,7 @@
         <v>173</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>96</v>
@@ -3492,7 +3492,7 @@
     <row r="12" spans="1:17">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>169</v>
@@ -3543,7 +3543,7 @@
     <row r="13" spans="1:17">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>103</v>
@@ -3642,7 +3642,7 @@
         <v>44</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H15" s="32" t="s">
         <v>178</v>
@@ -3682,7 +3682,7 @@
         <v>74</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>141</v>
@@ -3750,7 +3750,7 @@
       <c r="J18" s="34"/>
       <c r="K18" s="32"/>
       <c r="L18" s="32" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
@@ -3774,7 +3774,9 @@
       <c r="I19" s="34"/>
       <c r="J19" s="32"/>
       <c r="K19" s="36"/>
-      <c r="L19" s="32"/>
+      <c r="L19" s="32" t="s">
+        <v>89</v>
+      </c>
       <c r="M19" s="32"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
@@ -5311,8 +5313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6337,7 +6339,9 @@
       <c r="Y12" s="1">
         <v>20</v>
       </c>
-      <c r="Z12" s="1"/>
+      <c r="Z12" s="1">
+        <v>15</v>
+      </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -6346,11 +6350,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>19.913043478260871</v>
+        <v>19.708333333333332</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -6427,7 +6431,9 @@
       <c r="Y13" s="1">
         <v>0</v>
       </c>
-      <c r="Z13" s="1"/>
+      <c r="Z13" s="1">
+        <v>3</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -6436,11 +6442,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>1.9565217391304348</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -6517,7 +6523,9 @@
       <c r="Y14" s="1">
         <v>3</v>
       </c>
-      <c r="Z14" s="1"/>
+      <c r="Z14" s="1">
+        <v>6</v>
+      </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -6526,11 +6534,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.6956521739130439</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -6607,7 +6615,9 @@
       <c r="Y15" s="1">
         <v>4</v>
       </c>
-      <c r="Z15" s="1"/>
+      <c r="Z15" s="1">
+        <v>4</v>
+      </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -6616,11 +6626,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.347826086956522</v>
+        <v>3.375</v>
       </c>
     </row>
   </sheetData>
@@ -6725,8 +6735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7852,7 +7862,7 @@
         <v>16</v>
       </c>
       <c r="W12" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="X12" s="1">
         <v>15</v>
@@ -7860,7 +7870,9 @@
       <c r="Y12" s="1">
         <v>19</v>
       </c>
-      <c r="Z12" s="1"/>
+      <c r="Z12" s="1">
+        <v>14</v>
+      </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -7873,11 +7885,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.695652173913043</v>
+        <v>20.583333333333332</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -7954,7 +7966,9 @@
       <c r="Y13" s="1">
         <v>1</v>
       </c>
-      <c r="Z13" s="1"/>
+      <c r="Z13" s="1">
+        <v>4</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -7967,11 +7981,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.1304347826086958</v>
+        <v>2.2083333333333335</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8040,7 +8054,7 @@
         <v>8</v>
       </c>
       <c r="W14" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X14" s="1">
         <v>7</v>
@@ -8048,7 +8062,9 @@
       <c r="Y14" s="1">
         <v>6</v>
       </c>
-      <c r="Z14" s="1"/>
+      <c r="Z14" s="1">
+        <v>6</v>
+      </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -8061,11 +8077,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.0434782608695654</v>
+        <v>6.083333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8142,7 +8158,9 @@
       <c r="Y15" s="1">
         <v>4</v>
       </c>
-      <c r="Z15" s="1"/>
+      <c r="Z15" s="1">
+        <v>3</v>
+      </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -8155,11 +8173,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.8260869565217392</v>
+        <v>3.7916666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -2929,7 +2929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5313,8 +5313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6342,7 +6342,9 @@
       <c r="Z12" s="1">
         <v>15</v>
       </c>
-      <c r="AA12" s="1"/>
+      <c r="AA12" s="1">
+        <v>19</v>
+      </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -6350,11 +6352,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>19.708333333333332</v>
+        <v>19.68</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -6434,7 +6436,9 @@
       <c r="Z13" s="1">
         <v>3</v>
       </c>
-      <c r="AA13" s="1"/>
+      <c r="AA13" s="1">
+        <v>4</v>
+      </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
@@ -6442,11 +6446,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>2</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -6526,7 +6530,9 @@
       <c r="Z14" s="1">
         <v>6</v>
       </c>
-      <c r="AA14" s="1"/>
+      <c r="AA14" s="1">
+        <v>5</v>
+      </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
@@ -6534,11 +6540,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -6618,7 +6624,9 @@
       <c r="Z15" s="1">
         <v>4</v>
       </c>
-      <c r="AA15" s="1"/>
+      <c r="AA15" s="1">
+        <v>1</v>
+      </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
@@ -6626,11 +6634,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.375</v>
+        <v>3.28</v>
       </c>
     </row>
   </sheetData>
@@ -6735,8 +6743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7873,7 +7881,9 @@
       <c r="Z12" s="1">
         <v>14</v>
       </c>
-      <c r="AA12" s="1"/>
+      <c r="AA12" s="1">
+        <v>11</v>
+      </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -7885,11 +7895,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.583333333333332</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -7969,7 +7979,9 @@
       <c r="Z13" s="1">
         <v>4</v>
       </c>
-      <c r="AA13" s="1"/>
+      <c r="AA13" s="1">
+        <v>2</v>
+      </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
@@ -7981,11 +7993,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.2083333333333335</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8065,7 +8077,9 @@
       <c r="Z14" s="1">
         <v>6</v>
       </c>
-      <c r="AA14" s="1"/>
+      <c r="AA14" s="1">
+        <v>4</v>
+      </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
@@ -8077,11 +8091,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.083333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8161,7 +8175,9 @@
       <c r="Z15" s="1">
         <v>3</v>
       </c>
-      <c r="AA15" s="1"/>
+      <c r="AA15" s="1">
+        <v>3</v>
+      </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
@@ -8173,11 +8189,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.7916666666666665</v>
+        <v>3.76</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="357">
   <si>
     <t>bramki</t>
   </si>
@@ -1411,6 +1411,12 @@
   </si>
   <si>
     <t>2 Gutkovskis</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>##</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +2935,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5311,10 +5317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH15"/>
+  <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6345,18 +6351,20 @@
       <c r="AA12" s="1">
         <v>19</v>
       </c>
-      <c r="AB12" s="1"/>
+      <c r="AB12" s="1">
+        <v>26</v>
+      </c>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>19.68</v>
+        <v>19.923076923076923</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -6439,18 +6447,20 @@
       <c r="AA13" s="1">
         <v>4</v>
       </c>
-      <c r="AB13" s="1"/>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>2.08</v>
+        <v>2.0384615384615383</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -6533,18 +6543,20 @@
       <c r="AA14" s="1">
         <v>5</v>
       </c>
-      <c r="AB14" s="1"/>
+      <c r="AB14" s="1">
+        <v>5</v>
+      </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.76</v>
+        <v>4.7692307692307692</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -6627,18 +6639,25 @@
       <c r="AA15" s="1">
         <v>1</v>
       </c>
-      <c r="AB15" s="1"/>
+      <c r="AB15" s="1">
+        <v>5</v>
+      </c>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.28</v>
+        <v>3.3461538461538463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="Y16" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -6741,10 +6760,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7873,7 +7892,7 @@
         <v>16</v>
       </c>
       <c r="X12" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y12" s="1">
         <v>19</v>
@@ -7882,7 +7901,7 @@
         <v>14</v>
       </c>
       <c r="AA12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -7895,11 +7914,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.2</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -7971,7 +7990,7 @@
         <v>3</v>
       </c>
       <c r="X13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y13" s="1">
         <v>1</v>
@@ -7993,11 +8012,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8078,7 +8097,7 @@
         <v>6</v>
       </c>
       <c r="AA14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -8091,11 +8110,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8176,7 +8195,7 @@
         <v>3</v>
       </c>
       <c r="AA15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -8189,11 +8208,22 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.76</v>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="Y16" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="357">
   <si>
     <t>bramki</t>
   </si>
@@ -5320,7 +5320,7 @@
   <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6354,17 +6354,19 @@
       <c r="AB12" s="1">
         <v>26</v>
       </c>
-      <c r="AC12" s="1"/>
+      <c r="AC12" s="1">
+        <v>12</v>
+      </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>19.923076923076923</v>
+        <v>19.62962962962963</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -6450,17 +6452,19 @@
       <c r="AB13" s="1">
         <v>1</v>
       </c>
-      <c r="AC13" s="1"/>
+      <c r="AC13" s="1">
+        <v>2</v>
+      </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>2.0384615384615383</v>
+        <v>2.0370370370370372</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -6546,17 +6550,19 @@
       <c r="AB14" s="1">
         <v>5</v>
       </c>
-      <c r="AC14" s="1"/>
+      <c r="AC14" s="1">
+        <v>8</v>
+      </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.7692307692307692</v>
+        <v>4.8888888888888893</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -6642,17 +6648,19 @@
       <c r="AB15" s="1">
         <v>5</v>
       </c>
-      <c r="AC15" s="1"/>
+      <c r="AC15" s="1">
+        <v>4</v>
+      </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.3461538461538463</v>
+        <v>3.3703703703703702</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -6763,7 +6771,7 @@
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7903,7 +7911,9 @@
       <c r="AA12" s="1">
         <v>12</v>
       </c>
-      <c r="AB12" s="1"/>
+      <c r="AB12" s="1">
+        <v>12</v>
+      </c>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -7914,11 +7924,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -8001,7 +8011,9 @@
       <c r="AA13" s="1">
         <v>2</v>
       </c>
-      <c r="AB13" s="1"/>
+      <c r="AB13" s="1">
+        <v>2</v>
+      </c>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -8012,11 +8024,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.2400000000000002</v>
+        <v>2.2307692307692308</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8099,7 +8111,9 @@
       <c r="AA14" s="1">
         <v>5</v>
       </c>
-      <c r="AB14" s="1"/>
+      <c r="AB14" s="1">
+        <v>8</v>
+      </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -8110,11 +8124,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.04</v>
+        <v>6.115384615384615</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8197,7 +8211,9 @@
       <c r="AA15" s="1">
         <v>4</v>
       </c>
-      <c r="AB15" s="1"/>
+      <c r="AB15" s="1">
+        <v>3</v>
+      </c>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -8208,11 +8224,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3.7692307692307692</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -8224,6 +8240,9 @@
       </c>
       <c r="AA16" t="s">
         <v>356</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Maks Marcinowski:</t>
         </r>
@@ -44,7 +45,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 2:1 z Zagłębiem</t>
@@ -59,7 +61,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Maks Marcinowski:</t>
         </r>
@@ -68,7 +71,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 9:1 z Olimpią Grudziądz
@@ -85,7 +89,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Maks Marcinowski:</t>
         </r>
@@ -94,7 +99,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 8:0 z Liwa FC ???</t>
@@ -109,7 +115,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Maks Marcinowski:</t>
         </r>
@@ -118,7 +125,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 4:0 z Wisłą II Płock</t>
@@ -133,7 +141,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Maks Marcinowski:</t>
         </r>
@@ -142,7 +151,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 2:0 z Pogonią</t>
@@ -157,7 +167,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Maks Marcinowski:</t>
         </r>
@@ -166,7 +177,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 5:0 z Podhalem NT</t>
@@ -181,7 +193,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Maks Marcinowski:</t>
         </r>
@@ -190,7 +203,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 1:1 z Szachtarem</t>
@@ -205,7 +219,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Maks Marcinowski:</t>
         </r>
@@ -214,7 +229,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 2:2 z Zagłębiem</t>
@@ -229,7 +245,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Maks Marcinowski:</t>
         </r>
@@ -238,7 +255,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 2:2 z Rakowem</t>
@@ -253,7 +271,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Maks Marcinowski:</t>
         </r>
@@ -262,7 +281,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 0:2 z Lechią</t>
@@ -277,7 +297,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Maks Marcinowski:</t>
         </r>
@@ -286,7 +307,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 0:2 z Wartą</t>
@@ -301,7 +323,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Maks Marcinowski:</t>
         </r>
@@ -310,7 +333,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 0:4 z Crveną Zvezdą</t>
@@ -325,7 +349,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Maks Marcinowski:</t>
         </r>
@@ -334,7 +359,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 1:2 z Jagiellonią</t>
@@ -1446,13 +1472,15 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2935,7 +2963,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5319,7 +5347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
@@ -6770,8 +6798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7914,7 +7942,9 @@
       <c r="AB12" s="1">
         <v>12</v>
       </c>
-      <c r="AC12" s="1"/>
+      <c r="AC12" s="1">
+        <v>26</v>
+      </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
@@ -7924,11 +7954,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>20.222222222222221</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -8014,7 +8044,9 @@
       <c r="AB13" s="1">
         <v>2</v>
       </c>
-      <c r="AC13" s="1"/>
+      <c r="AC13" s="1">
+        <v>2</v>
+      </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
@@ -8024,11 +8056,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.2307692307692308</v>
+        <v>2.2222222222222223</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8114,7 +8146,9 @@
       <c r="AB14" s="1">
         <v>8</v>
       </c>
-      <c r="AC14" s="1"/>
+      <c r="AC14" s="1">
+        <v>4</v>
+      </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
@@ -8124,11 +8158,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.115384615384615</v>
+        <v>6.0370370370370372</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8214,7 +8248,9 @@
       <c r="AB15" s="1">
         <v>3</v>
       </c>
-      <c r="AC15" s="1"/>
+      <c r="AC15" s="1">
+        <v>4</v>
+      </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
@@ -8224,11 +8260,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.7692307692307692</v>
+        <v>3.7777777777777777</v>
       </c>
     </row>
     <row r="16" spans="1:38">

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="356">
   <si>
     <t>bramki</t>
   </si>
@@ -1440,9 +1440,6 @@
   </si>
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>##</t>
   </si>
 </sst>
 </file>
@@ -5345,10 +5342,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH16"/>
+  <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6371,7 +6368,7 @@
         <v>18</v>
       </c>
       <c r="Y12" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z12" s="1">
         <v>15</v>
@@ -6385,16 +6382,18 @@
       <c r="AC12" s="1">
         <v>12</v>
       </c>
-      <c r="AD12" s="1"/>
+      <c r="AD12" s="1">
+        <v>12</v>
+      </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>19.62962962962963</v>
+        <v>19.392857142857142</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -6483,16 +6482,18 @@
       <c r="AC13" s="1">
         <v>2</v>
       </c>
-      <c r="AD13" s="1"/>
+      <c r="AD13" s="1">
+        <v>4</v>
+      </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>2.0370370370370372</v>
+        <v>2.1071428571428572</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -6567,7 +6568,7 @@
         <v>8</v>
       </c>
       <c r="Y14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z14" s="1">
         <v>6</v>
@@ -6581,16 +6582,18 @@
       <c r="AC14" s="1">
         <v>8</v>
       </c>
-      <c r="AD14" s="1"/>
+      <c r="AD14" s="1">
+        <v>8</v>
+      </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.8888888888888893</v>
+        <v>5.0357142857142856</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -6679,21 +6682,18 @@
       <c r="AC15" s="1">
         <v>4</v>
       </c>
-      <c r="AD15" s="1"/>
+      <c r="AD15" s="1">
+        <v>2</v>
+      </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.3703703703703702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="Y16" t="s">
-        <v>355</v>
+        <v>3.3214285714285716</v>
       </c>
     </row>
   </sheetData>
@@ -6799,7 +6799,7 @@
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7931,13 +7931,13 @@
         <v>17</v>
       </c>
       <c r="Y12" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="Z12" s="1">
         <v>14</v>
       </c>
       <c r="AA12" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB12" s="1">
         <v>12</v>
@@ -7945,7 +7945,9 @@
       <c r="AC12" s="1">
         <v>26</v>
       </c>
-      <c r="AD12" s="1"/>
+      <c r="AD12" s="1">
+        <v>17</v>
+      </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
@@ -7954,11 +7956,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.222222222222221</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -8047,7 +8049,9 @@
       <c r="AC13" s="1">
         <v>2</v>
       </c>
-      <c r="AD13" s="1"/>
+      <c r="AD13" s="1">
+        <v>2</v>
+      </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
@@ -8056,11 +8060,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223</v>
+        <v>2.2142857142857144</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8149,7 +8153,9 @@
       <c r="AC14" s="1">
         <v>4</v>
       </c>
-      <c r="AD14" s="1"/>
+      <c r="AD14" s="1">
+        <v>7</v>
+      </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
@@ -8158,11 +8164,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.0370370370370372</v>
+        <v>6.0714285714285712</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8237,7 +8243,7 @@
         <v>4</v>
       </c>
       <c r="Y15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z15" s="1">
         <v>3</v>
@@ -8251,7 +8257,9 @@
       <c r="AC15" s="1">
         <v>4</v>
       </c>
-      <c r="AD15" s="1"/>
+      <c r="AD15" s="1">
+        <v>4</v>
+      </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -8260,24 +8268,24 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.7777777777777777</v>
+        <v>3.8214285714285716</v>
       </c>
     </row>
     <row r="16" spans="1:38">
-      <c r="Y16" t="s">
-        <v>355</v>
-      </c>
       <c r="Z16" t="s">
         <v>355</v>
       </c>
       <c r="AA16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AB16" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD16" t="s">
         <v>355</v>
       </c>
     </row>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -2960,7 +2960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5345,7 +5345,7 @@
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6385,15 +6385,17 @@
       <c r="AD12" s="1">
         <v>12</v>
       </c>
-      <c r="AE12" s="1"/>
+      <c r="AE12" s="1">
+        <v>19</v>
+      </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>19.392857142857142</v>
+        <v>19.379310344827587</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -6485,15 +6487,17 @@
       <c r="AD13" s="1">
         <v>4</v>
       </c>
-      <c r="AE13" s="1"/>
+      <c r="AE13" s="1">
+        <v>4</v>
+      </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>2.1071428571428572</v>
+        <v>2.1724137931034484</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -6585,15 +6589,17 @@
       <c r="AD14" s="1">
         <v>8</v>
       </c>
-      <c r="AE14" s="1"/>
+      <c r="AE14" s="1">
+        <v>3</v>
+      </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>5.0357142857142856</v>
+        <v>4.9655172413793105</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -6685,15 +6691,17 @@
       <c r="AD15" s="1">
         <v>2</v>
       </c>
-      <c r="AE15" s="1"/>
+      <c r="AE15" s="1">
+        <v>2</v>
+      </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.3214285714285716</v>
+        <v>3.2758620689655173</v>
       </c>
     </row>
   </sheetData>
@@ -6799,7 +6807,7 @@
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7948,7 +7956,9 @@
       <c r="AD12" s="1">
         <v>17</v>
       </c>
-      <c r="AE12" s="1"/>
+      <c r="AE12" s="1">
+        <v>21</v>
+      </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
@@ -7956,11 +7966,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>20.517241379310345</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -8052,7 +8062,9 @@
       <c r="AD13" s="1">
         <v>2</v>
       </c>
-      <c r="AE13" s="1"/>
+      <c r="AE13" s="1">
+        <v>1</v>
+      </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
@@ -8060,11 +8072,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.2142857142857144</v>
+        <v>2.1724137931034484</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8156,7 +8168,9 @@
       <c r="AD14" s="1">
         <v>7</v>
       </c>
-      <c r="AE14" s="1"/>
+      <c r="AE14" s="1">
+        <v>5</v>
+      </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -8164,11 +8178,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.0714285714285712</v>
+        <v>6.0344827586206895</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8260,7 +8274,9 @@
       <c r="AD15" s="1">
         <v>4</v>
       </c>
-      <c r="AE15" s="1"/>
+      <c r="AE15" s="1">
+        <v>4</v>
+      </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -8268,11 +8284,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.8214285714285716</v>
+        <v>3.8275862068965516</v>
       </c>
     </row>
     <row r="16" spans="1:38">

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="356">
   <si>
     <t>bramki</t>
   </si>
@@ -2960,7 +2960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5345,7 +5345,7 @@
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6807,7 +6807,7 @@
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7942,7 +7942,7 @@
         <v>27</v>
       </c>
       <c r="Z12" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA12" s="1">
         <v>15</v>
@@ -7966,11 +7966,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.517241379310345</v>
+        <v>20.551724137931036</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -8154,7 +8154,7 @@
         <v>6</v>
       </c>
       <c r="Z14" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA14" s="1">
         <v>5</v>
@@ -8178,11 +8178,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.0344827586206895</v>
+        <v>6.068965517241379</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8292,9 +8292,6 @@
       </c>
     </row>
     <row r="16" spans="1:38">
-      <c r="Z16" t="s">
-        <v>355</v>
-      </c>
       <c r="AA16" t="s">
         <v>355</v>
       </c>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -2960,7 +2960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5345,7 +5345,7 @@
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6388,14 +6388,16 @@
       <c r="AE12" s="1">
         <v>19</v>
       </c>
-      <c r="AF12" s="1"/>
+      <c r="AF12" s="1">
+        <v>22</v>
+      </c>
       <c r="AG12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
-        <v>19.379310344827587</v>
+        <v>19.466666666666665</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -6490,14 +6492,16 @@
       <c r="AE13" s="1">
         <v>4</v>
       </c>
-      <c r="AF13" s="1"/>
+      <c r="AF13" s="1">
+        <v>2</v>
+      </c>
       <c r="AG13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
-        <v>2.1724137931034484</v>
+        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -6592,14 +6596,16 @@
       <c r="AE14" s="1">
         <v>3</v>
       </c>
-      <c r="AF14" s="1"/>
+      <c r="AF14" s="1">
+        <v>3</v>
+      </c>
       <c r="AG14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
-        <v>4.9655172413793105</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -6694,14 +6700,16 @@
       <c r="AE15" s="1">
         <v>2</v>
       </c>
-      <c r="AF15" s="1"/>
+      <c r="AF15" s="1">
+        <v>3</v>
+      </c>
       <c r="AG15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
-        <v>3.2758620689655173</v>
+        <v>3.2666666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -6807,7 +6815,7 @@
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7959,18 +7967,20 @@
       <c r="AE12" s="1">
         <v>21</v>
       </c>
-      <c r="AF12" s="1"/>
+      <c r="AF12" s="1">
+        <v>24</v>
+      </c>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.551724137931036</v>
+        <v>20.666666666666668</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -8065,18 +8075,20 @@
       <c r="AE13" s="1">
         <v>1</v>
       </c>
-      <c r="AF13" s="1"/>
+      <c r="AF13" s="1">
+        <v>2</v>
+      </c>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.1724137931034484</v>
+        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8171,18 +8183,20 @@
       <c r="AE14" s="1">
         <v>5</v>
       </c>
-      <c r="AF14" s="1"/>
+      <c r="AF14" s="1">
+        <v>5</v>
+      </c>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.068965517241379</v>
+        <v>6.0333333333333332</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8277,18 +8291,20 @@
       <c r="AE15" s="1">
         <v>4</v>
       </c>
-      <c r="AF15" s="1"/>
+      <c r="AF15" s="1">
+        <v>5</v>
+      </c>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.8275862068965516</v>
+        <v>3.8666666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:38">

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="355">
   <si>
     <t>bramki</t>
   </si>
@@ -1437,9 +1437,6 @@
   </si>
   <si>
     <t>2 Gutkovskis</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
 </sst>
 </file>
@@ -2960,7 +2957,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6812,10 +6809,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL16"/>
+  <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7956,13 +7953,13 @@
         <v>15</v>
       </c>
       <c r="AB12" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC12" s="1">
         <v>26</v>
       </c>
       <c r="AD12" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE12" s="1">
         <v>21</v>
@@ -7976,11 +7973,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f>SUM(C12:AF12)</f>
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.666666666666668</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -8061,7 +8058,7 @@
         <v>4</v>
       </c>
       <c r="AA13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB13" s="1">
         <v>2</v>
@@ -8084,11 +8081,11 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f>SUM(C13:AF13)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.1666666666666665</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8169,16 +8166,16 @@
         <v>7</v>
       </c>
       <c r="AA14" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB14" s="1">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="1">
         <v>8</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>7</v>
       </c>
       <c r="AE14" s="1">
         <v>5</v>
@@ -8192,11 +8189,11 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f>SUM(C14:AF14)</f>
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.0333333333333332</v>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8286,7 +8283,7 @@
         <v>4</v>
       </c>
       <c r="AD15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE15" s="1">
         <v>4</v>
@@ -8300,22 +8297,11 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f>SUM(C15:AF15)</f>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.8666666666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38">
-      <c r="AA16" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>355</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>355</v>
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -2957,7 +2957,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6812,7 +6812,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7967,17 +7967,19 @@
       <c r="AF12" s="1">
         <v>24</v>
       </c>
-      <c r="AG12" s="1"/>
+      <c r="AG12" s="1">
+        <v>20</v>
+      </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
-        <f>SUM(C12:AF12)</f>
-        <v>624</v>
+        <f>SUM(C12:AG12)</f>
+        <v>644</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.8</v>
+        <v>20.774193548387096</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -8075,17 +8077,19 @@
       <c r="AF13" s="1">
         <v>2</v>
       </c>
-      <c r="AG13" s="1"/>
+      <c r="AG13" s="1">
+        <v>3</v>
+      </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
-        <f>SUM(C13:AF13)</f>
-        <v>66</v>
+        <f>SUM(C13:AG13)</f>
+        <v>69</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>2.225806451612903</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8183,17 +8187,19 @@
       <c r="AF14" s="1">
         <v>5</v>
       </c>
-      <c r="AG14" s="1"/>
+      <c r="AG14" s="1">
+        <v>5</v>
+      </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
-        <f>SUM(C14:AF14)</f>
-        <v>185</v>
+        <f>SUM(C14:AG14)</f>
+        <v>190</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.166666666666667</v>
+        <v>6.129032258064516</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8291,17 +8297,19 @@
       <c r="AF15" s="1">
         <v>5</v>
       </c>
-      <c r="AG15" s="1"/>
+      <c r="AG15" s="1">
+        <v>4</v>
+      </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
-        <f>SUM(C15:AF15)</f>
-        <v>117</v>
+        <f>SUM(C15:AG15)</f>
+        <v>121</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.9</v>
+        <v>3.903225806451613</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -2957,7 +2957,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6812,7 +6812,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+      <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7970,16 +7970,18 @@
       <c r="AG12" s="1">
         <v>20</v>
       </c>
-      <c r="AH12" s="1"/>
+      <c r="AH12" s="1">
+        <v>25</v>
+      </c>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
-        <f>SUM(C12:AG12)</f>
-        <v>644</v>
+        <f>SUM(C12:AH12)</f>
+        <v>669</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.774193548387096</v>
+        <v>20.90625</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -8080,16 +8082,18 @@
       <c r="AG13" s="1">
         <v>3</v>
       </c>
-      <c r="AH13" s="1"/>
+      <c r="AH13" s="1">
+        <v>3</v>
+      </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
-        <f>SUM(C13:AG13)</f>
-        <v>69</v>
+        <f>SUM(C13:AH13)</f>
+        <v>72</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.225806451612903</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8190,16 +8194,18 @@
       <c r="AG14" s="1">
         <v>5</v>
       </c>
-      <c r="AH14" s="1"/>
+      <c r="AH14" s="1">
+        <v>5</v>
+      </c>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
-        <f>SUM(C14:AG14)</f>
-        <v>190</v>
+        <f>SUM(C14:AH14)</f>
+        <v>195</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.129032258064516</v>
+        <v>6.09375</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8300,16 +8306,18 @@
       <c r="AG15" s="1">
         <v>4</v>
       </c>
-      <c r="AH15" s="1"/>
+      <c r="AH15" s="1">
+        <v>3</v>
+      </c>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
-        <f>SUM(C15:AG15)</f>
-        <v>121</v>
+        <f>SUM(C15:AH15)</f>
+        <v>124</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.903225806451613</v>
+        <v>3.875</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -2957,7 +2957,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6812,7 +6812,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16"/>
+      <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7973,15 +7973,17 @@
       <c r="AH12" s="1">
         <v>25</v>
       </c>
-      <c r="AI12" s="1"/>
+      <c r="AI12" s="1">
+        <v>24</v>
+      </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
-        <f>SUM(C12:AH12)</f>
-        <v>669</v>
+        <f>SUM(C12:AI12)</f>
+        <v>693</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>20.90625</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -8085,15 +8087,17 @@
       <c r="AH13" s="1">
         <v>3</v>
       </c>
-      <c r="AI13" s="1"/>
+      <c r="AI13" s="1">
+        <v>2</v>
+      </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
-        <f>SUM(C13:AH13)</f>
-        <v>72</v>
+        <f>SUM(C13:AI13)</f>
+        <v>74</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>2.2424242424242422</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8197,15 +8201,17 @@
       <c r="AH14" s="1">
         <v>5</v>
       </c>
-      <c r="AI14" s="1"/>
+      <c r="AI14" s="1">
+        <v>4</v>
+      </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
-        <f>SUM(C14:AH14)</f>
-        <v>195</v>
+        <f>SUM(C14:AI14)</f>
+        <v>199</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.09375</v>
+        <v>6.0303030303030303</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8309,15 +8315,17 @@
       <c r="AH15" s="1">
         <v>3</v>
       </c>
-      <c r="AI15" s="1"/>
+      <c r="AI15" s="1">
+        <v>3</v>
+      </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
-        <f>SUM(C15:AH15)</f>
-        <v>124</v>
+        <f>SUM(C15:AI15)</f>
+        <v>127</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.875</v>
+        <v>3.8484848484848486</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -12,367 +17,17 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Maks Marcinowski</author>
-  </authors>
-  <commentList>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Maks Marcinowski:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-2:1 z Zagłębiem</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Maks Marcinowski:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-9:1 z Olimpią Grudziądz
-2:0 z Płockiem
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Maks Marcinowski:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-8:0 z Liwa FC ???</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Maks Marcinowski:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-4:0 z Wisłą II Płock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Maks Marcinowski:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-2:0 z Pogonią</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Maks Marcinowski:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-5:0 z Podhalem NT</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Maks Marcinowski:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-1:1 z Szachtarem</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Maks Marcinowski:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-2:2 z Zagłębiem</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Maks Marcinowski:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-2:2 z Rakowem</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Maks Marcinowski:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-0:2 z Lechią</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Maks Marcinowski:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-0:2 z Wartą</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Maks Marcinowski:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-0:4 z Crveną Zvezdą</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Maks Marcinowski:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-1:2 z Jagiellonią</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="383">
   <si>
     <t>bramki</t>
   </si>
@@ -386,9 +41,6 @@
     <t>średnia</t>
   </si>
   <si>
-    <t>Podbeskidzie</t>
-  </si>
-  <si>
     <t>czyste konta</t>
   </si>
   <si>
@@ -464,12 +116,6 @@
     <t>Nowe nabytki:</t>
   </si>
   <si>
-    <t>1 Boguski</t>
-  </si>
-  <si>
-    <t>2 Bortniczuk</t>
-  </si>
-  <si>
     <t>1 Imaz</t>
   </si>
   <si>
@@ -482,33 +128,12 @@
     <t>1 Kuzimski</t>
   </si>
   <si>
-    <t>1 Sheridan</t>
-  </si>
-  <si>
     <t>1 Szwoch</t>
   </si>
   <si>
     <t>1 Pich</t>
   </si>
   <si>
-    <t>1 Żubrowski</t>
-  </si>
-  <si>
-    <t>1 Puljić</t>
-  </si>
-  <si>
-    <t>Wilusz</t>
-  </si>
-  <si>
-    <t>1 Fila</t>
-  </si>
-  <si>
-    <t>1 Zwoliński</t>
-  </si>
-  <si>
-    <t>1 Kałuziński</t>
-  </si>
-  <si>
     <t>Radomiak</t>
   </si>
   <si>
@@ -590,363 +215,48 @@
     <t>2020/2021</t>
   </si>
   <si>
-    <t>1 Lipski</t>
-  </si>
-  <si>
-    <t>2 Szymczak</t>
-  </si>
-  <si>
-    <t>1 Gwilia</t>
-  </si>
-  <si>
-    <t>1 Skibicki</t>
-  </si>
-  <si>
-    <t>1 Mosór</t>
-  </si>
-  <si>
     <t>1 Cholewiak</t>
   </si>
   <si>
-    <t>1 Litwa</t>
-  </si>
-  <si>
     <t>1 Silva</t>
   </si>
   <si>
-    <t>1 Beciraj</t>
-  </si>
-  <si>
-    <t>1 Szywacz</t>
-  </si>
-  <si>
-    <t>1 Abramowicz</t>
-  </si>
-  <si>
-    <t>2 Danielak</t>
-  </si>
-  <si>
-    <t>1 Bieroński</t>
-  </si>
-  <si>
-    <t>1 Kapek</t>
-  </si>
-  <si>
-    <t>1 Salamon</t>
-  </si>
-  <si>
-    <t>1 Paixao</t>
-  </si>
-  <si>
-    <t>1 Saief</t>
-  </si>
-  <si>
     <t>1 Arak</t>
   </si>
   <si>
-    <t>1 Huk</t>
-  </si>
-  <si>
-    <t>1 Handzlik</t>
-  </si>
-  <si>
-    <t>1 Pawłowski</t>
-  </si>
-  <si>
-    <t>1 Sobota</t>
-  </si>
-  <si>
-    <t>1 Frydrych</t>
-  </si>
-  <si>
-    <t>1 Dytiatjew</t>
-  </si>
-  <si>
-    <t>1 Kocyła</t>
-  </si>
-  <si>
-    <t>1 Krzyżak</t>
-  </si>
-  <si>
-    <t>1 Mraz</t>
-  </si>
-  <si>
-    <t>1 Ferreiroa</t>
-  </si>
-  <si>
-    <t>1 Mystkowski</t>
-  </si>
-  <si>
-    <t>1 Cernych</t>
-  </si>
-  <si>
     <t>2 Nowak</t>
   </si>
   <si>
-    <t>1 Ściślak</t>
-  </si>
-  <si>
-    <t>1 Vikri</t>
-  </si>
-  <si>
-    <t>1 Biegański</t>
-  </si>
-  <si>
-    <t>1 Conrado</t>
-  </si>
-  <si>
-    <t>1 Haydary</t>
-  </si>
-  <si>
-    <t>1 Obradović</t>
-  </si>
-  <si>
-    <t>1 Sitek</t>
-  </si>
-  <si>
-    <t>1 Marzec</t>
-  </si>
-  <si>
     <t>2 Pawłowski</t>
   </si>
   <si>
-    <t>1 Scalet</t>
-  </si>
-  <si>
-    <t>1 Borysiuk</t>
-  </si>
-  <si>
     <t>1 Wyjadłowski</t>
   </si>
   <si>
-    <t>1 Yeboah</t>
-  </si>
-  <si>
-    <t>1 Savić</t>
-  </si>
-  <si>
-    <t>1 Pakulski</t>
-  </si>
-  <si>
     <t>1 Kun</t>
   </si>
   <si>
-    <t>1 Szelągowski</t>
-  </si>
-  <si>
-    <t>1 Alvarez</t>
-  </si>
-  <si>
     <t>2 Mak</t>
   </si>
   <si>
-    <t>1 Jodłowiec</t>
-  </si>
-  <si>
-    <t>1 Pospisil</t>
-  </si>
-  <si>
-    <t>1 Granlund</t>
-  </si>
-  <si>
     <t>1 Marchwiński</t>
   </si>
   <si>
-    <t>1 Żurawski</t>
-  </si>
-  <si>
     <t>1 Kupczak</t>
   </si>
   <si>
     <t>2 Starzyński</t>
   </si>
   <si>
-    <t>1 Szysz</t>
-  </si>
-  <si>
-    <t>1 Crnomarković</t>
-  </si>
-  <si>
-    <t>2 Gajos</t>
-  </si>
-  <si>
     <t>1 Drygas</t>
   </si>
   <si>
-    <t>1 Podstawski</t>
-  </si>
-  <si>
-    <t>2 Buksa</t>
-  </si>
-  <si>
-    <t>1 Loshaj</t>
-  </si>
-  <si>
-    <t>2 Siplak</t>
-  </si>
-  <si>
-    <t>2 Kubica</t>
-  </si>
-  <si>
-    <t>1 Massouras</t>
-  </si>
-  <si>
-    <t>1 Pyrdoł</t>
-  </si>
-  <si>
-    <t>1 Merebaszwili</t>
-  </si>
-  <si>
-    <t>1 Rasak</t>
-  </si>
-  <si>
-    <t>1 Rogoziński</t>
-  </si>
-  <si>
-    <t>Nastić</t>
-  </si>
-  <si>
-    <t>Karlstrom</t>
-  </si>
-  <si>
-    <t>Salamon</t>
-  </si>
-  <si>
-    <t>Milić</t>
-  </si>
-  <si>
-    <t>Ceesay</t>
-  </si>
-  <si>
-    <t>Musolitin</t>
-  </si>
-  <si>
-    <t>Biegański</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Janicki</t>
-  </si>
-  <si>
-    <t>Mamić</t>
-  </si>
-  <si>
-    <t>Stolarski</t>
-  </si>
-  <si>
-    <t>Holec</t>
-  </si>
-  <si>
-    <t>Jach</t>
-  </si>
-  <si>
-    <t>Kaczmarski</t>
-  </si>
-  <si>
-    <t>de Amo</t>
-  </si>
-  <si>
-    <t>Granlund</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Kolew</t>
-  </si>
-  <si>
-    <t>Bejger</t>
-  </si>
-  <si>
-    <t>Baku</t>
-  </si>
-  <si>
-    <t>Sopoćko</t>
-  </si>
-  <si>
-    <t>Żurawski</t>
-  </si>
-  <si>
-    <t>Kone</t>
-  </si>
-  <si>
-    <t>Medved</t>
-  </si>
-  <si>
-    <t>Crnomarković</t>
-  </si>
-  <si>
-    <t>Susnjara</t>
-  </si>
-  <si>
     <t>2 Jimenez</t>
   </si>
   <si>
-    <t>2 Lopez</t>
-  </si>
-  <si>
-    <t>1 Jach</t>
-  </si>
-  <si>
-    <t>3 Rivaldinho</t>
-  </si>
-  <si>
-    <t>7 Pekhart</t>
-  </si>
-  <si>
-    <t>3 Ślisz</t>
-  </si>
-  <si>
-    <t>2 Luquinhas</t>
-  </si>
-  <si>
     <t>1 Ceesay</t>
   </si>
   <si>
-    <t>1 Zahović</t>
-  </si>
-  <si>
-    <t>1 Chrapek</t>
-  </si>
-  <si>
-    <t>1 Winciersz</t>
-  </si>
-  <si>
-    <t>Boakye</t>
-  </si>
-  <si>
-    <t>Kvekveskiri</t>
-  </si>
-  <si>
-    <t>Długosz</t>
-  </si>
-  <si>
-    <t>Winciersz</t>
-  </si>
-  <si>
-    <t>Stoch</t>
-  </si>
-  <si>
-    <t>Bitok Stephen</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>Wachowiak</t>
-  </si>
-  <si>
-    <t>Zrelak</t>
-  </si>
-  <si>
-    <t>Burman</t>
-  </si>
-  <si>
-    <t>Niepsuj</t>
-  </si>
-  <si>
     <t>1 Sobociński</t>
   </si>
   <si>
@@ -1244,18 +554,6 @@
     <t>1 Węsierski</t>
   </si>
   <si>
-    <t>1 Puchacz</t>
-  </si>
-  <si>
-    <t>Kurzawa</t>
-  </si>
-  <si>
-    <t>Yakshiboev</t>
-  </si>
-  <si>
-    <t>Johannsson</t>
-  </si>
-  <si>
     <t>1 Sokół</t>
   </si>
   <si>
@@ -1265,51 +563,6 @@
     <t>1 Janczukowicz</t>
   </si>
   <si>
-    <t>Szabanow</t>
-  </si>
-  <si>
-    <t>Arak</t>
-  </si>
-  <si>
-    <t>Kosecki</t>
-  </si>
-  <si>
-    <t>Rocha</t>
-  </si>
-  <si>
-    <t>Mazur</t>
-  </si>
-  <si>
-    <t>Muci</t>
-  </si>
-  <si>
-    <t>Rusyn</t>
-  </si>
-  <si>
-    <t>Tulio</t>
-  </si>
-  <si>
-    <t>Arsenić</t>
-  </si>
-  <si>
-    <t>Wdowiak</t>
-  </si>
-  <si>
-    <t>Nawrocki</t>
-  </si>
-  <si>
-    <t>Mawutor</t>
-  </si>
-  <si>
-    <t>Radaković</t>
-  </si>
-  <si>
-    <t>Vallo</t>
-  </si>
-  <si>
-    <t>Podliński</t>
-  </si>
-  <si>
     <t>2 Małkowski</t>
   </si>
   <si>
@@ -1418,32 +671,518 @@
     <t>2 Cikos</t>
   </si>
   <si>
-    <t>3 Gutkovskis</t>
-  </si>
-  <si>
-    <t>2 Pik</t>
-  </si>
-  <si>
-    <t>2 Amersfoort</t>
-  </si>
-  <si>
-    <t>1 Lopes</t>
-  </si>
-  <si>
-    <t>4 Świerczok</t>
-  </si>
-  <si>
-    <t>1 Alves</t>
-  </si>
-  <si>
-    <t>2 Gutkovskis</t>
+    <t>1 Vieira</t>
+  </si>
+  <si>
+    <t>1 Długosz</t>
+  </si>
+  <si>
+    <t>1 Tudor</t>
+  </si>
+  <si>
+    <t>1 Tuszyński</t>
+  </si>
+  <si>
+    <t>2 Augustyn</t>
+  </si>
+  <si>
+    <t>2 Conrado</t>
+  </si>
+  <si>
+    <t>1 Machado</t>
+  </si>
+  <si>
+    <t>2 Kamiński</t>
+  </si>
+  <si>
+    <t>1 Sobiech</t>
+  </si>
+  <si>
+    <t>1 Sokołowski</t>
+  </si>
+  <si>
+    <t>1 Mesanovic</t>
+  </si>
+  <si>
+    <t>1 Śpiewak</t>
+  </si>
+  <si>
+    <t>2 Łyszczarz</t>
+  </si>
+  <si>
+    <t>1 Toporkiewicz</t>
+  </si>
+  <si>
+    <t>1 Sypek</t>
+  </si>
+  <si>
+    <t>3 Terpiłowski</t>
+  </si>
+  <si>
+    <t>3 Czarnowski</t>
+  </si>
+  <si>
+    <t>1 Biedrzycki</t>
+  </si>
+  <si>
+    <t>3 Pietraszkiewicz</t>
+  </si>
+  <si>
+    <t>1 Sapała</t>
+  </si>
+  <si>
+    <t>1 Świdzikowski</t>
+  </si>
+  <si>
+    <t>1 Nowakowski</t>
+  </si>
+  <si>
+    <t>1 Tomasik</t>
+  </si>
+  <si>
+    <t>1 Warchoł</t>
+  </si>
+  <si>
+    <t>2 Sadłocha</t>
+  </si>
+  <si>
+    <t>1 Rondon</t>
+  </si>
+  <si>
+    <t>1 Żukowski</t>
+  </si>
+  <si>
+    <t>1 Balaj</t>
+  </si>
+  <si>
+    <t>1 Ishak</t>
+  </si>
+  <si>
+    <t>1 Kozubal</t>
+  </si>
+  <si>
+    <t>1 Tijanić</t>
+  </si>
+  <si>
+    <t>1 Żukow</t>
+  </si>
+  <si>
+    <t>1 Błaszczykowski</t>
+  </si>
+  <si>
+    <t>1 Chuca</t>
+  </si>
+  <si>
+    <t>1 Baszkirow</t>
+  </si>
+  <si>
+    <t>1 Manneh</t>
+  </si>
+  <si>
+    <t>1 Michalski</t>
+  </si>
+  <si>
+    <t>1 Tobers</t>
+  </si>
+  <si>
+    <t>3 Angielski</t>
+  </si>
+  <si>
+    <t>1 Radecki</t>
+  </si>
+  <si>
+    <t>2 Mystkowski</t>
+  </si>
+  <si>
+    <t>1 Rasmussen</t>
+  </si>
+  <si>
+    <t>1 Lopez</t>
+  </si>
+  <si>
+    <t>2 Vida</t>
+  </si>
+  <si>
+    <t>2 Żyro</t>
+  </si>
+  <si>
+    <t>1 Krawczyk</t>
+  </si>
+  <si>
+    <t>1 Kubica</t>
+  </si>
+  <si>
+    <t>1 Tekijaski</t>
+  </si>
+  <si>
+    <t>2 Orzechowski</t>
+  </si>
+  <si>
+    <t>1 Sangowski</t>
+  </si>
+  <si>
+    <t>1 Kostas</t>
+  </si>
+  <si>
+    <t>1 Kucharczyk</t>
+  </si>
+  <si>
+    <t>1 Amaral</t>
+  </si>
+  <si>
+    <t>2 Ramirez</t>
+  </si>
+  <si>
+    <t>1 Zivec</t>
+  </si>
+  <si>
+    <t>1 Ślisz</t>
+  </si>
+  <si>
+    <t>1 Muci</t>
+  </si>
+  <si>
+    <t>1 Makowski</t>
+  </si>
+  <si>
+    <t>1 Czorbadzijski</t>
+  </si>
+  <si>
+    <t>2 Jankowski</t>
+  </si>
+  <si>
+    <t>1 Galara</t>
+  </si>
+  <si>
+    <t>2 Dadok</t>
+  </si>
+  <si>
+    <t>1 Rostkowski</t>
+  </si>
+  <si>
+    <t>1 Praszelik</t>
+  </si>
+  <si>
+    <t>1 Amersfoort</t>
+  </si>
+  <si>
+    <t>2 Frydrych</t>
+  </si>
+  <si>
+    <t>2 Yeboah</t>
+  </si>
+  <si>
+    <t>1 Gruszkowski</t>
+  </si>
+  <si>
+    <t>3 Tomasiewicz</t>
+  </si>
+  <si>
+    <t>3 Kolew</t>
+  </si>
+  <si>
+    <t>2 Musonda</t>
+  </si>
+  <si>
+    <t>1 Pyrka</t>
+  </si>
+  <si>
+    <t>3 Chrapek</t>
+  </si>
+  <si>
+    <t>1 Smoliński</t>
+  </si>
+  <si>
+    <t>3 Rodin</t>
+  </si>
+  <si>
+    <t>2 Hanca</t>
+  </si>
+  <si>
+    <t>3 Rivalidnho</t>
+  </si>
+  <si>
+    <t>1 Marquez</t>
+  </si>
+  <si>
+    <t>1 Myszor</t>
+  </si>
+  <si>
+    <t>3 Alvarez</t>
+  </si>
+  <si>
+    <t>1 Pietrzak</t>
+  </si>
+  <si>
+    <t>2 Paixao</t>
+  </si>
+  <si>
+    <t>2 Nalepa</t>
+  </si>
+  <si>
+    <t>2 Durmus</t>
+  </si>
+  <si>
+    <t>3 Musiolik</t>
+  </si>
+  <si>
+    <t>1 Papannikolau</t>
+  </si>
+  <si>
+    <t>2 Skibicki</t>
+  </si>
+  <si>
+    <t>2 Piasecki</t>
+  </si>
+  <si>
+    <t>1 Tamas</t>
+  </si>
+  <si>
+    <t>1 Janasik</t>
+  </si>
+  <si>
+    <t>1 Garcia</t>
+  </si>
+  <si>
+    <t>9 Emreli</t>
+  </si>
+  <si>
+    <t>3 Luquinhas</t>
+  </si>
+  <si>
+    <t>1 Pekhart</t>
+  </si>
+  <si>
+    <t>Adam Hlousek</t>
+  </si>
+  <si>
+    <t>Nemanja Tekijaski</t>
+  </si>
+  <si>
+    <t>Filip Modelski</t>
+  </si>
+  <si>
+    <t>Marcel Vasil</t>
+  </si>
+  <si>
+    <t>Ernest Terpiłowski</t>
+  </si>
+  <si>
+    <t>Muris Mesanovic</t>
+  </si>
+  <si>
+    <t>Jakub Jugas</t>
+  </si>
+  <si>
+    <t>Otar Kakabadze</t>
+  </si>
+  <si>
+    <t>Mathias Rasmussen</t>
+  </si>
+  <si>
+    <t>Kamil Ogorzały</t>
+  </si>
+  <si>
+    <t>Filip Balaj</t>
+  </si>
+  <si>
+    <t>Bartosz Rymaniak</t>
+  </si>
+  <si>
+    <t>Daniel Dziwniel</t>
+  </si>
+  <si>
+    <t>Janusz Gol</t>
+  </si>
+  <si>
+    <t>Grzegorz Sandomierski</t>
+  </si>
+  <si>
+    <t>Rafał Janicki</t>
+  </si>
+  <si>
+    <t>Mateusz Cholewiak</t>
+  </si>
+  <si>
+    <t>Robert Dadok</t>
+  </si>
+  <si>
+    <t>Lukas Podolski</t>
+  </si>
+  <si>
+    <t>Michał Pazdan</t>
+  </si>
+  <si>
+    <t>Israel Puerto</t>
+  </si>
+  <si>
+    <t>Dani Quintana</t>
+  </si>
+  <si>
+    <t>Andrzej Trubeha</t>
+  </si>
+  <si>
+    <t>Barry Douglas</t>
+  </si>
+  <si>
+    <t>Joel Pereira</t>
+  </si>
+  <si>
+    <t>Radosław Murawski</t>
+  </si>
+  <si>
+    <t>Artur Sobiech</t>
+  </si>
+  <si>
+    <t>Ilkay Durmus</t>
+  </si>
+  <si>
+    <t>Miłosz Szczepański</t>
+  </si>
+  <si>
+    <t>Bassekou Diabate</t>
+  </si>
+  <si>
+    <t>Joel Abu Hanna</t>
+  </si>
+  <si>
+    <t>Mattias Johansson</t>
+  </si>
+  <si>
+    <t>Lindsay Rose</t>
+  </si>
+  <si>
+    <t>Maik Nawrocki</t>
+  </si>
+  <si>
+    <t>Josue Pesqueira</t>
+  </si>
+  <si>
+    <t>Mahir Emreli</t>
+  </si>
+  <si>
+    <t>Marcin Budziński</t>
+  </si>
+  <si>
+    <t>Maksymilian Sitek</t>
+  </si>
+  <si>
+    <t>Miguel Munoz</t>
+  </si>
+  <si>
+    <t>Damian Kądzior</t>
+  </si>
+  <si>
+    <t>Michael Ameyaw</t>
+  </si>
+  <si>
+    <t>Alberto Toril</t>
+  </si>
+  <si>
+    <t>Jean Carlos Silva</t>
+  </si>
+  <si>
+    <t>Piotr Parzyszek</t>
+  </si>
+  <si>
+    <t>Goncalo Silva</t>
+  </si>
+  <si>
+    <t>Luis Machado</t>
+  </si>
+  <si>
+    <t>Mario Rondon</t>
+  </si>
+  <si>
+    <t>Vladan Kovacevic</t>
+  </si>
+  <si>
+    <t>Milan Rundić</t>
+  </si>
+  <si>
+    <t>Żarko Udovicić</t>
+  </si>
+  <si>
+    <t>Sebastian Musiolik</t>
+  </si>
+  <si>
+    <t>Pedro Vieira</t>
+  </si>
+  <si>
+    <t>Victor Garcia</t>
+  </si>
+  <si>
+    <t>Diogo Verdasca</t>
+  </si>
+  <si>
+    <t>Petr Schwarz</t>
+  </si>
+  <si>
+    <t>Damian Gąska</t>
+  </si>
+  <si>
+    <t>Javier Hyjek</t>
+  </si>
+  <si>
+    <t>Caye Quintana</t>
+  </si>
+  <si>
+    <t>Konrad Matuszewski</t>
+  </si>
+  <si>
+    <t>Wiktor Pleśnierowicz</t>
+  </si>
+  <si>
+    <t>Milan Corryn</t>
+  </si>
+  <si>
+    <t>Szymon Czyż</t>
+  </si>
+  <si>
+    <t>Matej Hanousek</t>
+  </si>
+  <si>
+    <t>Alan Uryga</t>
+  </si>
+  <si>
+    <t>Dor Hugi</t>
+  </si>
+  <si>
+    <t>Aschraf El Mahdioui</t>
+  </si>
+  <si>
+    <t>Michal Skvarka</t>
+  </si>
+  <si>
+    <t>Mateusz Młyński</t>
+  </si>
+  <si>
+    <t>Jan Kliment</t>
+  </si>
+  <si>
+    <t>Anton Krywociuk</t>
+  </si>
+  <si>
+    <t>Marko Kolar</t>
+  </si>
+  <si>
+    <t>Dominik Furman</t>
+  </si>
+  <si>
+    <t>Ian Soler</t>
+  </si>
+  <si>
+    <t>Koki Hinokio</t>
+  </si>
+  <si>
+    <t>2021/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1460,21 +1199,6 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1503,7 +1227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1828,11 +1552,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1912,11 +1699,268 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="82">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2957,425 +3001,472 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="46">
+        <v>4</v>
+      </c>
+      <c r="C2" s="47">
+        <v>3</v>
+      </c>
+      <c r="D2" s="46">
+        <v>1</v>
+      </c>
+      <c r="E2" s="47">
+        <v>3</v>
+      </c>
+      <c r="F2" s="46">
+        <v>4</v>
+      </c>
+      <c r="G2" s="46">
+        <v>5</v>
+      </c>
+      <c r="H2" s="48">
+        <v>0</v>
+      </c>
+      <c r="I2" s="48">
+        <v>3</v>
+      </c>
+      <c r="J2" s="46">
+        <v>2</v>
+      </c>
+      <c r="K2" s="47">
+        <v>3</v>
+      </c>
+      <c r="L2" s="46">
+        <v>4</v>
+      </c>
+      <c r="M2" s="46">
+        <v>2</v>
+      </c>
+      <c r="N2" s="47">
+        <v>3</v>
+      </c>
+      <c r="O2" s="67">
+        <v>4</v>
+      </c>
+      <c r="P2" s="46">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="47">
+        <v>1</v>
+      </c>
+      <c r="R2" s="46">
+        <v>3</v>
+      </c>
+      <c r="S2" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="50">
+        <v>1</v>
+      </c>
+      <c r="C3" s="51">
+        <v>0</v>
+      </c>
+      <c r="D3" s="50">
+        <v>2</v>
+      </c>
+      <c r="E3" s="51">
+        <v>0</v>
+      </c>
+      <c r="F3" s="50">
+        <v>1</v>
+      </c>
+      <c r="G3" s="50">
+        <v>2</v>
+      </c>
+      <c r="H3" s="50">
+        <v>0</v>
+      </c>
+      <c r="I3" s="50">
+        <v>1</v>
+      </c>
+      <c r="J3" s="50">
+        <v>1</v>
+      </c>
+      <c r="K3" s="51">
+        <v>0</v>
+      </c>
+      <c r="L3" s="50">
+        <v>0</v>
+      </c>
+      <c r="M3" s="50">
+        <v>3</v>
+      </c>
+      <c r="N3" s="51">
+        <v>0</v>
+      </c>
+      <c r="O3" s="68">
+        <v>1</v>
+      </c>
+      <c r="P3" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="51">
+        <v>0</v>
+      </c>
+      <c r="R3" s="50">
+        <v>1</v>
+      </c>
+      <c r="S3" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="54">
+        <v>4</v>
+      </c>
+      <c r="C4" s="55">
+        <v>4</v>
+      </c>
+      <c r="D4" s="54">
+        <v>2</v>
+      </c>
+      <c r="E4" s="55">
+        <v>2</v>
+      </c>
+      <c r="F4" s="54">
+        <v>2</v>
+      </c>
+      <c r="G4" s="54">
+        <v>1</v>
+      </c>
+      <c r="H4" s="74">
+        <v>1</v>
+      </c>
+      <c r="I4" s="54">
+        <v>0</v>
+      </c>
+      <c r="J4" s="54">
+        <v>1</v>
+      </c>
+      <c r="K4" s="55">
+        <v>1</v>
+      </c>
+      <c r="L4" s="54">
+        <v>1</v>
+      </c>
+      <c r="M4" s="54">
+        <v>1</v>
+      </c>
+      <c r="N4" s="55">
+        <v>2</v>
+      </c>
+      <c r="O4" s="69">
+        <v>2</v>
+      </c>
+      <c r="P4" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="55">
+        <v>2</v>
+      </c>
+      <c r="R4" s="54">
+        <v>1</v>
+      </c>
+      <c r="S4" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="58">
+        <v>18</v>
+      </c>
+      <c r="C5" s="59">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D5" s="58">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E5" s="59">
+        <v>10</v>
+      </c>
+      <c r="F5" s="58">
+        <v>12</v>
+      </c>
+      <c r="G5" s="58">
+        <v>17</v>
+      </c>
+      <c r="H5" s="58">
+        <v>0</v>
+      </c>
+      <c r="I5" s="58">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J5" s="58">
+        <v>5</v>
+      </c>
+      <c r="K5" s="59">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L5" s="58">
+        <v>11</v>
+      </c>
+      <c r="M5" s="58">
+        <v>12</v>
+      </c>
+      <c r="N5" s="59">
+        <v>15</v>
+      </c>
+      <c r="O5" s="70">
+        <v>14</v>
+      </c>
+      <c r="P5" s="72">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="59">
+        <v>3</v>
+      </c>
+      <c r="R5" s="58">
+        <v>11</v>
+      </c>
+      <c r="S5" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="62">
+        <v>13</v>
+      </c>
+      <c r="C6" s="63">
+        <v>14</v>
+      </c>
+      <c r="D6" s="62">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="E6" s="63">
+        <v>6</v>
+      </c>
+      <c r="F6" s="62">
+        <v>9</v>
+      </c>
+      <c r="G6" s="62">
+        <v>8</v>
+      </c>
+      <c r="H6" s="75">
+        <v>4</v>
+      </c>
+      <c r="I6" s="62">
+        <v>2</v>
+      </c>
+      <c r="J6" s="62">
+        <v>3</v>
+      </c>
+      <c r="K6" s="63">
+        <v>2</v>
+      </c>
+      <c r="L6" s="62">
+        <v>4</v>
+      </c>
+      <c r="M6" s="62">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
-      <c r="A2" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="46">
-        <v>5</v>
-      </c>
-      <c r="C2" s="47">
-        <v>1</v>
-      </c>
-      <c r="D2" s="46">
-        <v>3</v>
-      </c>
-      <c r="E2" s="47">
-        <v>2</v>
-      </c>
-      <c r="F2" s="46">
-        <v>3</v>
-      </c>
-      <c r="G2" s="47">
-        <v>4</v>
-      </c>
-      <c r="H2" s="46">
-        <v>4</v>
-      </c>
-      <c r="I2" s="47">
-        <v>3</v>
-      </c>
-      <c r="J2" s="46">
-        <v>3</v>
-      </c>
-      <c r="K2" s="47">
-        <v>0</v>
-      </c>
-      <c r="L2" s="46">
-        <v>3</v>
-      </c>
-      <c r="M2" s="47">
-        <v>2</v>
-      </c>
-      <c r="N2" s="46">
-        <v>1</v>
-      </c>
-      <c r="O2" s="47">
-        <v>2</v>
-      </c>
-      <c r="P2" s="46">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="50">
-        <v>0</v>
-      </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="50">
-        <v>1</v>
-      </c>
-      <c r="E3" s="51">
-        <v>3</v>
-      </c>
-      <c r="F3" s="50">
-        <v>0</v>
-      </c>
-      <c r="G3" s="51">
-        <v>1</v>
-      </c>
-      <c r="H3" s="50">
-        <v>1</v>
-      </c>
-      <c r="I3" s="51">
-        <v>0</v>
-      </c>
-      <c r="J3" s="50">
-        <v>0</v>
-      </c>
-      <c r="K3" s="51">
-        <v>1</v>
-      </c>
-      <c r="L3" s="50">
-        <v>3</v>
-      </c>
-      <c r="M3" s="51">
-        <v>2</v>
-      </c>
-      <c r="N3" s="50">
-        <v>1</v>
-      </c>
-      <c r="O3" s="51">
-        <v>0</v>
-      </c>
-      <c r="P3" s="50">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
-      <c r="A4" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="54">
-        <v>2</v>
-      </c>
-      <c r="C4" s="55">
-        <v>1</v>
-      </c>
-      <c r="D4" s="54">
-        <v>1</v>
-      </c>
-      <c r="E4" s="55">
-        <v>1</v>
-      </c>
-      <c r="F4" s="54">
-        <v>1</v>
-      </c>
-      <c r="G4" s="55">
-        <v>1</v>
-      </c>
-      <c r="H4" s="54">
-        <v>0</v>
-      </c>
-      <c r="I4" s="55">
-        <v>1</v>
-      </c>
-      <c r="J4" s="54">
-        <v>1</v>
-      </c>
-      <c r="K4" s="55">
-        <v>2</v>
-      </c>
-      <c r="L4" s="54">
-        <v>1</v>
-      </c>
-      <c r="M4" s="55">
-        <v>0</v>
-      </c>
-      <c r="N4" s="54">
-        <v>1</v>
-      </c>
-      <c r="O4" s="55">
-        <v>1</v>
-      </c>
-      <c r="P4" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
-      <c r="A5" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="58">
-        <v>14</v>
-      </c>
-      <c r="C5" s="59">
+      <c r="N6" s="63">
         <v>8</v>
       </c>
-      <c r="D5" s="58">
-        <v>11</v>
-      </c>
-      <c r="E5" s="59">
-        <v>5</v>
-      </c>
-      <c r="F5" s="58">
-        <v>15</v>
-      </c>
-      <c r="G5" s="59">
-        <v>17</v>
-      </c>
-      <c r="H5" s="58">
-        <v>10</v>
-      </c>
-      <c r="I5" s="59">
+      <c r="O6" s="71">
         <v>8</v>
       </c>
-      <c r="J5" s="58">
-        <v>5</v>
-      </c>
-      <c r="K5" s="59">
-        <v>3</v>
-      </c>
-      <c r="L5" s="58">
-        <v>14</v>
-      </c>
-      <c r="M5" s="59">
-        <v>4</v>
-      </c>
-      <c r="N5" s="58">
-        <v>6</v>
-      </c>
-      <c r="O5" s="59">
-        <v>5</v>
-      </c>
-      <c r="P5" s="58">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
-      <c r="A6" s="61" t="s">
+      <c r="P6" s="73">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="63">
+        <v>4</v>
+      </c>
+      <c r="R6" s="62">
+        <v>8</v>
+      </c>
+      <c r="S6" s="64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="62">
-        <v>7</v>
-      </c>
-      <c r="C6" s="63">
-        <v>7</v>
-      </c>
-      <c r="D6" s="62">
-        <v>5</v>
-      </c>
-      <c r="E6" s="63">
-        <v>4</v>
-      </c>
-      <c r="F6" s="62">
-        <v>4</v>
-      </c>
-      <c r="G6" s="63">
-        <v>5</v>
-      </c>
-      <c r="H6" s="62">
-        <v>4</v>
-      </c>
-      <c r="I6" s="63">
-        <v>3</v>
-      </c>
-      <c r="J6" s="62">
-        <v>2</v>
-      </c>
-      <c r="K6" s="63">
-        <v>6</v>
-      </c>
-      <c r="L6" s="62">
-        <v>11</v>
-      </c>
-      <c r="M6" s="63">
-        <v>2</v>
-      </c>
-      <c r="N6" s="62">
-        <v>7</v>
-      </c>
-      <c r="O6" s="63">
-        <v>2</v>
-      </c>
-      <c r="P6" s="62">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="64">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
-      <c r="A7" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="B7" s="8">
         <f>B5-B6</f>
-        <v>7</v>
-      </c>
-      <c r="C7" s="20">
-        <f>C5-C6</f>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" ref="C7:S7" si="0">C5-C6</f>
+        <v>-2</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" ref="D7:Q7" si="0">D5-D6</f>
-        <v>6</v>
-      </c>
-      <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G7" s="20">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I7" s="20">
+        <v>-4</v>
+      </c>
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K7" s="20">
+        <v>2</v>
+      </c>
+      <c r="K7" s="8">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M7" s="20">
+        <v>7</v>
+      </c>
+      <c r="M7" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="O7" s="20">
+        <v>7</v>
+      </c>
+      <c r="O7" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q7" s="21">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S7" s="8">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3383,7 +3474,6 @@
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
@@ -3391,10 +3481,11 @@
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1">
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="24"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3411,449 +3502,488 @@
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
-      <c r="Q9" s="27"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>172</v>
+        <v>288</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>31</v>
+        <v>74</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>131</v>
+        <v>267</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>295</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>348</v>
+        <v>252</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>121</v>
+        <v>298</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q10" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>301</v>
+      </c>
+      <c r="P10" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
-        <v>136</v>
+        <v>290</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>114</v>
+        <v>275</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>218</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>179</v>
+        <v>296</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>104</v>
+        <v>297</v>
       </c>
       <c r="G12" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="L12" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>124</v>
+      <c r="M12" s="34" t="s">
+        <v>216</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="P12" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>284</v>
+      </c>
+      <c r="P12" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="S12" s="33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>122</v>
+        <v>70</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="32"/>
+      <c r="K13" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>244</v>
+      </c>
       <c r="N13" s="32" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>226</v>
+      </c>
+      <c r="P13" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="S13" s="33"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="32"/>
+        <v>29</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>243</v>
+      </c>
       <c r="F14" s="32" t="s">
-        <v>87</v>
+        <v>251</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>90</v>
+        <v>307</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+        <v>285</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>264</v>
+      </c>
       <c r="L14" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
+        <v>253</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>273</v>
+      </c>
       <c r="O14" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="P14" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>302</v>
+      </c>
+      <c r="P14" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="S14" s="33"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="32"/>
+        <v>153</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32" t="s">
+        <v>242</v>
+      </c>
       <c r="F15" s="32" t="s">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q15" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>270</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="S15" s="33"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>141</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="33"/>
-    </row>
-    <row r="17" spans="1:17">
+        <v>220</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="P16" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="S16" s="33"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32" t="s">
-        <v>101</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="36"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
+      <c r="F17" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="33"/>
-    </row>
-    <row r="18" spans="1:17">
+        <v>121</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="37"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32" t="s">
-        <v>106</v>
-      </c>
+      <c r="B18" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="34"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="34"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="M18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32" t="s">
+        <v>215</v>
+      </c>
       <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q18" s="33"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="O18" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="P18" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="33"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
-      <c r="B19" s="34"/>
+      <c r="B19" s="34" t="s">
+        <v>278</v>
+      </c>
       <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="34" t="s">
-        <v>176</v>
-      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="M19" s="32"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="37"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="I19" s="32"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="32"/>
+      <c r="O19" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="33"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="32" t="s">
-        <v>105</v>
-      </c>
+      <c r="F20" s="32"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="34"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="34"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="36"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="34"/>
       <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="37"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="37"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="32" t="s">
-        <v>89</v>
-      </c>
+      <c r="F21" s="32"/>
       <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="32"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="32"/>
       <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="36"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="34"/>
       <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="37"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="37"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3861,17 +3991,17 @@
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="I22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
       <c r="N22" s="36"/>
       <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="37"/>
-    </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1">
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -3879,7 +4009,7 @@
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
@@ -3887,235 +4017,283 @@
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
       <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="39"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="P23" s="26"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="39"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>322</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>143</v>
+        <v>327</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>144</v>
+        <v>331</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>147</v>
+        <v>335</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>183</v>
+        <v>338</v>
+      </c>
+      <c r="H24" t="s">
+        <v>319</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>150</v>
+        <v>377</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>154</v>
+        <v>352</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>157</v>
+        <v>355</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>161</v>
+        <v>344</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="P24" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q24" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>360</v>
+      </c>
+      <c r="P24" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
-        <v>300</v>
+        <v>315</v>
+      </c>
+      <c r="C25" t="s">
+        <v>323</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>185</v>
+        <v>328</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>145</v>
+        <v>332</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>148</v>
+        <v>336</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="H25" s="32"/>
+        <v>339</v>
+      </c>
+      <c r="H25" t="s">
+        <v>320</v>
+      </c>
       <c r="I25" s="32" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>151</v>
+        <v>379</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="L25" s="32" t="s">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>158</v>
+        <v>356</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>41</v>
+        <v>345</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="P25" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q25" s="33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>361</v>
+      </c>
+      <c r="P25" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="S25" s="33" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>324</v>
+      </c>
       <c r="D26" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="E26" t="s">
-        <v>146</v>
+        <v>329</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>333</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>149</v>
+        <v>337</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+        <v>340</v>
+      </c>
+      <c r="H26" t="s">
+        <v>321</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>348</v>
+      </c>
       <c r="J26" s="32" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="32" t="s">
-        <v>156</v>
+        <v>354</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>159</v>
+        <v>357</v>
       </c>
       <c r="N26" s="32"/>
       <c r="O26" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q26" s="33" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>362</v>
+      </c>
+      <c r="P26" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q26" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="R26" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="S26" s="33"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="B27" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>330</v>
+      </c>
       <c r="E27" s="32" t="s">
-        <v>181</v>
+        <v>334</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="32" t="s">
-        <v>186</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="J27" s="34"/>
       <c r="K27" s="32"/>
-      <c r="L27" s="32" t="s">
-        <v>182</v>
-      </c>
+      <c r="L27" s="32"/>
       <c r="M27" s="32" t="s">
-        <v>160</v>
+        <v>358</v>
       </c>
       <c r="N27" s="32"/>
       <c r="O27" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q27" s="33"/>
-    </row>
-    <row r="28" spans="1:17">
+        <v>363</v>
+      </c>
+      <c r="P27" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q27" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="R27" t="s">
+        <v>373</v>
+      </c>
+      <c r="S27" s="33"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>326</v>
+      </c>
       <c r="D28" s="36"/>
-      <c r="E28" s="32" t="s">
-        <v>293</v>
-      </c>
+      <c r="E28" s="32"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
+      <c r="G28" s="32" t="s">
+        <v>342</v>
+      </c>
       <c r="I28" s="32"/>
-      <c r="J28" s="32" t="s">
-        <v>190</v>
-      </c>
+      <c r="J28" s="32"/>
       <c r="K28" s="32"/>
-      <c r="L28" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="M28" s="32"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="P28" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q28" s="33"/>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="L28" s="32"/>
+      <c r="M28" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="N28" s="32"/>
+      <c r="O28" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="P28" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="S28" s="33"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
+      <c r="G29" s="32" t="s">
+        <v>343</v>
+      </c>
       <c r="I29" s="32"/>
-      <c r="J29" s="32" t="s">
-        <v>304</v>
-      </c>
+      <c r="J29" s="32"/>
       <c r="K29" s="32"/>
-      <c r="L29" s="32" t="s">
-        <v>305</v>
-      </c>
+      <c r="L29" s="32"/>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
       <c r="O29" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="33"/>
-    </row>
-    <row r="30" spans="1:17">
+        <v>365</v>
+      </c>
+      <c r="P29" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="S29" s="33"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4123,20 +4301,20 @@
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
       <c r="K30" s="32"/>
-      <c r="L30" s="32" t="s">
-        <v>306</v>
-      </c>
+      <c r="L30" s="32"/>
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="33"/>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="S30" s="33"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4144,7 +4322,6 @@
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
       <c r="K31" s="32"/>
@@ -4152,10 +4329,11 @@
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
       <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="33"/>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="33"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4163,7 +4341,6 @@
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
       <c r="K32" s="32"/>
@@ -4171,10 +4348,11 @@
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="33"/>
-    </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1">
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="33"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4182,7 +4360,7 @@
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="H33" s="26"/>
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
@@ -4190,18 +4368,20 @@
       <c r="M33" s="38"/>
       <c r="N33" s="38"/>
       <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="39"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="39"/>
     </row>
   </sheetData>
-  <sortState ref="P10:P22">
-    <sortCondition descending="1" ref="P10"/>
+  <sortState ref="S10:S18">
+    <sortCondition descending="1" ref="S10"/>
   </sortState>
-  <conditionalFormatting sqref="B7:Q7">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B7:S7">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -4214,98 +4394,97 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5">
         <v>5</v>
@@ -4362,9 +4541,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="9">
         <v>2</v>
@@ -4421,9 +4600,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -4480,9 +4659,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5">
         <v>23</v>
@@ -4539,9 +4718,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="16">
         <v>8</v>
@@ -4598,9 +4777,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8">
         <f>B5-B6</f>
@@ -4675,7 +4854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4696,7 +4875,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4717,475 +4896,475 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>342</v>
+        <v>208</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>315</v>
+        <v>181</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>333</v>
+        <v>199</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>337</v>
+        <v>203</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>317</v>
+        <v>183</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>275</v>
+        <v>160</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="P10" s="43" t="s">
-        <v>322</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>340</v>
+        <v>206</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="S10" s="30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
-        <v>343</v>
+        <v>209</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>346</v>
-      </c>
       <c r="J11" s="32" t="s">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>262</v>
+        <v>147</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="R11" s="32" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="S11" s="33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="36" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>295</v>
+        <v>176</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>347</v>
+        <v>213</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>318</v>
+        <v>184</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>312</v>
+        <v>178</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>323</v>
+        <v>189</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="R12" s="32" t="s">
-        <v>330</v>
+        <v>196</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
-        <v>345</v>
+        <v>211</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="34" t="s">
-        <v>294</v>
+        <v>175</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>316</v>
+        <v>182</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>328</v>
+        <v>194</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>266</v>
+        <v>151</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="L13" s="32" t="s">
-        <v>319</v>
+        <v>185</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="R13" s="32" t="s">
-        <v>241</v>
+        <v>126</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>344</v>
+        <v>210</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32" t="s">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="32" t="s">
-        <v>329</v>
+        <v>195</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>338</v>
+        <v>204</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="L14" s="34" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>273</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="R14" s="32" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="S14" s="37" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="34"/>
       <c r="E15" s="32" t="s">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="32" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>339</v>
+        <v>205</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="O15" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q15" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>118</v>
-      </c>
       <c r="R15" s="32" t="s">
-        <v>276</v>
+        <v>161</v>
       </c>
       <c r="S15" s="33" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32" t="s">
-        <v>236</v>
+        <v>121</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="32" t="s">
-        <v>335</v>
+        <v>201</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>267</v>
+        <v>152</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="L16" s="32" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32" t="s">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="R16" s="32" t="s">
-        <v>331</v>
+        <v>197</v>
       </c>
       <c r="S16" s="33" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="34" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="34" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="34" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>259</v>
+        <v>144</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32" t="s">
-        <v>219</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>332</v>
+        <v>198</v>
       </c>
       <c r="S17" s="33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="36"/>
       <c r="E18" s="32" t="s">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="32"/>
       <c r="I18" s="34" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>258</v>
+        <v>143</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="L18" s="32" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="32" t="s">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="36"/>
@@ -5193,30 +5372,30 @@
       <c r="J19" s="32"/>
       <c r="K19" s="36"/>
       <c r="L19" s="34" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="M19" s="32"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32" t="s">
-        <v>341</v>
+        <v>207</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="34" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="36"/>
@@ -5224,7 +5403,7 @@
       <c r="J20" s="34"/>
       <c r="K20" s="36"/>
       <c r="L20" s="32" t="s">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="M20" s="34"/>
       <c r="N20" s="36"/>
@@ -5233,16 +5412,16 @@
       <c r="Q20" s="36"/>
       <c r="R20" s="36"/>
       <c r="S20" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="32" t="s">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
@@ -5258,16 +5437,16 @@
       <c r="Q21" s="36"/>
       <c r="R21" s="36"/>
       <c r="S21" s="33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
       <c r="E22" s="34" t="s">
-        <v>336</v>
+        <v>202</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
@@ -5282,10 +5461,10 @@
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="37" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5305,12 +5484,12 @@
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="39" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S24" s="65" t="s">
-        <v>327</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5318,10 +5497,10 @@
     <sortCondition descending="1" ref="P10"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -5338,20 +5517,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+      <selection activeCell="C17" sqref="C17:AF20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5449,9 +5628,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -5555,7 +5734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -5659,10 +5838,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -5763,10 +5942,10 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -5867,12 +6046,12 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -5976,7 +6155,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6080,10 +6259,10 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -6184,10 +6363,10 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="66"/>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -6288,12 +6467,12 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -6397,7 +6576,7 @@
         <v>19.466666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="66"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -6501,10 +6680,10 @@
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="66"/>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -6605,10 +6784,10 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="66"/>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -6709,96 +6888,305 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1">
+        <f>SUM(C17:AF17)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="41" t="e">
+        <f>AG17/COUNT(C17:AF17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" s="66"/>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1">
+        <f>SUM(C18:AF18)</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="41" t="e">
+        <f>AG18/COUNT(C18:AF18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" s="66"/>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1">
+        <f>SUM(C19:AF19)</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="41" t="e">
+        <f>AG19/COUNT(C19:AF19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" s="66"/>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1">
+        <f>SUM(C20:AF20)</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="41" t="e">
+        <f>AG20/COUNT(C20:AF20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:AF7">
-    <cfRule type="top10" dxfId="57" priority="25" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="56" priority="28" operator="lessThan">
+    <cfRule type="top10" dxfId="77" priority="35" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="76" priority="38" operator="lessThan">
       <formula>$AH$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="39" operator="greaterThan">
       <formula>$AH$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AF2">
-    <cfRule type="top10" dxfId="54" priority="24" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="53" priority="26" operator="lessThan">
+    <cfRule type="top10" dxfId="74" priority="34" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="73" priority="36" operator="lessThan">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="37" operator="greaterThan">
       <formula>$AH$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:AF9">
-    <cfRule type="top10" dxfId="51" priority="11" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="50" priority="22" operator="lessThan">
+    <cfRule type="top10" dxfId="71" priority="21" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="70" priority="32" operator="lessThan">
       <formula>$AH$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="33" operator="greaterThan">
       <formula>$AH$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AF4">
-    <cfRule type="top10" dxfId="48" priority="14" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="47" priority="20" operator="lessThan">
+    <cfRule type="top10" dxfId="68" priority="24" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="67" priority="30" operator="lessThan">
       <formula>$AH$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="31" operator="greaterThan">
       <formula>$AH$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:AF5">
-    <cfRule type="top10" dxfId="45" priority="13" percent="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="44" priority="18" operator="greaterThan">
+    <cfRule type="top10" dxfId="65" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="64" priority="28" operator="greaterThan">
       <formula>$AH$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="29" operator="lessThan">
       <formula>$AH$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:AF10">
-    <cfRule type="top10" dxfId="42" priority="12" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="41" priority="15" operator="greaterThan">
+    <cfRule type="top10" dxfId="62" priority="22" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="61" priority="25" operator="greaterThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="26" operator="lessThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="27" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AF12">
-    <cfRule type="top10" dxfId="38" priority="8" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="lessThan">
+    <cfRule type="top10" dxfId="58" priority="18" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="57" priority="19" operator="lessThan">
       <formula>$AH$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="20" operator="greaterThan">
       <formula>$AH$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AF14">
-    <cfRule type="top10" dxfId="35" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
+    <cfRule type="top10" dxfId="55" priority="11" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="54" priority="16" operator="lessThan">
       <formula>$AH$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="17" operator="greaterThan">
       <formula>$AH$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AF15">
-    <cfRule type="top10" dxfId="32" priority="2" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
+    <cfRule type="top10" dxfId="52" priority="12" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="greaterThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="14" operator="lessThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="15" operator="greaterThan">
+      <formula>"3,5$AG$10"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:AF17">
+    <cfRule type="top10" dxfId="9" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+      <formula>$AH$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+      <formula>$AH$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:AF19">
+    <cfRule type="top10" dxfId="6" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>$AH$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+      <formula>$AH$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:AF20">
+    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>$AH$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+      <formula>$AH$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6808,21 +7196,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI16" sqref="AI16"/>
+      <selection activeCell="C17" sqref="C17:AJ20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -6932,9 +7320,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -7050,7 +7438,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -7166,10 +7554,10 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -7282,10 +7670,10 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -7398,12 +7786,12 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -7519,7 +7907,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -7635,10 +8023,10 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -7751,10 +8139,10 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="66"/>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -7867,12 +8255,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -7976,17 +8364,19 @@
       <c r="AI12" s="1">
         <v>24</v>
       </c>
-      <c r="AJ12" s="1"/>
+      <c r="AJ12" s="1">
+        <v>20</v>
+      </c>
       <c r="AK12" s="1">
-        <f>SUM(C12:AI12)</f>
-        <v>693</v>
+        <f>SUM(C12:AJ12)</f>
+        <v>713</v>
       </c>
       <c r="AL12" s="41">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38">
+        <v>20.970588235294116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="66"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -8090,20 +8480,22 @@
       <c r="AI13" s="1">
         <v>2</v>
       </c>
-      <c r="AJ13" s="1"/>
+      <c r="AJ13" s="1">
+        <v>3</v>
+      </c>
       <c r="AK13" s="1">
-        <f>SUM(C13:AI13)</f>
-        <v>74</v>
+        <f>SUM(C13:AJ13)</f>
+        <v>77</v>
       </c>
       <c r="AL13" s="41">
         <f t="shared" si="1"/>
-        <v>2.2424242424242422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38">
+        <v>2.2647058823529411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="66"/>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
         <v>7</v>
@@ -8204,20 +8596,22 @@
       <c r="AI14" s="1">
         <v>4</v>
       </c>
-      <c r="AJ14" s="1"/>
+      <c r="AJ14" s="1">
+        <v>6</v>
+      </c>
       <c r="AK14" s="1">
-        <f>SUM(C14:AI14)</f>
-        <v>199</v>
+        <f>SUM(C14:AJ14)</f>
+        <v>205</v>
       </c>
       <c r="AL14" s="41">
         <f t="shared" si="1"/>
-        <v>6.0303030303030303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38">
+        <v>6.0294117647058822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="66"/>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -8318,106 +8712,333 @@
       <c r="AI15" s="1">
         <v>3</v>
       </c>
-      <c r="AJ15" s="1"/>
+      <c r="AJ15" s="1">
+        <v>5</v>
+      </c>
       <c r="AK15" s="1">
-        <f>SUM(C15:AI15)</f>
-        <v>127</v>
+        <f>SUM(C15:AJ15)</f>
+        <v>132</v>
       </c>
       <c r="AL15" s="41">
         <f t="shared" si="1"/>
-        <v>3.8484848484848486</v>
+        <v>3.8823529411764706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1">
+        <f>SUM(C17:AJ17)</f>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="41" t="e">
+        <f t="shared" ref="AL17:AL20" si="2">AK17/COUNT(C17:AJ17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" s="66"/>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1">
+        <f>SUM(C18:AJ18)</f>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="41" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19" s="66"/>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1">
+        <f>SUM(C19:AJ19)</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="41" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" s="66"/>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1">
+        <f>SUM(C20:AJ20)</f>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="41" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:AJ7">
-    <cfRule type="top10" dxfId="28" priority="25" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
+    <cfRule type="top10" dxfId="48" priority="35" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="47" priority="38" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="39" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AJ2">
-    <cfRule type="top10" dxfId="25" priority="24" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
+    <cfRule type="top10" dxfId="45" priority="34" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="44" priority="36" operator="lessThan">
       <formula>$AL$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="37" operator="greaterThan">
       <formula>$AL$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:AJ9">
-    <cfRule type="top10" dxfId="22" priority="11" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
+    <cfRule type="top10" dxfId="42" priority="21" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="41" priority="32" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="33" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AJ4">
-    <cfRule type="top10" dxfId="19" priority="14" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
+    <cfRule type="top10" dxfId="39" priority="24" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="lessThan">
       <formula>$AL$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="greaterThan">
       <formula>$AL$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:AJ5">
-    <cfRule type="top10" dxfId="16" priority="13" percent="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
+    <cfRule type="top10" dxfId="36" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="35" priority="28" operator="greaterThan">
       <formula>$AL$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="lessThan">
       <formula>$AL$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:AJ10">
-    <cfRule type="top10" dxfId="13" priority="12" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
+    <cfRule type="top10" dxfId="33" priority="22" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AJ12">
-    <cfRule type="top10" dxfId="9" priority="8" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="top10" dxfId="29" priority="18" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AJ14">
-    <cfRule type="top10" dxfId="6" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="top10" dxfId="26" priority="11" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AJ15">
-    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="top10" dxfId="23" priority="12" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
+      <formula>"3,5$AG$10"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:AJ17">
+    <cfRule type="top10" dxfId="19" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
+      <formula>$AL$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="greaterThan">
+      <formula>$AL$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:AJ19">
+    <cfRule type="top10" dxfId="16" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
+      <formula>$AL$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
+      <formula>$AL$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:AJ20">
+    <cfRule type="top10" dxfId="13" priority="2" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+      <formula>$AL$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
+      <formula>$AL$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="419">
   <si>
     <t>bramki</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Sandecja</t>
   </si>
   <si>
-    <t>Bełchatów</t>
-  </si>
-  <si>
     <t>Jastrzębie</t>
   </si>
   <si>
@@ -191,21 +188,6 @@
     <t>1 Demianiuk</t>
   </si>
   <si>
-    <t>1 Feret</t>
-  </si>
-  <si>
-    <t>2 Letniowski</t>
-  </si>
-  <si>
-    <t>1 Mazek</t>
-  </si>
-  <si>
-    <t>1 Łysiak</t>
-  </si>
-  <si>
-    <t>1 Flaszka</t>
-  </si>
-  <si>
     <t>2019/2020</t>
   </si>
   <si>
@@ -224,9 +206,6 @@
     <t>1 Arak</t>
   </si>
   <si>
-    <t>2 Nowak</t>
-  </si>
-  <si>
     <t>2 Pawłowski</t>
   </si>
   <si>
@@ -257,925 +236,1054 @@
     <t>1 Ceesay</t>
   </si>
   <si>
-    <t>1 Sobociński</t>
-  </si>
-  <si>
-    <t>1 Sovsić</t>
-  </si>
-  <si>
     <t>1 Pervan</t>
   </si>
   <si>
-    <t>1 Azikiewicz</t>
-  </si>
-  <si>
     <t>1 Nowak</t>
   </si>
   <si>
-    <t>1 Spławski</t>
-  </si>
-  <si>
-    <t>1 Adamski</t>
-  </si>
-  <si>
-    <t>1 Kort</t>
-  </si>
-  <si>
-    <t>1 Caique</t>
-  </si>
-  <si>
-    <t>1 Tront</t>
+    <t>2 Hebel</t>
+  </si>
+  <si>
+    <t>1 Podgórski</t>
+  </si>
+  <si>
+    <t>1 Machała</t>
+  </si>
+  <si>
+    <t>1 Wolsztyński</t>
+  </si>
+  <si>
+    <t>1 Leandro</t>
+  </si>
+  <si>
+    <t>1 Piła</t>
+  </si>
+  <si>
+    <t>1 Ogorzały</t>
+  </si>
+  <si>
+    <t>1 Wasiluk</t>
+  </si>
+  <si>
+    <t>1 Sokół</t>
+  </si>
+  <si>
+    <t>1 Bonecki</t>
+  </si>
+  <si>
+    <t>1 Kowalczyk</t>
+  </si>
+  <si>
+    <t>2 Kargulewicz</t>
+  </si>
+  <si>
+    <t>1 Vieira</t>
+  </si>
+  <si>
+    <t>1 Długosz</t>
+  </si>
+  <si>
+    <t>1 Tudor</t>
+  </si>
+  <si>
+    <t>1 Tuszyński</t>
+  </si>
+  <si>
+    <t>2 Augustyn</t>
+  </si>
+  <si>
+    <t>2 Conrado</t>
+  </si>
+  <si>
+    <t>1 Machado</t>
+  </si>
+  <si>
+    <t>2 Kamiński</t>
+  </si>
+  <si>
+    <t>1 Sobiech</t>
+  </si>
+  <si>
+    <t>1 Sokołowski</t>
+  </si>
+  <si>
+    <t>1 Mesanovic</t>
+  </si>
+  <si>
+    <t>1 Śpiewak</t>
+  </si>
+  <si>
+    <t>2 Łyszczarz</t>
+  </si>
+  <si>
+    <t>1 Toporkiewicz</t>
+  </si>
+  <si>
+    <t>1 Sypek</t>
+  </si>
+  <si>
+    <t>3 Terpiłowski</t>
+  </si>
+  <si>
+    <t>3 Czarnowski</t>
+  </si>
+  <si>
+    <t>1 Biedrzycki</t>
+  </si>
+  <si>
+    <t>3 Pietraszkiewicz</t>
+  </si>
+  <si>
+    <t>1 Sapała</t>
+  </si>
+  <si>
+    <t>1 Świdzikowski</t>
+  </si>
+  <si>
+    <t>1 Nowakowski</t>
+  </si>
+  <si>
+    <t>1 Tomasik</t>
+  </si>
+  <si>
+    <t>1 Warchoł</t>
+  </si>
+  <si>
+    <t>2 Sadłocha</t>
+  </si>
+  <si>
+    <t>1 Rondon</t>
+  </si>
+  <si>
+    <t>1 Żukowski</t>
+  </si>
+  <si>
+    <t>1 Balaj</t>
+  </si>
+  <si>
+    <t>1 Ishak</t>
+  </si>
+  <si>
+    <t>1 Kozubal</t>
+  </si>
+  <si>
+    <t>1 Żukow</t>
+  </si>
+  <si>
+    <t>1 Błaszczykowski</t>
+  </si>
+  <si>
+    <t>1 Baszkirow</t>
+  </si>
+  <si>
+    <t>1 Manneh</t>
+  </si>
+  <si>
+    <t>1 Michalski</t>
+  </si>
+  <si>
+    <t>1 Tobers</t>
+  </si>
+  <si>
+    <t>3 Angielski</t>
+  </si>
+  <si>
+    <t>1 Radecki</t>
+  </si>
+  <si>
+    <t>2 Mystkowski</t>
+  </si>
+  <si>
+    <t>1 Rasmussen</t>
+  </si>
+  <si>
+    <t>1 Lopez</t>
+  </si>
+  <si>
+    <t>2 Vida</t>
+  </si>
+  <si>
+    <t>2 Żyro</t>
+  </si>
+  <si>
+    <t>1 Krawczyk</t>
+  </si>
+  <si>
+    <t>1 Kubica</t>
+  </si>
+  <si>
+    <t>1 Tekijaski</t>
+  </si>
+  <si>
+    <t>2 Orzechowski</t>
+  </si>
+  <si>
+    <t>1 Sangowski</t>
+  </si>
+  <si>
+    <t>1 Kostas</t>
+  </si>
+  <si>
+    <t>1 Kucharczyk</t>
+  </si>
+  <si>
+    <t>1 Amaral</t>
+  </si>
+  <si>
+    <t>2 Ramirez</t>
+  </si>
+  <si>
+    <t>1 Zivec</t>
+  </si>
+  <si>
+    <t>1 Ślisz</t>
+  </si>
+  <si>
+    <t>1 Muci</t>
+  </si>
+  <si>
+    <t>1 Makowski</t>
+  </si>
+  <si>
+    <t>1 Czorbadzijski</t>
+  </si>
+  <si>
+    <t>2 Jankowski</t>
+  </si>
+  <si>
+    <t>1 Galara</t>
+  </si>
+  <si>
+    <t>2 Dadok</t>
+  </si>
+  <si>
+    <t>1 Rostkowski</t>
+  </si>
+  <si>
+    <t>1 Praszelik</t>
+  </si>
+  <si>
+    <t>1 Amersfoort</t>
+  </si>
+  <si>
+    <t>2 Frydrych</t>
+  </si>
+  <si>
+    <t>2 Yeboah</t>
+  </si>
+  <si>
+    <t>1 Gruszkowski</t>
+  </si>
+  <si>
+    <t>3 Tomasiewicz</t>
+  </si>
+  <si>
+    <t>3 Kolew</t>
+  </si>
+  <si>
+    <t>2 Musonda</t>
+  </si>
+  <si>
+    <t>1 Pyrka</t>
+  </si>
+  <si>
+    <t>3 Chrapek</t>
+  </si>
+  <si>
+    <t>1 Smoliński</t>
+  </si>
+  <si>
+    <t>3 Rodin</t>
+  </si>
+  <si>
+    <t>2 Hanca</t>
+  </si>
+  <si>
+    <t>3 Rivalidnho</t>
+  </si>
+  <si>
+    <t>1 Marquez</t>
+  </si>
+  <si>
+    <t>1 Myszor</t>
+  </si>
+  <si>
+    <t>3 Alvarez</t>
+  </si>
+  <si>
+    <t>1 Pietrzak</t>
+  </si>
+  <si>
+    <t>2 Paixao</t>
+  </si>
+  <si>
+    <t>2 Nalepa</t>
+  </si>
+  <si>
+    <t>2 Durmus</t>
+  </si>
+  <si>
+    <t>3 Musiolik</t>
+  </si>
+  <si>
+    <t>1 Papannikolau</t>
+  </si>
+  <si>
+    <t>2 Skibicki</t>
+  </si>
+  <si>
+    <t>2 Piasecki</t>
+  </si>
+  <si>
+    <t>1 Tamas</t>
+  </si>
+  <si>
+    <t>1 Janasik</t>
+  </si>
+  <si>
+    <t>1 Garcia</t>
+  </si>
+  <si>
+    <t>9 Emreli</t>
+  </si>
+  <si>
+    <t>3 Luquinhas</t>
+  </si>
+  <si>
+    <t>1 Pekhart</t>
+  </si>
+  <si>
+    <t>Adam Hlousek</t>
+  </si>
+  <si>
+    <t>Nemanja Tekijaski</t>
+  </si>
+  <si>
+    <t>Filip Modelski</t>
+  </si>
+  <si>
+    <t>Marcel Vasil</t>
+  </si>
+  <si>
+    <t>Ernest Terpiłowski</t>
+  </si>
+  <si>
+    <t>Muris Mesanovic</t>
+  </si>
+  <si>
+    <t>Jakub Jugas</t>
+  </si>
+  <si>
+    <t>Otar Kakabadze</t>
+  </si>
+  <si>
+    <t>Mathias Rasmussen</t>
+  </si>
+  <si>
+    <t>Kamil Ogorzały</t>
+  </si>
+  <si>
+    <t>Filip Balaj</t>
+  </si>
+  <si>
+    <t>Bartosz Rymaniak</t>
+  </si>
+  <si>
+    <t>Daniel Dziwniel</t>
+  </si>
+  <si>
+    <t>Janusz Gol</t>
+  </si>
+  <si>
+    <t>Grzegorz Sandomierski</t>
+  </si>
+  <si>
+    <t>Rafał Janicki</t>
+  </si>
+  <si>
+    <t>Mateusz Cholewiak</t>
+  </si>
+  <si>
+    <t>Robert Dadok</t>
+  </si>
+  <si>
+    <t>Lukas Podolski</t>
+  </si>
+  <si>
+    <t>Michał Pazdan</t>
+  </si>
+  <si>
+    <t>Israel Puerto</t>
+  </si>
+  <si>
+    <t>Dani Quintana</t>
+  </si>
+  <si>
+    <t>Andrzej Trubeha</t>
+  </si>
+  <si>
+    <t>Barry Douglas</t>
+  </si>
+  <si>
+    <t>Joel Pereira</t>
+  </si>
+  <si>
+    <t>Radosław Murawski</t>
+  </si>
+  <si>
+    <t>Artur Sobiech</t>
+  </si>
+  <si>
+    <t>Ilkay Durmus</t>
+  </si>
+  <si>
+    <t>Miłosz Szczepański</t>
+  </si>
+  <si>
+    <t>Bassekou Diabate</t>
+  </si>
+  <si>
+    <t>Joel Abu Hanna</t>
+  </si>
+  <si>
+    <t>Mattias Johansson</t>
+  </si>
+  <si>
+    <t>Lindsay Rose</t>
+  </si>
+  <si>
+    <t>Maik Nawrocki</t>
+  </si>
+  <si>
+    <t>Josue Pesqueira</t>
+  </si>
+  <si>
+    <t>Mahir Emreli</t>
+  </si>
+  <si>
+    <t>Marcin Budziński</t>
+  </si>
+  <si>
+    <t>Maksymilian Sitek</t>
+  </si>
+  <si>
+    <t>Miguel Munoz</t>
+  </si>
+  <si>
+    <t>Damian Kądzior</t>
+  </si>
+  <si>
+    <t>Michael Ameyaw</t>
+  </si>
+  <si>
+    <t>Alberto Toril</t>
+  </si>
+  <si>
+    <t>Jean Carlos Silva</t>
+  </si>
+  <si>
+    <t>Piotr Parzyszek</t>
+  </si>
+  <si>
+    <t>Goncalo Silva</t>
+  </si>
+  <si>
+    <t>Luis Machado</t>
+  </si>
+  <si>
+    <t>Mario Rondon</t>
+  </si>
+  <si>
+    <t>Vladan Kovacevic</t>
+  </si>
+  <si>
+    <t>Milan Rundić</t>
+  </si>
+  <si>
+    <t>Żarko Udovicić</t>
+  </si>
+  <si>
+    <t>Sebastian Musiolik</t>
+  </si>
+  <si>
+    <t>Pedro Vieira</t>
+  </si>
+  <si>
+    <t>Victor Garcia</t>
+  </si>
+  <si>
+    <t>Diogo Verdasca</t>
+  </si>
+  <si>
+    <t>Petr Schwarz</t>
+  </si>
+  <si>
+    <t>Damian Gąska</t>
+  </si>
+  <si>
+    <t>Javier Hyjek</t>
+  </si>
+  <si>
+    <t>Caye Quintana</t>
+  </si>
+  <si>
+    <t>Konrad Matuszewski</t>
+  </si>
+  <si>
+    <t>Wiktor Pleśnierowicz</t>
+  </si>
+  <si>
+    <t>Milan Corryn</t>
+  </si>
+  <si>
+    <t>Szymon Czyż</t>
+  </si>
+  <si>
+    <t>Matej Hanousek</t>
+  </si>
+  <si>
+    <t>Alan Uryga</t>
+  </si>
+  <si>
+    <t>Dor Hugi</t>
+  </si>
+  <si>
+    <t>Aschraf El Mahdioui</t>
+  </si>
+  <si>
+    <t>Michal Skvarka</t>
+  </si>
+  <si>
+    <t>Mateusz Młyński</t>
+  </si>
+  <si>
+    <t>Jan Kliment</t>
+  </si>
+  <si>
+    <t>Anton Krywociuk</t>
+  </si>
+  <si>
+    <t>Marko Kolar</t>
+  </si>
+  <si>
+    <t>Dominik Furman</t>
+  </si>
+  <si>
+    <t>Ian Soler</t>
+  </si>
+  <si>
+    <t>Koki Hinokio</t>
+  </si>
+  <si>
+    <t>2021/2022</t>
+  </si>
+  <si>
+    <t>Katowice</t>
+  </si>
+  <si>
+    <t>Polkowice</t>
+  </si>
+  <si>
+    <t>Skra</t>
+  </si>
+  <si>
+    <t>Podbeskidzie</t>
+  </si>
+  <si>
+    <t>1 Moreno</t>
+  </si>
+  <si>
+    <t>1 Szymusik</t>
+  </si>
+  <si>
+    <t>1 Szarek</t>
+  </si>
+  <si>
+    <t>1 Dobrotka</t>
+  </si>
+  <si>
+    <t>1 Łabojko</t>
+  </si>
+  <si>
+    <t>1 Siemaszko</t>
+  </si>
+  <si>
+    <t>1 Witkowski</t>
+  </si>
+  <si>
+    <t>2 Antonik</t>
+  </si>
+  <si>
+    <t>1 Krasa</t>
+  </si>
+  <si>
+    <t>1 Tomczyk</t>
+  </si>
+  <si>
+    <t>1 Boguski</t>
+  </si>
+  <si>
+    <t>1 Hladik</t>
+  </si>
+  <si>
+    <t>1 Reiman</t>
+  </si>
+  <si>
+    <t>1 Hilbrycht</t>
+  </si>
+  <si>
+    <t>1 Kuczałek</t>
+  </si>
+  <si>
+    <t>1 Danch</t>
+  </si>
+  <si>
+    <t>1 Turzyniecki</t>
+  </si>
+  <si>
+    <t>1 Troć</t>
+  </si>
+  <si>
+    <t>1 Kozina</t>
+  </si>
+  <si>
+    <t>1 Łukowski</t>
+  </si>
+  <si>
+    <t>1 Ciechanowski</t>
+  </si>
+  <si>
+    <t>1 Wójcik</t>
+  </si>
+  <si>
+    <t>1 Pirulo</t>
+  </si>
+  <si>
+    <t>1 Trąbka</t>
+  </si>
+  <si>
+    <t>2 Janczukowicz</t>
+  </si>
+  <si>
+    <t>1 Baranowicz</t>
+  </si>
+  <si>
+    <t>1 Szwedzik</t>
+  </si>
+  <si>
+    <t>1 Kozłowski</t>
+  </si>
+  <si>
+    <t>1 Szymczak</t>
+  </si>
+  <si>
+    <t>1 Jaroszek</t>
+  </si>
+  <si>
+    <t>1 Bojdys</t>
+  </si>
+  <si>
+    <t>1 Zejdler</t>
+  </si>
+  <si>
+    <t>1 Karasek</t>
+  </si>
+  <si>
+    <t>1 Włodarczyk</t>
+  </si>
+  <si>
+    <t>1 Małkowski</t>
+  </si>
+  <si>
+    <t>1 Wawszczyk</t>
+  </si>
+  <si>
+    <t>1 Błanik</t>
+  </si>
+  <si>
+    <t>1 Wolny</t>
+  </si>
+  <si>
+    <t>-2 Boczek</t>
+  </si>
+  <si>
+    <t>2 Wróbel</t>
+  </si>
+  <si>
+    <t>1 Stanek</t>
+  </si>
+  <si>
+    <t>1 Dominguez</t>
+  </si>
+  <si>
+    <t>1 Wolski</t>
+  </si>
+  <si>
+    <t>3 Frączczak</t>
+  </si>
+  <si>
+    <t>1 Słodowy</t>
+  </si>
+  <si>
+    <t>Hubert Adamczyk</t>
+  </si>
+  <si>
+    <t>Sebastian Milewski</t>
+  </si>
+  <si>
+    <t>Martin Dobrotka</t>
+  </si>
+  <si>
+    <t>Nestor Gordillo</t>
+  </si>
+  <si>
+    <t>Karol Dybowski</t>
+  </si>
+  <si>
+    <t>Adam Banasiak</t>
+  </si>
+  <si>
+    <t>Adrian Balboa</t>
+  </si>
+  <si>
+    <t>Konrad Handzlik</t>
+  </si>
+  <si>
+    <t>Dawid Kudła</t>
+  </si>
+  <si>
+    <t>Filip Szymczak</t>
+  </si>
+  <si>
+    <t>Gracjan Jaroch</t>
+  </si>
+  <si>
+    <t>Tomas Malec</t>
+  </si>
+  <si>
+    <t>Marcin Biernat</t>
+  </si>
+  <si>
+    <t>Maciej Pałaszewski</t>
+  </si>
+  <si>
+    <t>Adrian Purzycki</t>
+  </si>
+  <si>
+    <t>Maciej Bortniczuk</t>
+  </si>
+  <si>
+    <t>Adrian Danek</t>
+  </si>
+  <si>
+    <t>Konrad Forenc</t>
+  </si>
+  <si>
+    <t>Adam Frączczak</t>
+  </si>
+  <si>
+    <t>Michał Koj</t>
+  </si>
+  <si>
+    <t>Piotr Malarczyk</t>
+  </si>
+  <si>
+    <t>Łukasz Sierpina</t>
+  </si>
+  <si>
+    <t>Stipe Jurić</t>
+  </si>
+  <si>
+    <t>Marek Kozioł</t>
+  </si>
+  <si>
+    <t>Ricardo Guima</t>
+  </si>
+  <si>
+    <t>Nacho Monsalve</t>
+  </si>
+  <si>
+    <t>Javi Moreno</t>
+  </si>
+  <si>
+    <t>Bartosz Szeliga</t>
+  </si>
+  <si>
+    <t>Jon Aurtenetxe</t>
+  </si>
+  <si>
+    <t>Jurich Carolina</t>
+  </si>
+  <si>
+    <t>Maxime Dominguez</t>
+  </si>
+  <si>
+    <t>Mateusz Spychała</t>
+  </si>
+  <si>
+    <t>Kacper Gach</t>
+  </si>
+  <si>
+    <t>Daniel Mikołajewski</t>
+  </si>
+  <si>
+    <t>Costa Nhamoinesu</t>
+  </si>
+  <si>
+    <t>Julio Rodriguez</t>
+  </si>
+  <si>
+    <t>Joan Roman</t>
+  </si>
+  <si>
+    <t>Szymon Stasik</t>
+  </si>
+  <si>
+    <t>Mateusz Wypych</t>
+  </si>
+  <si>
+    <t>Grzegorz Aftyka</t>
+  </si>
+  <si>
+    <t>Diego Bardanca</t>
+  </si>
+  <si>
+    <t>Rafał Boguski</t>
+  </si>
+  <si>
+    <t>Emile Thiakane</t>
+  </si>
+  <si>
+    <t>Lucjan Klisiewicz</t>
+  </si>
+  <si>
+    <t>Bartłomiej Eizenchart</t>
+  </si>
+  <si>
+    <t>Bojan Gvozdenović</t>
+  </si>
+  <si>
+    <t>Damian Hilbrycht</t>
+  </si>
+  <si>
+    <t>Aleksander Komor</t>
+  </si>
+  <si>
+    <t>Marek Mróz</t>
+  </si>
+  <si>
+    <t>Branislav Pindroch</t>
+  </si>
+  <si>
+    <t>Sebastian Strózik</t>
+  </si>
+  <si>
+    <t>Swetoslaw Dikow</t>
+  </si>
+  <si>
+    <t>Maissa Fall</t>
+  </si>
+  <si>
+    <t>Robert Janicki</t>
+  </si>
+  <si>
+    <t>Rafał Kobryń</t>
+  </si>
+  <si>
+    <t>Sebastian Rudol</t>
+  </si>
+  <si>
+    <t>Kamil Słaby</t>
+  </si>
+  <si>
+    <t>Jakub Wawszczyk</t>
+  </si>
+  <si>
+    <t>Mikołaj Kwietniewski</t>
+  </si>
+  <si>
+    <t>Maciej Mas</t>
+  </si>
+  <si>
+    <t>Marcin Stromecki</t>
+  </si>
+  <si>
+    <t>Merveille Fudndambu</t>
+  </si>
+  <si>
+    <t>Szymon Lewicki</t>
+  </si>
+  <si>
+    <t>Łukasz Moneta</t>
+  </si>
+  <si>
+    <t>Wojciech Reiman</t>
+  </si>
+  <si>
+    <t>Damian Ciechanowski</t>
+  </si>
+  <si>
+    <t>Karol Danielak</t>
+  </si>
+  <si>
+    <t>Tomasz Dejewski</t>
+  </si>
+  <si>
+    <t>Juliusz Letniowski</t>
+  </si>
+  <si>
+    <t>Abdul Aziz Tetteh</t>
+  </si>
+  <si>
+    <t>Paweł Zieliński</t>
+  </si>
+  <si>
+    <t>Alex Tanque</t>
+  </si>
+  <si>
+    <t>Maksymilian Banaszewski</t>
+  </si>
+  <si>
+    <t>Patryk Bryła</t>
+  </si>
+  <si>
+    <t>Vedran Dalić</t>
+  </si>
+  <si>
+    <t>Marin Galić</t>
+  </si>
+  <si>
+    <t>Dominik Jończy</t>
+  </si>
+  <si>
+    <t>Damian Pawłowski</t>
+  </si>
+  <si>
+    <t>Wojciech Szumilas</t>
+  </si>
+  <si>
+    <t>1 Dziąbek</t>
+  </si>
+  <si>
+    <t>1 Heijden</t>
+  </si>
+  <si>
+    <t>2 Sobków</t>
+  </si>
+  <si>
+    <t>2 Moneta</t>
+  </si>
+  <si>
+    <t>1 Zych</t>
+  </si>
+  <si>
+    <t>1 Magdziak</t>
+  </si>
+  <si>
+    <t>1 Wróbel</t>
+  </si>
+  <si>
+    <t>1 Klimczak</t>
+  </si>
+  <si>
+    <t>1 Guima</t>
+  </si>
+  <si>
+    <t>2 Jurić</t>
+  </si>
+  <si>
+    <t>3 Żebrowski</t>
+  </si>
+  <si>
+    <t>4 Vinicius</t>
+  </si>
+  <si>
+    <t>1 Aleman</t>
+  </si>
+  <si>
+    <t>1 Banaszewski</t>
+  </si>
+  <si>
+    <t>2 Szumilas</t>
+  </si>
+  <si>
+    <t>2 Tanque</t>
+  </si>
+  <si>
+    <t>5 Sobczak</t>
+  </si>
+  <si>
+    <t>3 Malec</t>
   </si>
   <si>
     <t>2 Steblecki</t>
   </si>
   <si>
-    <t>1 Krykun</t>
-  </si>
-  <si>
-    <t>4 Wróbel</t>
-  </si>
-  <si>
-    <t>1 Sobczak</t>
-  </si>
-  <si>
-    <t>1 Małecki</t>
-  </si>
-  <si>
-    <t>1 Drewniak</t>
-  </si>
-  <si>
-    <t>1 Kunka</t>
+    <t>1 Nedić</t>
+  </si>
+  <si>
+    <t>2 Staniucha</t>
+  </si>
+  <si>
+    <t>1 Rumin</t>
+  </si>
+  <si>
+    <t>1 Balboa</t>
+  </si>
+  <si>
+    <t>1 Holik</t>
+  </si>
+  <si>
+    <t>1 Niedbała</t>
+  </si>
+  <si>
+    <t>1 Kwietniewski</t>
+  </si>
+  <si>
+    <t>2 Straus</t>
+  </si>
+  <si>
+    <t>1 Danielak</t>
+  </si>
+  <si>
+    <t>1 Guzdek</t>
+  </si>
+  <si>
+    <t>1 Soljić</t>
   </si>
   <si>
     <t>1 Komor</t>
   </si>
   <si>
-    <t>2 Hebel</t>
-  </si>
-  <si>
-    <t>1 Podhorin</t>
-  </si>
-  <si>
-    <t>2 Chmiel</t>
-  </si>
-  <si>
-    <t>1 Podgórski</t>
-  </si>
-  <si>
-    <t>2 Szczepan</t>
-  </si>
-  <si>
-    <t>1 Banach</t>
-  </si>
-  <si>
-    <t>1 Diane</t>
-  </si>
-  <si>
-    <t>1 Scheidt</t>
-  </si>
-  <si>
-    <t>1 Żyra</t>
-  </si>
-  <si>
-    <t>1 Wlazło</t>
-  </si>
-  <si>
-    <t>1 Baranskyj</t>
-  </si>
-  <si>
-    <t>1 Rossi</t>
-  </si>
-  <si>
-    <t>1 Kaczmarek</t>
-  </si>
-  <si>
-    <t>1 Machała</t>
-  </si>
-  <si>
-    <t>1 Zdybowicz</t>
-  </si>
-  <si>
-    <t>1 Sekulski</t>
-  </si>
-  <si>
-    <t>1 Surzyn</t>
-  </si>
-  <si>
-    <t>1 Sluga</t>
-  </si>
-  <si>
-    <t>1 Wolsztyński</t>
-  </si>
-  <si>
-    <t>3 Marcjanik</t>
-  </si>
-  <si>
-    <t>2 Łapiński</t>
-  </si>
-  <si>
-    <t>2 Tomalski</t>
-  </si>
-  <si>
-    <t>1 Radionow</t>
-  </si>
-  <si>
-    <t>1 Thiakane</t>
-  </si>
-  <si>
-    <t>2 Ebwelle</t>
-  </si>
-  <si>
-    <t>1 Bogusz</t>
-  </si>
-  <si>
-    <t>1 Łuczak</t>
-  </si>
-  <si>
-    <t>1 Leandro</t>
-  </si>
-  <si>
-    <t>1 Karwot</t>
-  </si>
-  <si>
-    <t>1 Juraszek</t>
-  </si>
-  <si>
-    <t>1 Mandrysz</t>
-  </si>
-  <si>
-    <t>3 Winsztal</t>
-  </si>
-  <si>
-    <t>1 Pajnowski</t>
-  </si>
-  <si>
-    <t>1 Kukułowicz</t>
-  </si>
-  <si>
-    <t>5 Śpiączka</t>
-  </si>
-  <si>
-    <t>4 Radecki</t>
-  </si>
-  <si>
-    <t>1 Bodzioch</t>
-  </si>
-  <si>
-    <t>1 Zieliński</t>
-  </si>
-  <si>
-    <t>1 Lehaire</t>
-  </si>
-  <si>
-    <t>1 Kwolek</t>
-  </si>
-  <si>
-    <t>3 Drzazga</t>
-  </si>
-  <si>
-    <t>2 Spychała</t>
-  </si>
-  <si>
-    <t>1 Hinokio</t>
-  </si>
-  <si>
-    <t>1 van Huffel</t>
-  </si>
-  <si>
-    <t>1 Ameyaw</t>
-  </si>
-  <si>
-    <t>1 Kita</t>
-  </si>
-  <si>
-    <t>1 Kiełbasa</t>
-  </si>
-  <si>
-    <t>1 Gergel</t>
-  </si>
-  <si>
-    <t>2 Lewicki</t>
-  </si>
-  <si>
-    <t>1 Grzeszczyk</t>
-  </si>
-  <si>
-    <t>1 J.Piątek</t>
-  </si>
-  <si>
-    <t>1 K.Piątek</t>
-  </si>
-  <si>
-    <t>1 Piła</t>
-  </si>
-  <si>
-    <t>3 Mas</t>
-  </si>
-  <si>
-    <t>1 Koziara</t>
-  </si>
-  <si>
-    <t>2 Deja</t>
-  </si>
-  <si>
-    <t>1 Gancarczyk</t>
-  </si>
-  <si>
-    <t>2 Bartosz</t>
-  </si>
-  <si>
-    <t>1 Rakoczy</t>
-  </si>
-  <si>
-    <t>1 Ogorzały</t>
-  </si>
-  <si>
-    <t>1 Możdżeń</t>
-  </si>
-  <si>
-    <t>2 Czubak</t>
-  </si>
-  <si>
-    <t>1 Ali</t>
-  </si>
-  <si>
-    <t>1 Kulawiak</t>
-  </si>
-  <si>
-    <t>1 Mróz</t>
-  </si>
-  <si>
-    <t>1 Misak</t>
-  </si>
-  <si>
-    <t>2 Gregorio</t>
-  </si>
-  <si>
-    <t>1 Orłowski</t>
-  </si>
-  <si>
-    <t>1 Wasiluk</t>
-  </si>
-  <si>
-    <t>2 Domoń</t>
-  </si>
-  <si>
-    <t>1 Wróbel</t>
-  </si>
-  <si>
-    <t>1 Winiarczyk</t>
-  </si>
-  <si>
-    <t>1 Poczobut</t>
-  </si>
-  <si>
-    <t>2 Bednarski</t>
-  </si>
-  <si>
-    <t>2 Zapolnik</t>
-  </si>
-  <si>
-    <t>1 Dynel</t>
-  </si>
-  <si>
-    <t>3 Szczutowski</t>
-  </si>
-  <si>
-    <t>1 Sierant</t>
-  </si>
-  <si>
-    <t>1 Szramka</t>
-  </si>
-  <si>
-    <t>1 Tecław</t>
-  </si>
-  <si>
-    <t>1 Węsierski</t>
-  </si>
-  <si>
-    <t>1 Sokół</t>
-  </si>
-  <si>
-    <t>1 Szymański</t>
-  </si>
-  <si>
-    <t>1 Janczukowicz</t>
-  </si>
-  <si>
-    <t>2 Małkowski</t>
-  </si>
-  <si>
-    <t>6 Victor</t>
-  </si>
-  <si>
-    <t>3 Rubio</t>
-  </si>
-  <si>
-    <t>3 Makuch</t>
-  </si>
-  <si>
-    <t>2 Garcia</t>
-  </si>
-  <si>
-    <t>4 Żak</t>
-  </si>
-  <si>
-    <t>2 Mosakowski</t>
-  </si>
-  <si>
-    <t>2 Kuświk</t>
-  </si>
-  <si>
-    <t>2 Mikulec</t>
-  </si>
-  <si>
-    <t>4 Feruga</t>
-  </si>
-  <si>
-    <t>4 Rumin</t>
-  </si>
-  <si>
-    <t>3 Apolinarski</t>
-  </si>
-  <si>
-    <t>1 Bator</t>
-  </si>
-  <si>
     <t>1 Twardowski</t>
   </si>
   <si>
-    <t>1 Geniec</t>
-  </si>
-  <si>
-    <t>1 Kojder</t>
-  </si>
-  <si>
-    <t>1 Bonecki</t>
-  </si>
-  <si>
-    <t>1 Kowalczyk</t>
-  </si>
-  <si>
-    <t>2 Wojciechowski</t>
-  </si>
-  <si>
-    <t>1 Kalinkowski</t>
-  </si>
-  <si>
-    <t>1 Stromecki</t>
-  </si>
-  <si>
-    <t>3 Lebedyński</t>
-  </si>
-  <si>
-    <t>2 Machaj</t>
-  </si>
-  <si>
-    <t>1 Banaszewski</t>
-  </si>
-  <si>
-    <t>1 Banasiak</t>
-  </si>
-  <si>
-    <t>4 Biel</t>
-  </si>
-  <si>
-    <t>2 Szeliga</t>
-  </si>
-  <si>
-    <t>2 Kargulewicz</t>
-  </si>
-  <si>
-    <t>6 Tomczyk</t>
-  </si>
-  <si>
-    <t>1 Samiec-Talar</t>
-  </si>
-  <si>
-    <t>6 Żebrowski</t>
-  </si>
-  <si>
-    <t>3 Rosołek</t>
-  </si>
-  <si>
-    <t>2 Valcarce</t>
-  </si>
-  <si>
-    <t>2 Vinicius</t>
-  </si>
-  <si>
-    <t>2 Stefanik</t>
-  </si>
-  <si>
-    <t>2 Cikos</t>
-  </si>
-  <si>
-    <t>1 Vieira</t>
-  </si>
-  <si>
-    <t>1 Długosz</t>
-  </si>
-  <si>
-    <t>1 Tudor</t>
-  </si>
-  <si>
-    <t>1 Tuszyński</t>
-  </si>
-  <si>
-    <t>2 Augustyn</t>
-  </si>
-  <si>
-    <t>2 Conrado</t>
-  </si>
-  <si>
-    <t>1 Machado</t>
-  </si>
-  <si>
-    <t>2 Kamiński</t>
-  </si>
-  <si>
-    <t>1 Sobiech</t>
-  </si>
-  <si>
-    <t>1 Sokołowski</t>
-  </si>
-  <si>
-    <t>1 Mesanovic</t>
-  </si>
-  <si>
-    <t>1 Śpiewak</t>
-  </si>
-  <si>
-    <t>2 Łyszczarz</t>
-  </si>
-  <si>
-    <t>1 Toporkiewicz</t>
-  </si>
-  <si>
-    <t>1 Sypek</t>
-  </si>
-  <si>
-    <t>3 Terpiłowski</t>
-  </si>
-  <si>
-    <t>3 Czarnowski</t>
-  </si>
-  <si>
-    <t>1 Biedrzycki</t>
-  </si>
-  <si>
-    <t>3 Pietraszkiewicz</t>
-  </si>
-  <si>
-    <t>1 Sapała</t>
-  </si>
-  <si>
-    <t>1 Świdzikowski</t>
-  </si>
-  <si>
-    <t>1 Nowakowski</t>
-  </si>
-  <si>
-    <t>1 Tomasik</t>
-  </si>
-  <si>
-    <t>1 Warchoł</t>
-  </si>
-  <si>
-    <t>2 Sadłocha</t>
-  </si>
-  <si>
-    <t>1 Rondon</t>
-  </si>
-  <si>
-    <t>1 Żukowski</t>
-  </si>
-  <si>
-    <t>1 Balaj</t>
-  </si>
-  <si>
-    <t>1 Ishak</t>
-  </si>
-  <si>
-    <t>1 Kozubal</t>
-  </si>
-  <si>
-    <t>1 Tijanić</t>
-  </si>
-  <si>
-    <t>1 Żukow</t>
-  </si>
-  <si>
-    <t>1 Błaszczykowski</t>
-  </si>
-  <si>
-    <t>1 Chuca</t>
-  </si>
-  <si>
-    <t>1 Baszkirow</t>
-  </si>
-  <si>
-    <t>1 Manneh</t>
-  </si>
-  <si>
-    <t>1 Michalski</t>
-  </si>
-  <si>
-    <t>1 Tobers</t>
-  </si>
-  <si>
-    <t>3 Angielski</t>
-  </si>
-  <si>
-    <t>1 Radecki</t>
-  </si>
-  <si>
-    <t>2 Mystkowski</t>
-  </si>
-  <si>
-    <t>1 Rasmussen</t>
-  </si>
-  <si>
-    <t>1 Lopez</t>
-  </si>
-  <si>
-    <t>2 Vida</t>
-  </si>
-  <si>
-    <t>2 Żyro</t>
-  </si>
-  <si>
-    <t>1 Krawczyk</t>
-  </si>
-  <si>
-    <t>1 Kubica</t>
-  </si>
-  <si>
-    <t>1 Tekijaski</t>
-  </si>
-  <si>
-    <t>2 Orzechowski</t>
-  </si>
-  <si>
-    <t>1 Sangowski</t>
-  </si>
-  <si>
-    <t>1 Kostas</t>
-  </si>
-  <si>
-    <t>1 Kucharczyk</t>
-  </si>
-  <si>
-    <t>1 Amaral</t>
-  </si>
-  <si>
-    <t>2 Ramirez</t>
-  </si>
-  <si>
-    <t>1 Zivec</t>
-  </si>
-  <si>
-    <t>1 Ślisz</t>
-  </si>
-  <si>
-    <t>1 Muci</t>
-  </si>
-  <si>
-    <t>1 Makowski</t>
-  </si>
-  <si>
-    <t>1 Czorbadzijski</t>
-  </si>
-  <si>
-    <t>2 Jankowski</t>
-  </si>
-  <si>
-    <t>1 Galara</t>
-  </si>
-  <si>
-    <t>2 Dadok</t>
-  </si>
-  <si>
-    <t>1 Rostkowski</t>
-  </si>
-  <si>
-    <t>1 Praszelik</t>
-  </si>
-  <si>
-    <t>1 Amersfoort</t>
-  </si>
-  <si>
-    <t>2 Frydrych</t>
-  </si>
-  <si>
-    <t>2 Yeboah</t>
-  </si>
-  <si>
-    <t>1 Gruszkowski</t>
-  </si>
-  <si>
-    <t>3 Tomasiewicz</t>
-  </si>
-  <si>
-    <t>3 Kolew</t>
-  </si>
-  <si>
-    <t>2 Musonda</t>
-  </si>
-  <si>
-    <t>1 Pyrka</t>
-  </si>
-  <si>
-    <t>3 Chrapek</t>
-  </si>
-  <si>
-    <t>1 Smoliński</t>
-  </si>
-  <si>
-    <t>3 Rodin</t>
-  </si>
-  <si>
-    <t>2 Hanca</t>
-  </si>
-  <si>
-    <t>3 Rivalidnho</t>
-  </si>
-  <si>
-    <t>1 Marquez</t>
-  </si>
-  <si>
-    <t>1 Myszor</t>
-  </si>
-  <si>
-    <t>3 Alvarez</t>
-  </si>
-  <si>
-    <t>1 Pietrzak</t>
-  </si>
-  <si>
-    <t>2 Paixao</t>
-  </si>
-  <si>
-    <t>2 Nalepa</t>
-  </si>
-  <si>
-    <t>2 Durmus</t>
-  </si>
-  <si>
-    <t>3 Musiolik</t>
-  </si>
-  <si>
-    <t>1 Papannikolau</t>
-  </si>
-  <si>
-    <t>2 Skibicki</t>
-  </si>
-  <si>
-    <t>2 Piasecki</t>
-  </si>
-  <si>
-    <t>1 Tamas</t>
-  </si>
-  <si>
-    <t>1 Janasik</t>
-  </si>
-  <si>
-    <t>1 Garcia</t>
-  </si>
-  <si>
-    <t>9 Emreli</t>
-  </si>
-  <si>
-    <t>3 Luquinhas</t>
-  </si>
-  <si>
-    <t>1 Pekhart</t>
-  </si>
-  <si>
-    <t>Adam Hlousek</t>
-  </si>
-  <si>
-    <t>Nemanja Tekijaski</t>
-  </si>
-  <si>
-    <t>Filip Modelski</t>
-  </si>
-  <si>
-    <t>Marcel Vasil</t>
-  </si>
-  <si>
-    <t>Ernest Terpiłowski</t>
-  </si>
-  <si>
-    <t>Muris Mesanovic</t>
-  </si>
-  <si>
-    <t>Jakub Jugas</t>
-  </si>
-  <si>
-    <t>Otar Kakabadze</t>
-  </si>
-  <si>
-    <t>Mathias Rasmussen</t>
-  </si>
-  <si>
-    <t>Kamil Ogorzały</t>
-  </si>
-  <si>
-    <t>Filip Balaj</t>
-  </si>
-  <si>
-    <t>Bartosz Rymaniak</t>
-  </si>
-  <si>
-    <t>Daniel Dziwniel</t>
-  </si>
-  <si>
-    <t>Janusz Gol</t>
-  </si>
-  <si>
-    <t>Grzegorz Sandomierski</t>
-  </si>
-  <si>
-    <t>Rafał Janicki</t>
-  </si>
-  <si>
-    <t>Mateusz Cholewiak</t>
-  </si>
-  <si>
-    <t>Robert Dadok</t>
-  </si>
-  <si>
-    <t>Lukas Podolski</t>
-  </si>
-  <si>
-    <t>Michał Pazdan</t>
-  </si>
-  <si>
-    <t>Israel Puerto</t>
-  </si>
-  <si>
-    <t>Dani Quintana</t>
-  </si>
-  <si>
-    <t>Andrzej Trubeha</t>
-  </si>
-  <si>
-    <t>Barry Douglas</t>
-  </si>
-  <si>
-    <t>Joel Pereira</t>
-  </si>
-  <si>
-    <t>Radosław Murawski</t>
-  </si>
-  <si>
-    <t>Artur Sobiech</t>
-  </si>
-  <si>
-    <t>Ilkay Durmus</t>
-  </si>
-  <si>
-    <t>Miłosz Szczepański</t>
-  </si>
-  <si>
-    <t>Bassekou Diabate</t>
-  </si>
-  <si>
-    <t>Joel Abu Hanna</t>
-  </si>
-  <si>
-    <t>Mattias Johansson</t>
-  </si>
-  <si>
-    <t>Lindsay Rose</t>
-  </si>
-  <si>
-    <t>Maik Nawrocki</t>
-  </si>
-  <si>
-    <t>Josue Pesqueira</t>
-  </si>
-  <si>
-    <t>Mahir Emreli</t>
-  </si>
-  <si>
-    <t>Marcin Budziński</t>
-  </si>
-  <si>
-    <t>Maksymilian Sitek</t>
-  </si>
-  <si>
-    <t>Miguel Munoz</t>
-  </si>
-  <si>
-    <t>Damian Kądzior</t>
-  </si>
-  <si>
-    <t>Michael Ameyaw</t>
-  </si>
-  <si>
-    <t>Alberto Toril</t>
-  </si>
-  <si>
-    <t>Jean Carlos Silva</t>
-  </si>
-  <si>
-    <t>Piotr Parzyszek</t>
-  </si>
-  <si>
-    <t>Goncalo Silva</t>
-  </si>
-  <si>
-    <t>Luis Machado</t>
-  </si>
-  <si>
-    <t>Mario Rondon</t>
-  </si>
-  <si>
-    <t>Vladan Kovacevic</t>
-  </si>
-  <si>
-    <t>Milan Rundić</t>
-  </si>
-  <si>
-    <t>Żarko Udovicić</t>
-  </si>
-  <si>
-    <t>Sebastian Musiolik</t>
-  </si>
-  <si>
-    <t>Pedro Vieira</t>
-  </si>
-  <si>
-    <t>Victor Garcia</t>
-  </si>
-  <si>
-    <t>Diogo Verdasca</t>
-  </si>
-  <si>
-    <t>Petr Schwarz</t>
-  </si>
-  <si>
-    <t>Damian Gąska</t>
-  </si>
-  <si>
-    <t>Javier Hyjek</t>
-  </si>
-  <si>
-    <t>Caye Quintana</t>
-  </si>
-  <si>
-    <t>Konrad Matuszewski</t>
-  </si>
-  <si>
-    <t>Wiktor Pleśnierowicz</t>
-  </si>
-  <si>
-    <t>Milan Corryn</t>
-  </si>
-  <si>
-    <t>Szymon Czyż</t>
-  </si>
-  <si>
-    <t>Matej Hanousek</t>
-  </si>
-  <si>
-    <t>Alan Uryga</t>
-  </si>
-  <si>
-    <t>Dor Hugi</t>
-  </si>
-  <si>
-    <t>Aschraf El Mahdioui</t>
-  </si>
-  <si>
-    <t>Michal Skvarka</t>
-  </si>
-  <si>
-    <t>Mateusz Młyński</t>
-  </si>
-  <si>
-    <t>Jan Kliment</t>
-  </si>
-  <si>
-    <t>Anton Krywociuk</t>
-  </si>
-  <si>
-    <t>Marko Kolar</t>
-  </si>
-  <si>
-    <t>Dominik Furman</t>
-  </si>
-  <si>
-    <t>Ian Soler</t>
-  </si>
-  <si>
-    <t>Koki Hinokio</t>
-  </si>
-  <si>
-    <t>2021/2022</t>
+    <t>2 Strózik</t>
+  </si>
+  <si>
+    <t>2 Szymczak</t>
+  </si>
+  <si>
+    <t>2 Sanocki</t>
+  </si>
+  <si>
+    <t>2 Drzazga</t>
+  </si>
+  <si>
+    <t>1 Garuch</t>
+  </si>
+  <si>
+    <t>5 Biliński</t>
+  </si>
+  <si>
+    <t>1 Wełniak</t>
+  </si>
+  <si>
+    <t>2 Gach</t>
+  </si>
+  <si>
+    <t>2 D.Wojtyra</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1695,10 +1803,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1708,6 +1812,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2011,6 +2123,120 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2112,120 +2338,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2789,7 +2901,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2824,7 +2936,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3011,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView topLeftCell="H3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3058,7 +3170,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -3137,7 +3249,7 @@
       <c r="N2" s="47">
         <v>3</v>
       </c>
-      <c r="O2" s="67">
+      <c r="O2" s="65">
         <v>4</v>
       </c>
       <c r="P2" s="46">
@@ -3196,7 +3308,7 @@
       <c r="N3" s="51">
         <v>0</v>
       </c>
-      <c r="O3" s="68">
+      <c r="O3" s="66">
         <v>1</v>
       </c>
       <c r="P3" s="50">
@@ -3234,7 +3346,7 @@
       <c r="G4" s="54">
         <v>1</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="72">
         <v>1</v>
       </c>
       <c r="I4" s="54">
@@ -3255,7 +3367,7 @@
       <c r="N4" s="55">
         <v>2</v>
       </c>
-      <c r="O4" s="69">
+      <c r="O4" s="67">
         <v>2</v>
       </c>
       <c r="P4" s="54">
@@ -3314,10 +3426,10 @@
       <c r="N5" s="59">
         <v>15</v>
       </c>
-      <c r="O5" s="70">
+      <c r="O5" s="68">
         <v>14</v>
       </c>
-      <c r="P5" s="72">
+      <c r="P5" s="70">
         <v>16</v>
       </c>
       <c r="Q5" s="59">
@@ -3352,7 +3464,7 @@
       <c r="G6" s="62">
         <v>8</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="73">
         <v>4</v>
       </c>
       <c r="I6" s="62">
@@ -3373,10 +3485,10 @@
       <c r="N6" s="63">
         <v>8</v>
       </c>
-      <c r="O6" s="71">
+      <c r="O6" s="69">
         <v>8</v>
       </c>
-      <c r="P6" s="73">
+      <c r="P6" s="71">
         <v>5</v>
       </c>
       <c r="Q6" s="63">
@@ -3511,380 +3623,377 @@
         <v>27</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>295</v>
+        <v>162</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>286</v>
+        <v>153</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>287</v>
+        <v>154</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>298</v>
+        <v>165</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>301</v>
+        <v>168</v>
       </c>
       <c r="P10" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>263</v>
+        <v>130</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="S10" s="30" t="s">
-        <v>268</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>221</v>
+        <v>90</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>296</v>
+        <v>163</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>306</v>
+        <v>173</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>258</v>
+        <v>125</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P11" t="s">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="32" t="s">
         <v>32</v>
       </c>
       <c r="R11" s="32" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="S11" s="33" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>293</v>
+        <v>160</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>297</v>
+        <v>164</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>265</v>
+        <v>132</v>
       </c>
       <c r="L12" s="32" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="M12" s="34" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="P12" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="R12" s="32" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="S12" s="33" t="s">
-        <v>248</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
-        <v>289</v>
+        <v>156</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>223</v>
+        <v>92</v>
       </c>
       <c r="J13" s="32" t="s">
         <v>33</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>244</v>
+        <v>108</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="32"/>
       <c r="R13" s="32" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="S13" s="33"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>255</v>
+        <v>122</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>251</v>
+        <v>118</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>307</v>
+        <v>174</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>285</v>
+        <v>152</v>
       </c>
       <c r="J14" s="32" t="s">
         <v>33</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>302</v>
+        <v>169</v>
       </c>
       <c r="P14" t="s">
-        <v>261</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="32"/>
       <c r="R14" s="32" t="s">
-        <v>281</v>
+        <v>148</v>
       </c>
       <c r="S14" s="33"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>294</v>
+        <v>161</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>270</v>
+        <v>137</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
       <c r="K15" s="32" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>299</v>
+        <v>123</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>30</v>
       </c>
       <c r="P15" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="32"/>
       <c r="R15" s="32" t="s">
-        <v>247</v>
+        <v>114</v>
       </c>
       <c r="S15" s="33"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
-        <v>292</v>
+        <v>159</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>271</v>
+        <v>138</v>
       </c>
       <c r="G16" s="34"/>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>256</v>
+        <v>61</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="P16" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="32"/>
-      <c r="R16" s="32" t="s">
-        <v>246</v>
-      </c>
       <c r="S16" s="33"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
-        <v>291</v>
+        <v>158</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>259</v>
+        <v>126</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="32"/>
       <c r="F17" s="34" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G17" s="32"/>
       <c r="I17" s="36"/>
       <c r="J17" s="34"/>
       <c r="K17" s="36"/>
       <c r="L17" s="32" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>34</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="36"/>
       <c r="R17" s="32"/>
@@ -3893,10 +4002,10 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="36"/>
@@ -3907,14 +4016,14 @@
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
       <c r="M18" s="32" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="N18" s="32"/>
       <c r="O18" s="32" t="s">
-        <v>303</v>
+        <v>170</v>
       </c>
       <c r="P18" t="s">
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
@@ -3923,7 +4032,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34" t="s">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
@@ -3934,12 +4043,9 @@
       <c r="J19" s="34"/>
       <c r="K19" s="32"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="32" t="s">
-        <v>64</v>
-      </c>
       <c r="N19" s="32"/>
       <c r="O19" s="34" t="s">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="32"/>
       <c r="R19" s="32"/>
@@ -4027,241 +4133,241 @@
         <v>28</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>314</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>331</v>
+        <v>198</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>335</v>
+        <v>202</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>338</v>
+        <v>205</v>
       </c>
       <c r="H24" t="s">
-        <v>319</v>
+        <v>186</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>346</v>
+        <v>213</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>377</v>
+        <v>244</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>355</v>
+        <v>222</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>344</v>
+        <v>211</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>360</v>
+        <v>227</v>
       </c>
       <c r="P24" t="s">
-        <v>308</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>366</v>
+        <v>233</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>370</v>
+        <v>237</v>
       </c>
       <c r="S24" s="30" t="s">
-        <v>380</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
-        <v>315</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>323</v>
+        <v>190</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>328</v>
+        <v>195</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>336</v>
+        <v>203</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>339</v>
+        <v>206</v>
       </c>
       <c r="H25" t="s">
-        <v>320</v>
+        <v>187</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>379</v>
+        <v>246</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>351</v>
+        <v>218</v>
       </c>
       <c r="L25" s="32" t="s">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>356</v>
+        <v>223</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>345</v>
+        <v>212</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>361</v>
+        <v>228</v>
       </c>
       <c r="P25" t="s">
-        <v>309</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>367</v>
+        <v>234</v>
       </c>
       <c r="R25" s="32" t="s">
-        <v>371</v>
+        <v>238</v>
       </c>
       <c r="S25" s="33" t="s">
-        <v>381</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
-        <v>316</v>
+        <v>183</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>329</v>
+        <v>196</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>337</v>
+        <v>204</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>340</v>
+        <v>207</v>
       </c>
       <c r="H26" t="s">
-        <v>321</v>
+        <v>188</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>348</v>
+        <v>215</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>378</v>
+        <v>245</v>
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="32" t="s">
-        <v>354</v>
+        <v>221</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>357</v>
+        <v>224</v>
       </c>
       <c r="N26" s="32"/>
       <c r="O26" s="32" t="s">
-        <v>362</v>
+        <v>229</v>
       </c>
       <c r="P26" t="s">
-        <v>310</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="32" t="s">
-        <v>368</v>
+        <v>235</v>
       </c>
       <c r="R26" s="32" t="s">
-        <v>372</v>
+        <v>239</v>
       </c>
       <c r="S26" s="33"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
-        <v>317</v>
+        <v>184</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>325</v>
+        <v>192</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32" t="s">
-        <v>341</v>
+        <v>208</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>349</v>
+        <v>216</v>
       </c>
       <c r="J27" s="34"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
       <c r="M27" s="32" t="s">
-        <v>358</v>
+        <v>225</v>
       </c>
       <c r="N27" s="32"/>
       <c r="O27" s="32" t="s">
-        <v>363</v>
+        <v>230</v>
       </c>
       <c r="P27" t="s">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="Q27" s="32" t="s">
-        <v>369</v>
+        <v>236</v>
       </c>
       <c r="R27" t="s">
-        <v>373</v>
+        <v>240</v>
       </c>
       <c r="S27" s="33"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
-        <v>318</v>
+        <v>185</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32" t="s">
-        <v>342</v>
+        <v>209</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
       <c r="M28" s="32" t="s">
-        <v>359</v>
+        <v>226</v>
       </c>
       <c r="N28" s="32"/>
       <c r="O28" s="34" t="s">
-        <v>364</v>
+        <v>231</v>
       </c>
       <c r="P28" t="s">
-        <v>312</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="32"/>
       <c r="R28" s="32" t="s">
-        <v>374</v>
+        <v>241</v>
       </c>
       <c r="S28" s="33"/>
     </row>
@@ -4273,7 +4379,7 @@
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32" t="s">
-        <v>343</v>
+        <v>210</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -4282,14 +4388,14 @@
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
       <c r="O29" s="32" t="s">
-        <v>365</v>
+        <v>232</v>
       </c>
       <c r="P29" t="s">
-        <v>313</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="32"/>
       <c r="R29" s="32" t="s">
-        <v>375</v>
+        <v>242</v>
       </c>
       <c r="S29" s="33"/>
     </row>
@@ -4310,7 +4416,7 @@
       <c r="O30" s="32"/>
       <c r="Q30" s="32"/>
       <c r="R30" s="32" t="s">
-        <v>376</v>
+        <v>243</v>
       </c>
       <c r="S30" s="33"/>
     </row>
@@ -4399,31 +4505,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4437,13 +4545,13 @@
         <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
         <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="H1" t="s">
         <v>39</v>
@@ -4461,25 +4569,25 @@
         <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s">
         <v>46</v>
       </c>
       <c r="O1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
       <c r="Q1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R1" t="s">
+        <v>251</v>
+      </c>
+      <c r="S1" t="s">
         <v>51</v>
-      </c>
-      <c r="S1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4487,58 +4595,58 @@
         <v>21</v>
       </c>
       <c r="B2" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O2" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S2" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4546,7 +4654,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -4555,22 +4663,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
         <v>0</v>
       </c>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
       <c r="I3" s="10">
         <v>1</v>
       </c>
       <c r="J3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="10">
         <v>2</v>
@@ -4579,25 +4687,25 @@
         <v>1</v>
       </c>
       <c r="M3" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="11">
         <v>1</v>
       </c>
       <c r="R3" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4605,31 +4713,31 @@
         <v>23</v>
       </c>
       <c r="B4" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="13">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14">
         <v>0</v>
       </c>
-      <c r="G4" s="14">
-        <v>3</v>
-      </c>
       <c r="H4" s="13">
         <v>2</v>
       </c>
       <c r="I4" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" s="14">
         <v>2</v>
@@ -4638,25 +4746,25 @@
         <v>2</v>
       </c>
       <c r="M4" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R4" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4664,58 +4772,58 @@
         <v>24</v>
       </c>
       <c r="B5" s="5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F5" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G5" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>6</v>
+      </c>
+      <c r="J5" s="5">
         <v>11</v>
       </c>
-      <c r="I5" s="6">
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>8</v>
+      </c>
+      <c r="M5" s="6">
         <v>14</v>
       </c>
-      <c r="J5" s="5">
-        <v>18</v>
-      </c>
-      <c r="K5" s="6">
-        <v>13</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="N5" s="5">
+        <v>5</v>
+      </c>
+      <c r="O5" s="6">
+        <v>7</v>
+      </c>
+      <c r="P5" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>9</v>
+      </c>
+      <c r="R5" s="7">
+        <v>5</v>
+      </c>
+      <c r="S5" s="7">
         <v>16</v>
-      </c>
-      <c r="M5" s="6">
-        <v>7</v>
-      </c>
-      <c r="N5" s="5">
-        <v>16</v>
-      </c>
-      <c r="O5" s="6">
-        <v>15</v>
-      </c>
-      <c r="P5" s="5">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>16</v>
-      </c>
-      <c r="R5" s="7">
-        <v>14</v>
-      </c>
-      <c r="S5" s="7">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4723,55 +4831,55 @@
         <v>25</v>
       </c>
       <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17">
+        <v>5</v>
+      </c>
+      <c r="D6" s="16">
+        <v>7</v>
+      </c>
+      <c r="E6" s="17">
         <v>8</v>
-      </c>
-      <c r="C6" s="17">
-        <v>8</v>
-      </c>
-      <c r="D6" s="16">
-        <v>11</v>
-      </c>
-      <c r="E6" s="17">
-        <v>17</v>
       </c>
       <c r="F6" s="16">
         <v>6</v>
       </c>
       <c r="G6" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="17">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J6" s="16">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K6" s="17">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L6" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M6" s="17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N6" s="16">
         <v>8</v>
       </c>
       <c r="O6" s="17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P6" s="16">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="18">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="R6" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S6" s="18">
         <v>9</v>
@@ -4783,75 +4891,75 @@
       </c>
       <c r="B7" s="8">
         <f>B5-B6</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" s="20">
         <f>C5-C6</f>
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:S7" si="0">D5-D6</f>
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="O7" s="20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R7" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -4901,458 +5009,376 @@
         <v>27</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>208</v>
+        <v>389</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="H10" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>199</v>
-      </c>
       <c r="I10" s="29" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>203</v>
+        <v>395</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>183</v>
+        <v>384</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>170</v>
+        <v>404</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>160</v>
+        <v>394</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>179</v>
+        <v>288</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>125</v>
+        <v>418</v>
       </c>
       <c r="P10" s="43" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="S10" s="30" t="s">
-        <v>88</v>
+        <v>380</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
-        <v>209</v>
+        <v>388</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>118</v>
+        <v>278</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>417</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>103</v>
+        <v>414</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>412</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>135</v>
+        <v>396</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="34" t="s">
+        <v>381</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="R11" s="32" t="s">
-        <v>87</v>
+        <v>294</v>
       </c>
       <c r="S11" s="33" t="s">
-        <v>94</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
-      <c r="B12" s="36" t="s">
-        <v>113</v>
+      <c r="B12" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>168</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="F12" s="34"/>
       <c r="G12" s="32" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>146</v>
+        <v>379</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>165</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="K12" s="32"/>
       <c r="L12" s="34" t="s">
-        <v>184</v>
+        <v>382</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>159</v>
+        <v>392</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>114</v>
+        <v>401</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>189</v>
+        <v>285</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c r="R12" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="S12" s="37" t="s">
-        <v>163</v>
+        <v>383</v>
+      </c>
+      <c r="S12" s="33" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>182</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>110</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="32"/>
       <c r="L13" s="32" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>96</v>
+        <v>291</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>92</v>
+        <v>402</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="R13" s="32" t="s">
-        <v>126</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="R13" s="32"/>
       <c r="S13" s="33" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
-      <c r="B14" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>67</v>
-      </c>
+      <c r="B14" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>174</v>
+        <v>397</v>
+      </c>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32" t="s">
+        <v>266</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>148</v>
+        <v>403</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>158</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="R14" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="S14" s="37" t="s">
-        <v>162</v>
+        <v>406</v>
+      </c>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>131</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>83</v>
-      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K15" s="32"/>
       <c r="L15" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>58</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
       <c r="P15" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="R15" s="32" t="s">
-        <v>161</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
       <c r="S15" s="33" t="s">
-        <v>95</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="D16" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="M16" s="34"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="34" t="s">
+        <v>391</v>
+      </c>
       <c r="N16" s="32"/>
-      <c r="O16" s="32" t="s">
-        <v>190</v>
-      </c>
+      <c r="O16" s="32"/>
       <c r="P16" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="R16" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S16" s="33" t="s">
-        <v>186</v>
+        <v>400</v>
+      </c>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="37" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="34" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>132</v>
-      </c>
+      <c r="D17" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
-      <c r="I17" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="32" t="s">
-        <v>172</v>
-      </c>
+      <c r="I17" s="34"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
-      <c r="P17" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="R17" s="32" t="s">
-        <v>198</v>
-      </c>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
       <c r="S17" s="33" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
-      <c r="B18" s="32" t="s">
-        <v>56</v>
-      </c>
+      <c r="B18" s="32"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>133</v>
-      </c>
+      <c r="D18" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="32"/>
-      <c r="I18" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="32" t="s">
-        <v>171</v>
-      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
-      <c r="P18" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q18" s="32" t="s">
-        <v>138</v>
-      </c>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
       <c r="S18" s="33" t="s">
-        <v>31</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -5360,30 +5386,21 @@
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>106</v>
-      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="36"/>
       <c r="I19" s="34"/>
       <c r="J19" s="32"/>
       <c r="K19" s="36"/>
-      <c r="L19" s="34" t="s">
-        <v>120</v>
-      </c>
+      <c r="L19" s="34"/>
       <c r="M19" s="32"/>
-      <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="32"/>
-      <c r="Q19" s="32" t="s">
-        <v>207</v>
-      </c>
+      <c r="Q19" s="32"/>
       <c r="R19" s="32"/>
-      <c r="S19" s="37" t="s">
-        <v>54</v>
+      <c r="S19" s="33" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -5391,28 +5408,22 @@
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="36"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="32" t="s">
-        <v>136</v>
-      </c>
+      <c r="L20" s="32"/>
       <c r="M20" s="34"/>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
       <c r="Q20" s="36"/>
       <c r="R20" s="36"/>
-      <c r="S20" s="33" t="s">
-        <v>53</v>
+      <c r="S20" s="37" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -5420,9 +5431,7 @@
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="32" t="s">
-        <v>99</v>
-      </c>
+      <c r="E21" s="32"/>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
@@ -5437,7 +5446,7 @@
       <c r="Q21" s="36"/>
       <c r="R21" s="36"/>
       <c r="S21" s="33" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -5445,9 +5454,7 @@
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="34" t="s">
-        <v>202</v>
-      </c>
+      <c r="E22" s="34"/>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
@@ -5460,9 +5467,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
-      <c r="S22" s="37" t="s">
-        <v>191</v>
-      </c>
+      <c r="S22" s="37"/>
     </row>
     <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
@@ -5483,18 +5488,366 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
-      <c r="S23" s="39" t="s">
-        <v>192</v>
-      </c>
+      <c r="S23" s="39"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="S24" s="65" t="s">
-        <v>193</v>
-      </c>
+      <c r="A24" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H24" t="s">
+        <v>303</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="K24" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="L24" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="P24" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q24" s="77" t="s">
+        <v>365</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="74" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>322</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>308</v>
+      </c>
+      <c r="H25" t="s">
+        <v>304</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="J25" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="74" t="s">
+        <v>361</v>
+      </c>
+      <c r="M25" s="74" t="s">
+        <v>371</v>
+      </c>
+      <c r="N25" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="O25" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="P25" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q25" s="74" t="s">
+        <v>366</v>
+      </c>
+      <c r="R25" s="74" t="s">
+        <v>312</v>
+      </c>
+      <c r="S25" s="33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="F26" s="74" t="s">
+        <v>329</v>
+      </c>
+      <c r="G26" s="32"/>
+      <c r="I26" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="74" t="s">
+        <v>362</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="N26" s="74" t="s">
+        <v>352</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q26" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="R26" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="S26" s="78" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="I27" s="74" t="s">
+        <v>341</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="M27" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="N27" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="O27" s="32"/>
+      <c r="Q27" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="S27" s="33" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="74" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="E28" s="74" t="s">
+        <v>335</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="I28" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="M28" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="N28" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="O28" s="34"/>
+      <c r="Q28" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="R28" s="32"/>
+      <c r="S28" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="74" t="s">
+        <v>375</v>
+      </c>
+      <c r="N29" s="74" t="s">
+        <v>355</v>
+      </c>
+      <c r="O29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="78" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="74" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="74" t="s">
+        <v>337</v>
+      </c>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="N30" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="O30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="33"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="33"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="40"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="39"/>
     </row>
   </sheetData>
-  <sortState ref="P10:P18">
-    <sortCondition descending="1" ref="P10"/>
+  <sortState ref="S11:S21">
+    <sortCondition descending="1" ref="S10"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
     <cfRule type="cellIs" dxfId="79" priority="1" operator="lessThan">
@@ -5521,7 +5874,7 @@
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:AF20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5629,8 +5982,8 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
-        <v>60</v>
+      <c r="A2" s="79" t="s">
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -5735,7 +6088,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
+      <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -5839,7 +6192,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
+      <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -5943,7 +6296,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -6050,8 +6403,8 @@
       <c r="AH6" s="42"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
-        <v>59</v>
+      <c r="A7" s="79" t="s">
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -6156,7 +6509,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
+      <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -6260,7 +6613,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
+      <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -6364,7 +6717,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
+      <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -6471,8 +6824,8 @@
       <c r="AH11" s="42"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="66" t="s">
-        <v>61</v>
+      <c r="A12" s="79" t="s">
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -6577,7 +6930,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
+      <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -6681,7 +7034,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
+      <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -6785,7 +7138,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="66"/>
+      <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -6889,13 +7242,15 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
-        <v>382</v>
+      <c r="A17" s="79" t="s">
+        <v>249</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>21</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -6927,19 +7282,21 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>0</v>
-      </c>
-      <c r="AH17" s="41" t="e">
+        <v>21</v>
+      </c>
+      <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>#DIV/0!</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
+      <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -6971,19 +7328,21 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="41" t="e">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
+      <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -7015,19 +7374,21 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>0</v>
-      </c>
-      <c r="AH19" s="41" t="e">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
+      <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -7059,11 +7420,11 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="41" t="e">
+        <v>3</v>
+      </c>
+      <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7161,32 +7522,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:AF17">
-    <cfRule type="top10" dxfId="9" priority="8" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="top10" dxfId="48" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="47" priority="9" operator="lessThan">
       <formula>$AH$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="10" operator="greaterThan">
       <formula>$AH$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:AF19">
-    <cfRule type="top10" dxfId="6" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="top10" dxfId="45" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="lessThan">
       <formula>$AH$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="greaterThan">
       <formula>$AH$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:AF20">
-    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="top10" dxfId="42" priority="2" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="greaterThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="lessThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7199,8 +7560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:AJ20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7321,8 +7682,8 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
-        <v>60</v>
+      <c r="A2" s="79" t="s">
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -7439,7 +7800,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
+      <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -7555,7 +7916,7 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
+      <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -7671,7 +8032,7 @@
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -7790,8 +8151,8 @@
       <c r="AL6" s="41"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
-        <v>59</v>
+      <c r="A7" s="79" t="s">
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -7908,7 +8269,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
+      <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -8024,7 +8385,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
+      <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -8140,7 +8501,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
+      <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -8259,8 +8620,8 @@
       <c r="AL11" s="41"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="66" t="s">
-        <v>61</v>
+      <c r="A12" s="79" t="s">
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -8377,7 +8738,7 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
+      <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -8493,7 +8854,7 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
+      <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -8609,7 +8970,7 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="66"/>
+      <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -8725,8 +9086,8 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
-        <v>382</v>
+      <c r="A17" s="79" t="s">
+        <v>249</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -8775,7 +9136,7 @@
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
+      <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -8823,7 +9184,7 @@
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
+      <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -8871,7 +9232,7 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
+      <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -8926,119 +9287,119 @@
     <mergeCell ref="A17:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:AJ7">
-    <cfRule type="top10" dxfId="48" priority="35" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="47" priority="38" operator="lessThan">
+    <cfRule type="top10" dxfId="38" priority="35" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AJ2">
-    <cfRule type="top10" dxfId="45" priority="34" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="44" priority="36" operator="lessThan">
+    <cfRule type="top10" dxfId="35" priority="34" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="lessThan">
       <formula>$AL$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="greaterThan">
       <formula>$AL$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:AJ9">
-    <cfRule type="top10" dxfId="42" priority="21" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="41" priority="32" operator="lessThan">
+    <cfRule type="top10" dxfId="32" priority="21" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AJ4">
-    <cfRule type="top10" dxfId="39" priority="24" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="38" priority="30" operator="lessThan">
+    <cfRule type="top10" dxfId="29" priority="24" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="lessThan">
       <formula>$AL$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="greaterThan">
       <formula>$AL$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:AJ5">
-    <cfRule type="top10" dxfId="36" priority="23" percent="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="35" priority="28" operator="greaterThan">
+    <cfRule type="top10" dxfId="26" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="greaterThan">
       <formula>$AL$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="lessThan">
       <formula>$AL$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:AJ10">
-    <cfRule type="top10" dxfId="33" priority="22" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="greaterThan">
+    <cfRule type="top10" dxfId="23" priority="22" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AJ12">
-    <cfRule type="top10" dxfId="29" priority="18" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="lessThan">
+    <cfRule type="top10" dxfId="19" priority="18" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AJ14">
-    <cfRule type="top10" dxfId="26" priority="11" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="lessThan">
+    <cfRule type="top10" dxfId="16" priority="11" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AJ15">
-    <cfRule type="top10" dxfId="23" priority="12" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="greaterThan">
+    <cfRule type="top10" dxfId="13" priority="12" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:AJ17">
-    <cfRule type="top10" dxfId="19" priority="8" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
+    <cfRule type="top10" dxfId="9" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:AJ19">
-    <cfRule type="top10" dxfId="16" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
+    <cfRule type="top10" dxfId="6" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:AJ20">
-    <cfRule type="top10" dxfId="13" priority="2" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="421">
   <si>
     <t>bramki</t>
   </si>
@@ -1284,6 +1284,12 @@
   </si>
   <si>
     <t>2 D.Wojtyra</t>
+  </si>
+  <si>
+    <t>Cezary Sauczek</t>
+  </si>
+  <si>
+    <t>Mateusz Marzec</t>
   </si>
 </sst>
 </file>
@@ -4507,8 +4513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5578,7 +5584,9 @@
       <c r="J25" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="K25" s="32"/>
+      <c r="K25" s="32" t="s">
+        <v>419</v>
+      </c>
       <c r="L25" s="74" t="s">
         <v>361</v>
       </c>
@@ -5626,7 +5634,9 @@
         <v>340</v>
       </c>
       <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
+      <c r="K26" s="74" t="s">
+        <v>420</v>
+      </c>
       <c r="L26" s="74" t="s">
         <v>362</v>
       </c>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -4513,7 +4513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -5884,7 +5884,7 @@
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7261,7 +7261,9 @@
       <c r="C17" s="1">
         <v>21</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>27</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -7292,11 +7294,11 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
@@ -7307,7 +7309,9 @@
       <c r="C18" s="1">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -7338,11 +7342,11 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
@@ -7353,7 +7357,9 @@
       <c r="C19" s="1">
         <v>5</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -7384,11 +7390,11 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
@@ -7399,7 +7405,9 @@
       <c r="C20" s="1">
         <v>3</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -7430,11 +7438,11 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -7568,10 +7576,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL20"/>
+  <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7581,7 +7589,7 @@
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -7691,7 +7699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -7809,7 +7817,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -7925,7 +7933,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -8041,7 +8049,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -8157,10 +8165,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -8278,7 +8286,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -8394,7 +8402,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8510,7 +8518,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -8626,10 +8634,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -8746,8 +8754,12 @@
         <f t="shared" si="1"/>
         <v>20.970588235294116</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AN12">
+        <f>SUM(C12:AJ12)</f>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -8863,7 +8875,7 @@
         <v>2.2647058823529411</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -8979,7 +8991,7 @@
         <v>6.0294117647058822</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -9102,7 +9114,9 @@
       <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>25</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -9138,11 +9152,11 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="41" t="e">
+        <v>25</v>
+      </c>
+      <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="2">AK17/COUNT(C17:AJ17)</f>
-        <v>#DIV/0!</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
@@ -9150,7 +9164,9 @@
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -9186,11 +9202,11 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="41" t="e">
+        <v>4</v>
+      </c>
+      <c r="AL18" s="41">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
@@ -9198,7 +9214,9 @@
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -9234,11 +9252,11 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="41" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL19" s="41">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
@@ -9246,7 +9264,9 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -9282,11 +9302,11 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="41" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL20" s="41">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -5884,7 +5884,7 @@
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7264,7 +7264,9 @@
       <c r="D17" s="1">
         <v>27</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>15</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -7294,11 +7296,11 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
@@ -7312,7 +7314,9 @@
       <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -7342,11 +7346,11 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>3.5</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
@@ -7360,7 +7364,9 @@
       <c r="D19" s="1">
         <v>3</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -7390,11 +7396,11 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
@@ -7408,7 +7414,9 @@
       <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -7438,11 +7446,11 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7587,7 @@
   <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9117,7 +9125,9 @@
       <c r="C17" s="1">
         <v>25</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>22</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -9152,11 +9162,11 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="2">AK17/COUNT(C17:AJ17)</f>
-        <v>25</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
@@ -9167,7 +9177,9 @@
       <c r="C18" s="1">
         <v>4</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -9206,7 +9218,7 @@
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
@@ -9217,7 +9229,9 @@
       <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -9252,11 +9266,11 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
@@ -9267,7 +9281,9 @@
       <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -9302,11 +9318,11 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -7584,10 +7584,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN20"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7597,7 +7597,7 @@
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -7941,7 +7941,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -8057,7 +8057,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -8173,10 +8173,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -8410,7 +8410,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8526,7 +8526,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -8642,10 +8642,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -8762,12 +8762,8 @@
         <f t="shared" si="1"/>
         <v>20.970588235294116</v>
       </c>
-      <c r="AN12">
-        <f>SUM(C12:AJ12)</f>
-        <v>713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -8883,7 +8879,7 @@
         <v>2.2647058823529411</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -8999,7 +8995,7 @@
         <v>6.0294117647058822</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -9128,7 +9124,9 @@
       <c r="D17" s="1">
         <v>22</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>25</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -9162,11 +9160,11 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="2">AK17/COUNT(C17:AJ17)</f>
-        <v>23.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
@@ -9180,7 +9178,9 @@
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -9214,11 +9214,11 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
@@ -9232,7 +9232,9 @@
       <c r="D19" s="1">
         <v>6</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -9266,11 +9268,11 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
@@ -9284,7 +9286,9 @@
       <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -9318,11 +9322,11 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1295,8 +1290,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2907,7 +2902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2942,7 +2937,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3119,44 +3114,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="H3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -3212,7 +3207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="45" t="s">
         <v>21</v>
       </c>
@@ -3271,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
@@ -3330,7 +3325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
@@ -3389,7 +3384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="57" t="s">
         <v>24</v>
       </c>
@@ -3448,7 +3443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="61" t="s">
         <v>25</v>
       </c>
@@ -3507,7 +3502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -3584,7 +3579,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3603,7 +3598,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3624,7 +3619,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -3680,7 +3675,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>157</v>
@@ -3734,7 +3729,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>160</v>
@@ -3788,7 +3783,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>156</v>
@@ -3838,7 +3833,7 @@
       </c>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>122</v>
@@ -3888,7 +3883,7 @@
       </c>
       <c r="S14" s="33"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>77</v>
@@ -3932,7 +3927,7 @@
       </c>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>159</v>
@@ -3969,7 +3964,7 @@
       <c r="Q16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>158</v>
@@ -4005,7 +4000,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="37"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>110</v>
@@ -4035,7 +4030,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34" t="s">
         <v>145</v>
@@ -4057,7 +4052,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4076,7 +4071,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4095,7 +4090,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4113,7 +4108,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4134,7 +4129,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -4193,7 +4188,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>182</v>
@@ -4250,7 +4245,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>183</v>
@@ -4301,7 +4296,7 @@
       </c>
       <c r="S26" s="33"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>184</v>
@@ -4343,7 +4338,7 @@
       </c>
       <c r="S27" s="33"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>185</v>
@@ -4377,7 +4372,7 @@
       </c>
       <c r="S28" s="33"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -4405,7 +4400,7 @@
       </c>
       <c r="S29" s="33"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4426,7 +4421,7 @@
       </c>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4445,7 +4440,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4464,7 +4459,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4510,37 +4505,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -4596,7 +4591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -4655,7 +4650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4714,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
@@ -4773,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -4832,7 +4827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -4891,7 +4886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -4968,7 +4963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4989,7 +4984,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -5010,7 +5005,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -5069,7 +5064,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>388</v>
@@ -5124,7 +5119,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>74</v>
@@ -5177,7 +5172,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>259</v>
@@ -5222,7 +5217,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="36" t="s">
         <v>258</v>
@@ -5267,7 +5262,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>257</v>
@@ -5304,7 +5299,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>269</v>
@@ -5335,7 +5330,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="34" t="s">
         <v>390</v>
@@ -5362,7 +5357,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -5387,7 +5382,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -5409,7 +5404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -5432,7 +5427,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5455,7 +5450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5475,7 +5470,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5496,7 +5491,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -5555,7 +5550,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="35"/>
       <c r="B25" s="74" t="s">
         <v>300</v>
@@ -5612,7 +5607,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>301</v>
@@ -5659,7 +5654,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>302</v>
@@ -5697,7 +5692,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="74" t="s">
@@ -5734,7 +5729,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="74" t="s">
@@ -5765,7 +5760,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="74" t="s">
@@ -5794,7 +5789,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5815,7 +5810,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -5834,7 +5829,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -5880,20 +5875,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5991,7 +5986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -6097,7 +6092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6201,7 +6196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -6305,7 +6300,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -6409,10 +6404,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -6518,7 +6513,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6622,7 +6617,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -6726,7 +6721,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -6830,10 +6825,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -6939,7 +6934,7 @@
         <v>19.466666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7043,7 +7038,7 @@
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -7147,7 +7142,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -7251,7 +7246,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -7267,7 +7262,9 @@
       <c r="E17" s="1">
         <v>15</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>25</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -7296,14 +7293,14 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -7317,7 +7314,9 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -7346,14 +7345,14 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -7367,7 +7366,9 @@
       <c r="E19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -7396,14 +7397,14 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -7417,7 +7418,9 @@
       <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -7446,7 +7449,7 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
@@ -7583,21 +7586,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -7707,7 +7710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -7825,7 +7828,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -7941,7 +7944,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -8057,7 +8060,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -8173,10 +8176,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -8294,7 +8297,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -8410,7 +8413,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8526,7 +8529,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -8642,10 +8645,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -8763,7 +8766,7 @@
         <v>20.970588235294116</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -8879,7 +8882,7 @@
         <v>2.2647058823529411</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -8995,7 +8998,7 @@
         <v>6.0294117647058822</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -9111,7 +9114,7 @@
         <v>3.8823529411764706</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -9167,7 +9170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -9221,7 +9224,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -9275,7 +9278,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -3114,7 +3114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7589,8 +7589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9130,7 +9130,9 @@
       <c r="E17" s="1">
         <v>25</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>14</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -9163,11 +9165,11 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="2">AK17/COUNT(C17:AJ17)</f>
-        <v>24</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="1:38">
@@ -9184,7 +9186,9 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>6</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -9217,11 +9221,11 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="19" spans="1:38">
@@ -9238,7 +9242,9 @@
       <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>8</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -9271,11 +9277,11 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="2"/>
-        <v>4.666666666666667</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -9292,7 +9298,9 @@
       <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -9325,11 +9333,11 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1290,8 +1295,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3114,44 +3119,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="H3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -3207,7 +3212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>21</v>
       </c>
@@ -3266,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
@@ -3325,7 +3330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
@@ -3384,7 +3389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>24</v>
       </c>
@@ -3443,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>25</v>
       </c>
@@ -3502,7 +3507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -3579,7 +3584,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3598,7 +3603,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3619,7 +3624,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -3675,7 +3680,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>157</v>
@@ -3729,7 +3734,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>160</v>
@@ -3783,7 +3788,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>156</v>
@@ -3833,7 +3838,7 @@
       </c>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>122</v>
@@ -3883,7 +3888,7 @@
       </c>
       <c r="S14" s="33"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>77</v>
@@ -3927,7 +3932,7 @@
       </c>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>159</v>
@@ -3964,7 +3969,7 @@
       <c r="Q16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>158</v>
@@ -4000,7 +4005,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="37"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>110</v>
@@ -4030,7 +4035,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34" t="s">
         <v>145</v>
@@ -4052,7 +4057,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4071,7 +4076,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4090,7 +4095,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4108,7 +4113,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4129,7 +4134,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -4188,7 +4193,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>182</v>
@@ -4245,7 +4250,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>183</v>
@@ -4296,7 +4301,7 @@
       </c>
       <c r="S26" s="33"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>184</v>
@@ -4338,7 +4343,7 @@
       </c>
       <c r="S27" s="33"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>185</v>
@@ -4372,7 +4377,7 @@
       </c>
       <c r="S28" s="33"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -4400,7 +4405,7 @@
       </c>
       <c r="S29" s="33"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4421,7 +4426,7 @@
       </c>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4440,7 +4445,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4459,7 +4464,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1">
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4505,37 +4510,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -4591,7 +4596,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -4650,7 +4655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4709,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
@@ -4768,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -4827,7 +4832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -4886,7 +4891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -4963,7 +4968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4984,7 +4989,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -5005,7 +5010,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -5064,7 +5069,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>388</v>
@@ -5119,7 +5124,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>74</v>
@@ -5172,7 +5177,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>259</v>
@@ -5217,7 +5222,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="36" t="s">
         <v>258</v>
@@ -5262,7 +5267,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>257</v>
@@ -5299,7 +5304,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>269</v>
@@ -5330,7 +5335,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="34" t="s">
         <v>390</v>
@@ -5357,7 +5362,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -5382,7 +5387,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -5404,7 +5409,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -5427,7 +5432,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5450,7 +5455,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5470,7 +5475,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5491,7 +5496,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -5550,7 +5555,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="74" t="s">
         <v>300</v>
@@ -5607,7 +5612,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>301</v>
@@ -5654,7 +5659,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>302</v>
@@ -5692,7 +5697,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="74" t="s">
@@ -5729,7 +5734,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="74" t="s">
@@ -5760,7 +5765,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="74" t="s">
@@ -5789,7 +5794,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5810,7 +5815,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -5829,7 +5834,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1">
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -5875,20 +5880,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5986,7 +5991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -6092,7 +6097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6196,7 +6201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -6300,7 +6305,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -6404,10 +6409,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -6513,7 +6518,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6617,7 +6622,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -6721,7 +6726,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -6825,10 +6830,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -6934,7 +6939,7 @@
         <v>19.466666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7038,7 +7043,7 @@
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -7142,7 +7147,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -7246,7 +7251,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -7265,8 +7270,12 @@
       <c r="F17" s="1">
         <v>25</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1">
+        <v>21</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -7293,14 +7302,14 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
+        <v>21.666666666666668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -7317,8 +7326,12 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -7345,14 +7358,14 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -7369,8 +7382,12 @@
       <c r="F19" s="1">
         <v>5</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -7397,14 +7414,14 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -7421,8 +7438,12 @@
       <c r="F20" s="1">
         <v>4</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -7449,11 +7470,11 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>4</v>
+        <v>3.8333333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -7586,21 +7607,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -7710,7 +7731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -7828,7 +7849,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -7944,7 +7965,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -8060,7 +8081,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -8176,10 +8197,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -8297,7 +8318,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -8413,7 +8434,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8529,7 +8550,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -8645,10 +8666,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -8766,7 +8787,7 @@
         <v>20.970588235294116</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -8882,7 +8903,7 @@
         <v>2.2647058823529411</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -8998,7 +9019,7 @@
         <v>6.0294117647058822</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -9114,7 +9135,7 @@
         <v>3.8823529411764706</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -9133,8 +9154,12 @@
       <c r="F17" s="1">
         <v>14</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1">
+        <v>19</v>
+      </c>
+      <c r="H17" s="1">
+        <v>26</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -9165,14 +9190,14 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="2">AK17/COUNT(C17:AJ17)</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38">
+        <v>21.833333333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -9189,8 +9214,12 @@
       <c r="F18" s="1">
         <v>6</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -9221,14 +9250,14 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="2"/>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38">
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -9245,8 +9274,12 @@
       <c r="F19" s="1">
         <v>8</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -9277,14 +9310,14 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -9301,8 +9334,12 @@
       <c r="F20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -9333,11 +9370,11 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="2"/>
-        <v>2.75</v>
+        <v>3.6666666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -2907,7 +2907,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2942,7 +2942,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5883,7 +5883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -7611,7 +7611,7 @@
   <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9160,7 +9160,9 @@
       <c r="H17" s="1">
         <v>26</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -9190,11 +9192,11 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="2">AK17/COUNT(C17:AJ17)</f>
-        <v>21.833333333333332</v>
+        <v>19.285714285714285</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
@@ -9220,7 +9222,9 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -9250,11 +9254,11 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="2"/>
-        <v>2.1666666666666665</v>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
@@ -9280,7 +9284,9 @@
       <c r="H19" s="1">
         <v>5</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1">
+        <v>8</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -9310,11 +9316,11 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="2"/>
-        <v>5.333333333333333</v>
+        <v>5.7142857142857144</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
@@ -9340,7 +9346,9 @@
       <c r="H20" s="1">
         <v>4</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -9374,7 +9382,7 @@
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="2"/>
-        <v>3.6666666666666665</v>
+        <v>3.1428571428571428</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -5884,7 +5884,7 @@
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7276,7 +7276,9 @@
       <c r="H17" s="1">
         <v>21</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>23</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -7302,11 +7304,11 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>21.666666666666668</v>
+        <v>21.857142857142858</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
@@ -7332,7 +7334,9 @@
       <c r="H18" s="1">
         <v>4</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>6</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -7358,11 +7362,11 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.3333333333333335</v>
+        <v>2.8571428571428572</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
@@ -7388,7 +7392,9 @@
       <c r="H19" s="1">
         <v>3</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -7414,11 +7420,11 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.166666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
@@ -7444,7 +7450,9 @@
       <c r="H20" s="1">
         <v>2</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -7470,11 +7478,11 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>3.8333333333333335</v>
+        <v>3.5714285714285716</v>
       </c>
     </row>
   </sheetData>
@@ -7611,7 +7619,7 @@
   <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9163,7 +9171,9 @@
       <c r="I17" s="1">
         <v>4</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>27</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -9192,11 +9202,11 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="2">AK17/COUNT(C17:AJ17)</f>
-        <v>19.285714285714285</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
@@ -9225,7 +9235,9 @@
       <c r="I18" s="1">
         <v>3</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -9254,11 +9266,11 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="2"/>
-        <v>2.2857142857142856</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
@@ -9287,7 +9299,9 @@
       <c r="I19" s="1">
         <v>8</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -9316,11 +9330,11 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="2"/>
-        <v>5.7142857142857144</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
@@ -9349,7 +9363,9 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -9378,11 +9394,11 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="2"/>
-        <v>3.1428571428571428</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1295,8 +1290,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2907,7 +2902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2942,7 +2937,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3119,44 +3114,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="H3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -3212,7 +3207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="45" t="s">
         <v>21</v>
       </c>
@@ -3271,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
@@ -3330,7 +3325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
@@ -3389,7 +3384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="57" t="s">
         <v>24</v>
       </c>
@@ -3448,7 +3443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="61" t="s">
         <v>25</v>
       </c>
@@ -3507,7 +3502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -3584,7 +3579,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3603,7 +3598,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3624,7 +3619,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -3680,7 +3675,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>157</v>
@@ -3734,7 +3729,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>160</v>
@@ -3788,7 +3783,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>156</v>
@@ -3838,7 +3833,7 @@
       </c>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>122</v>
@@ -3888,7 +3883,7 @@
       </c>
       <c r="S14" s="33"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>77</v>
@@ -3932,7 +3927,7 @@
       </c>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>159</v>
@@ -3969,7 +3964,7 @@
       <c r="Q16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>158</v>
@@ -4005,7 +4000,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="37"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>110</v>
@@ -4035,7 +4030,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34" t="s">
         <v>145</v>
@@ -4057,7 +4052,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4076,7 +4071,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4095,7 +4090,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4113,7 +4108,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4134,7 +4129,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -4193,7 +4188,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>182</v>
@@ -4250,7 +4245,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>183</v>
@@ -4301,7 +4296,7 @@
       </c>
       <c r="S26" s="33"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>184</v>
@@ -4343,7 +4338,7 @@
       </c>
       <c r="S27" s="33"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>185</v>
@@ -4377,7 +4372,7 @@
       </c>
       <c r="S28" s="33"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -4405,7 +4400,7 @@
       </c>
       <c r="S29" s="33"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4426,7 +4421,7 @@
       </c>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4445,7 +4440,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4464,7 +4459,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4510,37 +4505,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -4596,7 +4591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -4655,7 +4650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4714,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
@@ -4773,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -4832,7 +4827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -4891,7 +4886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -4968,7 +4963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4989,7 +4984,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -5010,7 +5005,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -5069,7 +5064,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>388</v>
@@ -5124,7 +5119,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>74</v>
@@ -5177,7 +5172,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>259</v>
@@ -5222,7 +5217,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="36" t="s">
         <v>258</v>
@@ -5267,7 +5262,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>257</v>
@@ -5304,7 +5299,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>269</v>
@@ -5335,7 +5330,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="34" t="s">
         <v>390</v>
@@ -5362,7 +5357,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -5387,7 +5382,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -5409,7 +5404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -5432,7 +5427,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5455,7 +5450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5475,7 +5470,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5496,7 +5491,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -5555,7 +5550,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="35"/>
       <c r="B25" s="74" t="s">
         <v>300</v>
@@ -5612,7 +5607,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>301</v>
@@ -5659,7 +5654,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>302</v>
@@ -5697,7 +5692,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="74" t="s">
@@ -5734,7 +5729,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="74" t="s">
@@ -5765,7 +5760,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="74" t="s">
@@ -5794,7 +5789,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5815,7 +5810,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -5834,7 +5829,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -5880,20 +5875,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5991,7 +5986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -6097,7 +6092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6201,7 +6196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -6305,7 +6300,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -6409,10 +6404,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -6518,7 +6513,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6622,7 +6617,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -6726,7 +6721,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -6830,10 +6825,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -6939,7 +6934,7 @@
         <v>19.466666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7043,7 +7038,7 @@
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -7147,7 +7142,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -7251,7 +7246,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -7311,7 +7306,7 @@
         <v>21.857142857142858</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -7369,7 +7364,7 @@
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -7427,7 +7422,7 @@
         <v>4.1428571428571432</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -7615,21 +7610,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -7739,7 +7734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -7857,7 +7852,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -7973,7 +7968,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -8089,7 +8084,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -8205,10 +8200,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -8326,7 +8321,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -8442,7 +8437,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8558,7 +8553,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -8674,10 +8669,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -8795,7 +8790,7 @@
         <v>20.970588235294116</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -8911,7 +8906,7 @@
         <v>2.2647058823529411</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -9027,7 +9022,7 @@
         <v>6.0294117647058822</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -9143,7 +9138,7 @@
         <v>3.8823529411764706</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -9169,7 +9164,7 @@
         <v>26</v>
       </c>
       <c r="I17" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1">
         <v>27</v>
@@ -9202,14 +9197,14 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="2">AK17/COUNT(C17:AJ17)</f>
-        <v>20.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -9233,7 +9228,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -9266,14 +9261,14 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="2"/>
-        <v>2.125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -9297,7 +9292,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1">
         <v>4</v>
@@ -9330,14 +9325,14 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -9361,7 +9356,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
         <v>2</v>
@@ -9394,11 +9389,11 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3.125</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1290,8 +1295,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1825,7 +1830,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="121">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2055,6 +2060,492 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -3114,44 +3605,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="H3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -3207,7 +3698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>21</v>
       </c>
@@ -3266,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
@@ -3325,7 +3816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
@@ -3384,7 +3875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>24</v>
       </c>
@@ -3443,7 +3934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>25</v>
       </c>
@@ -3502,7 +3993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -3579,7 +4070,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3598,7 +4089,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3619,7 +4110,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -3675,7 +4166,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>157</v>
@@ -3729,7 +4220,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>160</v>
@@ -3783,7 +4274,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>156</v>
@@ -3833,7 +4324,7 @@
       </c>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>122</v>
@@ -3883,7 +4374,7 @@
       </c>
       <c r="S14" s="33"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>77</v>
@@ -3927,7 +4418,7 @@
       </c>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>159</v>
@@ -3964,7 +4455,7 @@
       <c r="Q16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>158</v>
@@ -4000,7 +4491,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="37"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>110</v>
@@ -4030,7 +4521,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34" t="s">
         <v>145</v>
@@ -4052,7 +4543,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4071,7 +4562,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4090,7 +4581,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4108,7 +4599,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4129,7 +4620,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -4188,7 +4679,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>182</v>
@@ -4245,7 +4736,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>183</v>
@@ -4296,7 +4787,7 @@
       </c>
       <c r="S26" s="33"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>184</v>
@@ -4338,7 +4829,7 @@
       </c>
       <c r="S27" s="33"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>185</v>
@@ -4372,7 +4863,7 @@
       </c>
       <c r="S28" s="33"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -4400,7 +4891,7 @@
       </c>
       <c r="S29" s="33"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4421,7 +4912,7 @@
       </c>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4440,7 +4931,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4459,7 +4950,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1">
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4485,10 +4976,10 @@
     <sortCondition descending="1" ref="S10"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
-    <cfRule type="cellIs" dxfId="81" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -4505,37 +4996,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -4591,7 +5082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -4650,7 +5141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4709,7 +5200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
@@ -4768,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -4827,7 +5318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -4886,7 +5377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -4963,7 +5454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4984,7 +5475,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -5005,7 +5496,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -5064,7 +5555,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>388</v>
@@ -5119,7 +5610,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>74</v>
@@ -5172,7 +5663,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>259</v>
@@ -5217,7 +5708,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="36" t="s">
         <v>258</v>
@@ -5262,7 +5753,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>257</v>
@@ -5299,7 +5790,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>269</v>
@@ -5330,7 +5821,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="34" t="s">
         <v>390</v>
@@ -5357,7 +5848,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -5382,7 +5873,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -5404,7 +5895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -5427,7 +5918,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5450,7 +5941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5470,7 +5961,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5491,7 +5982,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -5550,7 +6041,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="74" t="s">
         <v>300</v>
@@ -5607,7 +6098,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>301</v>
@@ -5654,7 +6145,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>302</v>
@@ -5692,7 +6183,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="74" t="s">
@@ -5729,7 +6220,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="74" t="s">
@@ -5760,7 +6251,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="74" t="s">
@@ -5789,7 +6280,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5810,7 +6301,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -5829,7 +6320,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1">
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -5855,10 +6346,10 @@
     <sortCondition descending="1" ref="S10"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -5875,20 +6366,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5986,7 +6477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -6092,7 +6583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6196,7 +6687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -6300,7 +6791,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -6404,10 +6895,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -6513,7 +7004,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6617,7 +7108,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -6721,7 +7212,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -6825,10 +7316,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -6934,7 +7425,7 @@
         <v>19.466666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7038,7 +7529,7 @@
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -7142,7 +7633,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -7246,7 +7737,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -7274,7 +7765,9 @@
       <c r="I17" s="1">
         <v>23</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>24</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -7299,14 +7792,14 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>21.857142857142858</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
+        <v>22.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -7332,7 +7825,9 @@
       <c r="I18" s="1">
         <v>6</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -7357,14 +7852,14 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.8571428571428572</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -7390,7 +7885,9 @@
       <c r="I19" s="1">
         <v>4</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <v>5</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -7415,14 +7912,14 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.1428571428571432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -7448,7 +7945,9 @@
       <c r="I20" s="1">
         <v>2</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>6</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -7473,11 +7972,11 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>3.5714285714285716</v>
+        <v>3.875</v>
       </c>
     </row>
   </sheetData>
@@ -7546,62 +8045,62 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AF12">
     <cfRule type="top10" dxfId="58" priority="18" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="57" priority="19" operator="lessThan">
-      <formula>$AH$7</formula>
+    <cfRule type="cellIs" dxfId="44" priority="19" operator="lessThan">
+      <formula>$AH$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="20" operator="greaterThan">
-      <formula>$AH$7</formula>
+    <cfRule type="cellIs" dxfId="43" priority="20" operator="greaterThan">
+      <formula>$AH$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AF14">
-    <cfRule type="top10" dxfId="55" priority="11" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="54" priority="16" operator="lessThan">
-      <formula>$AH$9</formula>
+    <cfRule type="top10" dxfId="57" priority="11" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="46" priority="16" operator="lessThan">
+      <formula>$AH$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="17" operator="greaterThan">
-      <formula>$AH$9</formula>
+    <cfRule type="cellIs" dxfId="45" priority="17" operator="greaterThan">
+      <formula>$AH$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AF15">
-    <cfRule type="top10" dxfId="52" priority="12" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="51" priority="13" operator="greaterThan">
-      <formula>$AH$10</formula>
+    <cfRule type="top10" dxfId="56" priority="12" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="48" priority="13" operator="greaterThan">
+      <formula>$AH$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="14" operator="lessThan">
-      <formula>$AH$10</formula>
+    <cfRule type="cellIs" dxfId="47" priority="14" operator="lessThan">
+      <formula>$AH$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="15" operator="greaterThan">
-      <formula>"3,5$AG$10"</formula>
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="greaterThan">
+      <formula>"3,5$AG$15"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:AF17">
-    <cfRule type="top10" dxfId="48" priority="8" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="47" priority="9" operator="lessThan">
-      <formula>$AH$7</formula>
+    <cfRule type="top10" dxfId="55" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="52" priority="9" operator="lessThan">
+      <formula>$AH$17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="10" operator="greaterThan">
-      <formula>$AH$7</formula>
+    <cfRule type="cellIs" dxfId="51" priority="10" operator="greaterThan">
+      <formula>$AH$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:AF19">
-    <cfRule type="top10" dxfId="45" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="lessThan">
-      <formula>$AH$9</formula>
+    <cfRule type="top10" dxfId="54" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="49" priority="6" operator="lessThan">
+      <formula>$AH$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="greaterThan">
-      <formula>$AH$9</formula>
+    <cfRule type="cellIs" dxfId="50" priority="7" operator="greaterThan">
+      <formula>$AH$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:AF20">
-    <cfRule type="top10" dxfId="42" priority="2" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="53" priority="2" bottom="1" rank="10"/>
     <cfRule type="cellIs" dxfId="41" priority="3" operator="greaterThan">
-      <formula>$AH$10</formula>
+      <formula>$AH$20</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="40" priority="4" operator="lessThan">
-      <formula>$AH$10</formula>
+      <formula>$AH$20</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThan">
-      <formula>"3,5$AG$10"</formula>
+      <formula>"3,5$AG$20"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7610,21 +8109,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -7734,7 +8233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -7852,7 +8351,7 @@
         <v>22.529411764705884</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -7968,7 +8467,7 @@
         <v>2.6764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -8084,7 +8583,7 @@
         <v>5.3235294117647056</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -8200,10 +8699,10 @@
         <v>3.6470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -8321,7 +8820,7 @@
         <v>23.823529411764707</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -8437,7 +8936,7 @@
         <v>2.0882352941176472</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8553,7 +9052,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -8669,10 +9168,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -8790,7 +9289,7 @@
         <v>20.970588235294116</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -8906,7 +9405,7 @@
         <v>2.2647058823529411</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -9022,7 +9521,7 @@
         <v>6.0294117647058822</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -9138,7 +9637,7 @@
         <v>3.8823529411764706</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -9169,7 +9668,9 @@
       <c r="J17" s="1">
         <v>27</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1">
+        <v>19</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -9197,14 +9698,14 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="2">AK17/COUNT(C17:AJ17)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38">
+        <v>21.666666666666668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -9233,7 +9734,9 @@
       <c r="J18" s="1">
         <v>1</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1">
+        <v>4</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -9261,14 +9764,14 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="2"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38">
+        <v>2.4444444444444446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -9297,7 +9800,9 @@
       <c r="J19" s="1">
         <v>4</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -9325,14 +9830,14 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="2"/>
-        <v>5.625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38">
+        <v>5.2222222222222223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -9361,7 +9866,9 @@
       <c r="J20" s="1">
         <v>2</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -9389,11 +9896,11 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="2"/>
-        <v>3.125</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9404,119 +9911,119 @@
     <mergeCell ref="A17:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:AJ7">
-    <cfRule type="top10" dxfId="38" priority="35" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="lessThan">
+    <cfRule type="top10" dxfId="116" priority="35" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="115" priority="38" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="39" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AJ2">
-    <cfRule type="top10" dxfId="35" priority="34" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="lessThan">
+    <cfRule type="top10" dxfId="113" priority="34" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="112" priority="36" operator="lessThan">
       <formula>$AL$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="37" operator="greaterThan">
       <formula>$AL$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:AJ9">
-    <cfRule type="top10" dxfId="32" priority="21" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
+    <cfRule type="top10" dxfId="110" priority="21" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="109" priority="32" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="33" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AJ4">
-    <cfRule type="top10" dxfId="29" priority="24" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="lessThan">
+    <cfRule type="top10" dxfId="107" priority="24" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="106" priority="30" operator="lessThan">
       <formula>$AL$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="31" operator="greaterThan">
       <formula>$AL$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:AJ5">
-    <cfRule type="top10" dxfId="26" priority="23" percent="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="greaterThan">
+    <cfRule type="top10" dxfId="104" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="103" priority="28" operator="greaterThan">
       <formula>$AL$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="29" operator="lessThan">
       <formula>$AL$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:AJ10">
-    <cfRule type="top10" dxfId="23" priority="22" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="greaterThan">
+    <cfRule type="top10" dxfId="101" priority="22" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="100" priority="25" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="26" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="27" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AJ12">
-    <cfRule type="top10" dxfId="19" priority="18" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+    <cfRule type="top10" dxfId="97" priority="18" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="96" priority="19" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="20" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AJ14">
-    <cfRule type="top10" dxfId="16" priority="11" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+    <cfRule type="top10" dxfId="94" priority="11" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="93" priority="16" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="17" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AJ15">
-    <cfRule type="top10" dxfId="13" priority="12" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="top10" dxfId="91" priority="12" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="90" priority="13" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="14" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="15" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:AJ17">
-    <cfRule type="top10" dxfId="9" priority="8" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="top10" dxfId="87" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="86" priority="9" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="10" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:AJ19">
-    <cfRule type="top10" dxfId="6" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="top10" dxfId="84" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="83" priority="6" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="7" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:AJ20">
-    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="top10" dxfId="81" priority="2" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="80" priority="3" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="4" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="5" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="422">
   <si>
     <t>bramki</t>
   </si>
@@ -1290,6 +1290,9 @@
   </si>
   <si>
     <t>Mateusz Marzec</t>
+  </si>
+  <si>
+    <t>/mecz</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1833,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="121">
+  <dxfs count="82">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2060,492 +2063,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -3393,7 +2910,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3428,7 +2945,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4976,10 +4493,10 @@
     <sortCondition descending="1" ref="S10"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
-    <cfRule type="cellIs" dxfId="120" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -6346,10 +5863,10 @@
     <sortCondition descending="1" ref="S10"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
-    <cfRule type="cellIs" dxfId="118" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -6367,10 +5884,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6379,7 +5896,7 @@
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -6476,8 +5993,11 @@
       <c r="AH1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI1" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -6582,8 +6102,12 @@
         <f>AG2/COUNT(C2:AF2)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI2" s="41">
+        <f>AH2/8</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6686,8 +6210,12 @@
         <f>AG3/COUNT(C3:AF3)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI3" s="41">
+        <f t="shared" ref="AI3:AI20" si="1">AH3/8</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -6790,8 +6318,12 @@
         <f>AG4/COUNT(C4:AF4)</f>
         <v>4.2666666666666666</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI4" s="41">
+        <f t="shared" si="1"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -6894,11 +6426,16 @@
         <f>AG5/COUNT(C5:AF5)</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI5" s="41">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI6" s="41"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -7003,8 +6540,12 @@
         <f>AG7/COUNT(C7:AF7)</f>
         <v>20.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI7" s="41">
+        <f t="shared" si="1"/>
+        <v>2.5874999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -7107,8 +6648,12 @@
         <f>AG8/COUNT(C8:AF8)</f>
         <v>1.8333333333333333</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI8" s="41">
+        <f t="shared" si="1"/>
+        <v>0.22916666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -7211,8 +6756,12 @@
         <f>AG9/COUNT(C9:AF9)</f>
         <v>4.5333333333333332</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI9" s="41">
+        <f t="shared" si="1"/>
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -7315,11 +6864,16 @@
         <f>AG10/COUNT(C10:AF10)</f>
         <v>3.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI10" s="41">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI11" s="41"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -7424,8 +6978,12 @@
         <f>AG12/COUNT(C12:AF12)</f>
         <v>19.466666666666665</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI12" s="41">
+        <f t="shared" si="1"/>
+        <v>2.4333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7528,8 +7086,12 @@
         <f>AG13/COUNT(C13:AF13)</f>
         <v>2.1666666666666665</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI13" s="41">
+        <f t="shared" si="1"/>
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -7632,8 +7194,12 @@
         <f>AG14/COUNT(C14:AF14)</f>
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI14" s="41">
+        <f t="shared" si="1"/>
+        <v>0.61250000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -7736,8 +7302,15 @@
         <f>AG15/COUNT(C15:AF15)</f>
         <v>3.2666666666666666</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI15" s="41">
+        <f t="shared" si="1"/>
+        <v>0.40833333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AI16" s="41"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -7768,7 +7341,9 @@
       <c r="J17" s="1">
         <v>24</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1">
+        <v>28</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -7792,14 +7367,18 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>22.125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+        <v>22.777777777777779</v>
+      </c>
+      <c r="AI17" s="41">
+        <f>AH17/9</f>
+        <v>2.5308641975308643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -7828,7 +7407,9 @@
       <c r="J18" s="1">
         <v>2</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -7856,10 +7437,14 @@
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="AI18" s="41">
+        <f>AH18/9</f>
+        <v>0.27160493827160498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -7888,7 +7473,9 @@
       <c r="J19" s="1">
         <v>5</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1">
+        <v>5</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -7912,14 +7499,18 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AI19" s="41">
+        <f>AH19/9</f>
+        <v>0.48148148148148145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -7948,7 +7539,9 @@
       <c r="J20" s="1">
         <v>6</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1">
+        <v>4</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -7972,11 +7565,15 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>3.875</v>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="AI20" s="41">
+        <f>AH20/9</f>
+        <v>0.43209876543209874</v>
       </c>
     </row>
   </sheetData>
@@ -8045,54 +7642,54 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AF12">
     <cfRule type="top10" dxfId="58" priority="18" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="44" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="19" operator="lessThan">
       <formula>$AH$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="20" operator="greaterThan">
       <formula>$AH$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AF14">
-    <cfRule type="top10" dxfId="57" priority="11" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="46" priority="16" operator="lessThan">
+    <cfRule type="top10" dxfId="55" priority="11" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="54" priority="16" operator="lessThan">
       <formula>$AH$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="17" operator="greaterThan">
       <formula>$AH$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AF15">
-    <cfRule type="top10" dxfId="56" priority="12" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="48" priority="13" operator="greaterThan">
+    <cfRule type="top10" dxfId="52" priority="12" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="greaterThan">
       <formula>$AH$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="14" operator="lessThan">
       <formula>$AH$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="15" operator="greaterThan">
       <formula>"3,5$AG$15"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:AF17">
-    <cfRule type="top10" dxfId="55" priority="8" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="52" priority="9" operator="lessThan">
+    <cfRule type="top10" dxfId="48" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="47" priority="9" operator="lessThan">
       <formula>$AH$17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="10" operator="greaterThan">
       <formula>$AH$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:AF19">
-    <cfRule type="top10" dxfId="54" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="49" priority="6" operator="lessThan">
+    <cfRule type="top10" dxfId="45" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="lessThan">
       <formula>$AH$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="greaterThan">
       <formula>$AH$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:AF20">
-    <cfRule type="top10" dxfId="53" priority="2" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="2" bottom="1" rank="10"/>
     <cfRule type="cellIs" dxfId="41" priority="3" operator="greaterThan">
       <formula>$AH$20</formula>
     </cfRule>
@@ -8110,10 +7707,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL20"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8123,7 +7720,7 @@
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -8232,8 +7829,11 @@
       <c r="AL1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM1" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -8350,8 +7950,12 @@
         <f t="shared" ref="AL2:AL7" si="0">AK2/COUNT(C2:AJ2)</f>
         <v>22.529411764705884</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM2" s="41">
+        <f>AL2/9</f>
+        <v>2.5032679738562091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -8466,8 +8070,12 @@
         <f t="shared" si="0"/>
         <v>2.6764705882352939</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM3" s="41">
+        <f t="shared" ref="AM3:AM20" si="1">AL3/8</f>
+        <v>0.33455882352941174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -8582,8 +8190,12 @@
         <f t="shared" si="0"/>
         <v>5.3235294117647056</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM4" s="41">
+        <f t="shared" si="1"/>
+        <v>0.6654411764705882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -8698,11 +8310,16 @@
         <f t="shared" si="0"/>
         <v>3.6470588235294117</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM5" s="41">
+        <f t="shared" si="1"/>
+        <v>0.45588235294117646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM6" s="41"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -8819,8 +8436,12 @@
         <f t="shared" si="0"/>
         <v>23.823529411764707</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM7" s="41">
+        <f t="shared" si="1"/>
+        <v>2.9779411764705883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -8935,8 +8556,12 @@
         <f>AK8/COUNT(C8:AJ8)</f>
         <v>2.0882352941176472</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM8" s="41">
+        <f t="shared" si="1"/>
+        <v>0.2610294117647059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -9048,11 +8673,15 @@
         <v>165</v>
       </c>
       <c r="AL9" s="41">
-        <f t="shared" ref="AL9:AL15" si="1">AK9/COUNT(C9:AJ9)</f>
+        <f t="shared" ref="AL9:AL15" si="2">AK9/COUNT(C9:AJ9)</f>
         <v>4.8529411764705879</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM9" s="41">
+        <f t="shared" si="1"/>
+        <v>0.60661764705882348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -9164,14 +8793,19 @@
         <v>136</v>
       </c>
       <c r="AL10" s="41">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AM10" s="41">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM11" s="41"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -9285,11 +8919,15 @@
         <v>713</v>
       </c>
       <c r="AL12" s="41">
+        <f t="shared" si="2"/>
+        <v>20.970588235294116</v>
+      </c>
+      <c r="AM12" s="41">
         <f t="shared" si="1"/>
-        <v>20.970588235294116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+        <v>2.6213235294117645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -9401,11 +9039,15 @@
         <v>77</v>
       </c>
       <c r="AL13" s="41">
+        <f t="shared" si="2"/>
+        <v>2.2647058823529411</v>
+      </c>
+      <c r="AM13" s="41">
         <f t="shared" si="1"/>
-        <v>2.2647058823529411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0.28308823529411764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -9517,11 +9159,15 @@
         <v>205</v>
       </c>
       <c r="AL14" s="41">
+        <f t="shared" si="2"/>
+        <v>6.0294117647058822</v>
+      </c>
+      <c r="AM14" s="41">
         <f t="shared" si="1"/>
-        <v>6.0294117647058822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0.75367647058823528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -9633,11 +9279,18 @@
         <v>132</v>
       </c>
       <c r="AL15" s="41">
+        <f t="shared" si="2"/>
+        <v>3.8823529411764706</v>
+      </c>
+      <c r="AM15" s="41">
         <f t="shared" si="1"/>
-        <v>3.8823529411764706</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0.48529411764705882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AM16" s="41"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -9671,7 +9324,9 @@
       <c r="K17" s="1">
         <v>19</v>
       </c>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1">
+        <v>21</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -9698,14 +9353,18 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="AL17" s="41">
-        <f t="shared" ref="AL17:AL20" si="2">AK17/COUNT(C17:AJ17)</f>
-        <v>21.666666666666668</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AL17:AL20" si="3">AK17/COUNT(C17:AJ17)</f>
+        <v>21.6</v>
+      </c>
+      <c r="AM17" s="41">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -9737,7 +9396,9 @@
       <c r="K18" s="1">
         <v>4</v>
       </c>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -9764,14 +9425,18 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL18" s="41">
-        <f t="shared" si="2"/>
-        <v>2.4444444444444446</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AM18" s="41">
+        <f t="shared" si="1"/>
+        <v>0.28749999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -9803,7 +9468,9 @@
       <c r="K19" s="1">
         <v>2</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1">
+        <v>9</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -9830,14 +9497,18 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="AL19" s="41">
-        <f t="shared" si="2"/>
-        <v>5.2222222222222223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>5.6</v>
+      </c>
+      <c r="AM19" s="41">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -9869,7 +9540,9 @@
       <c r="K20" s="1">
         <v>2</v>
       </c>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1">
+        <v>6</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -9896,11 +9569,15 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AL20" s="41">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>3.3</v>
+      </c>
+      <c r="AM20" s="41">
+        <f t="shared" si="1"/>
+        <v>0.41249999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9911,119 +9588,119 @@
     <mergeCell ref="A17:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:AJ7">
-    <cfRule type="top10" dxfId="116" priority="35" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="115" priority="38" operator="lessThan">
+    <cfRule type="top10" dxfId="38" priority="35" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AJ2">
-    <cfRule type="top10" dxfId="113" priority="34" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="112" priority="36" operator="lessThan">
+    <cfRule type="top10" dxfId="35" priority="34" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="lessThan">
       <formula>$AL$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="greaterThan">
       <formula>$AL$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:AJ9">
-    <cfRule type="top10" dxfId="110" priority="21" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="109" priority="32" operator="lessThan">
+    <cfRule type="top10" dxfId="32" priority="21" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AJ4">
-    <cfRule type="top10" dxfId="107" priority="24" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="106" priority="30" operator="lessThan">
+    <cfRule type="top10" dxfId="29" priority="24" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="lessThan">
       <formula>$AL$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="greaterThan">
       <formula>$AL$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:AJ5">
-    <cfRule type="top10" dxfId="104" priority="23" percent="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="103" priority="28" operator="greaterThan">
+    <cfRule type="top10" dxfId="26" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="greaterThan">
       <formula>$AL$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="lessThan">
       <formula>$AL$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:AJ10">
-    <cfRule type="top10" dxfId="101" priority="22" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="100" priority="25" operator="greaterThan">
+    <cfRule type="top10" dxfId="23" priority="22" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AJ12">
-    <cfRule type="top10" dxfId="97" priority="18" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="96" priority="19" operator="lessThan">
+    <cfRule type="top10" dxfId="19" priority="18" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AJ14">
-    <cfRule type="top10" dxfId="94" priority="11" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="93" priority="16" operator="lessThan">
+    <cfRule type="top10" dxfId="16" priority="11" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AJ15">
-    <cfRule type="top10" dxfId="91" priority="12" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="90" priority="13" operator="greaterThan">
+    <cfRule type="top10" dxfId="13" priority="12" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:AJ17">
-    <cfRule type="top10" dxfId="87" priority="8" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="86" priority="9" operator="lessThan">
+    <cfRule type="top10" dxfId="9" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>$AL$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
       <formula>$AL$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:AJ19">
-    <cfRule type="top10" dxfId="84" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="83" priority="6" operator="lessThan">
+    <cfRule type="top10" dxfId="6" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>$AL$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
       <formula>$AL$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:AJ20">
-    <cfRule type="top10" dxfId="81" priority="2" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="80" priority="3" operator="greaterThan">
+    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>$AL$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1298,8 +1293,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2910,7 +2905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2945,7 +2940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3122,44 +3117,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="H3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -3215,7 +3210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="45" t="s">
         <v>21</v>
       </c>
@@ -3274,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
@@ -3333,7 +3328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
@@ -3392,7 +3387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="57" t="s">
         <v>24</v>
       </c>
@@ -3451,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="61" t="s">
         <v>25</v>
       </c>
@@ -3510,7 +3505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -3587,7 +3582,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3606,7 +3601,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3627,7 +3622,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -3683,7 +3678,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>157</v>
@@ -3737,7 +3732,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>160</v>
@@ -3791,7 +3786,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>156</v>
@@ -3841,7 +3836,7 @@
       </c>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>122</v>
@@ -3891,7 +3886,7 @@
       </c>
       <c r="S14" s="33"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>77</v>
@@ -3935,7 +3930,7 @@
       </c>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>159</v>
@@ -3972,7 +3967,7 @@
       <c r="Q16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>158</v>
@@ -4008,7 +4003,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="37"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>110</v>
@@ -4038,7 +4033,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34" t="s">
         <v>145</v>
@@ -4060,7 +4055,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4079,7 +4074,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4098,7 +4093,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4116,7 +4111,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4137,7 +4132,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -4196,7 +4191,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>182</v>
@@ -4253,7 +4248,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>183</v>
@@ -4304,7 +4299,7 @@
       </c>
       <c r="S26" s="33"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>184</v>
@@ -4346,7 +4341,7 @@
       </c>
       <c r="S27" s="33"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>185</v>
@@ -4380,7 +4375,7 @@
       </c>
       <c r="S28" s="33"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -4408,7 +4403,7 @@
       </c>
       <c r="S29" s="33"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4429,7 +4424,7 @@
       </c>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4448,7 +4443,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4467,7 +4462,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4513,37 +4508,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -4599,7 +4594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -4658,7 +4653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4717,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
@@ -4776,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -4835,7 +4830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -4894,7 +4889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -4971,7 +4966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4992,7 +4987,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -5013,7 +5008,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -5072,7 +5067,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>388</v>
@@ -5127,7 +5122,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>74</v>
@@ -5180,7 +5175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>259</v>
@@ -5225,7 +5220,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="36" t="s">
         <v>258</v>
@@ -5270,7 +5265,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>257</v>
@@ -5307,7 +5302,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>269</v>
@@ -5338,7 +5333,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="34" t="s">
         <v>390</v>
@@ -5365,7 +5360,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -5390,7 +5385,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -5412,7 +5407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -5435,7 +5430,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5458,7 +5453,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5478,7 +5473,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5499,7 +5494,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -5558,7 +5553,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="35"/>
       <c r="B25" s="74" t="s">
         <v>300</v>
@@ -5615,7 +5610,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>301</v>
@@ -5662,7 +5657,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>302</v>
@@ -5700,7 +5695,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="74" t="s">
@@ -5737,7 +5732,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="74" t="s">
@@ -5768,7 +5763,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="74" t="s">
@@ -5797,7 +5792,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5818,7 +5813,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -5837,7 +5832,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -5883,20 +5878,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AK17" sqref="AK17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5997,7 +5992,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -6107,7 +6102,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6211,11 +6206,11 @@
         <v>2</v>
       </c>
       <c r="AI3" s="41">
-        <f t="shared" ref="AI3:AI20" si="1">AH3/8</f>
+        <f t="shared" ref="AI3:AI15" si="1">AH3/8</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -6323,7 +6318,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -6431,11 +6426,11 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35">
       <c r="AH6" s="42"/>
       <c r="AI6" s="41"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -6545,7 +6540,7 @@
         <v>2.5874999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6653,7 +6648,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -6761,7 +6756,7 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -6869,11 +6864,11 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35">
       <c r="AH11" s="42"/>
       <c r="AI11" s="41"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -6983,7 +6978,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7091,7 +7086,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -7199,7 +7194,7 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -7307,10 +7302,10 @@
         <v>0.40833333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35">
       <c r="AI16" s="41"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -7327,7 +7322,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1">
         <v>21</v>
@@ -7367,18 +7362,18 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>22.777777777777779</v>
+        <v>23.222222222222221</v>
       </c>
       <c r="AI17" s="41">
         <f>AH17/9</f>
-        <v>2.5308641975308643</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+        <v>2.5802469135802468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -7393,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -7433,18 +7428,18 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.4444444444444446</v>
+        <v>2.5555555555555554</v>
       </c>
       <c r="AI18" s="41">
         <f>AH18/9</f>
-        <v>0.27160493827160498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+        <v>0.2839506172839506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -7510,7 +7505,7 @@
         <v>0.48148148148148145</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -7706,21 +7701,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -7833,7 +7828,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -7955,7 +7950,7 @@
         <v>2.5032679738562091</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -8075,7 +8070,7 @@
         <v>0.33455882352941174</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -8195,7 +8190,7 @@
         <v>0.6654411764705882</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -8315,11 +8310,11 @@
         <v>0.45588235294117646</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39">
       <c r="AL6" s="41"/>
       <c r="AM6" s="41"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -8441,7 +8436,7 @@
         <v>2.9779411764705883</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -8561,7 +8556,7 @@
         <v>0.2610294117647059</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8681,7 +8676,7 @@
         <v>0.60661764705882348</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -8801,11 +8796,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39">
       <c r="AL11" s="41"/>
       <c r="AM11" s="41"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -8927,7 +8922,7 @@
         <v>2.6213235294117645</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -9047,7 +9042,7 @@
         <v>0.28308823529411764</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -9167,7 +9162,7 @@
         <v>0.75367647058823528</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -9287,10 +9282,10 @@
         <v>0.48529411764705882</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39">
       <c r="AM16" s="41"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -9364,7 +9359,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -9436,7 +9431,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -9508,7 +9503,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1293,8 +1298,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3117,44 +3122,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="H3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -3210,7 +3215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>21</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
@@ -3328,7 +3333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
@@ -3387,7 +3392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>24</v>
       </c>
@@ -3446,7 +3451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>25</v>
       </c>
@@ -3505,7 +3510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -3582,7 +3587,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3601,7 +3606,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3622,7 +3627,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -3678,7 +3683,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>157</v>
@@ -3732,7 +3737,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>160</v>
@@ -3786,7 +3791,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>156</v>
@@ -3836,7 +3841,7 @@
       </c>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>122</v>
@@ -3886,7 +3891,7 @@
       </c>
       <c r="S14" s="33"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>77</v>
@@ -3930,7 +3935,7 @@
       </c>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>159</v>
@@ -3967,7 +3972,7 @@
       <c r="Q16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>158</v>
@@ -4003,7 +4008,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="37"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>110</v>
@@ -4033,7 +4038,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34" t="s">
         <v>145</v>
@@ -4055,7 +4060,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4074,7 +4079,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4093,7 +4098,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4111,7 +4116,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4132,7 +4137,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -4191,7 +4196,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>182</v>
@@ -4248,7 +4253,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>183</v>
@@ -4299,7 +4304,7 @@
       </c>
       <c r="S26" s="33"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>184</v>
@@ -4341,7 +4346,7 @@
       </c>
       <c r="S27" s="33"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>185</v>
@@ -4375,7 +4380,7 @@
       </c>
       <c r="S28" s="33"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -4403,7 +4408,7 @@
       </c>
       <c r="S29" s="33"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4424,7 +4429,7 @@
       </c>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4443,7 +4448,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4462,7 +4467,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1">
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4508,37 +4513,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -4653,7 +4658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4712,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
@@ -4771,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -4830,7 +4835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -4889,7 +4894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -4966,7 +4971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4987,7 +4992,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -5008,7 +5013,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -5067,7 +5072,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>388</v>
@@ -5122,7 +5127,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>74</v>
@@ -5175,7 +5180,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>259</v>
@@ -5220,7 +5225,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="36" t="s">
         <v>258</v>
@@ -5265,7 +5270,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>257</v>
@@ -5302,7 +5307,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>269</v>
@@ -5333,7 +5338,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="34" t="s">
         <v>390</v>
@@ -5360,7 +5365,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -5385,7 +5390,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -5407,7 +5412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -5430,7 +5435,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5453,7 +5458,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5473,7 +5478,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5494,7 +5499,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -5553,7 +5558,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="74" t="s">
         <v>300</v>
@@ -5610,7 +5615,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>301</v>
@@ -5657,7 +5662,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>302</v>
@@ -5695,7 +5700,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="74" t="s">
@@ -5732,7 +5737,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="74" t="s">
@@ -5763,7 +5768,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="74" t="s">
@@ -5792,7 +5797,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5813,7 +5818,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -5832,7 +5837,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1">
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -5878,20 +5883,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5992,7 +5997,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -6102,7 +6107,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6210,7 +6215,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -6318,7 +6323,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -6426,11 +6431,11 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
       <c r="AI6" s="41"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -6540,7 +6545,7 @@
         <v>2.5874999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6648,7 +6653,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -6756,7 +6761,7 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -6864,11 +6869,11 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
       <c r="AI11" s="41"/>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -6978,7 +6983,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7086,7 +7091,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -7194,7 +7199,7 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -7302,10 +7307,10 @@
         <v>0.40833333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AI16" s="41"/>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -7339,7 +7344,9 @@
       <c r="K17" s="1">
         <v>28</v>
       </c>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1">
+        <v>32</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -7362,18 +7369,18 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>23.222222222222221</v>
+        <v>24.1</v>
       </c>
       <c r="AI17" s="41">
         <f>AH17/9</f>
-        <v>2.5802469135802468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35">
+        <v>2.677777777777778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -7405,7 +7412,9 @@
       <c r="K18" s="1">
         <v>0</v>
       </c>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -7428,18 +7437,18 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.5555555555555554</v>
+        <v>2.5</v>
       </c>
       <c r="AI18" s="41">
         <f>AH18/9</f>
-        <v>0.2839506172839506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -7471,7 +7480,9 @@
       <c r="K19" s="1">
         <v>5</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1">
+        <v>4</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -7494,18 +7505,18 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.333333333333333</v>
+        <v>4.3</v>
       </c>
       <c r="AI19" s="41">
         <f>AH19/9</f>
-        <v>0.48148148148148145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35">
+        <v>0.47777777777777775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -7537,7 +7548,9 @@
       <c r="K20" s="1">
         <v>4</v>
       </c>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1">
+        <v>6</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -7560,15 +7573,15 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>3.8888888888888888</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AI20" s="41">
         <f>AH20/9</f>
-        <v>0.43209876543209874</v>
+        <v>0.45555555555555549</v>
       </c>
     </row>
   </sheetData>
@@ -7701,21 +7714,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -7828,7 +7841,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -7950,7 +7963,7 @@
         <v>2.5032679738562091</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -8070,7 +8083,7 @@
         <v>0.33455882352941174</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -8190,7 +8203,7 @@
         <v>0.6654411764705882</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -8310,11 +8323,11 @@
         <v>0.45588235294117646</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
       <c r="AM6" s="41"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -8436,7 +8449,7 @@
         <v>2.9779411764705883</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -8556,7 +8569,7 @@
         <v>0.2610294117647059</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8676,7 +8689,7 @@
         <v>0.60661764705882348</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -8796,11 +8809,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
       <c r="AM11" s="41"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -8922,7 +8935,7 @@
         <v>2.6213235294117645</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -9042,7 +9055,7 @@
         <v>0.28308823529411764</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -9162,7 +9175,7 @@
         <v>0.75367647058823528</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -9282,10 +9295,10 @@
         <v>0.48529411764705882</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AM16" s="41"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -9322,7 +9335,9 @@
       <c r="L17" s="1">
         <v>21</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1">
+        <v>25</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -9348,18 +9363,18 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="3">AK17/COUNT(C17:AJ17)</f>
-        <v>21.6</v>
+        <v>21.90909090909091</v>
       </c>
       <c r="AM17" s="41">
         <f t="shared" si="1"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39">
+        <v>2.7386363636363638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -9394,7 +9409,9 @@
       <c r="L18" s="1">
         <v>1</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -9420,18 +9437,18 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="3"/>
-        <v>2.2999999999999998</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="AM18" s="41">
         <f t="shared" si="1"/>
-        <v>0.28749999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39">
+        <v>0.28409090909090912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -9466,7 +9483,9 @@
       <c r="L19" s="1">
         <v>9</v>
       </c>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1">
+        <v>5</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -9492,18 +9511,18 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="3"/>
-        <v>5.6</v>
+        <v>5.5454545454545459</v>
       </c>
       <c r="AM19" s="41">
         <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39">
+        <v>0.69318181818181823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -9538,7 +9557,9 @@
       <c r="L20" s="1">
         <v>6</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1">
+        <v>3</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -9564,15 +9585,15 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="3"/>
-        <v>3.3</v>
+        <v>3.2727272727272729</v>
       </c>
       <c r="AM20" s="41">
         <f t="shared" si="1"/>
-        <v>0.41249999999999998</v>
+        <v>0.40909090909090912</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -2910,7 +2910,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2945,7 +2945,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5886,7 +5886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -7717,8 +7717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9338,7 +9338,9 @@
       <c r="M17" s="1">
         <v>25</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>13</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -9363,15 +9365,15 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="3">AK17/COUNT(C17:AJ17)</f>
-        <v>21.90909090909091</v>
+        <v>21.166666666666668</v>
       </c>
       <c r="AM17" s="41">
         <f t="shared" si="1"/>
-        <v>2.7386363636363638</v>
+        <v>2.6458333333333335</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
@@ -9412,7 +9414,9 @@
       <c r="M18" s="1">
         <v>2</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>2</v>
+      </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -9437,15 +9441,15 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="3"/>
-        <v>2.2727272727272729</v>
+        <v>2.25</v>
       </c>
       <c r="AM18" s="41">
         <f t="shared" si="1"/>
-        <v>0.28409090909090912</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
@@ -9486,7 +9490,9 @@
       <c r="M19" s="1">
         <v>5</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>3</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -9511,15 +9517,15 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="3"/>
-        <v>5.5454545454545459</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="AM19" s="41">
         <f t="shared" si="1"/>
-        <v>0.69318181818181823</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
@@ -9560,7 +9566,9 @@
       <c r="M20" s="1">
         <v>3</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -9585,15 +9593,15 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="3"/>
-        <v>3.2727272727272729</v>
+        <v>3.0833333333333335</v>
       </c>
       <c r="AM20" s="41">
         <f t="shared" si="1"/>
-        <v>0.40909090909090912</v>
+        <v>0.38541666666666669</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -5887,7 +5887,7 @@
   <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7347,7 +7347,9 @@
       <c r="L17" s="1">
         <v>32</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1">
+        <v>20</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="3"/>
@@ -7369,15 +7371,15 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>24.1</v>
+        <v>23.727272727272727</v>
       </c>
       <c r="AI17" s="41">
         <f>AH17/9</f>
-        <v>2.677777777777778</v>
+        <v>2.6363636363636362</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
@@ -7415,7 +7417,9 @@
       <c r="L18" s="1">
         <v>2</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="3"/>
@@ -7437,15 +7441,15 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.5</v>
+        <v>2.4545454545454546</v>
       </c>
       <c r="AI18" s="41">
         <f>AH18/9</f>
-        <v>0.27777777777777779</v>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
@@ -7483,7 +7487,9 @@
       <c r="L19" s="1">
         <v>4</v>
       </c>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1">
+        <v>5</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="3"/>
@@ -7505,15 +7511,15 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.3</v>
+        <v>4.3636363636363633</v>
       </c>
       <c r="AI19" s="41">
         <f>AH19/9</f>
-        <v>0.47777777777777775</v>
+        <v>0.48484848484848481</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
@@ -7551,7 +7557,9 @@
       <c r="L20" s="1">
         <v>6</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1">
+        <v>3</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="3"/>
@@ -7573,15 +7581,15 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="AI20" s="41">
         <f>AH20/9</f>
-        <v>0.45555555555555549</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
   </sheetData>
@@ -7718,7 +7726,7 @@
   <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9341,7 +9349,9 @@
       <c r="N17" s="1">
         <v>13</v>
       </c>
-      <c r="O17" s="1"/>
+      <c r="O17" s="1">
+        <v>20</v>
+      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -9365,15 +9375,15 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="3">AK17/COUNT(C17:AJ17)</f>
-        <v>21.166666666666668</v>
+        <v>21.076923076923077</v>
       </c>
       <c r="AM17" s="41">
         <f t="shared" si="1"/>
-        <v>2.6458333333333335</v>
+        <v>2.6346153846153846</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
@@ -9417,7 +9427,9 @@
       <c r="N18" s="1">
         <v>2</v>
       </c>
-      <c r="O18" s="1"/>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -9441,15 +9453,15 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="3"/>
-        <v>2.25</v>
+        <v>2.1538461538461537</v>
       </c>
       <c r="AM18" s="41">
         <f t="shared" si="1"/>
-        <v>0.28125</v>
+        <v>0.26923076923076922</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
@@ -9493,7 +9505,9 @@
       <c r="N19" s="1">
         <v>3</v>
       </c>
-      <c r="O19" s="1"/>
+      <c r="O19" s="1">
+        <v>8</v>
+      </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -9517,15 +9531,15 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="3"/>
-        <v>5.333333333333333</v>
+        <v>5.5384615384615383</v>
       </c>
       <c r="AM19" s="41">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
@@ -9569,7 +9583,9 @@
       <c r="N20" s="1">
         <v>1</v>
       </c>
-      <c r="O20" s="1"/>
+      <c r="O20" s="1">
+        <v>5</v>
+      </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -9593,15 +9609,15 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="3"/>
-        <v>3.0833333333333335</v>
+        <v>3.2307692307692308</v>
       </c>
       <c r="AM20" s="41">
         <f t="shared" si="1"/>
-        <v>0.38541666666666669</v>
+        <v>0.40384615384615385</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1298,8 +1293,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2910,7 +2905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2945,7 +2940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3122,44 +3117,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="H3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -3215,7 +3210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="45" t="s">
         <v>21</v>
       </c>
@@ -3274,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
@@ -3333,7 +3328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
@@ -3392,7 +3387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="57" t="s">
         <v>24</v>
       </c>
@@ -3451,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="61" t="s">
         <v>25</v>
       </c>
@@ -3510,7 +3505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -3587,7 +3582,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3606,7 +3601,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3627,7 +3622,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -3683,7 +3678,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>157</v>
@@ -3737,7 +3732,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>160</v>
@@ -3791,7 +3786,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>156</v>
@@ -3841,7 +3836,7 @@
       </c>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>122</v>
@@ -3891,7 +3886,7 @@
       </c>
       <c r="S14" s="33"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>77</v>
@@ -3935,7 +3930,7 @@
       </c>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>159</v>
@@ -3972,7 +3967,7 @@
       <c r="Q16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>158</v>
@@ -4008,7 +4003,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="37"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>110</v>
@@ -4038,7 +4033,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34" t="s">
         <v>145</v>
@@ -4060,7 +4055,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4079,7 +4074,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4098,7 +4093,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4116,7 +4111,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4137,7 +4132,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -4196,7 +4191,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>182</v>
@@ -4253,7 +4248,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>183</v>
@@ -4304,7 +4299,7 @@
       </c>
       <c r="S26" s="33"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>184</v>
@@ -4346,7 +4341,7 @@
       </c>
       <c r="S27" s="33"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>185</v>
@@ -4380,7 +4375,7 @@
       </c>
       <c r="S28" s="33"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -4408,7 +4403,7 @@
       </c>
       <c r="S29" s="33"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4429,7 +4424,7 @@
       </c>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4448,7 +4443,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4467,7 +4462,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4513,37 +4508,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -4599,7 +4594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -4658,7 +4653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4717,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
@@ -4776,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -4835,7 +4830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -4894,7 +4889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -4971,7 +4966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4992,7 +4987,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -5013,7 +5008,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -5072,7 +5067,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>388</v>
@@ -5127,7 +5122,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>74</v>
@@ -5180,7 +5175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>259</v>
@@ -5225,7 +5220,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="36" t="s">
         <v>258</v>
@@ -5270,7 +5265,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>257</v>
@@ -5307,7 +5302,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>269</v>
@@ -5338,7 +5333,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="34" t="s">
         <v>390</v>
@@ -5365,7 +5360,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -5390,7 +5385,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -5412,7 +5407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -5435,7 +5430,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5458,7 +5453,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5478,7 +5473,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5499,7 +5494,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -5558,7 +5553,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="35"/>
       <c r="B25" s="74" t="s">
         <v>300</v>
@@ -5615,7 +5610,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>301</v>
@@ -5662,7 +5657,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>302</v>
@@ -5700,7 +5695,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="74" t="s">
@@ -5737,7 +5732,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="74" t="s">
@@ -5768,7 +5763,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="74" t="s">
@@ -5797,7 +5792,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5818,7 +5813,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -5837,7 +5832,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -5883,20 +5878,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5997,7 +5992,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -6107,7 +6102,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6215,7 +6210,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -6323,7 +6318,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -6431,11 +6426,11 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35">
       <c r="AH6" s="42"/>
       <c r="AI6" s="41"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -6545,7 +6540,7 @@
         <v>2.5874999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6653,7 +6648,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -6761,7 +6756,7 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -6869,11 +6864,11 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35">
       <c r="AH11" s="42"/>
       <c r="AI11" s="41"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -6983,7 +6978,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7091,7 +7086,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -7199,7 +7194,7 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -7307,10 +7302,10 @@
         <v>0.40833333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35">
       <c r="AI16" s="41"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -7382,7 +7377,7 @@
         <v>2.6363636363636362</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -7452,7 +7447,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -7522,7 +7517,7 @@
         <v>0.48484848484848481</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -7722,21 +7717,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -7849,7 +7844,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -7971,7 +7966,7 @@
         <v>2.5032679738562091</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -8091,7 +8086,7 @@
         <v>0.33455882352941174</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -8211,7 +8206,7 @@
         <v>0.6654411764705882</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -8331,11 +8326,11 @@
         <v>0.45588235294117646</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39">
       <c r="AL6" s="41"/>
       <c r="AM6" s="41"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -8457,7 +8452,7 @@
         <v>2.9779411764705883</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -8577,7 +8572,7 @@
         <v>0.2610294117647059</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8697,7 +8692,7 @@
         <v>0.60661764705882348</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -8817,11 +8812,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39">
       <c r="AL11" s="41"/>
       <c r="AM11" s="41"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -8943,7 +8938,7 @@
         <v>2.6213235294117645</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -9063,7 +9058,7 @@
         <v>0.28308823529411764</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -9183,7 +9178,7 @@
         <v>0.75367647058823528</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -9303,10 +9298,10 @@
         <v>0.48529411764705882</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39">
       <c r="AM16" s="41"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -9347,7 +9342,7 @@
         <v>25</v>
       </c>
       <c r="N17" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O17" s="1">
         <v>20</v>
@@ -9375,18 +9370,18 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="3">AK17/COUNT(C17:AJ17)</f>
-        <v>21.076923076923077</v>
+        <v>21.692307692307693</v>
       </c>
       <c r="AM17" s="41">
         <f t="shared" si="1"/>
-        <v>2.6346153846153846</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+        <v>2.7115384615384617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -9464,7 +9459,7 @@
         <v>0.26923076923076922</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -9503,7 +9498,7 @@
         <v>5</v>
       </c>
       <c r="N19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
         <v>8</v>
@@ -9531,18 +9526,18 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="3"/>
-        <v>5.5384615384615383</v>
+        <v>5.6923076923076925</v>
       </c>
       <c r="AM19" s="41">
         <f t="shared" si="1"/>
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+        <v>0.71153846153846156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -9581,7 +9576,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" s="1">
         <v>5</v>
@@ -9609,15 +9604,15 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="3"/>
-        <v>3.2307692307692308</v>
+        <v>3.3076923076923075</v>
       </c>
       <c r="AM20" s="41">
         <f t="shared" si="1"/>
-        <v>0.40384615384615385</v>
+        <v>0.41346153846153844</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -5882,7 +5882,7 @@
   <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7345,7 +7345,9 @@
       <c r="M17" s="1">
         <v>20</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>33</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="1"/>
@@ -7366,15 +7368,15 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>23.727272727272727</v>
+        <v>24.5</v>
       </c>
       <c r="AI17" s="41">
         <f>AH17/9</f>
-        <v>2.6363636363636362</v>
+        <v>2.7222222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -7415,7 +7417,9 @@
       <c r="M18" s="1">
         <v>2</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>3</v>
+      </c>
       <c r="O18" s="1"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="1"/>
@@ -7436,15 +7440,15 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.4545454545454546</v>
+        <v>2.5</v>
       </c>
       <c r="AI18" s="41">
         <f>AH18/9</f>
-        <v>0.27272727272727271</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -7485,7 +7489,9 @@
       <c r="M19" s="1">
         <v>5</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>3</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="1"/>
@@ -7506,15 +7512,15 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.3636363636363633</v>
+        <v>4.25</v>
       </c>
       <c r="AI19" s="41">
         <f>AH19/9</f>
-        <v>0.48484848484848481</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -7555,7 +7561,9 @@
       <c r="M20" s="1">
         <v>3</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>5</v>
+      </c>
       <c r="O20" s="1"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="1"/>
@@ -7576,15 +7584,15 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>4</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="AI20" s="41">
         <f>AH20/9</f>
-        <v>0.44444444444444442</v>
+        <v>0.45370370370370366</v>
       </c>
     </row>
   </sheetData>
@@ -7721,7 +7729,7 @@
   <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9347,7 +9355,9 @@
       <c r="O17" s="1">
         <v>20</v>
       </c>
-      <c r="P17" s="1"/>
+      <c r="P17" s="1">
+        <v>22</v>
+      </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="3"/>
@@ -9370,15 +9380,15 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="3">AK17/COUNT(C17:AJ17)</f>
-        <v>21.692307692307693</v>
+        <v>21.714285714285715</v>
       </c>
       <c r="AM17" s="41">
         <f t="shared" si="1"/>
-        <v>2.7115384615384617</v>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="18" spans="1:39">
@@ -9425,7 +9435,9 @@
       <c r="O18" s="1">
         <v>1</v>
       </c>
-      <c r="P18" s="1"/>
+      <c r="P18" s="1">
+        <v>6</v>
+      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="3"/>
@@ -9448,15 +9460,15 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="3"/>
-        <v>2.1538461538461537</v>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AM18" s="41">
         <f t="shared" si="1"/>
-        <v>0.26923076923076922</v>
+        <v>0.30357142857142855</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -9503,7 +9515,9 @@
       <c r="O19" s="1">
         <v>8</v>
       </c>
-      <c r="P19" s="1"/>
+      <c r="P19" s="1">
+        <v>6</v>
+      </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="3"/>
@@ -9526,15 +9540,15 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="3"/>
-        <v>5.6923076923076925</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="AM19" s="41">
         <f t="shared" si="1"/>
-        <v>0.71153846153846156</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -9581,7 +9595,9 @@
       <c r="O20" s="1">
         <v>5</v>
       </c>
-      <c r="P20" s="1"/>
+      <c r="P20" s="1">
+        <v>2</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="3"/>
@@ -9604,15 +9620,15 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="3"/>
-        <v>3.3076923076923075</v>
+        <v>3.2142857142857144</v>
       </c>
       <c r="AM20" s="41">
         <f t="shared" si="1"/>
-        <v>0.41346153846153844</v>
+        <v>0.4017857142857143</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -3117,7 +3117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5882,7 +5882,7 @@
   <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7348,7 +7348,9 @@
       <c r="N17" s="1">
         <v>33</v>
       </c>
-      <c r="O17" s="1"/>
+      <c r="O17" s="1">
+        <v>22</v>
+      </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -7368,15 +7370,15 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>24.5</v>
+        <v>24.307692307692307</v>
       </c>
       <c r="AI17" s="41">
         <f>AH17/9</f>
-        <v>2.7222222222222223</v>
+        <v>2.7008547008547006</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -7420,7 +7422,9 @@
       <c r="N18" s="1">
         <v>3</v>
       </c>
-      <c r="O18" s="1"/>
+      <c r="O18" s="1">
+        <v>4</v>
+      </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -7440,15 +7444,15 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.5</v>
+        <v>2.6153846153846154</v>
       </c>
       <c r="AI18" s="41">
         <f>AH18/9</f>
-        <v>0.27777777777777779</v>
+        <v>0.29059829059829062</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -7492,7 +7496,9 @@
       <c r="N19" s="1">
         <v>3</v>
       </c>
-      <c r="O19" s="1"/>
+      <c r="O19" s="1">
+        <v>9</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -7512,15 +7518,15 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.25</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="AI19" s="41">
         <f>AH19/9</f>
-        <v>0.47222222222222221</v>
+        <v>0.51282051282051277</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -7564,7 +7570,9 @@
       <c r="N20" s="1">
         <v>5</v>
       </c>
-      <c r="O20" s="1"/>
+      <c r="O20" s="1">
+        <v>2</v>
+      </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -7584,15 +7592,15 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>4.083333333333333</v>
+        <v>3.9230769230769229</v>
       </c>
       <c r="AI20" s="41">
         <f>AH20/9</f>
-        <v>0.45370370370370366</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
   </sheetData>
@@ -7729,7 +7737,7 @@
   <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9358,7 +9366,9 @@
       <c r="P17" s="1">
         <v>22</v>
       </c>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="1">
+        <v>17</v>
+      </c>
       <c r="R17" s="1"/>
       <c r="S17" s="3"/>
       <c r="T17" s="1"/>
@@ -9380,15 +9390,15 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="3">AK17/COUNT(C17:AJ17)</f>
-        <v>21.714285714285715</v>
+        <v>21.4</v>
       </c>
       <c r="AM17" s="41">
         <f t="shared" si="1"/>
-        <v>2.7142857142857144</v>
+        <v>2.6749999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:39">
@@ -9438,7 +9448,9 @@
       <c r="P18" s="1">
         <v>6</v>
       </c>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="1">
+        <v>4</v>
+      </c>
       <c r="R18" s="1"/>
       <c r="S18" s="3"/>
       <c r="T18" s="1"/>
@@ -9460,15 +9472,15 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="3"/>
-        <v>2.4285714285714284</v>
+        <v>2.5333333333333332</v>
       </c>
       <c r="AM18" s="41">
         <f t="shared" si="1"/>
-        <v>0.30357142857142855</v>
+        <v>0.31666666666666665</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -9518,7 +9530,9 @@
       <c r="P19" s="1">
         <v>6</v>
       </c>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="1">
+        <v>5</v>
+      </c>
       <c r="R19" s="1"/>
       <c r="S19" s="3"/>
       <c r="T19" s="1"/>
@@ -9540,15 +9554,15 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="3"/>
-        <v>5.7142857142857144</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="AM19" s="41">
         <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -9598,7 +9612,9 @@
       <c r="P20" s="1">
         <v>2</v>
       </c>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="1">
+        <v>4</v>
+      </c>
       <c r="R20" s="1"/>
       <c r="S20" s="3"/>
       <c r="T20" s="1"/>
@@ -9620,15 +9636,15 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="3"/>
-        <v>3.2142857142857144</v>
+        <v>3.2666666666666666</v>
       </c>
       <c r="AM20" s="41">
         <f t="shared" si="1"/>
-        <v>0.4017857142857143</v>
+        <v>0.40833333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -3117,7 +3117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5882,7 +5882,7 @@
   <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7351,7 +7351,9 @@
       <c r="O17" s="1">
         <v>22</v>
       </c>
-      <c r="P17" s="3"/>
+      <c r="P17" s="44">
+        <v>18</v>
+      </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -7370,15 +7372,15 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>24.307692307692307</v>
+        <v>23.857142857142858</v>
       </c>
       <c r="AI17" s="41">
         <f>AH17/9</f>
-        <v>2.7008547008547006</v>
+        <v>2.6507936507936507</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -7425,7 +7427,9 @@
       <c r="O18" s="1">
         <v>4</v>
       </c>
-      <c r="P18" s="3"/>
+      <c r="P18" s="44">
+        <v>4</v>
+      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -7444,15 +7448,15 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.6153846153846154</v>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AI18" s="41">
         <f>AH18/9</f>
-        <v>0.29059829059829062</v>
+        <v>0.30158730158730163</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -7499,7 +7503,9 @@
       <c r="O19" s="1">
         <v>9</v>
       </c>
-      <c r="P19" s="3"/>
+      <c r="P19" s="44">
+        <v>5</v>
+      </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -7518,15 +7524,15 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.615384615384615</v>
+        <v>4.6428571428571432</v>
       </c>
       <c r="AI19" s="41">
         <f>AH19/9</f>
-        <v>0.51282051282051277</v>
+        <v>0.51587301587301593</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -7573,8 +7579,10 @@
       <c r="O20" s="1">
         <v>2</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="1"/>
+      <c r="P20" s="44">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="44"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -7592,15 +7600,15 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>3.9230769230769229</v>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AI20" s="41">
         <f>AH20/9</f>
-        <v>0.4358974358974359</v>
+        <v>0.4285714285714286</v>
       </c>
     </row>
   </sheetData>
@@ -7737,7 +7745,7 @@
   <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9369,7 +9377,9 @@
       <c r="Q17" s="1">
         <v>17</v>
       </c>
-      <c r="R17" s="1"/>
+      <c r="R17" s="1">
+        <v>20</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -9390,15 +9400,15 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="3">AK17/COUNT(C17:AJ17)</f>
-        <v>21.4</v>
+        <v>21.3125</v>
       </c>
       <c r="AM17" s="41">
         <f t="shared" si="1"/>
-        <v>2.6749999999999998</v>
+        <v>2.6640625</v>
       </c>
     </row>
     <row r="18" spans="1:39">
@@ -9451,7 +9461,9 @@
       <c r="Q18" s="1">
         <v>4</v>
       </c>
-      <c r="R18" s="1"/>
+      <c r="R18" s="1">
+        <v>2</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -9472,15 +9484,15 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="3"/>
-        <v>2.5333333333333332</v>
+        <v>2.5</v>
       </c>
       <c r="AM18" s="41">
         <f t="shared" si="1"/>
-        <v>0.31666666666666665</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -9533,7 +9545,9 @@
       <c r="Q19" s="1">
         <v>5</v>
       </c>
-      <c r="R19" s="1"/>
+      <c r="R19" s="1">
+        <v>6</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -9554,15 +9568,15 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="3"/>
-        <v>5.666666666666667</v>
+        <v>5.6875</v>
       </c>
       <c r="AM19" s="41">
         <f t="shared" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.7109375</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -9615,7 +9629,9 @@
       <c r="Q20" s="1">
         <v>4</v>
       </c>
-      <c r="R20" s="1"/>
+      <c r="R20" s="1">
+        <v>6</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -9636,15 +9652,15 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="3"/>
-        <v>3.2666666666666666</v>
+        <v>3.4375</v>
       </c>
       <c r="AM20" s="41">
         <f t="shared" si="1"/>
-        <v>0.40833333333333333</v>
+        <v>0.4296875</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -3117,7 +3117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5882,7 +5882,7 @@
   <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7745,7 +7745,7 @@
   <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9348,7 +9348,7 @@
         <v>19</v>
       </c>
       <c r="H17" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I17" s="1">
         <v>18</v>
@@ -9380,7 +9380,9 @@
       <c r="R17" s="1">
         <v>20</v>
       </c>
-      <c r="S17" s="3"/>
+      <c r="S17" s="3">
+        <v>22</v>
+      </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="44"/>
@@ -9400,15 +9402,15 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="3">AK17/COUNT(C17:AJ17)</f>
-        <v>21.3125</v>
+        <v>21.411764705882351</v>
       </c>
       <c r="AM17" s="41">
         <f t="shared" si="1"/>
-        <v>2.6640625</v>
+        <v>2.6764705882352939</v>
       </c>
     </row>
     <row r="18" spans="1:39">
@@ -9464,7 +9466,9 @@
       <c r="R18" s="1">
         <v>2</v>
       </c>
-      <c r="S18" s="3"/>
+      <c r="S18" s="3">
+        <v>1</v>
+      </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="44"/>
@@ -9484,15 +9488,15 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.4117647058823528</v>
       </c>
       <c r="AM18" s="41">
         <f t="shared" si="1"/>
-        <v>0.3125</v>
+        <v>0.3014705882352941</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -9516,7 +9520,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I19" s="1">
         <v>9</v>
@@ -9548,7 +9552,9 @@
       <c r="R19" s="1">
         <v>6</v>
       </c>
-      <c r="S19" s="3"/>
+      <c r="S19" s="3">
+        <v>4</v>
+      </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="44"/>
@@ -9568,15 +9574,15 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="3"/>
-        <v>5.6875</v>
+        <v>5.6470588235294121</v>
       </c>
       <c r="AM19" s="41">
         <f t="shared" si="1"/>
-        <v>0.7109375</v>
+        <v>0.70588235294117652</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -9632,7 +9638,9 @@
       <c r="R20" s="1">
         <v>6</v>
       </c>
-      <c r="S20" s="3"/>
+      <c r="S20" s="3">
+        <v>4</v>
+      </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="44"/>
@@ -9652,15 +9660,15 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="3"/>
-        <v>3.4375</v>
+        <v>3.4705882352941178</v>
       </c>
       <c r="AM20" s="41">
         <f t="shared" si="1"/>
-        <v>0.4296875</v>
+        <v>0.43382352941176472</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -3117,7 +3117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5881,8 +5881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7354,7 +7354,9 @@
       <c r="P17" s="44">
         <v>18</v>
       </c>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="1">
+        <v>27</v>
+      </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -7372,15 +7374,15 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>23.857142857142858</v>
+        <v>24.066666666666666</v>
       </c>
       <c r="AI17" s="41">
         <f>AH17/9</f>
-        <v>2.6507936507936507</v>
+        <v>2.674074074074074</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -7430,7 +7432,9 @@
       <c r="P18" s="44">
         <v>4</v>
       </c>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -7448,15 +7452,15 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.7142857142857144</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AI18" s="41">
         <f>AH18/9</f>
-        <v>0.30158730158730163</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -7506,7 +7510,9 @@
       <c r="P19" s="44">
         <v>5</v>
       </c>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="1">
+        <v>3</v>
+      </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -7524,15 +7530,15 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.6428571428571432</v>
+        <v>4.5333333333333332</v>
       </c>
       <c r="AI19" s="41">
         <f>AH19/9</f>
-        <v>0.51587301587301593</v>
+        <v>0.50370370370370365</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -7582,7 +7588,9 @@
       <c r="P20" s="44">
         <v>3</v>
       </c>
-      <c r="Q20" s="44"/>
+      <c r="Q20" s="44">
+        <v>5</v>
+      </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -7600,15 +7608,15 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>3.8571428571428572</v>
+        <v>3.9333333333333331</v>
       </c>
       <c r="AI20" s="41">
         <f>AH20/9</f>
-        <v>0.4285714285714286</v>
+        <v>0.437037037037037</v>
       </c>
     </row>
   </sheetData>
@@ -7744,8 +7752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9381,9 +9389,11 @@
         <v>20</v>
       </c>
       <c r="S17" s="3">
-        <v>22</v>
-      </c>
-      <c r="T17" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="T17" s="1">
+        <v>20</v>
+      </c>
       <c r="U17" s="1"/>
       <c r="V17" s="44"/>
       <c r="W17" s="1"/>
@@ -9402,15 +9412,15 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="3">AK17/COUNT(C17:AJ17)</f>
-        <v>21.411764705882351</v>
+        <v>21.666666666666668</v>
       </c>
       <c r="AM17" s="41">
         <f t="shared" si="1"/>
-        <v>2.6764705882352939</v>
+        <v>2.7083333333333335</v>
       </c>
     </row>
     <row r="18" spans="1:39">
@@ -9469,7 +9479,9 @@
       <c r="S18" s="3">
         <v>1</v>
       </c>
-      <c r="T18" s="1"/>
+      <c r="T18" s="1">
+        <v>2</v>
+      </c>
       <c r="U18" s="1"/>
       <c r="V18" s="44"/>
       <c r="W18" s="1"/>
@@ -9488,15 +9500,15 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="3"/>
-        <v>2.4117647058823528</v>
+        <v>2.3888888888888888</v>
       </c>
       <c r="AM18" s="41">
         <f t="shared" si="1"/>
-        <v>0.3014705882352941</v>
+        <v>0.2986111111111111</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -9553,9 +9565,11 @@
         <v>6</v>
       </c>
       <c r="S19" s="3">
-        <v>4</v>
-      </c>
-      <c r="T19" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="T19" s="1">
+        <v>7</v>
+      </c>
       <c r="U19" s="1"/>
       <c r="V19" s="44"/>
       <c r="W19" s="1"/>
@@ -9574,15 +9588,15 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="3"/>
-        <v>5.6470588235294121</v>
+        <v>5.7777777777777777</v>
       </c>
       <c r="AM19" s="41">
         <f t="shared" si="1"/>
-        <v>0.70588235294117652</v>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -9639,9 +9653,11 @@
         <v>6</v>
       </c>
       <c r="S20" s="3">
-        <v>4</v>
-      </c>
-      <c r="T20" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="T20" s="1">
+        <v>5</v>
+      </c>
       <c r="U20" s="1"/>
       <c r="V20" s="44"/>
       <c r="W20" s="1"/>
@@ -9660,15 +9676,15 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="3"/>
-        <v>3.4705882352941178</v>
+        <v>3.6111111111111112</v>
       </c>
       <c r="AM20" s="41">
         <f t="shared" si="1"/>
-        <v>0.43382352941176472</v>
+        <v>0.4513888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -3117,7 +3117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5881,8 +5881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7357,7 +7357,9 @@
       <c r="Q17" s="1">
         <v>27</v>
       </c>
-      <c r="R17" s="1"/>
+      <c r="R17" s="1">
+        <v>26</v>
+      </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -7374,15 +7376,15 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>24.066666666666666</v>
+        <v>24.1875</v>
       </c>
       <c r="AI17" s="41">
         <f>AH17/9</f>
-        <v>2.674074074074074</v>
+        <v>2.6875</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -7435,7 +7437,9 @@
       <c r="Q18" s="1">
         <v>2</v>
       </c>
-      <c r="R18" s="1"/>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -7456,11 +7460,11 @@
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.6666666666666665</v>
+        <v>2.5</v>
       </c>
       <c r="AI18" s="41">
         <f>AH18/9</f>
-        <v>0.29629629629629628</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -7513,7 +7517,9 @@
       <c r="Q19" s="1">
         <v>3</v>
       </c>
-      <c r="R19" s="1"/>
+      <c r="R19" s="1">
+        <v>4</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -7530,15 +7536,15 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.5333333333333332</v>
+        <v>4.5</v>
       </c>
       <c r="AI19" s="41">
         <f>AH19/9</f>
-        <v>0.50370370370370365</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -7591,7 +7597,9 @@
       <c r="Q20" s="44">
         <v>5</v>
       </c>
-      <c r="R20" s="1"/>
+      <c r="R20" s="1">
+        <v>7</v>
+      </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -7608,15 +7616,15 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>3.9333333333333331</v>
+        <v>4.125</v>
       </c>
       <c r="AI20" s="41">
         <f>AH20/9</f>
-        <v>0.437037037037037</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -7753,7 +7761,7 @@
   <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9365,7 +9373,7 @@
         <v>27</v>
       </c>
       <c r="K17" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L17" s="1">
         <v>21</v>
@@ -9374,7 +9382,7 @@
         <v>25</v>
       </c>
       <c r="N17" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O17" s="1">
         <v>20</v>
@@ -9392,9 +9400,11 @@
         <v>28</v>
       </c>
       <c r="T17" s="1">
-        <v>20</v>
-      </c>
-      <c r="U17" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="U17" s="1">
+        <v>23</v>
+      </c>
       <c r="V17" s="44"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -9412,15 +9422,15 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="3">AK17/COUNT(C17:AJ17)</f>
-        <v>21.666666666666668</v>
+        <v>22.105263157894736</v>
       </c>
       <c r="AM17" s="41">
         <f t="shared" si="1"/>
-        <v>2.7083333333333335</v>
+        <v>2.763157894736842</v>
       </c>
     </row>
     <row r="18" spans="1:39">
@@ -9480,9 +9490,11 @@
         <v>1</v>
       </c>
       <c r="T18" s="1">
-        <v>2</v>
-      </c>
-      <c r="U18" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="U18" s="1">
+        <v>3</v>
+      </c>
       <c r="V18" s="44"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -9500,15 +9512,15 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="3"/>
-        <v>2.3888888888888888</v>
+        <v>2.4736842105263159</v>
       </c>
       <c r="AM18" s="41">
         <f t="shared" si="1"/>
-        <v>0.2986111111111111</v>
+        <v>0.30921052631578949</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -9541,7 +9553,7 @@
         <v>4</v>
       </c>
       <c r="K19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" s="1">
         <v>9</v>
@@ -9550,7 +9562,7 @@
         <v>5</v>
       </c>
       <c r="N19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O19" s="1">
         <v>8</v>
@@ -9570,7 +9582,9 @@
       <c r="T19" s="1">
         <v>7</v>
       </c>
-      <c r="U19" s="1"/>
+      <c r="U19" s="1">
+        <v>4</v>
+      </c>
       <c r="V19" s="44"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -9588,15 +9602,15 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="3"/>
-        <v>5.7777777777777777</v>
+        <v>5.7894736842105265</v>
       </c>
       <c r="AM19" s="41">
         <f t="shared" si="1"/>
-        <v>0.72222222222222221</v>
+        <v>0.72368421052631582</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -9638,7 +9652,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" s="1">
         <v>5</v>
@@ -9658,7 +9672,9 @@
       <c r="T20" s="1">
         <v>5</v>
       </c>
-      <c r="U20" s="1"/>
+      <c r="U20" s="1">
+        <v>3</v>
+      </c>
       <c r="V20" s="44"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -9676,15 +9692,15 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="3"/>
-        <v>3.6111111111111112</v>
+        <v>3.6315789473684212</v>
       </c>
       <c r="AM20" s="41">
         <f t="shared" si="1"/>
-        <v>0.4513888888888889</v>
+        <v>0.45394736842105265</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -3117,7 +3117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5881,8 +5881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7360,7 +7360,9 @@
       <c r="R17" s="1">
         <v>26</v>
       </c>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1">
+        <v>26</v>
+      </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="44"/>
@@ -7376,15 +7378,15 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>24.1875</v>
+        <v>24.294117647058822</v>
       </c>
       <c r="AI17" s="41">
         <f>AH17/9</f>
-        <v>2.6875</v>
+        <v>2.6993464052287579</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -7440,7 +7442,9 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="1"/>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="44"/>
@@ -7456,15 +7460,15 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.5</v>
+        <v>2.4117647058823528</v>
       </c>
       <c r="AI18" s="41">
         <f>AH18/9</f>
-        <v>0.27777777777777779</v>
+        <v>0.26797385620915032</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -7520,7 +7524,9 @@
       <c r="R19" s="1">
         <v>4</v>
       </c>
-      <c r="S19" s="1"/>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="44"/>
@@ -7536,15 +7542,15 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.5</v>
+        <v>4.2941176470588234</v>
       </c>
       <c r="AI19" s="41">
         <f>AH19/9</f>
-        <v>0.5</v>
+        <v>0.47712418300653592</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -7600,7 +7606,9 @@
       <c r="R20" s="1">
         <v>7</v>
       </c>
-      <c r="S20" s="1"/>
+      <c r="S20" s="1">
+        <v>4</v>
+      </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="44"/>
@@ -7616,15 +7624,15 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>4.125</v>
+        <v>4.117647058823529</v>
       </c>
       <c r="AI20" s="41">
         <f>AH20/9</f>
-        <v>0.45833333333333331</v>
+        <v>0.45751633986928097</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1293,8 +1298,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2905,7 +2910,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2940,7 +2945,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3117,44 +3122,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="H3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -3210,7 +3215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>21</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
@@ -3328,7 +3333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
@@ -3387,7 +3392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>24</v>
       </c>
@@ -3446,7 +3451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>25</v>
       </c>
@@ -3505,7 +3510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -3582,7 +3587,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3601,7 +3606,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3622,7 +3627,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -3678,7 +3683,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>157</v>
@@ -3732,7 +3737,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>160</v>
@@ -3786,7 +3791,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>156</v>
@@ -3836,7 +3841,7 @@
       </c>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>122</v>
@@ -3886,7 +3891,7 @@
       </c>
       <c r="S14" s="33"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>77</v>
@@ -3930,7 +3935,7 @@
       </c>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>159</v>
@@ -3967,7 +3972,7 @@
       <c r="Q16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>158</v>
@@ -4003,7 +4008,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="37"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>110</v>
@@ -4033,7 +4038,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34" t="s">
         <v>145</v>
@@ -4055,7 +4060,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4074,7 +4079,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4093,7 +4098,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4111,7 +4116,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4132,7 +4137,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -4191,7 +4196,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>182</v>
@@ -4248,7 +4253,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>183</v>
@@ -4299,7 +4304,7 @@
       </c>
       <c r="S26" s="33"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>184</v>
@@ -4341,7 +4346,7 @@
       </c>
       <c r="S27" s="33"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>185</v>
@@ -4375,7 +4380,7 @@
       </c>
       <c r="S28" s="33"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -4403,7 +4408,7 @@
       </c>
       <c r="S29" s="33"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4424,7 +4429,7 @@
       </c>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4443,7 +4448,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4462,7 +4467,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1">
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4508,37 +4513,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -4653,7 +4658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4712,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
@@ -4771,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -4830,7 +4835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -4889,7 +4894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -4966,7 +4971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4987,7 +4992,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -5008,7 +5013,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -5067,7 +5072,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>388</v>
@@ -5122,7 +5127,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>74</v>
@@ -5175,7 +5180,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>259</v>
@@ -5220,7 +5225,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="36" t="s">
         <v>258</v>
@@ -5265,7 +5270,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>257</v>
@@ -5302,7 +5307,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>269</v>
@@ -5333,7 +5338,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="34" t="s">
         <v>390</v>
@@ -5360,7 +5365,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -5385,7 +5390,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -5407,7 +5412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -5430,7 +5435,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5453,7 +5458,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5473,7 +5478,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5494,7 +5499,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -5553,7 +5558,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="74" t="s">
         <v>300</v>
@@ -5610,7 +5615,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>301</v>
@@ -5657,7 +5662,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>302</v>
@@ -5695,7 +5700,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="74" t="s">
@@ -5732,7 +5737,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="74" t="s">
@@ -5763,7 +5768,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="74" t="s">
@@ -5792,7 +5797,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5813,7 +5818,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -5832,7 +5837,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1">
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -5878,20 +5883,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5992,7 +5997,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -6102,7 +6107,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6210,7 +6215,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -6318,7 +6323,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -6426,11 +6431,11 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
       <c r="AI6" s="41"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -6540,7 +6545,7 @@
         <v>2.5874999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6648,7 +6653,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -6756,7 +6761,7 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -6864,11 +6869,11 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
       <c r="AI11" s="41"/>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -6978,7 +6983,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7086,7 +7091,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -7194,7 +7199,7 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -7302,10 +7307,10 @@
         <v>0.40833333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AI16" s="41"/>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -7319,13 +7324,13 @@
         <v>27</v>
       </c>
       <c r="E17" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1">
         <v>29</v>
       </c>
       <c r="G17" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H17" s="1">
         <v>21</v>
@@ -7361,9 +7366,11 @@
         <v>26</v>
       </c>
       <c r="S17" s="1">
-        <v>26</v>
-      </c>
-      <c r="T17" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="T17" s="1">
+        <v>21</v>
+      </c>
       <c r="U17" s="1"/>
       <c r="V17" s="44"/>
       <c r="W17" s="1"/>
@@ -7378,18 +7385,18 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>24.294117647058822</v>
+        <v>24.722222222222221</v>
       </c>
       <c r="AI17" s="41">
         <f>AH17/9</f>
-        <v>2.6993464052287579</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35">
+        <v>2.7469135802469133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -7443,9 +7450,11 @@
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
-      </c>
-      <c r="T18" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
       <c r="U18" s="1"/>
       <c r="V18" s="44"/>
       <c r="W18" s="1"/>
@@ -7460,18 +7469,18 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.4117647058823528</v>
+        <v>2.3888888888888888</v>
       </c>
       <c r="AI18" s="41">
         <f>AH18/9</f>
-        <v>0.26797385620915032</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35">
+        <v>0.26543209876543211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -7483,7 +7492,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1">
         <v>5</v>
@@ -7527,7 +7536,9 @@
       <c r="S19" s="1">
         <v>1</v>
       </c>
-      <c r="T19" s="1"/>
+      <c r="T19" s="1">
+        <v>4</v>
+      </c>
       <c r="U19" s="1"/>
       <c r="V19" s="44"/>
       <c r="W19" s="1"/>
@@ -7542,18 +7553,18 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.2941176470588234</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="AI19" s="41">
         <f>AH19/9</f>
-        <v>0.47712418300653592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35">
+        <v>0.48148148148148145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -7565,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
@@ -7609,7 +7620,9 @@
       <c r="S20" s="1">
         <v>4</v>
       </c>
-      <c r="T20" s="1"/>
+      <c r="T20" s="1">
+        <v>6</v>
+      </c>
       <c r="U20" s="1"/>
       <c r="V20" s="44"/>
       <c r="W20" s="1"/>
@@ -7624,15 +7637,15 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>4.117647058823529</v>
+        <v>4.2777777777777777</v>
       </c>
       <c r="AI20" s="41">
         <f>AH20/9</f>
-        <v>0.45751633986928097</v>
+        <v>0.47530864197530864</v>
       </c>
     </row>
   </sheetData>
@@ -7765,21 +7778,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -7892,7 +7905,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -8014,7 +8027,7 @@
         <v>2.5032679738562091</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -8134,7 +8147,7 @@
         <v>0.33455882352941174</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -8254,7 +8267,7 @@
         <v>0.6654411764705882</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -8374,11 +8387,11 @@
         <v>0.45588235294117646</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
       <c r="AM6" s="41"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -8500,7 +8513,7 @@
         <v>2.9779411764705883</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -8620,7 +8633,7 @@
         <v>0.2610294117647059</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8740,7 +8753,7 @@
         <v>0.60661764705882348</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -8860,11 +8873,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
       <c r="AM11" s="41"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -8986,7 +8999,7 @@
         <v>2.6213235294117645</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -9106,7 +9119,7 @@
         <v>0.28308823529411764</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -9226,7 +9239,7 @@
         <v>0.75367647058823528</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -9346,10 +9359,10 @@
         <v>0.48529411764705882</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AM16" s="41"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -9441,7 +9454,7 @@
         <v>2.763157894736842</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -9531,7 +9544,7 @@
         <v>0.30921052631578949</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -9621,7 +9634,7 @@
         <v>0.72368421052631582</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1298,8 +1293,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2910,7 +2905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2945,7 +2940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3122,44 +3117,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="H3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -3215,7 +3210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="45" t="s">
         <v>21</v>
       </c>
@@ -3274,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
@@ -3333,7 +3328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
@@ -3392,7 +3387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="57" t="s">
         <v>24</v>
       </c>
@@ -3451,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="61" t="s">
         <v>25</v>
       </c>
@@ -3510,7 +3505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -3587,7 +3582,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3606,7 +3601,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3627,7 +3622,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -3683,7 +3678,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>157</v>
@@ -3737,7 +3732,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>160</v>
@@ -3791,7 +3786,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>156</v>
@@ -3841,7 +3836,7 @@
       </c>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>122</v>
@@ -3891,7 +3886,7 @@
       </c>
       <c r="S14" s="33"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>77</v>
@@ -3935,7 +3930,7 @@
       </c>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>159</v>
@@ -3972,7 +3967,7 @@
       <c r="Q16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>158</v>
@@ -4008,7 +4003,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="37"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>110</v>
@@ -4038,7 +4033,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34" t="s">
         <v>145</v>
@@ -4060,7 +4055,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4079,7 +4074,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4098,7 +4093,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4116,7 +4111,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4137,7 +4132,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -4196,7 +4191,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>182</v>
@@ -4253,7 +4248,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>183</v>
@@ -4304,7 +4299,7 @@
       </c>
       <c r="S26" s="33"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>184</v>
@@ -4346,7 +4341,7 @@
       </c>
       <c r="S27" s="33"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>185</v>
@@ -4380,7 +4375,7 @@
       </c>
       <c r="S28" s="33"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -4408,7 +4403,7 @@
       </c>
       <c r="S29" s="33"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4429,7 +4424,7 @@
       </c>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4448,7 +4443,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4467,7 +4462,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4513,37 +4508,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -4599,7 +4594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -4658,7 +4653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4717,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
@@ -4776,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -4835,7 +4830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -4894,7 +4889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -4971,7 +4966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4992,7 +4987,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -5013,7 +5008,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -5072,7 +5067,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>388</v>
@@ -5127,7 +5122,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>74</v>
@@ -5180,7 +5175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>259</v>
@@ -5225,7 +5220,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="36" t="s">
         <v>258</v>
@@ -5270,7 +5265,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>257</v>
@@ -5307,7 +5302,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>269</v>
@@ -5338,7 +5333,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="34" t="s">
         <v>390</v>
@@ -5365,7 +5360,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -5390,7 +5385,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -5412,7 +5407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -5435,7 +5430,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5458,7 +5453,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5478,7 +5473,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5499,7 +5494,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -5558,7 +5553,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="35"/>
       <c r="B25" s="74" t="s">
         <v>300</v>
@@ -5615,7 +5610,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>301</v>
@@ -5662,7 +5657,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>302</v>
@@ -5700,7 +5695,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="74" t="s">
@@ -5737,7 +5732,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="74" t="s">
@@ -5768,7 +5763,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="74" t="s">
@@ -5797,7 +5792,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5818,7 +5813,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -5837,7 +5832,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15" thickBot="1">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -5883,20 +5878,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5997,7 +5992,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -6107,7 +6102,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6215,7 +6210,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -6323,7 +6318,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -6431,11 +6426,11 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35">
       <c r="AH6" s="42"/>
       <c r="AI6" s="41"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -6545,7 +6540,7 @@
         <v>2.5874999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6653,7 +6648,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -6761,7 +6756,7 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -6869,11 +6864,11 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35">
       <c r="AH11" s="42"/>
       <c r="AI11" s="41"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -6983,7 +6978,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7091,7 +7086,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -7199,7 +7194,7 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -7307,10 +7302,10 @@
         <v>0.40833333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35">
       <c r="AI16" s="41"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -7371,7 +7366,9 @@
       <c r="T17" s="1">
         <v>21</v>
       </c>
-      <c r="U17" s="1"/>
+      <c r="U17" s="1">
+        <v>24</v>
+      </c>
       <c r="V17" s="44"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -7385,18 +7382,18 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>24.722222222222221</v>
+        <v>24.684210526315791</v>
       </c>
       <c r="AI17" s="41">
         <f>AH17/9</f>
-        <v>2.7469135802469133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+        <v>2.7426900584795324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -7455,7 +7452,9 @@
       <c r="T18" s="1">
         <v>1</v>
       </c>
-      <c r="U18" s="1"/>
+      <c r="U18" s="1">
+        <v>2</v>
+      </c>
       <c r="V18" s="44"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -7469,18 +7468,18 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.3888888888888888</v>
+        <v>2.3684210526315788</v>
       </c>
       <c r="AI18" s="41">
         <f>AH18/9</f>
-        <v>0.26543209876543211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -7539,7 +7538,9 @@
       <c r="T19" s="1">
         <v>4</v>
       </c>
-      <c r="U19" s="1"/>
+      <c r="U19" s="1">
+        <v>5</v>
+      </c>
       <c r="V19" s="44"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -7553,18 +7554,18 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.333333333333333</v>
+        <v>4.3684210526315788</v>
       </c>
       <c r="AI19" s="41">
         <f>AH19/9</f>
-        <v>0.48148148148148145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+        <v>0.4853801169590643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -7623,7 +7624,9 @@
       <c r="T20" s="1">
         <v>6</v>
       </c>
-      <c r="U20" s="1"/>
+      <c r="U20" s="1">
+        <v>5</v>
+      </c>
       <c r="V20" s="44"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -7637,15 +7640,15 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>4.2777777777777777</v>
+        <v>4.3157894736842106</v>
       </c>
       <c r="AI20" s="41">
         <f>AH20/9</f>
-        <v>0.47530864197530864</v>
+        <v>0.47953216374269009</v>
       </c>
     </row>
   </sheetData>
@@ -7778,21 +7781,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -7905,7 +7908,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -8027,7 +8030,7 @@
         <v>2.5032679738562091</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -8147,7 +8150,7 @@
         <v>0.33455882352941174</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -8267,7 +8270,7 @@
         <v>0.6654411764705882</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -8387,11 +8390,11 @@
         <v>0.45588235294117646</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39">
       <c r="AL6" s="41"/>
       <c r="AM6" s="41"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -8513,7 +8516,7 @@
         <v>2.9779411764705883</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -8633,7 +8636,7 @@
         <v>0.2610294117647059</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8753,7 +8756,7 @@
         <v>0.60661764705882348</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -8873,11 +8876,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39">
       <c r="AL11" s="41"/>
       <c r="AM11" s="41"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -8999,7 +9002,7 @@
         <v>2.6213235294117645</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -9119,7 +9122,7 @@
         <v>0.28308823529411764</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -9239,7 +9242,7 @@
         <v>0.75367647058823528</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -9359,10 +9362,10 @@
         <v>0.48529411764705882</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39">
       <c r="AM16" s="41"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -9454,7 +9457,7 @@
         <v>2.763157894736842</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -9544,7 +9547,7 @@
         <v>0.30921052631578949</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -9634,7 +9637,7 @@
         <v>0.72368421052631582</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1293,8 +1298,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2905,7 +2910,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2940,7 +2945,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3117,44 +3122,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="H3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -3210,7 +3215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>21</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
@@ -3328,7 +3333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
@@ -3387,7 +3392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>24</v>
       </c>
@@ -3446,7 +3451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>25</v>
       </c>
@@ -3505,7 +3510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -3582,7 +3587,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3601,7 +3606,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3622,7 +3627,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -3678,7 +3683,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>157</v>
@@ -3732,7 +3737,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>160</v>
@@ -3786,7 +3791,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>156</v>
@@ -3836,7 +3841,7 @@
       </c>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>122</v>
@@ -3886,7 +3891,7 @@
       </c>
       <c r="S14" s="33"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>77</v>
@@ -3930,7 +3935,7 @@
       </c>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>159</v>
@@ -3967,7 +3972,7 @@
       <c r="Q16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>158</v>
@@ -4003,7 +4008,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="37"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>110</v>
@@ -4033,7 +4038,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34" t="s">
         <v>145</v>
@@ -4055,7 +4060,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4074,7 +4079,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4093,7 +4098,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4111,7 +4116,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4132,7 +4137,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -4191,7 +4196,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>182</v>
@@ -4248,7 +4253,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>183</v>
@@ -4299,7 +4304,7 @@
       </c>
       <c r="S26" s="33"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>184</v>
@@ -4341,7 +4346,7 @@
       </c>
       <c r="S27" s="33"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>185</v>
@@ -4375,7 +4380,7 @@
       </c>
       <c r="S28" s="33"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -4403,7 +4408,7 @@
       </c>
       <c r="S29" s="33"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4424,7 +4429,7 @@
       </c>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4443,7 +4448,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4462,7 +4467,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1">
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4508,37 +4513,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -4653,7 +4658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4712,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
@@ -4771,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -4830,7 +4835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -4889,7 +4894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -4966,7 +4971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4987,7 +4992,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -5008,7 +5013,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -5067,7 +5072,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>388</v>
@@ -5122,7 +5127,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>74</v>
@@ -5175,7 +5180,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>259</v>
@@ -5220,7 +5225,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="36" t="s">
         <v>258</v>
@@ -5265,7 +5270,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>257</v>
@@ -5302,7 +5307,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>269</v>
@@ -5333,7 +5338,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="34" t="s">
         <v>390</v>
@@ -5360,7 +5365,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -5385,7 +5390,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -5407,7 +5412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -5430,7 +5435,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5453,7 +5458,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5473,7 +5478,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -5494,7 +5499,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -5553,7 +5558,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="74" t="s">
         <v>300</v>
@@ -5610,7 +5615,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>301</v>
@@ -5657,7 +5662,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>302</v>
@@ -5695,7 +5700,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="74" t="s">
@@ -5732,7 +5737,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="74" t="s">
@@ -5763,7 +5768,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="74" t="s">
@@ -5792,7 +5797,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5813,7 +5818,7 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -5832,7 +5837,7 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1">
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -5878,20 +5883,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -5992,7 +5997,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -6102,7 +6107,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -6210,7 +6215,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -6318,7 +6323,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -6426,11 +6431,11 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AH6" s="42"/>
       <c r="AI6" s="41"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -6540,7 +6545,7 @@
         <v>2.5874999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -6648,7 +6653,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -6756,7 +6761,7 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -6864,11 +6869,11 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AH11" s="42"/>
       <c r="AI11" s="41"/>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -6978,7 +6983,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -7086,7 +7091,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -7194,7 +7199,7 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -7302,10 +7307,10 @@
         <v>0.40833333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AI16" s="41"/>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -7369,7 +7374,9 @@
       <c r="U17" s="1">
         <v>24</v>
       </c>
-      <c r="V17" s="44"/>
+      <c r="V17" s="44">
+        <v>26</v>
+      </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -7382,18 +7389,18 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>24.684210526315791</v>
+        <v>24.75</v>
       </c>
       <c r="AI17" s="41">
         <f>AH17/9</f>
-        <v>2.7426900584795324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -7455,7 +7462,9 @@
       <c r="U18" s="1">
         <v>2</v>
       </c>
-      <c r="V18" s="44"/>
+      <c r="V18" s="44">
+        <v>2</v>
+      </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -7468,18 +7477,18 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.3684210526315788</v>
+        <v>2.35</v>
       </c>
       <c r="AI18" s="41">
         <f>AH18/9</f>
-        <v>0.26315789473684209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35">
+        <v>0.26111111111111113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -7541,7 +7550,9 @@
       <c r="U19" s="1">
         <v>5</v>
       </c>
-      <c r="V19" s="44"/>
+      <c r="V19" s="44">
+        <v>3</v>
+      </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -7554,18 +7565,18 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.3684210526315788</v>
+        <v>4.3</v>
       </c>
       <c r="AI19" s="41">
         <f>AH19/9</f>
-        <v>0.4853801169590643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35">
+        <v>0.47777777777777775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>
@@ -7627,7 +7638,9 @@
       <c r="U20" s="1">
         <v>5</v>
       </c>
-      <c r="V20" s="44"/>
+      <c r="V20" s="44">
+        <v>3</v>
+      </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -7640,15 +7653,15 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>4.3157894736842106</v>
+        <v>4.25</v>
       </c>
       <c r="AI20" s="41">
         <f>AH20/9</f>
-        <v>0.47953216374269009</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
   </sheetData>
@@ -7781,21 +7794,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
         <v>1</v>
       </c>
@@ -7908,7 +7921,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
@@ -8030,7 +8043,7 @@
         <v>2.5032679738562091</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -8150,7 +8163,7 @@
         <v>0.33455882352941174</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -8270,7 +8283,7 @@
         <v>0.6654411764705882</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" t="s">
         <v>20</v>
@@ -8390,11 +8403,11 @@
         <v>0.45588235294117646</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AL6" s="41"/>
       <c r="AM6" s="41"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
@@ -8516,7 +8529,7 @@
         <v>2.9779411764705883</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -8636,7 +8649,7 @@
         <v>0.2610294117647059</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8756,7 +8769,7 @@
         <v>0.60661764705882348</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
         <v>20</v>
@@ -8876,11 +8889,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AL11" s="41"/>
       <c r="AM11" s="41"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>55</v>
       </c>
@@ -9002,7 +9015,7 @@
         <v>2.6213235294117645</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -9122,7 +9135,7 @@
         <v>0.28308823529411764</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -9242,7 +9255,7 @@
         <v>0.75367647058823528</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" t="s">
         <v>20</v>
@@ -9362,10 +9375,10 @@
         <v>0.48529411764705882</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AM16" s="41"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
         <v>249</v>
       </c>
@@ -9457,7 +9470,7 @@
         <v>2.763157894736842</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>1</v>
@@ -9547,7 +9560,7 @@
         <v>0.30921052631578949</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -9637,7 +9650,7 @@
         <v>0.72368421052631582</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
       <c r="B20" t="s">
         <v>20</v>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -5887,7 +5887,7 @@
   <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7377,7 +7377,9 @@
       <c r="V17" s="44">
         <v>26</v>
       </c>
-      <c r="W17" s="1"/>
+      <c r="W17" s="1">
+        <v>20</v>
+      </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
@@ -7389,15 +7391,15 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
         <f>SUM(C17:AF17)</f>
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="AH17" s="41">
         <f>AG17/COUNT(C17:AF17)</f>
-        <v>24.75</v>
+        <v>24.523809523809526</v>
       </c>
       <c r="AI17" s="41">
         <f>AH17/9</f>
-        <v>2.75</v>
+        <v>2.7248677248677251</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
@@ -7465,7 +7467,9 @@
       <c r="V18" s="44">
         <v>2</v>
       </c>
-      <c r="W18" s="1"/>
+      <c r="W18" s="1">
+        <v>1</v>
+      </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -7477,15 +7481,15 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
         <f>SUM(C18:AF18)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH18" s="41">
         <f>AG18/COUNT(C18:AF18)</f>
-        <v>2.35</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AI18" s="41">
         <f>AH18/9</f>
-        <v>0.26111111111111113</v>
+        <v>0.25396825396825395</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
@@ -7553,7 +7557,9 @@
       <c r="V19" s="44">
         <v>3</v>
       </c>
-      <c r="W19" s="1"/>
+      <c r="W19" s="1">
+        <v>6</v>
+      </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
@@ -7565,15 +7571,15 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
         <f>SUM(C19:AF19)</f>
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AH19" s="41">
         <f>AG19/COUNT(C19:AF19)</f>
-        <v>4.3</v>
+        <v>4.3809523809523814</v>
       </c>
       <c r="AI19" s="41">
         <f>AH19/9</f>
-        <v>0.47777777777777775</v>
+        <v>0.4867724867724868</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
@@ -7641,7 +7647,9 @@
       <c r="V20" s="44">
         <v>3</v>
       </c>
-      <c r="W20" s="1"/>
+      <c r="W20" s="1">
+        <v>3</v>
+      </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -7653,15 +7661,15 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
         <f>SUM(C20:AF20)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH20" s="41">
         <f>AG20/COUNT(C20:AF20)</f>
-        <v>4.25</v>
+        <v>4.1904761904761907</v>
       </c>
       <c r="AI20" s="41">
         <f>AH20/9</f>
-        <v>0.47222222222222221</v>
+        <v>0.46560846560846564</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -5886,8 +5886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7805,8 +7805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9450,7 +9450,9 @@
       <c r="U17" s="1">
         <v>23</v>
       </c>
-      <c r="V17" s="44"/>
+      <c r="V17" s="44">
+        <v>22</v>
+      </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -9467,15 +9469,15 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f>SUM(C17:AJ17)</f>
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="AL17" s="41">
         <f t="shared" ref="AL17:AL20" si="3">AK17/COUNT(C17:AJ17)</f>
-        <v>22.105263157894736</v>
+        <v>22.1</v>
       </c>
       <c r="AM17" s="41">
         <f t="shared" si="1"/>
-        <v>2.763157894736842</v>
+        <v>2.7625000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
@@ -9540,7 +9542,9 @@
       <c r="U18" s="1">
         <v>3</v>
       </c>
-      <c r="V18" s="44"/>
+      <c r="V18" s="44">
+        <v>1</v>
+      </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -9557,15 +9561,15 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f>SUM(C18:AJ18)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AL18" s="41">
         <f t="shared" si="3"/>
-        <v>2.4736842105263159</v>
+        <v>2.4</v>
       </c>
       <c r="AM18" s="41">
         <f t="shared" si="1"/>
-        <v>0.30921052631578949</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
@@ -9630,7 +9634,9 @@
       <c r="U19" s="1">
         <v>4</v>
       </c>
-      <c r="V19" s="44"/>
+      <c r="V19" s="44">
+        <v>7</v>
+      </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -9647,15 +9653,15 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f>SUM(C19:AJ19)</f>
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AL19" s="41">
         <f t="shared" si="3"/>
-        <v>5.7894736842105265</v>
+        <v>5.85</v>
       </c>
       <c r="AM19" s="41">
         <f t="shared" si="1"/>
-        <v>0.72368421052631582</v>
+        <v>0.73124999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
@@ -9720,7 +9726,9 @@
       <c r="U20" s="1">
         <v>3</v>
       </c>
-      <c r="V20" s="44"/>
+      <c r="V20" s="44">
+        <v>3</v>
+      </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -9737,15 +9745,15 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f>SUM(C20:AJ20)</f>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL20" s="41">
         <f t="shared" si="3"/>
-        <v>3.6315789473684212</v>
+        <v>3.6</v>
       </c>
       <c r="AM20" s="41">
         <f t="shared" si="1"/>
-        <v>0.45394736842105265</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/Vademecum.xlsx
+++ b/Vademecum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Sezony Ekstra" sheetId="1" r:id="rId3"/>
     <sheet name="Sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1298,8 +1293,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2910,7 +2905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2945,7 +2940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3122,44 +3117,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="H3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -3215,7 +3210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="45" t="s">
         <v>21</v>
       </c>
@@ -3274,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
@@ -3333,7 +3328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
@@ -3392,7 +3387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1">
       <c r="A5" s="57" t="s">
         <v>24</v>
       </c>
@@ -3451,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="61" t="s">
         <v>25</v>
       </c>
@@ -3510,7 +3505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -3587,7 +3582,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3606,7 +3601,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3627,7 +3622,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -3683,7 +3678,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>157</v>
@@ -3737,7 +3732,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>160</v>
@@ -3791,7 +3786,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="35"/>
       <c r="B13" s="32" t="s">
         <v>156</v>
@@ -3841,7 +3836,7 @@
       </c>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>122</v>
@@ -3891,7 +3886,7 @@
       </c>
       <c r="S14" s="33"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>77</v>
@@ -3935,7 +3930,7 @@
       </c>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="31"/>
       <c r="B16" s="34" t="s">
         <v>159</v>
@@ -3972,7 +3967,7 @@
       <c r="Q16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>158</v>
@@ -4008,7 +4003,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="37"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>110</v>
@@ -4038,7 +4033,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="35"/>
       <c r="B19" s="34" t="s">
         <v>145</v>
@@ -4060,7 +4055,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -4079,7 +4074,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4098,7 +4093,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4116,7 +4111,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -4137,7 +4132,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
@@ -4196,7 +4191,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>182</v>
@@ -4253,7 +4248,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="35"/>
       <c r="B26" s="32" t="s">
         <v>183</v>
@@ -4304,7 +4299,7 @@
       </c>
       <c r="S26" s="33"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>184</v>
@@ -4346,7 +4341,7 @@
       </c>
       <c r="S27" s="33"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>185</v>
@@ -4380,7 +4375,7 @@
       </c>
       <c r="S28" s="33"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -4408,7 +4403,7 @@
       </c>
       <c r="S29" s="33"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="